--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -66,7 +66,10 @@
     <t>string types without baseType</t>
   </si>
   <si>
-    <t>Method params with bad or missing name</t>
+    <t>Method params with missing name</t>
+  </si>
+  <si>
+    <t>Method params with bad name</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,10 +447,11 @@
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,8 +503,11 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42856</v>
       </c>
@@ -550,10 +557,13 @@
         <v>84</v>
       </c>
       <c r="Q2">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42858</v>
       </c>
@@ -567,7 +577,7 @@
         <v>67</v>
       </c>
       <c r="E3">
-        <v>3064</v>
+        <v>3554</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -600,10 +610,69 @@
         <v>10</v>
       </c>
       <c r="P3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42859</v>
+      </c>
+      <c r="B4">
+        <v>229</v>
+      </c>
+      <c r="C4">
+        <v>309</v>
+      </c>
+      <c r="D4">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>3554</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>192</v>
+      </c>
+      <c r="H4">
+        <v>216</v>
+      </c>
+      <c r="I4">
+        <v>657</v>
+      </c>
+      <c r="J4">
+        <v>130</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>224</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>83</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -118,10 +118,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -424,17 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
@@ -673,6 +674,62 @@
       </c>
       <c r="R4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B5" s="3">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3">
+        <v>309</v>
+      </c>
+      <c r="D5" s="3">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3555</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>192</v>
+      </c>
+      <c r="H5" s="3">
+        <v>216</v>
+      </c>
+      <c r="I5" s="3">
+        <v>657</v>
+      </c>
+      <c r="J5" s="3">
+        <v>130</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>224</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>15</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -118,11 +118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -428,7 +427,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,59 +675,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42860</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>229</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>309</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>67</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>3555</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
-        <v>192</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5">
+        <v>202</v>
+      </c>
+      <c r="H5">
         <v>216</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>657</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>130</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
-        <v>224</v>
-      </c>
-      <c r="M5" s="3">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="L5">
+        <v>225</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
         <v>83</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5">
         <v>15</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5">
         <v>1</v>
       </c>
     </row>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +728,62 @@
         <v>15</v>
       </c>
       <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42861</v>
+      </c>
+      <c r="B6">
+        <v>229</v>
+      </c>
+      <c r="C6">
+        <v>309</v>
+      </c>
+      <c r="D6">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>3555</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>202</v>
+      </c>
+      <c r="H6">
+        <v>216</v>
+      </c>
+      <c r="I6">
+        <v>657</v>
+      </c>
+      <c r="J6">
+        <v>130</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>225</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>83</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
     </row>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="22995" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22995" windowHeight="9015" tabRatio="429"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -70,13 +70,28 @@
   </si>
   <si>
     <t>Method params with bad name</t>
+  </si>
+  <si>
+    <t>Method params missing type</t>
+  </si>
+  <si>
+    <t>Methods with required parameters after optional parameters</t>
+  </si>
+  <si>
+    <t>Setter Methods with paramter type that does not match the attribute type</t>
+  </si>
+  <si>
+    <t>Non-optional params with the word 'Optional' in the description</t>
+  </si>
+  <si>
+    <t>Getter Methods with return type that does not match the attribute type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +100,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -118,10 +141,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -424,371 +454,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:R6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="19" width="8.7109375" style="3"/>
+    <col min="20" max="20" width="17.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>42856</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>229</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>309</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>67</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>3064</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>192</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>216</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>657</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>130</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>224</v>
       </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="3">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="3">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3">
         <v>84</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>15</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>42858</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>229</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>309</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>67</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>3554</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>192</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>216</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>657</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>130</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>224</v>
       </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
+      <c r="O3" s="3">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3">
         <v>83</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>15</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>42859</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>229</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>309</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>67</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3554</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>192</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>216</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>657</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>130</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>224</v>
       </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3">
         <v>83</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>15</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>42860</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>229</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>309</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>67</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>3555</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>202</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>216</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>657</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>130</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>225</v>
       </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5">
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
         <v>83</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>15</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42861</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>229</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>309</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>67</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>3555</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>202</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>216</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>657</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>130</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>225</v>
       </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6">
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="3">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3">
         <v>83</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>15</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>7</v>
+      </c>
+      <c r="T6" s="3">
+        <v>7</v>
+      </c>
+      <c r="U6" s="3">
+        <v>88</v>
+      </c>
+      <c r="V6" s="3">
+        <v>19</v>
+      </c>
+      <c r="W6" s="3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -85,13 +85,43 @@
   </si>
   <si>
     <t>Getter Methods with return type that does not match the attribute type</t>
+  </si>
+  <si>
+    <t>Types Generated</t>
+  </si>
+  <si>
+    <t>Interfaces Generated</t>
+  </si>
+  <si>
+    <t>Objects Generated</t>
+  </si>
+  <si>
+    <t>Classes Generated</t>
+  </si>
+  <si>
+    <t>Generated Methods</t>
+  </si>
+  <si>
+    <t>Percentage of Types generated</t>
+  </si>
+  <si>
+    <t>Percentage of Interfaces generated</t>
+  </si>
+  <si>
+    <t>Percentage of Objects generated</t>
+  </si>
+  <si>
+    <t>Percentage of Classes generated</t>
+  </si>
+  <si>
+    <t>Percentage of Methods generated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +140,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,11 +174,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -152,10 +190,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,10 +512,20 @@
     <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="3" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="3"/>
+    <col min="24" max="24" width="12.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" style="5" customWidth="1"/>
+    <col min="31" max="31" width="15" style="5" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +595,38 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42856</v>
       </c>
@@ -597,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42858</v>
       </c>
@@ -653,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42859</v>
       </c>
@@ -709,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42860</v>
       </c>
@@ -765,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42861</v>
       </c>
@@ -834,6 +919,107 @@
       </c>
       <c r="W6" s="3">
         <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42864</v>
+      </c>
+      <c r="B7" s="3">
+        <v>229</v>
+      </c>
+      <c r="C7" s="3">
+        <v>309</v>
+      </c>
+      <c r="D7" s="3">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3555</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>202</v>
+      </c>
+      <c r="H7" s="3">
+        <v>216</v>
+      </c>
+      <c r="I7" s="3">
+        <v>657</v>
+      </c>
+      <c r="J7" s="3">
+        <v>130</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>225</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>15</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>7</v>
+      </c>
+      <c r="T7" s="3">
+        <v>7</v>
+      </c>
+      <c r="U7" s="3">
+        <v>88</v>
+      </c>
+      <c r="V7" s="3">
+        <v>19</v>
+      </c>
+      <c r="W7" s="3">
+        <v>42</v>
+      </c>
+      <c r="X7" s="3">
+        <v>229</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>77</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>353</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.37313429999999997</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.24919089999999999</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>9.9296759999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Classes Generated</t>
   </si>
   <si>
-    <t>Generated Methods</t>
-  </si>
-  <si>
     <t>Percentage of Types generated</t>
   </si>
   <si>
@@ -115,6 +112,24 @@
   </si>
   <si>
     <t>Percentage of Methods generated</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Attributes missing R flag</t>
+  </si>
+  <si>
+    <t>Object attributes marked with W flag</t>
+  </si>
+  <si>
+    <t>String values without reference</t>
+  </si>
+  <si>
+    <t>String values where reference is found</t>
+  </si>
+  <si>
+    <t>Methods Generated</t>
   </si>
 </sst>
 </file>
@@ -179,7 +194,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +210,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -499,33 +523,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="8.7109375" style="3"/>
-    <col min="20" max="20" width="17.5703125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" style="3"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="3"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="19" width="8.7109375" style="3"/>
+    <col min="20" max="20" width="11.7109375" style="3" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="3" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="3" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" style="3" customWidth="1"/>
     <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
     <col min="27" max="27" width="12.140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="3" customWidth="1"/>
     <col min="29" max="29" width="13.28515625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" style="5" customWidth="1"/>
-    <col min="31" max="31" width="15" style="5" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="5" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="8.7109375" style="3"/>
+    <col min="30" max="30" width="15.85546875" style="8" customWidth="1"/>
+    <col min="31" max="31" width="15" style="8" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="8" customWidth="1"/>
+    <col min="34" max="35" width="16.5703125" style="5" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" style="5" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" style="5" customWidth="1"/>
+    <col min="38" max="38" width="12.85546875" style="5" customWidth="1"/>
+    <col min="39" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,395 +565,430 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42856</v>
       </c>
       <c r="B2" s="3">
         <v>229</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>309</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>67</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>3064</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>192</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>216</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>657</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>130</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>224</v>
       </c>
-      <c r="M2" s="3">
-        <v>10</v>
-      </c>
       <c r="N2" s="3">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="3">
-        <v>10</v>
-      </c>
       <c r="P2" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3">
         <v>84</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>15</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>2</v>
       </c>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42858</v>
       </c>
       <c r="B3" s="3">
         <v>229</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>309</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>67</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>3554</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>192</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>216</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>657</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>130</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>224</v>
       </c>
-      <c r="M3" s="3">
-        <v>10</v>
-      </c>
       <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
-        <v>10</v>
-      </c>
       <c r="P3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3">
         <v>83</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>15</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>2</v>
       </c>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42859</v>
       </c>
       <c r="B4" s="3">
         <v>229</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>309</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>67</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>3554</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>192</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>216</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>657</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>130</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>224</v>
       </c>
-      <c r="M4" s="3">
-        <v>10</v>
-      </c>
       <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
-        <v>10</v>
-      </c>
       <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
         <v>83</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>15</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>2</v>
       </c>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42860</v>
       </c>
       <c r="B5" s="3">
         <v>229</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>309</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>67</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>3555</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>202</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>216</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>657</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>130</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>225</v>
       </c>
-      <c r="M5" s="3">
-        <v>10</v>
-      </c>
       <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
       <c r="P5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3">
         <v>83</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>15</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>1</v>
       </c>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42861</v>
       </c>
       <c r="B6" s="3">
         <v>229</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>309</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>67</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>3555</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>202</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>216</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>657</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>130</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>225</v>
       </c>
-      <c r="M6" s="3">
-        <v>10</v>
-      </c>
       <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="3">
-        <v>10</v>
-      </c>
       <c r="P6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3">
         <v>83</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>15</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>7</v>
       </c>
       <c r="T6" s="3">
         <v>7</v>
       </c>
       <c r="U6" s="3">
+        <v>7</v>
+      </c>
+      <c r="V6" s="3">
         <v>88</v>
       </c>
-      <c r="V6" s="3">
+      <c r="W6" s="3">
         <v>19</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>42</v>
       </c>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42864</v>
       </c>
@@ -929,96 +996,111 @@
         <v>229</v>
       </c>
       <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
         <v>309</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>67</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>3555</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>202</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>216</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>657</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>130</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>225</v>
       </c>
-      <c r="M7" s="3">
-        <v>10</v>
-      </c>
       <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="3">
-        <v>10</v>
-      </c>
       <c r="P7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3">
         <v>83</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>15</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>1</v>
-      </c>
-      <c r="S7" s="3">
-        <v>7</v>
       </c>
       <c r="T7" s="3">
         <v>7</v>
       </c>
       <c r="U7" s="3">
+        <v>7</v>
+      </c>
+      <c r="V7" s="3">
         <v>88</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>19</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>42</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>240</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>130</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
         <v>229</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AD7" s="8">
         <v>3</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AE7" s="8">
         <v>25</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AF7" s="8">
         <v>77</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AG7" s="8">
         <v>353</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AH7" s="5">
         <v>1</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AI7" s="5">
         <v>0.6</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AJ7" s="5">
         <v>0.37313429999999997</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AK7" s="5">
         <v>0.24919089999999999</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AL7" s="5">
         <v>9.9296759999999998E-2</v>
       </c>
     </row>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="22995" windowHeight="9015" tabRatio="429"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22995" windowHeight="8280" tabRatio="230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,15 +523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3"/>
     <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
     <col min="4" max="6" width="8.7109375" style="3"/>
     <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
@@ -1102,6 +1103,122 @@
       </c>
       <c r="AL7" s="5">
         <v>9.9296759999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42865</v>
+      </c>
+      <c r="B8" s="3">
+        <v>229</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>309</v>
+      </c>
+      <c r="E8" s="3">
+        <v>67</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3555</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>202</v>
+      </c>
+      <c r="I8" s="3">
+        <v>216</v>
+      </c>
+      <c r="J8" s="3">
+        <v>657</v>
+      </c>
+      <c r="K8" s="3">
+        <v>130</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>225</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>83</v>
+      </c>
+      <c r="R8" s="3">
+        <v>15</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>7</v>
+      </c>
+      <c r="U8" s="3">
+        <v>7</v>
+      </c>
+      <c r="V8" s="3">
+        <v>83</v>
+      </c>
+      <c r="W8" s="3">
+        <v>19</v>
+      </c>
+      <c r="X8" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>240</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>130</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>229</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>85</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>503</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0.44776120000000003</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0.27508090000000002</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>0.1414909</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,6 +1221,122 @@
         <v>0.1414909</v>
       </c>
     </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B9" s="3">
+        <v>229</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>309</v>
+      </c>
+      <c r="E9" s="3">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3555</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>202</v>
+      </c>
+      <c r="I9" s="3">
+        <v>216</v>
+      </c>
+      <c r="J9" s="3">
+        <v>657</v>
+      </c>
+      <c r="K9" s="3">
+        <v>130</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>225</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>83</v>
+      </c>
+      <c r="R9" s="3">
+        <v>15</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>7</v>
+      </c>
+      <c r="U9" s="3">
+        <v>7</v>
+      </c>
+      <c r="V9" s="3">
+        <v>83</v>
+      </c>
+      <c r="W9" s="3">
+        <v>19</v>
+      </c>
+      <c r="X9" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>240</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>130</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>229</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>30</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>85</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>503</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0.44776120000000003</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>0.27508090000000002</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>0.1414909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Methods Generated</t>
+  </si>
+  <si>
+    <t>OR specified as ' or '</t>
+  </si>
+  <si>
+    <t>OR specified as ' | '</t>
+  </si>
+  <si>
+    <t>OR specified as ' || '</t>
+  </si>
+  <si>
+    <t>OR specified as ', '</t>
   </si>
 </sst>
 </file>
@@ -194,31 +206,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -234,6 +255,371 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Types generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$7:$AL$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Interfaces generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$7:$AM$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Objects generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AN$7:$AN$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.37313429999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44776120000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Classes generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AO$7:$AO$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.24919089999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27508090000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Methods generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$7:$AP$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.9296759999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1414909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="102020992"/>
+        <c:axId val="102022528"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="102020992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102022528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="102022528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102020992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,823 +909,898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" style="3"/>
-    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8" max="19" width="8.7109375" style="3"/>
-    <col min="20" max="20" width="11.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="15" style="8" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="8" customWidth="1"/>
-    <col min="34" max="35" width="16.5703125" style="5" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="5" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="5" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="5" customWidth="1"/>
-    <col min="39" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="11"/>
+    <col min="3" max="3" width="10.140625" style="11" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="11"/>
+    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
+    <col min="8" max="19" width="8.7109375" style="11"/>
+    <col min="20" max="20" width="11.7109375" style="11" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" style="11" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="11" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="11" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="11" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" style="11" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" style="6" customWidth="1"/>
+    <col min="31" max="31" width="15" style="6" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="6" customWidth="1"/>
+    <col min="34" max="35" width="16.5703125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" style="6" customWidth="1"/>
+    <col min="38" max="38" width="12.85546875" style="4" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="5" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" style="5" customWidth="1"/>
+    <col min="41" max="41" width="12.140625" style="5" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" style="5" customWidth="1"/>
+    <col min="43" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AK1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>42856</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="11">
         <v>229</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="11">
         <v>309</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="11">
         <v>67</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="11">
         <v>3064</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="11">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="11">
         <v>192</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="11">
         <v>216</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="11">
         <v>657</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="11">
         <v>130</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="11">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="11">
         <v>224</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="11">
         <v>10</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="11">
         <v>0</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="11">
         <v>10</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="11">
         <v>84</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="11">
         <v>15</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="11">
         <v>2</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>42858</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="11">
         <v>229</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="11">
         <v>309</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="11">
         <v>67</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="11">
         <v>3554</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="11">
         <v>192</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="11">
         <v>216</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="11">
         <v>657</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="11">
         <v>130</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="11">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="11">
         <v>224</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="11">
         <v>10</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="11">
         <v>10</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="11">
         <v>83</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="11">
         <v>15</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="11">
         <v>2</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>42859</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="11">
         <v>229</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="11">
         <v>309</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="11">
         <v>67</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="11">
         <v>3554</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="11">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="11">
         <v>192</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="11">
         <v>216</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="11">
         <v>657</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="11">
         <v>130</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="11">
         <v>1</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="11">
         <v>224</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="11">
         <v>10</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="11">
         <v>0</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="11">
         <v>10</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="11">
         <v>83</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="11">
         <v>15</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="11">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>42860</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="11">
         <v>229</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="11">
         <v>309</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>67</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="11">
         <v>3555</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="11">
         <v>3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="11">
         <v>202</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="11">
         <v>216</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="11">
         <v>657</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="11">
         <v>130</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="11">
         <v>1</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="11">
         <v>225</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="11">
         <v>10</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="11">
         <v>0</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="11">
         <v>10</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="11">
         <v>83</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="11">
         <v>15</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="11">
         <v>1</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>42861</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="11">
         <v>229</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <v>309</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>67</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
         <v>3555</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="11">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="11">
         <v>202</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="11">
         <v>216</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="11">
         <v>657</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="11">
         <v>130</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="11">
         <v>225</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="11">
         <v>10</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="11">
         <v>10</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="11">
         <v>83</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="11">
         <v>15</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="11">
         <v>1</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="11">
         <v>7</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="11">
         <v>7</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="11">
         <v>88</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="11">
         <v>19</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="11">
         <v>42</v>
       </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>42864</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="11">
         <v>229</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="11">
         <v>309</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <v>67</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
         <v>3555</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="11">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="11">
         <v>202</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <v>216</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="11">
         <v>657</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="11">
         <v>130</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="11">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="11">
         <v>225</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="11">
         <v>10</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="11">
         <v>0</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="11">
         <v>10</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="11">
         <v>83</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="11">
         <v>15</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="11">
         <v>1</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="11">
         <v>7</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="11">
         <v>7</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="11">
         <v>88</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="11">
         <v>19</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="11">
         <v>42</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="11">
         <v>45</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="11">
         <v>240</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="11">
         <v>130</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="11">
         <v>0</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11">
         <v>229</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AH7" s="6">
         <v>3</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AI7" s="6">
         <v>25</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AJ7" s="6">
         <v>77</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AK7" s="6">
         <v>353</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AL7" s="4">
         <v>1</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AM7" s="4">
         <v>0.6</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AN7" s="4">
         <v>0.37313429999999997</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AO7" s="4">
         <v>0.24919089999999999</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AP7" s="4">
         <v>9.9296759999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>42865</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="11">
         <v>229</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="11">
         <v>309</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="11">
         <v>67</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
         <v>3555</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="11">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="11">
         <v>202</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="11">
         <v>216</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="11">
         <v>657</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="11">
         <v>130</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="11">
         <v>225</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="11">
         <v>10</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="11">
         <v>0</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="11">
         <v>10</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="11">
         <v>83</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="11">
         <v>15</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="11">
         <v>1</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="11">
         <v>7</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="11">
         <v>7</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="11">
         <v>83</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="11">
         <v>19</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="11">
         <v>15</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="11">
         <v>45</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="11">
         <v>240</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="11">
         <v>130</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="11">
         <v>0</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11">
         <v>229</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AH8" s="6">
         <v>5</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AI8" s="6">
         <v>30</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AJ8" s="6">
         <v>85</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AK8" s="6">
         <v>503</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AL8" s="4">
         <v>1</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AM8" s="4">
         <v>1</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AN8" s="4">
         <v>0.44776120000000003</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AO8" s="4">
         <v>0.27508090000000002</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AP8" s="4">
         <v>0.1414909</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>42867</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="11">
         <v>229</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="11">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="11">
         <v>309</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>67</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="11">
         <v>3555</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="11">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="11">
         <v>202</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="11">
         <v>216</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="11">
         <v>657</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="11">
         <v>130</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="11">
         <v>1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="11">
         <v>225</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="11">
         <v>10</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="11">
         <v>0</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="11">
         <v>10</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="11">
         <v>83</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="11">
         <v>15</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="11">
         <v>1</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="11">
         <v>7</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="11">
         <v>7</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="11">
         <v>83</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="11">
         <v>19</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="11">
         <v>15</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="11">
         <v>45</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="11">
         <v>240</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="11">
         <v>130</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="11">
         <v>0</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="11">
+        <v>237</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="6">
         <v>229</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AH9" s="6">
         <v>5</v>
       </c>
-      <c r="AE9" s="8">
-        <v>30</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>85</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>503</v>
-      </c>
-      <c r="AH9" s="5">
+      <c r="AI9" s="6">
+        <v>38</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>102</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>1170</v>
+      </c>
+      <c r="AL9" s="4">
         <v>1</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AM9" s="5">
         <v>1</v>
       </c>
-      <c r="AJ9" s="5">
-        <v>0.44776120000000003</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>0.27508090000000002</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>0.1414909</v>
+      <c r="AN9" s="5">
+        <v>0.56716420000000001</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>0.33009709999999998</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>0.32911390000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -296,29 +296,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$7:$AL$8</c:f>
+              <c:f>Sheet1!$AL$7:$AL$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -345,29 +357,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$8</c:f>
+              <c:f>Sheet1!$AM$7:$AM$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -395,30 +419,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$8</c:f>
+              <c:f>Sheet1!$AN$7:$AN$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.44776120000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56716420000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58208950000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,30 +480,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$8</c:f>
+              <c:f>Sheet1!$AO$7:$AO$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.27508090000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33009709999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,30 +541,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$8</c:f>
+              <c:f>Sheet1!$AP$7:$AP$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1414909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32911390000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3313643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102020992"/>
-        <c:axId val="102022528"/>
+        <c:axId val="90645632"/>
+        <c:axId val="90647168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="102020992"/>
+        <c:axId val="90645632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,14 +607,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102022528"/>
+        <c:crossAx val="90647168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102022528"/>
+        <c:axId val="90647168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102020992"/>
+        <c:crossAx val="90645632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,6 +1857,134 @@
         <v>0.32911390000000001</v>
       </c>
     </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>42868</v>
+      </c>
+      <c r="B10" s="11">
+        <v>229</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>309</v>
+      </c>
+      <c r="E10" s="11">
+        <v>67</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3555</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>158</v>
+      </c>
+      <c r="I10" s="11">
+        <v>216</v>
+      </c>
+      <c r="J10" s="11">
+        <v>657</v>
+      </c>
+      <c r="K10" s="11">
+        <v>130</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11">
+        <v>225</v>
+      </c>
+      <c r="N10" s="11">
+        <v>10</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>83</v>
+      </c>
+      <c r="R10" s="11">
+        <v>15</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
+        <v>7</v>
+      </c>
+      <c r="U10" s="11">
+        <v>7</v>
+      </c>
+      <c r="V10" s="11">
+        <v>83</v>
+      </c>
+      <c r="W10" s="11">
+        <v>19</v>
+      </c>
+      <c r="X10" s="11">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>240</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>130</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>237</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>39</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>103</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>1178</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>0.58208950000000004</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>0.3333333</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>0.3313643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -296,10 +296,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$7:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -311,16 +311,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$7:$AL$10</c:f>
+              <c:f>Sheet1!$AL$7:$AL$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -331,6 +334,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -357,10 +363,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$7:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -372,16 +378,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$10</c:f>
+              <c:f>Sheet1!$AM$7:$AM$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -392,6 +401,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -419,10 +431,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$7:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -434,16 +446,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$10</c:f>
+              <c:f>Sheet1!$AN$7:$AN$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -454,6 +469,9 @@
                   <c:v>0.56716420000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.58208950000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.58208950000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -480,10 +498,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$7:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -495,16 +513,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$10</c:f>
+              <c:f>Sheet1!$AO$7:$AO$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -515,6 +536,9 @@
                   <c:v>0.33009709999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.3333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.3333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -541,10 +565,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$7:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -556,16 +580,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$10</c:f>
+              <c:f>Sheet1!$AP$7:$AP$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -576,6 +603,9 @@
                   <c:v>0.32911390000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.3313643</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.3313643</c:v>
                 </c:pt>
               </c:numCache>
@@ -593,11 +623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90645632"/>
-        <c:axId val="90647168"/>
+        <c:axId val="89205376"/>
+        <c:axId val="95224192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90645632"/>
+        <c:axId val="89205376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,14 +637,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90647168"/>
+        <c:crossAx val="95224192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90647168"/>
+        <c:axId val="95224192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90645632"/>
+        <c:crossAx val="89205376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:AQ10"/>
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +1012,8 @@
     <col min="3" max="3" width="10.140625" style="11" customWidth="1"/>
     <col min="4" max="6" width="8.7109375" style="11"/>
     <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
-    <col min="8" max="19" width="8.7109375" style="11"/>
+    <col min="8" max="9" width="8.7109375" style="11"/>
+    <col min="10" max="19" width="8.7109375" style="11" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="11" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="11" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="11" customWidth="1"/>
@@ -1982,6 +2013,134 @@
         <v>0.3333333</v>
       </c>
       <c r="AP10" s="5">
+        <v>0.3313643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>42869</v>
+      </c>
+      <c r="B11" s="11">
+        <v>229</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>309</v>
+      </c>
+      <c r="E11" s="11">
+        <v>67</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3555</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11">
+        <v>158</v>
+      </c>
+      <c r="I11" s="11">
+        <v>216</v>
+      </c>
+      <c r="J11" s="11">
+        <v>657</v>
+      </c>
+      <c r="K11" s="11">
+        <v>130</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>225</v>
+      </c>
+      <c r="N11" s="11">
+        <v>10</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>83</v>
+      </c>
+      <c r="R11" s="11">
+        <v>15</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1</v>
+      </c>
+      <c r="T11" s="11">
+        <v>7</v>
+      </c>
+      <c r="U11" s="11">
+        <v>7</v>
+      </c>
+      <c r="V11" s="11">
+        <v>83</v>
+      </c>
+      <c r="W11" s="11">
+        <v>19</v>
+      </c>
+      <c r="X11" s="11">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>240</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>130</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>237</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>39</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>103</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>1178</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>0.58208950000000004</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>0.3333333</v>
+      </c>
+      <c r="AP11" s="5">
         <v>0.3313643</v>
       </c>
     </row>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -206,7 +206,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -227,9 +227,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -296,10 +293,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -314,16 +311,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$7:$AL$11</c:f>
+              <c:f>Sheet1!$AL$2:$AL$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -337,6 +337,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -363,10 +366,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -381,16 +384,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$11</c:f>
+              <c:f>Sheet1!$AM$2:$AM$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -404,6 +410,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -426,15 +435,14 @@
             </c:strRef>
           </c:tx>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -449,16 +457,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$11</c:f>
+              <c:f>Sheet1!$AN$2:$AN$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -473,6 +484,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.58208950000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59701490000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,10 +512,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -516,16 +530,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$11</c:f>
+              <c:f>Sheet1!$AO$2:$AO$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -540,6 +557,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33980579999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,10 +585,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -583,16 +603,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$11</c:f>
+              <c:f>Sheet1!$AP$2:$AP$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -607,6 +630,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3313643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34430379999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,11 +649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89205376"/>
-        <c:axId val="95224192"/>
+        <c:axId val="91423488"/>
+        <c:axId val="91425792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89205376"/>
+        <c:axId val="91423488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,14 +663,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95224192"/>
+        <c:crossAx val="91425792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95224192"/>
+        <c:axId val="91425792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89205376"/>
+        <c:crossAx val="91423488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -683,13 +709,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -999,31 +1025,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+      <selection activeCell="A7" sqref="A7:AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="11"/>
-    <col min="3" max="3" width="10.140625" style="11" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" style="11"/>
-    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="11"/>
-    <col min="10" max="19" width="8.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="11" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="11" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" style="11" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" style="11" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="11" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="11" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" style="11" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="10"/>
+    <col min="3" max="3" width="10.140625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="10"/>
+    <col min="7" max="7" width="10.7109375" style="10" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="10"/>
+    <col min="10" max="19" width="8.7109375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="10" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="10" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="10" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" style="10" customWidth="1"/>
     <col min="30" max="30" width="15.85546875" style="6" customWidth="1"/>
     <col min="31" max="31" width="15" style="6" customWidth="1"/>
     <col min="32" max="32" width="14.42578125" style="6" customWidth="1"/>
@@ -1040,103 +1066,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="AH1" s="7" t="s">
@@ -1168,980 +1194,753 @@
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>42856</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="9">
+        <v>42864</v>
+      </c>
+      <c r="B2" s="10">
         <v>229</v>
       </c>
-      <c r="D2" s="11">
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
         <v>309</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>67</v>
       </c>
-      <c r="F2" s="11">
-        <v>3064</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="F2" s="10">
+        <v>3555</v>
+      </c>
+      <c r="G2" s="10">
         <v>3</v>
       </c>
-      <c r="H2" s="11">
-        <v>192</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="H2" s="10">
+        <v>202</v>
+      </c>
+      <c r="I2" s="10">
         <v>216</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>657</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>130</v>
       </c>
-      <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2" s="11">
-        <v>224</v>
-      </c>
-      <c r="N2" s="11">
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>225</v>
+      </c>
+      <c r="N2" s="10">
         <v>10</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>0</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>10</v>
       </c>
-      <c r="Q2" s="11">
-        <v>84</v>
-      </c>
-      <c r="R2" s="11">
+      <c r="Q2" s="10">
+        <v>83</v>
+      </c>
+      <c r="R2" s="10">
         <v>15</v>
       </c>
-      <c r="S2" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
+      <c r="S2" s="10">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10">
+        <v>7</v>
+      </c>
+      <c r="U2" s="10">
+        <v>7</v>
+      </c>
+      <c r="V2" s="10">
+        <v>88</v>
+      </c>
+      <c r="W2" s="10">
+        <v>19</v>
+      </c>
+      <c r="X2" s="10">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10">
+        <v>229</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>353</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>0.37313429999999997</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0.24919089999999999</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>9.9296759999999998E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>42858</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="A3" s="9">
+        <v>42865</v>
+      </c>
+      <c r="B3" s="10">
         <v>229</v>
       </c>
-      <c r="D3" s="11">
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
         <v>309</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>67</v>
       </c>
-      <c r="F3" s="11">
-        <v>3554</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="10">
+        <v>3555</v>
+      </c>
+      <c r="G3" s="10">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
-        <v>192</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="10">
+        <v>202</v>
+      </c>
+      <c r="I3" s="10">
         <v>216</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>657</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>130</v>
       </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11">
-        <v>224</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>225</v>
+      </c>
+      <c r="N3" s="10">
         <v>10</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>10</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>83</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>15</v>
       </c>
-      <c r="S3" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10">
+        <v>7</v>
+      </c>
+      <c r="U3" s="10">
+        <v>7</v>
+      </c>
+      <c r="V3" s="10">
+        <v>83</v>
+      </c>
+      <c r="W3" s="10">
+        <v>19</v>
+      </c>
+      <c r="X3" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10">
+        <v>229</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>503</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>0.44776120000000003</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0.27508090000000002</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>0.1414909</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>42859</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="9">
+        <v>42867</v>
+      </c>
+      <c r="B4" s="10">
         <v>229</v>
       </c>
-      <c r="D4" s="11">
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
         <v>309</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>67</v>
       </c>
-      <c r="F4" s="11">
-        <v>3554</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="10">
+        <v>3555</v>
+      </c>
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="11">
-        <v>192</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="10">
+        <v>202</v>
+      </c>
+      <c r="I4" s="10">
         <v>216</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>657</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>130</v>
       </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>224</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>225</v>
+      </c>
+      <c r="N4" s="10">
         <v>10</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>0</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>10</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>83</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>15</v>
       </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="10">
+        <v>7</v>
+      </c>
+      <c r="U4" s="10">
+        <v>7</v>
+      </c>
+      <c r="V4" s="10">
+        <v>83</v>
+      </c>
+      <c r="W4" s="10">
+        <v>19</v>
+      </c>
+      <c r="X4" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>38</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>102</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>1170</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0.56716420000000001</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>0.33009709999999998</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>0.32911390000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>42860</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="9">
+        <v>42868</v>
+      </c>
+      <c r="B5" s="10">
         <v>229</v>
       </c>
-      <c r="D5" s="11">
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
         <v>309</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>67</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>3555</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>3</v>
       </c>
-      <c r="H5" s="11">
-        <v>202</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="10">
+        <v>158</v>
+      </c>
+      <c r="I5" s="10">
         <v>216</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>657</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>130</v>
       </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
         <v>225</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>10</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>0</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>10</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>83</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>15</v>
       </c>
-      <c r="S5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+      <c r="T5" s="10">
+        <v>7</v>
+      </c>
+      <c r="U5" s="10">
+        <v>7</v>
+      </c>
+      <c r="V5" s="10">
+        <v>83</v>
+      </c>
+      <c r="W5" s="10">
+        <v>19</v>
+      </c>
+      <c r="X5" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>103</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>1178</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0.58208950000000004</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>0.3333333</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>0.3313643</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>42861</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="9">
+        <v>42869</v>
+      </c>
+      <c r="B6" s="10">
         <v>229</v>
       </c>
-      <c r="D6" s="11">
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
         <v>309</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>67</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>3555</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" s="11">
-        <v>202</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="10">
+        <v>158</v>
+      </c>
+      <c r="I6" s="10">
         <v>216</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>657</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>130</v>
       </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
         <v>225</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>10</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>0</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>10</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>83</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>15</v>
       </c>
-      <c r="S6" s="11">
-        <v>1</v>
-      </c>
-      <c r="T6" s="11">
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
         <v>7</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="10">
         <v>7</v>
       </c>
-      <c r="V6" s="11">
-        <v>88</v>
-      </c>
-      <c r="W6" s="11">
+      <c r="V6" s="10">
+        <v>83</v>
+      </c>
+      <c r="W6" s="10">
         <v>19</v>
       </c>
-      <c r="X6" s="11">
-        <v>42</v>
-      </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
+      <c r="X6" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>103</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>1178</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>0.58208950000000004</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>0.3333333</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>0.3313643</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>42864</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="9">
+        <v>42870</v>
+      </c>
+      <c r="B7" s="10">
         <v>229</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>309</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>67</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>3555</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="H7" s="11">
-        <v>202</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="10">
+        <v>158</v>
+      </c>
+      <c r="I7" s="10">
         <v>216</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>657</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>130</v>
       </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
         <v>225</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>10</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>0</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>10</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>83</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <v>15</v>
       </c>
-      <c r="S7" s="11">
-        <v>1</v>
-      </c>
-      <c r="T7" s="11">
+      <c r="S7" s="10">
+        <v>1</v>
+      </c>
+      <c r="T7" s="10">
         <v>7</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="10">
         <v>7</v>
       </c>
-      <c r="V7" s="11">
-        <v>88</v>
-      </c>
-      <c r="W7" s="11">
+      <c r="V7" s="10">
+        <v>83</v>
+      </c>
+      <c r="W7" s="10">
         <v>19</v>
       </c>
-      <c r="X7" s="11">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="11">
+      <c r="X7" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="10">
         <v>45</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="10">
         <v>240</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="10">
         <v>130</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="10">
         <v>0</v>
       </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11">
+      <c r="AC7" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="6">
         <v>229</v>
       </c>
       <c r="AH7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AJ7" s="6">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AK7" s="6">
-        <v>353</v>
+        <v>1224</v>
       </c>
       <c r="AL7" s="4">
         <v>1</v>
       </c>
-      <c r="AM7" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>0.37313429999999997</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>0.24919089999999999</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>9.9296759999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>42865</v>
-      </c>
-      <c r="B8" s="11">
-        <v>229</v>
-      </c>
-      <c r="C8" s="11">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11">
-        <v>309</v>
-      </c>
-      <c r="E8" s="11">
-        <v>67</v>
-      </c>
-      <c r="F8" s="11">
-        <v>3555</v>
-      </c>
-      <c r="G8" s="11">
-        <v>3</v>
-      </c>
-      <c r="H8" s="11">
-        <v>202</v>
-      </c>
-      <c r="I8" s="11">
-        <v>216</v>
-      </c>
-      <c r="J8" s="11">
-        <v>657</v>
-      </c>
-      <c r="K8" s="11">
-        <v>130</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11">
-        <v>225</v>
-      </c>
-      <c r="N8" s="11">
-        <v>10</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>83</v>
-      </c>
-      <c r="R8" s="11">
-        <v>15</v>
-      </c>
-      <c r="S8" s="11">
-        <v>1</v>
-      </c>
-      <c r="T8" s="11">
-        <v>7</v>
-      </c>
-      <c r="U8" s="11">
-        <v>7</v>
-      </c>
-      <c r="V8" s="11">
-        <v>83</v>
-      </c>
-      <c r="W8" s="11">
-        <v>19</v>
-      </c>
-      <c r="X8" s="11">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>45</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>240</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>130</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11">
-        <v>229</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>5</v>
-      </c>
-      <c r="AI8" s="6">
-        <v>30</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>85</v>
-      </c>
-      <c r="AK8" s="6">
-        <v>503</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>0.44776120000000003</v>
-      </c>
-      <c r="AO8" s="4">
-        <v>0.27508090000000002</v>
-      </c>
-      <c r="AP8" s="4">
-        <v>0.1414909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>42867</v>
-      </c>
-      <c r="B9" s="11">
-        <v>229</v>
-      </c>
-      <c r="C9" s="11">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11">
-        <v>309</v>
-      </c>
-      <c r="E9" s="11">
-        <v>67</v>
-      </c>
-      <c r="F9" s="11">
-        <v>3555</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>202</v>
-      </c>
-      <c r="I9" s="11">
-        <v>216</v>
-      </c>
-      <c r="J9" s="11">
-        <v>657</v>
-      </c>
-      <c r="K9" s="11">
-        <v>130</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11">
-        <v>225</v>
-      </c>
-      <c r="N9" s="11">
-        <v>10</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>83</v>
-      </c>
-      <c r="R9" s="11">
-        <v>15</v>
-      </c>
-      <c r="S9" s="11">
-        <v>1</v>
-      </c>
-      <c r="T9" s="11">
-        <v>7</v>
-      </c>
-      <c r="U9" s="11">
-        <v>7</v>
-      </c>
-      <c r="V9" s="11">
-        <v>83</v>
-      </c>
-      <c r="W9" s="11">
-        <v>19</v>
-      </c>
-      <c r="X9" s="11">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>240</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>130</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>237</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>137</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>3</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>3</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>229</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>5</v>
-      </c>
-      <c r="AI9" s="6">
-        <v>38</v>
-      </c>
-      <c r="AJ9" s="6">
-        <v>102</v>
-      </c>
-      <c r="AK9" s="6">
-        <v>1170</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>0.56716420000000001</v>
-      </c>
-      <c r="AO9" s="5">
-        <v>0.33009709999999998</v>
-      </c>
-      <c r="AP9" s="5">
-        <v>0.32911390000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>42868</v>
-      </c>
-      <c r="B10" s="11">
-        <v>229</v>
-      </c>
-      <c r="C10" s="11">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11">
-        <v>309</v>
-      </c>
-      <c r="E10" s="11">
-        <v>67</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3555</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>158</v>
-      </c>
-      <c r="I10" s="11">
-        <v>216</v>
-      </c>
-      <c r="J10" s="11">
-        <v>657</v>
-      </c>
-      <c r="K10" s="11">
-        <v>130</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11">
-        <v>225</v>
-      </c>
-      <c r="N10" s="11">
-        <v>10</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>83</v>
-      </c>
-      <c r="R10" s="11">
-        <v>15</v>
-      </c>
-      <c r="S10" s="11">
-        <v>1</v>
-      </c>
-      <c r="T10" s="11">
-        <v>7</v>
-      </c>
-      <c r="U10" s="11">
-        <v>7</v>
-      </c>
-      <c r="V10" s="11">
-        <v>83</v>
-      </c>
-      <c r="W10" s="11">
-        <v>19</v>
-      </c>
-      <c r="X10" s="11">
-        <v>15</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>240</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>130</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>237</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>137</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>3</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>229</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>5</v>
-      </c>
-      <c r="AI10" s="6">
-        <v>39</v>
-      </c>
-      <c r="AJ10" s="6">
-        <v>103</v>
-      </c>
-      <c r="AK10" s="6">
-        <v>1178</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>0.58208950000000004</v>
-      </c>
-      <c r="AO10" s="5">
-        <v>0.3333333</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>0.3313643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>42869</v>
-      </c>
-      <c r="B11" s="11">
-        <v>229</v>
-      </c>
-      <c r="C11" s="11">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11">
-        <v>309</v>
-      </c>
-      <c r="E11" s="11">
-        <v>67</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3555</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11">
-        <v>158</v>
-      </c>
-      <c r="I11" s="11">
-        <v>216</v>
-      </c>
-      <c r="J11" s="11">
-        <v>657</v>
-      </c>
-      <c r="K11" s="11">
-        <v>130</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11">
-        <v>225</v>
-      </c>
-      <c r="N11" s="11">
-        <v>10</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>83</v>
-      </c>
-      <c r="R11" s="11">
-        <v>15</v>
-      </c>
-      <c r="S11" s="11">
-        <v>1</v>
-      </c>
-      <c r="T11" s="11">
-        <v>7</v>
-      </c>
-      <c r="U11" s="11">
-        <v>7</v>
-      </c>
-      <c r="V11" s="11">
-        <v>83</v>
-      </c>
-      <c r="W11" s="11">
-        <v>19</v>
-      </c>
-      <c r="X11" s="11">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>240</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>130</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>237</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>137</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>3</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>229</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>5</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>39</v>
-      </c>
-      <c r="AJ11" s="6">
-        <v>103</v>
-      </c>
-      <c r="AK11" s="6">
-        <v>1178</v>
-      </c>
-      <c r="AL11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>0.58208950000000004</v>
-      </c>
-      <c r="AO11" s="5">
-        <v>0.3333333</v>
-      </c>
-      <c r="AP11" s="5">
-        <v>0.3313643</v>
+      <c r="AM7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0.59701490000000002</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>0.33980579999999999</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>0.34430379999999999</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -293,10 +293,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -314,16 +314,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$7</c:f>
+              <c:f>Sheet1!$AL$2:$AL$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -340,6 +343,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -366,10 +372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -387,16 +393,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$7</c:f>
+              <c:f>Sheet1!$AM$2:$AM$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -413,6 +422,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -439,10 +451,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -460,16 +472,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$7</c:f>
+              <c:f>Sheet1!$AN$2:$AN$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -487,6 +502,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.59701490000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71641790000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,10 +530,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -533,16 +551,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$7</c:f>
+              <c:f>Sheet1!$AO$2:$AO$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -560,6 +581,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.33980579999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34951460000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,10 +609,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -606,16 +630,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$7</c:f>
+              <c:f>Sheet1!$AP$2:$AP$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -633,6 +660,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.34430379999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66666669999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,11 +679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91423488"/>
-        <c:axId val="91425792"/>
+        <c:axId val="89392256"/>
+        <c:axId val="89393792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91423488"/>
+        <c:axId val="89392256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,14 +693,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91425792"/>
+        <c:crossAx val="89393792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91425792"/>
+        <c:axId val="89393792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91423488"/>
+        <c:crossAx val="89392256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP7"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AQ7"/>
+      <selection activeCell="A8" sqref="A8:AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,6 +1973,134 @@
         <v>0.34430379999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B8" s="10">
+        <v>229</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>309</v>
+      </c>
+      <c r="E8" s="10">
+        <v>67</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3555</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>67</v>
+      </c>
+      <c r="I8" s="10">
+        <v>216</v>
+      </c>
+      <c r="J8" s="10">
+        <v>657</v>
+      </c>
+      <c r="K8" s="10">
+        <v>130</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10">
+        <v>225</v>
+      </c>
+      <c r="N8" s="10">
+        <v>10</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>83</v>
+      </c>
+      <c r="R8" s="10">
+        <v>15</v>
+      </c>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+      <c r="T8" s="10">
+        <v>7</v>
+      </c>
+      <c r="U8" s="10">
+        <v>7</v>
+      </c>
+      <c r="V8" s="10">
+        <v>83</v>
+      </c>
+      <c r="W8" s="10">
+        <v>19</v>
+      </c>
+      <c r="X8" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>48</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>108</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>2370</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0.71641790000000005</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>0.34951460000000001</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>0.66666669999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -293,10 +294,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -317,16 +318,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$8</c:f>
+              <c:f>Sheet1!$AL$2:$AL$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -346,6 +359,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -372,10 +397,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -396,16 +421,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$8</c:f>
+              <c:f>Sheet1!$AM$2:$AM$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -425,6 +462,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -451,10 +500,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -475,16 +524,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$8</c:f>
+              <c:f>Sheet1!$AN$2:$AN$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -505,6 +566,18 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.71641790000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98507460000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,10 +603,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -554,16 +627,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$8</c:f>
+              <c:f>Sheet1!$AO$2:$AO$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -584,6 +669,18 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.34951460000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37540449999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37540449999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37540449999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37540449999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,10 +706,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -633,16 +730,28 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$8</c:f>
+              <c:f>Sheet1!$AP$2:$AP$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -663,6 +772,18 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.66666669999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70857950000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70890699999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70890699999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70890699999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,11 +800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89392256"/>
-        <c:axId val="89393792"/>
+        <c:axId val="60767616"/>
+        <c:axId val="60773504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89392256"/>
+        <c:axId val="60767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,14 +814,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89393792"/>
+        <c:crossAx val="60773504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89393792"/>
+        <c:axId val="60773504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89392256"/>
+        <c:crossAx val="60767616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1055,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:AQ8"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1190,9 @@
     <col min="4" max="6" width="8.7109375" style="10"/>
     <col min="7" max="7" width="10.7109375" style="10" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" style="10"/>
-    <col min="10" max="19" width="8.7109375" style="10" customWidth="1"/>
+    <col min="10" max="16" width="8.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="10" customWidth="1"/>
+    <col min="18" max="19" width="8.7109375" style="10" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="10" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="10" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="10" customWidth="1"/>
@@ -1095,7 +1218,7 @@
     <col min="43" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2099,6 +2222,518 @@
       </c>
       <c r="AP8" s="5">
         <v>0.66666669999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B9" s="10">
+        <v>229</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>309</v>
+      </c>
+      <c r="E9" s="10">
+        <v>67</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3555</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10">
+        <v>67</v>
+      </c>
+      <c r="I9" s="10">
+        <v>216</v>
+      </c>
+      <c r="J9" s="10">
+        <v>657</v>
+      </c>
+      <c r="K9" s="10">
+        <v>130</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10">
+        <v>225</v>
+      </c>
+      <c r="N9" s="10">
+        <v>10</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>83</v>
+      </c>
+      <c r="R9" s="10">
+        <v>15</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1</v>
+      </c>
+      <c r="T9" s="10">
+        <v>7</v>
+      </c>
+      <c r="U9" s="10">
+        <v>7</v>
+      </c>
+      <c r="V9" s="10">
+        <v>83</v>
+      </c>
+      <c r="W9" s="10">
+        <v>19</v>
+      </c>
+      <c r="X9" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>116</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>2519</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>0.37540449999999997</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>0.70857950000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>42874</v>
+      </c>
+      <c r="B10" s="10">
+        <v>229</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>309</v>
+      </c>
+      <c r="E10" s="10">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>67</v>
+      </c>
+      <c r="I10" s="10">
+        <v>216</v>
+      </c>
+      <c r="J10" s="10">
+        <v>657</v>
+      </c>
+      <c r="K10" s="10">
+        <v>130</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>225</v>
+      </c>
+      <c r="N10" s="10">
+        <v>10</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>83</v>
+      </c>
+      <c r="R10" s="10">
+        <v>15</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10">
+        <v>7</v>
+      </c>
+      <c r="U10" s="10">
+        <v>7</v>
+      </c>
+      <c r="V10" s="10">
+        <v>83</v>
+      </c>
+      <c r="W10" s="10">
+        <v>18</v>
+      </c>
+      <c r="X10" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>116</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>2523</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>0.37540449999999997</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>0.70890699999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>42875</v>
+      </c>
+      <c r="B11" s="10">
+        <v>229</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>309</v>
+      </c>
+      <c r="E11" s="10">
+        <v>67</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>67</v>
+      </c>
+      <c r="I11" s="10">
+        <v>216</v>
+      </c>
+      <c r="J11" s="10">
+        <v>657</v>
+      </c>
+      <c r="K11" s="10">
+        <v>130</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>225</v>
+      </c>
+      <c r="N11" s="10">
+        <v>10</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>83</v>
+      </c>
+      <c r="R11" s="10">
+        <v>15</v>
+      </c>
+      <c r="S11" s="10">
+        <v>1</v>
+      </c>
+      <c r="T11" s="10">
+        <v>7</v>
+      </c>
+      <c r="U11" s="10">
+        <v>7</v>
+      </c>
+      <c r="V11" s="10">
+        <v>83</v>
+      </c>
+      <c r="W11" s="10">
+        <v>18</v>
+      </c>
+      <c r="X11" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>116</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>2523</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>0.37540449999999997</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>0.70890699999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B12" s="10">
+        <v>229</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>309</v>
+      </c>
+      <c r="E12" s="10">
+        <v>67</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>66</v>
+      </c>
+      <c r="I12" s="10">
+        <v>216</v>
+      </c>
+      <c r="J12" s="10">
+        <v>657</v>
+      </c>
+      <c r="K12" s="10">
+        <v>130</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10">
+        <v>225</v>
+      </c>
+      <c r="N12" s="10">
+        <v>10</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>83</v>
+      </c>
+      <c r="R12" s="10">
+        <v>15</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1</v>
+      </c>
+      <c r="T12" s="10">
+        <v>7</v>
+      </c>
+      <c r="U12" s="10">
+        <v>7</v>
+      </c>
+      <c r="V12" s="10">
+        <v>83</v>
+      </c>
+      <c r="W12" s="10">
+        <v>18</v>
+      </c>
+      <c r="X12" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>116</v>
+      </c>
+      <c r="AK12" s="6">
+        <v>2523</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>0.37540449999999997</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>0.70890699999999995</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -280,11 +279,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Percentage of Types generated</c:v>
+                  <c:v>Methods with bad flags</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -294,10 +293,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -330,16 +329,658 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$12</c:f>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classes without inherits from</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>string values with quotes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>string values without quotes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>string values with period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="92730496"/>
+        <c:axId val="92732032"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="92730496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92732032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="92732032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92730496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.757892519400368E-2"/>
+          <c:y val="1.7058056422192509E-2"/>
+          <c:w val="0.67996879999544524"/>
+          <c:h val="0.82352630449495701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Types generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$2:$AL$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -371,6 +1012,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -397,10 +1041,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -433,16 +1077,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$12</c:f>
+              <c:f>Sheet1!$AM$2:$AM$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -474,6 +1121,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -500,10 +1150,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -536,16 +1186,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$12</c:f>
+              <c:f>Sheet1!$AN$2:$AN$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -577,6 +1230,9 @@
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -603,10 +1259,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -639,16 +1295,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$12</c:f>
+              <c:f>Sheet1!$AO$2:$AO$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -680,6 +1339,9 @@
                   <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.37540449999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.37540449999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -706,10 +1368,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -742,16 +1404,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$12</c:f>
+              <c:f>Sheet1!$AP$2:$AP$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -783,6 +1448,9 @@
                   <c:v>0.70890699999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.70890699999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.70890699999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -800,11 +1468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="60767616"/>
-        <c:axId val="60773504"/>
+        <c:axId val="48076672"/>
+        <c:axId val="48078208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="60767616"/>
+        <c:axId val="48076672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,14 +1482,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60773504"/>
+        <c:crossAx val="48078208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="60773504"/>
+        <c:axId val="48078208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +1500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60767616"/>
+        <c:crossAx val="48076672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -858,16 +1526,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -881,6 +1549,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1176,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP12"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,6 +3436,134 @@
         <v>0.70890699999999995</v>
       </c>
     </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B13" s="10">
+        <v>229</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>309</v>
+      </c>
+      <c r="E13" s="10">
+        <v>67</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10">
+        <v>62</v>
+      </c>
+      <c r="I13" s="10">
+        <v>216</v>
+      </c>
+      <c r="J13" s="10">
+        <v>657</v>
+      </c>
+      <c r="K13" s="10">
+        <v>130</v>
+      </c>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10">
+        <v>225</v>
+      </c>
+      <c r="N13" s="10">
+        <v>10</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>83</v>
+      </c>
+      <c r="R13" s="10">
+        <v>15</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1</v>
+      </c>
+      <c r="T13" s="10">
+        <v>7</v>
+      </c>
+      <c r="U13" s="10">
+        <v>7</v>
+      </c>
+      <c r="V13" s="10">
+        <v>83</v>
+      </c>
+      <c r="W13" s="10">
+        <v>18</v>
+      </c>
+      <c r="X13" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>116</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>2523</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO13" s="5">
+        <v>0.37540449999999997</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>0.70890699999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -829,11 +829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92730496"/>
-        <c:axId val="92732032"/>
+        <c:axId val="92931200"/>
+        <c:axId val="92932736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92730496"/>
+        <c:axId val="92931200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,14 +843,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92732032"/>
+        <c:crossAx val="92932736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92732032"/>
+        <c:axId val="92932736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92730496"/>
+        <c:crossAx val="92931200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,11 +1468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48076672"/>
-        <c:axId val="48078208"/>
+        <c:axId val="92972544"/>
+        <c:axId val="92974080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="48076672"/>
+        <c:axId val="92972544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,14 +1482,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48078208"/>
+        <c:crossAx val="92974080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="48078208"/>
+        <c:axId val="92974080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48076672"/>
+        <c:crossAx val="92972544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,13 +1528,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1558,13 +1558,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1878,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +178,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +203,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,12 +225,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,9 +264,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -293,10 +333,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -332,16 +372,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -377,6 +435,24 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,10 +478,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -441,16 +517,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$13</c:f>
+              <c:f>Sheet1!$H$2:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -485,6 +579,24 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
@@ -511,10 +623,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -550,16 +662,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:f>Sheet1!$I$2:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -594,6 +724,24 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -620,10 +768,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -659,16 +807,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$13</c:f>
+              <c:f>Sheet1!$J$2:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>657</c:v>
                 </c:pt>
@@ -703,6 +869,24 @@
                   <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>657</c:v>
                 </c:pt>
               </c:numCache>
@@ -729,10 +913,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -768,16 +952,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$13</c:f>
+              <c:f>Sheet1!$K$2:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>130</c:v>
                 </c:pt>
@@ -812,6 +1014,24 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
@@ -829,11 +1049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92931200"/>
-        <c:axId val="92932736"/>
+        <c:axId val="67624960"/>
+        <c:axId val="67626496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92931200"/>
+        <c:axId val="67624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,14 +1063,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92932736"/>
+        <c:crossAx val="67626496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92932736"/>
+        <c:axId val="67626496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +1081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92931200"/>
+        <c:crossAx val="67624960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,8 +1124,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.757892519400368E-2"/>
-          <c:y val="1.7058056422192509E-2"/>
+          <c:x val="6.5272345295232889E-2"/>
+          <c:y val="4.2215289126595022E-2"/>
           <c:w val="0.67996879999544524"/>
           <c:h val="0.82352630449495701"/>
         </c:manualLayout>
@@ -932,10 +1152,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -971,16 +1191,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$13</c:f>
+              <c:f>Sheet1!$AL$2:$AL$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1015,6 +1253,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1041,10 +1297,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1080,16 +1336,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$13</c:f>
+              <c:f>Sheet1!$AM$2:$AM$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1124,6 +1398,24 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1150,10 +1442,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1189,16 +1481,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$13</c:f>
+              <c:f>Sheet1!$AN$2:$AN$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -1233,6 +1543,24 @@
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1259,10 +1587,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1298,16 +1626,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$13</c:f>
+              <c:f>Sheet1!$AO$2:$AO$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -1343,6 +1689,24 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.37540449999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3786408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3786408</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3786408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3786408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3786408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3786408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,10 +1732,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1407,16 +1771,34 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$13</c:f>
+              <c:f>Sheet1!$AP$2:$AP$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -1452,6 +1834,24 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.70890699999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.707982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70806409999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70806409999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70806409999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70806409999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70946900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,11 +1868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92972544"/>
-        <c:axId val="92974080"/>
+        <c:axId val="73884032"/>
+        <c:axId val="73885568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92972544"/>
+        <c:axId val="73884032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,14 +1882,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92974080"/>
+        <c:crossAx val="73885568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92974080"/>
+        <c:axId val="73885568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92972544"/>
+        <c:crossAx val="73884032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,15 +1927,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1557,15 +1957,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1876,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,6 +3964,775 @@
         <v>0.70890699999999995</v>
       </c>
     </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>42880</v>
+      </c>
+      <c r="B14" s="10">
+        <v>229</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>309</v>
+      </c>
+      <c r="E14" s="10">
+        <v>67</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3558</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>62</v>
+      </c>
+      <c r="I14" s="10">
+        <v>216</v>
+      </c>
+      <c r="J14" s="10">
+        <v>657</v>
+      </c>
+      <c r="K14" s="10">
+        <v>130</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10">
+        <v>225</v>
+      </c>
+      <c r="N14" s="10">
+        <v>10</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>85</v>
+      </c>
+      <c r="R14" s="10">
+        <v>15</v>
+      </c>
+      <c r="S14" s="10">
+        <v>1</v>
+      </c>
+      <c r="T14" s="10">
+        <v>7</v>
+      </c>
+      <c r="U14" s="10">
+        <v>7</v>
+      </c>
+      <c r="V14" s="10">
+        <v>83</v>
+      </c>
+      <c r="W14" s="10">
+        <v>18</v>
+      </c>
+      <c r="X14" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ14" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK14" s="6">
+        <v>2519</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>0.707982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>42884</v>
+      </c>
+      <c r="B15" s="10">
+        <v>229</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>309</v>
+      </c>
+      <c r="E15" s="10">
+        <v>67</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="10">
+        <v>62</v>
+      </c>
+      <c r="I15" s="10">
+        <v>216</v>
+      </c>
+      <c r="J15" s="10">
+        <v>657</v>
+      </c>
+      <c r="K15" s="10">
+        <v>130</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>226</v>
+      </c>
+      <c r="N15" s="10">
+        <v>10</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>85</v>
+      </c>
+      <c r="R15" s="10">
+        <v>15</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1</v>
+      </c>
+      <c r="T15" s="10">
+        <v>7</v>
+      </c>
+      <c r="U15" s="10">
+        <v>7</v>
+      </c>
+      <c r="V15" s="10">
+        <v>83</v>
+      </c>
+      <c r="W15" s="10">
+        <v>18</v>
+      </c>
+      <c r="X15" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ15" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK15" s="6">
+        <v>2520</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>0.70806409999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>42885</v>
+      </c>
+      <c r="B16" s="10">
+        <v>229</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>309</v>
+      </c>
+      <c r="E16" s="10">
+        <v>67</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3</v>
+      </c>
+      <c r="H16" s="10">
+        <v>62</v>
+      </c>
+      <c r="I16" s="10">
+        <v>216</v>
+      </c>
+      <c r="J16" s="10">
+        <v>657</v>
+      </c>
+      <c r="K16" s="10">
+        <v>130</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>226</v>
+      </c>
+      <c r="N16" s="10">
+        <v>10</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>85</v>
+      </c>
+      <c r="R16" s="10">
+        <v>15</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1</v>
+      </c>
+      <c r="T16" s="10">
+        <v>7</v>
+      </c>
+      <c r="U16" s="10">
+        <v>7</v>
+      </c>
+      <c r="V16" s="10">
+        <v>83</v>
+      </c>
+      <c r="W16" s="10">
+        <v>18</v>
+      </c>
+      <c r="X16" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ16" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK16" s="6">
+        <v>2520</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>0.70806409999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>42887</v>
+      </c>
+      <c r="B17" s="10">
+        <v>229</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>309</v>
+      </c>
+      <c r="E17" s="10">
+        <v>67</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3</v>
+      </c>
+      <c r="H17" s="10">
+        <v>62</v>
+      </c>
+      <c r="I17" s="10">
+        <v>216</v>
+      </c>
+      <c r="J17" s="10">
+        <v>657</v>
+      </c>
+      <c r="K17" s="10">
+        <v>130</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
+        <v>226</v>
+      </c>
+      <c r="N17" s="10">
+        <v>10</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>85</v>
+      </c>
+      <c r="R17" s="10">
+        <v>15</v>
+      </c>
+      <c r="S17" s="10">
+        <v>1</v>
+      </c>
+      <c r="T17" s="10">
+        <v>7</v>
+      </c>
+      <c r="U17" s="10">
+        <v>7</v>
+      </c>
+      <c r="V17" s="10">
+        <v>83</v>
+      </c>
+      <c r="W17" s="10">
+        <v>18</v>
+      </c>
+      <c r="X17" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>2520</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>0.70806409999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>42888</v>
+      </c>
+      <c r="B18" s="10">
+        <v>229</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>309</v>
+      </c>
+      <c r="E18" s="10">
+        <v>67</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3</v>
+      </c>
+      <c r="H18" s="10">
+        <v>62</v>
+      </c>
+      <c r="I18" s="10">
+        <v>216</v>
+      </c>
+      <c r="J18" s="10">
+        <v>657</v>
+      </c>
+      <c r="K18" s="10">
+        <v>130</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>226</v>
+      </c>
+      <c r="N18" s="10">
+        <v>10</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>85</v>
+      </c>
+      <c r="R18" s="10">
+        <v>15</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1</v>
+      </c>
+      <c r="T18" s="10">
+        <v>7</v>
+      </c>
+      <c r="U18" s="10">
+        <v>7</v>
+      </c>
+      <c r="V18" s="10">
+        <v>83</v>
+      </c>
+      <c r="W18" s="10">
+        <v>18</v>
+      </c>
+      <c r="X18" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>237</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>137</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>229</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>2520</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>0.70806409999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>42891</v>
+      </c>
+      <c r="B19" s="10">
+        <v>231</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>309</v>
+      </c>
+      <c r="E19" s="10">
+        <v>67</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>62</v>
+      </c>
+      <c r="I19" s="10">
+        <v>216</v>
+      </c>
+      <c r="J19" s="10">
+        <v>657</v>
+      </c>
+      <c r="K19" s="10">
+        <v>130</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>228</v>
+      </c>
+      <c r="N19" s="10">
+        <v>10</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>82</v>
+      </c>
+      <c r="R19" s="11">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>1</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <v>84</v>
+      </c>
+      <c r="W19" s="10">
+        <v>18</v>
+      </c>
+      <c r="X19" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>370</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>231</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK19" s="13">
+        <v>2525</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>0.70946900000000002</v>
+      </c>
+      <c r="AQ19" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -333,10 +333,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -390,16 +390,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$19</c:f>
+              <c:f>Sheet1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -452,6 +455,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -478,10 +484,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -535,16 +541,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$19</c:f>
+              <c:f>Sheet1!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -597,6 +606,9 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
@@ -623,10 +635,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -680,16 +692,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$19</c:f>
+              <c:f>Sheet1!$I$2:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -744,295 +759,8 @@
                 <c:pt idx="17">
                   <c:v>216</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>string values without quotes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>42864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42867</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42869</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42870</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42872</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42873</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42874</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42876</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42878</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42880</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42884</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>string values with period</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>42864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42867</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42869</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42870</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42872</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42873</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42874</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42876</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42878</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42880</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42884</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>130</c:v>
+                <c:pt idx="18">
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,11 +777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67624960"/>
-        <c:axId val="67626496"/>
+        <c:axId val="67020288"/>
+        <c:axId val="67021824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67624960"/>
+        <c:axId val="67020288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,14 +791,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67626496"/>
+        <c:crossAx val="67021824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67626496"/>
+        <c:axId val="67021824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67624960"/>
+        <c:crossAx val="67020288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1152,10 +880,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1209,16 +937,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$19</c:f>
+              <c:f>Sheet1!$AL$2:$AL$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1271,6 +1002,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1297,10 +1031,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1354,16 +1088,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$19</c:f>
+              <c:f>Sheet1!$AM$2:$AM$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1416,6 +1153,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1442,10 +1182,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1499,16 +1239,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$19</c:f>
+              <c:f>Sheet1!$AN$2:$AN$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -1561,6 +1304,9 @@
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1587,10 +1333,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1644,16 +1390,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$19</c:f>
+              <c:f>Sheet1!$AO$2:$AO$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -1706,6 +1455,9 @@
                   <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.3786408</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.3786408</c:v>
                 </c:pt>
               </c:numCache>
@@ -1732,10 +1484,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1789,16 +1541,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$19</c:f>
+              <c:f>Sheet1!$AP$2:$AP$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -1852,6 +1607,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.70946900000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70955060000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,11 +1626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73884032"/>
-        <c:axId val="73885568"/>
+        <c:axId val="67041152"/>
+        <c:axId val="67042688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="73884032"/>
+        <c:axId val="67041152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,14 +1640,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73885568"/>
+        <c:crossAx val="67042688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="73885568"/>
+        <c:axId val="67042688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73884032"/>
+        <c:crossAx val="67041152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1928,13 +1686,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1958,13 +1716,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2276,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,6 +4491,134 @@
       </c>
       <c r="AQ19" s="5"/>
     </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>42892</v>
+      </c>
+      <c r="B20" s="10">
+        <v>231</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>309</v>
+      </c>
+      <c r="E20" s="10">
+        <v>67</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>62</v>
+      </c>
+      <c r="I20" s="10">
+        <v>216</v>
+      </c>
+      <c r="J20" s="10">
+        <v>657</v>
+      </c>
+      <c r="K20" s="10">
+        <v>130</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>238</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>82</v>
+      </c>
+      <c r="R20" s="10">
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
+        <v>1</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
+        <v>84</v>
+      </c>
+      <c r="W20" s="10">
+        <v>18</v>
+      </c>
+      <c r="X20" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>370</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>231</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>2526</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>0.70955060000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -274,6 +274,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -333,10 +336,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -393,16 +396,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$20</c:f>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -458,6 +464,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -484,10 +493,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -544,16 +553,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:f>Sheet1!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -609,6 +621,9 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
@@ -635,10 +650,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -695,16 +710,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>Sheet1!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -760,6 +778,9 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -777,11 +798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67020288"/>
-        <c:axId val="67021824"/>
+        <c:axId val="101625216"/>
+        <c:axId val="40252544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67020288"/>
+        <c:axId val="101625216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,14 +812,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67021824"/>
+        <c:crossAx val="40252544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67021824"/>
+        <c:axId val="40252544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67020288"/>
+        <c:crossAx val="101625216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -880,10 +901,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -940,16 +961,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$20</c:f>
+              <c:f>Sheet1!$AL$2:$AL$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1005,6 +1029,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1031,10 +1058,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1091,16 +1118,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$20</c:f>
+              <c:f>Sheet1!$AM$2:$AM$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1156,6 +1186,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1182,10 +1215,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1242,16 +1275,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$20</c:f>
+              <c:f>Sheet1!$AN$2:$AN$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.37313429999999997</c:v>
                 </c:pt>
@@ -1307,6 +1343,9 @@
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1333,10 +1372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1393,16 +1432,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$20</c:f>
+              <c:f>Sheet1!$AO$2:$AO$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.24919089999999999</c:v>
                 </c:pt>
@@ -1458,6 +1500,9 @@
                   <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.3786408</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.3786408</c:v>
                 </c:pt>
               </c:numCache>
@@ -1484,10 +1529,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1544,16 +1589,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$20</c:f>
+              <c:f>Sheet1!$AP$2:$AP$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>9.9296759999999998E-2</c:v>
                 </c:pt>
@@ -1610,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.70955060000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72528090000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,11 +1677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67041152"/>
-        <c:axId val="67042688"/>
+        <c:axId val="67031040"/>
+        <c:axId val="67032576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67041152"/>
+        <c:axId val="67031040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,14 +1691,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67042688"/>
+        <c:crossAx val="67032576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67042688"/>
+        <c:axId val="67032576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67041152"/>
+        <c:crossAx val="67031040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2034,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="AP21" sqref="AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4619,6 +4670,134 @@
         <v>0.70955060000000003</v>
       </c>
     </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>42893</v>
+      </c>
+      <c r="B21" s="10">
+        <v>231</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>309</v>
+      </c>
+      <c r="E21" s="10">
+        <v>67</v>
+      </c>
+      <c r="F21" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>62</v>
+      </c>
+      <c r="I21" s="10">
+        <v>216</v>
+      </c>
+      <c r="J21" s="10">
+        <v>657</v>
+      </c>
+      <c r="K21" s="10">
+        <v>130</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>239</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>83</v>
+      </c>
+      <c r="R21" s="10">
+        <v>1</v>
+      </c>
+      <c r="S21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="10">
+        <v>1</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>12</v>
+      </c>
+      <c r="W21" s="10">
+        <v>18</v>
+      </c>
+      <c r="X21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>374</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>231</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ21" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>2582</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO21" s="5">
+        <v>0.3786408</v>
+      </c>
+      <c r="AP21" s="15">
+        <v>0.72528090000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -336,10 +336,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -399,16 +399,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:f>Sheet1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -467,6 +470,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -493,10 +499,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -556,16 +562,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$21</c:f>
+              <c:f>Sheet1!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -624,6 +633,9 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
@@ -650,10 +662,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -713,16 +725,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$21</c:f>
+              <c:f>Sheet1!$I$2:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -781,6 +796,9 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -798,11 +816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101625216"/>
-        <c:axId val="40252544"/>
+        <c:axId val="92984064"/>
+        <c:axId val="92985600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101625216"/>
+        <c:axId val="92984064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,14 +830,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40252544"/>
+        <c:crossAx val="92985600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40252544"/>
+        <c:axId val="92985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101625216"/>
+        <c:crossAx val="92984064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -901,76 +919,76 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42865</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42867</c:v>
+                  <c:v>42868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42868</c:v>
+                  <c:v>42869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42869</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42870</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42874</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42875</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42876</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42878</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42880</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42885</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42887</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42888</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42891</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42892</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42893</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$21</c:f>
+              <c:f>Sheet1!$AL$3:$AL$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1058,81 +1076,81 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42865</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42867</c:v>
+                  <c:v>42868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42868</c:v>
+                  <c:v>42869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42869</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42870</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42874</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42875</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42876</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42878</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42880</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42885</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42887</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42888</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42891</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42892</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42893</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$21</c:f>
+              <c:f>Sheet1!$AM$3:$AM$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1215,99 +1233,99 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42865</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42867</c:v>
+                  <c:v>42868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42868</c:v>
+                  <c:v>42869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42869</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42870</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42874</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42875</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42876</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42878</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42880</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42885</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42887</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42888</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42891</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42892</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42893</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$21</c:f>
+              <c:f>Sheet1!$AN$3:$AN$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.37313429999999997</c:v>
+                  <c:v>0.44776120000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44776120000000003</c:v>
+                  <c:v>0.56716420000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56716420000000001</c:v>
+                  <c:v>0.58208950000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.58208950000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58208950000000004</c:v>
+                  <c:v>0.59701490000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59701490000000002</c:v>
+                  <c:v>0.71641790000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71641790000000005</c:v>
+                  <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.98507460000000002</c:v>
@@ -1372,99 +1390,99 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42865</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42867</c:v>
+                  <c:v>42868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42868</c:v>
+                  <c:v>42869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42869</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42870</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42874</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42875</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42876</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42878</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42880</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42885</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42887</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42888</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42891</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42892</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42893</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$21</c:f>
+              <c:f>Sheet1!$AO$3:$AO$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.24919089999999999</c:v>
+                  <c:v>0.27508090000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27508090000000002</c:v>
+                  <c:v>0.33009709999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33009709999999998</c:v>
+                  <c:v>0.3333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.3333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3333333</c:v>
+                  <c:v>0.33980579999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33980579999999999</c:v>
+                  <c:v>0.34951460000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34951460000000001</c:v>
+                  <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.37540449999999997</c:v>
@@ -1479,7 +1497,7 @@
                   <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37540449999999997</c:v>
+                  <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.3786408</c:v>
@@ -1503,7 +1521,7 @@
                   <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3786408</c:v>
+                  <c:v>0.38511329999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,102 +1547,102 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42865</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42867</c:v>
+                  <c:v>42868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42868</c:v>
+                  <c:v>42869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42869</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42870</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42874</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42875</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42876</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42878</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42880</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42885</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42887</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42888</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42891</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42892</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42893</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$21</c:f>
+              <c:f>Sheet1!$AP$3:$AP$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>9.9296759999999998E-2</c:v>
+                  <c:v>0.1414909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1414909</c:v>
+                  <c:v>0.32911390000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32911390000000001</c:v>
+                  <c:v>0.3313643</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.3313643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3313643</c:v>
+                  <c:v>0.34430379999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34430379999999999</c:v>
+                  <c:v>0.66666669999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666669999999995</c:v>
+                  <c:v>0.70857950000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70857950000000003</c:v>
+                  <c:v>0.70890699999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.70890699999999995</c:v>
@@ -1636,10 +1654,10 @@
                   <c:v>0.70890699999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70890699999999995</c:v>
+                  <c:v>0.707982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.707982</c:v>
+                  <c:v>0.70806409999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.70806409999999997</c:v>
@@ -1651,16 +1669,16 @@
                   <c:v>0.70806409999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70806409999999997</c:v>
+                  <c:v>0.70946900000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70946900000000002</c:v>
+                  <c:v>0.70955060000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.70955060000000003</c:v>
+                  <c:v>0.72528090000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72528090000000001</c:v>
+                  <c:v>0.72668540000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,11 +1695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67031040"/>
-        <c:axId val="67032576"/>
+        <c:axId val="100215424"/>
+        <c:axId val="101622912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67031040"/>
+        <c:axId val="100215424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,14 +1709,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67032576"/>
+        <c:crossAx val="101622912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67032576"/>
+        <c:axId val="101622912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,7 +1727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67031040"/>
+        <c:crossAx val="100215424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2085,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+      <selection activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,6 +4816,134 @@
         <v>0.72528090000000001</v>
       </c>
     </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>42894</v>
+      </c>
+      <c r="B22" s="10">
+        <v>231</v>
+      </c>
+      <c r="C22" s="10">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>309</v>
+      </c>
+      <c r="E22" s="10">
+        <v>67</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>62</v>
+      </c>
+      <c r="I22" s="10">
+        <v>216</v>
+      </c>
+      <c r="J22" s="10">
+        <v>657</v>
+      </c>
+      <c r="K22" s="10">
+        <v>130</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>239</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>83</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>12</v>
+      </c>
+      <c r="W22" s="10">
+        <v>18</v>
+      </c>
+      <c r="X22" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>374</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>231</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>119</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>2587</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO22" s="15">
+        <v>0.38511329999999999</v>
+      </c>
+      <c r="AP22" s="5">
+        <v>0.72668540000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +192,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +222,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,14 +237,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,11 +292,15 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -336,10 +353,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -402,16 +419,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$22</c:f>
+              <c:f>Sheet1!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -473,6 +502,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -499,10 +540,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -565,16 +606,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$22</c:f>
+              <c:f>Sheet1!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -636,6 +689,18 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,10 +727,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -728,16 +793,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$22</c:f>
+              <c:f>Sheet1!$I$2:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -799,6 +876,18 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -816,11 +905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92984064"/>
-        <c:axId val="92985600"/>
+        <c:axId val="86975232"/>
+        <c:axId val="86976768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92984064"/>
+        <c:axId val="86975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,14 +919,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92985600"/>
+        <c:crossAx val="86976768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92985600"/>
+        <c:axId val="86976768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92984064"/>
+        <c:crossAx val="86975232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,76 +1008,76 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$7:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42865</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42867</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42868</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42869</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42870</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42872</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42873</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42874</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42875</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42876</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42878</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42880</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42884</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42885</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42887</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42888</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42891</c:v>
+                  <c:v>42895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42892</c:v>
+                  <c:v>42896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42893</c:v>
+                  <c:v>42898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42894</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$3:$AL$22</c:f>
+              <c:f>Sheet1!$AL$7:$AL$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1076,76 +1165,76 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$7:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42865</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42867</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42868</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42869</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42870</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42872</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42873</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42874</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42875</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42876</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42878</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42880</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42884</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42885</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42887</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42888</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42891</c:v>
+                  <c:v>42895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42892</c:v>
+                  <c:v>42896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42893</c:v>
+                  <c:v>42898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42894</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$22</c:f>
+              <c:f>Sheet1!$AM$7:$AM$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1233,96 +1322,96 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$7:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42865</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42867</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42868</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42869</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42870</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42872</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42873</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42874</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42875</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42876</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42878</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42880</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42884</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42885</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42887</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42888</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42891</c:v>
+                  <c:v>42895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42892</c:v>
+                  <c:v>42896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42893</c:v>
+                  <c:v>42898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42894</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$3:$AN$22</c:f>
+              <c:f>Sheet1!$AN$7:$AN$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.44776120000000003</c:v>
+                  <c:v>0.59701490000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56716420000000001</c:v>
+                  <c:v>0.71641790000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58208950000000004</c:v>
+                  <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58208950000000004</c:v>
+                  <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59701490000000002</c:v>
+                  <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71641790000000005</c:v>
+                  <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.98507460000000002</c:v>
@@ -1390,111 +1479,111 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$7:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42865</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42867</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42868</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42869</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42870</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42872</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42873</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42874</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42875</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42876</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42878</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42880</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42884</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42885</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42887</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42888</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42891</c:v>
+                  <c:v>42895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42892</c:v>
+                  <c:v>42896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42893</c:v>
+                  <c:v>42898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42894</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$3:$AO$22</c:f>
+              <c:f>Sheet1!$AO$7:$AO$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.27508090000000002</c:v>
+                  <c:v>0.33980579999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33009709999999998</c:v>
+                  <c:v>0.34951460000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3333333</c:v>
+                  <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3333333</c:v>
+                  <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33980579999999999</c:v>
+                  <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34951460000000001</c:v>
+                  <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.37540449999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37540449999999997</c:v>
+                  <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37540449999999997</c:v>
+                  <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37540449999999997</c:v>
+                  <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37540449999999997</c:v>
+                  <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.3786408</c:v>
@@ -1509,16 +1598,16 @@
                   <c:v>0.3786408</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3786408</c:v>
+                  <c:v>0.38511329999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3786408</c:v>
+                  <c:v>0.38511329999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3786408</c:v>
+                  <c:v>0.38511329999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3786408</c:v>
+                  <c:v>0.38511329999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.38511329999999999</c:v>
@@ -1547,135 +1636,135 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$7:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42865</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42867</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42868</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42869</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42870</c:v>
+                  <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42872</c:v>
+                  <c:v>42876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42873</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42874</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42875</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42876</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42878</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42880</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42884</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42885</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42887</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42888</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42891</c:v>
+                  <c:v>42895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42892</c:v>
+                  <c:v>42896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42893</c:v>
+                  <c:v>42898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42894</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$3:$AP$22</c:f>
+              <c:f>Sheet1!$AP$7:$AP$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.1414909</c:v>
+                  <c:v>0.34430379999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32911390000000001</c:v>
+                  <c:v>0.66666669999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3313643</c:v>
+                  <c:v>0.70857950000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3313643</c:v>
+                  <c:v>0.70890699999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34430379999999999</c:v>
+                  <c:v>0.70890699999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66666669999999995</c:v>
+                  <c:v>0.70890699999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70857950000000003</c:v>
+                  <c:v>0.70890699999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70890699999999995</c:v>
+                  <c:v>0.707982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70890699999999995</c:v>
+                  <c:v>0.70806409999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70890699999999995</c:v>
+                  <c:v>0.70806409999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70890699999999995</c:v>
+                  <c:v>0.70806409999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.707982</c:v>
+                  <c:v>0.70806409999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.70806409999999997</c:v>
+                  <c:v>0.70946900000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.70806409999999997</c:v>
+                  <c:v>0.70955060000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.70806409999999997</c:v>
+                  <c:v>0.72528090000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70806409999999997</c:v>
+                  <c:v>0.72668540000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70946900000000002</c:v>
+                  <c:v>0.72668540000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70955060000000003</c:v>
+                  <c:v>0.72668540000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72528090000000001</c:v>
+                  <c:v>0.72668540000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.72668540000000004</c:v>
@@ -1695,11 +1784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100215424"/>
-        <c:axId val="101622912"/>
+        <c:axId val="87024000"/>
+        <c:axId val="87025536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100215424"/>
+        <c:axId val="87024000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,14 +1798,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101622912"/>
+        <c:crossAx val="87025536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101622912"/>
+        <c:axId val="87025536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100215424"/>
+        <c:crossAx val="87024000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,7 +4524,7 @@
       <c r="A19" s="9">
         <v>42891</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="16">
         <v>231</v>
       </c>
       <c r="C19" s="10">
@@ -4941,6 +5030,518 @@
         <v>0.38511329999999999</v>
       </c>
       <c r="AP22" s="5">
+        <v>0.72668540000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>42895</v>
+      </c>
+      <c r="B23" s="10">
+        <v>231</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>309</v>
+      </c>
+      <c r="E23" s="10">
+        <v>67</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>62</v>
+      </c>
+      <c r="I23" s="10">
+        <v>216</v>
+      </c>
+      <c r="J23" s="10">
+        <v>657</v>
+      </c>
+      <c r="K23" s="10">
+        <v>130</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>239</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>83</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>12</v>
+      </c>
+      <c r="W23" s="10">
+        <v>18</v>
+      </c>
+      <c r="X23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>374</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>231</v>
+      </c>
+      <c r="AH23" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ23" s="6">
+        <v>119</v>
+      </c>
+      <c r="AK23" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>0.38511329999999999</v>
+      </c>
+      <c r="AP23" s="5">
+        <v>0.72668540000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>42896</v>
+      </c>
+      <c r="B24" s="10">
+        <v>231</v>
+      </c>
+      <c r="C24" s="10">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10">
+        <v>309</v>
+      </c>
+      <c r="E24" s="10">
+        <v>67</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>62</v>
+      </c>
+      <c r="I24" s="10">
+        <v>216</v>
+      </c>
+      <c r="J24" s="10">
+        <v>657</v>
+      </c>
+      <c r="K24" s="10">
+        <v>130</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>239</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>57</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
+        <v>12</v>
+      </c>
+      <c r="W24" s="10">
+        <v>18</v>
+      </c>
+      <c r="X24" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>379</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="6">
+        <v>231</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ24" s="6">
+        <v>119</v>
+      </c>
+      <c r="AK24" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO24" s="5">
+        <v>0.38511329999999999</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>0.72668540000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>42898</v>
+      </c>
+      <c r="B25" s="10">
+        <v>231</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>309</v>
+      </c>
+      <c r="E25" s="10">
+        <v>67</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>62</v>
+      </c>
+      <c r="I25" s="10">
+        <v>216</v>
+      </c>
+      <c r="J25" s="10">
+        <v>657</v>
+      </c>
+      <c r="K25" s="10">
+        <v>130</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>239</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>57</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
+        <v>0</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>12</v>
+      </c>
+      <c r="W25" s="10">
+        <v>18</v>
+      </c>
+      <c r="X25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>231</v>
+      </c>
+      <c r="AH25" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI25" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="6">
+        <v>119</v>
+      </c>
+      <c r="AK25" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO25" s="5">
+        <v>0.38511329999999999</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>0.72668540000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>42900</v>
+      </c>
+      <c r="B26" s="16">
+        <v>232</v>
+      </c>
+      <c r="C26" s="10">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <v>309</v>
+      </c>
+      <c r="E26" s="10">
+        <v>67</v>
+      </c>
+      <c r="F26" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>62</v>
+      </c>
+      <c r="I26" s="10">
+        <v>216</v>
+      </c>
+      <c r="J26" s="10">
+        <v>657</v>
+      </c>
+      <c r="K26" s="10">
+        <v>130</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <v>239</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>57</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>12</v>
+      </c>
+      <c r="W26" s="10">
+        <v>18</v>
+      </c>
+      <c r="X26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>240</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>232</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>66</v>
+      </c>
+      <c r="AJ26" s="6">
+        <v>119</v>
+      </c>
+      <c r="AK26" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="AO26" s="5">
+        <v>0.38511329999999999</v>
+      </c>
+      <c r="AP26" s="5">
         <v>0.72668540000000004</v>
       </c>
     </row>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -330,7 +330,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4879498522554531E-2"/>
+          <c:y val="3.1034296813527242E-2"/>
+          <c:w val="0.93466354666621121"/>
+          <c:h val="0.82352630449495701"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -353,10 +363,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -431,16 +441,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$26</c:f>
+              <c:f>Sheet1!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -514,6 +527,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -540,10 +556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -618,16 +634,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$26</c:f>
+              <c:f>Sheet1!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -702,6 +721,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,10 +749,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -805,16 +827,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$26</c:f>
+              <c:f>Sheet1!$I$2:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -888,6 +913,9 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -944,7 +972,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73470636127100164"/>
+          <c:y val="0.37107094317612815"/>
+          <c:w val="0.21467903279985881"/>
+          <c:h val="0.15163868667359975"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -982,7 +1019,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.5272345295232889E-2"/>
           <c:y val="4.2215289126595022E-2"/>
-          <c:w val="0.67996879999544524"/>
+          <c:w val="0.9084575924755609"/>
           <c:h val="0.82352630449495701"/>
         </c:manualLayout>
       </c:layout>
@@ -1008,10 +1045,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$26</c:f>
+              <c:f>Sheet1!$A$7:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1071,16 +1108,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$7:$AL$26</c:f>
+              <c:f>Sheet1!$AL$7:$AL$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1139,6 +1179,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1165,10 +1208,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$26</c:f>
+              <c:f>Sheet1!$A$7:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1228,16 +1271,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$26</c:f>
+              <c:f>Sheet1!$AM$7:$AM$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1296,6 +1342,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1322,10 +1371,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$26</c:f>
+              <c:f>Sheet1!$A$7:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1385,16 +1434,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$26</c:f>
+              <c:f>Sheet1!$AN$7:$AN$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.59701490000000002</c:v>
                 </c:pt>
@@ -1454,6 +1506,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.98507460000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98550720000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,10 +1534,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$26</c:f>
+              <c:f>Sheet1!$A$7:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1542,16 +1597,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$26</c:f>
+              <c:f>Sheet1!$AO$7:$AO$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.33980579999999999</c:v>
                 </c:pt>
@@ -1611,6 +1669,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.38511329999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38110749999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,10 +1697,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$26</c:f>
+              <c:f>Sheet1!$A$7:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1699,16 +1760,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$26</c:f>
+              <c:f>Sheet1!$AP$7:$AP$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.34430379999999999</c:v>
                 </c:pt>
@@ -1768,6 +1832,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.72668540000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72688960000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,7 +1890,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72549608646162156"/>
+          <c:y val="0.62241150673775836"/>
+          <c:w val="0.25063737965509192"/>
+          <c:h val="0.25273114445599959"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1848,8 +1924,8 @@
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -1872,16 +1948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2192,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,6 +5621,134 @@
         <v>0.72668540000000004</v>
       </c>
     </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>42901</v>
+      </c>
+      <c r="B27" s="10">
+        <v>232</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11">
+        <v>307</v>
+      </c>
+      <c r="E27" s="11">
+        <v>69</v>
+      </c>
+      <c r="F27" s="16">
+        <v>3559</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>61</v>
+      </c>
+      <c r="I27" s="10">
+        <v>216</v>
+      </c>
+      <c r="J27" s="10">
+        <v>657</v>
+      </c>
+      <c r="K27" s="10">
+        <v>130</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>239</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>57</v>
+      </c>
+      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>12</v>
+      </c>
+      <c r="W27" s="10">
+        <v>18</v>
+      </c>
+      <c r="X27" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>283</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH27" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>68</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>117</v>
+      </c>
+      <c r="AK27" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO27" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP27" s="5">
+        <v>0.72688960000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86975232"/>
-        <c:axId val="86976768"/>
+        <c:axId val="100507008"/>
+        <c:axId val="100516992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86975232"/>
+        <c:axId val="100507008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +947,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86976768"/>
+        <c:crossAx val="100516992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86976768"/>
+        <c:axId val="100516992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86975232"/>
+        <c:crossAx val="100507008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1017,7 +1017,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5272345295232889E-2"/>
+          <c:x val="7.5779089461805338E-2"/>
           <c:y val="4.2215289126595022E-2"/>
           <c:w val="0.9084575924755609"/>
           <c:h val="0.82352630449495701"/>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87024000"/>
-        <c:axId val="87025536"/>
+        <c:axId val="100704256"/>
+        <c:axId val="100705792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87024000"/>
+        <c:axId val="100704256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87025536"/>
+        <c:crossAx val="100705792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87025536"/>
+        <c:axId val="100705792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87024000"/>
+        <c:crossAx val="100704256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1919,15 +1919,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1949,15 +1949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2268,10 +2268,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ27"/>
+  <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1410" ySplit="1800" topLeftCell="A17" activePane="bottomRight"/>
+      <selection activeCell="AQ8" sqref="AQ8"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:AQ29"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5749,6 +5753,390 @@
         <v>0.72688960000000002</v>
       </c>
     </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>42902</v>
+      </c>
+      <c r="B28" s="10">
+        <v>232</v>
+      </c>
+      <c r="C28" s="10">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10">
+        <v>307</v>
+      </c>
+      <c r="E28" s="10">
+        <v>69</v>
+      </c>
+      <c r="F28" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>61</v>
+      </c>
+      <c r="I28" s="10">
+        <v>216</v>
+      </c>
+      <c r="J28" s="10">
+        <v>657</v>
+      </c>
+      <c r="K28" s="10">
+        <v>130</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>239</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>57</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10">
+        <v>0</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10">
+        <v>12</v>
+      </c>
+      <c r="W28" s="10">
+        <v>18</v>
+      </c>
+      <c r="X28" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ28" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK28" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>0.72688960000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>42903</v>
+      </c>
+      <c r="B29" s="10">
+        <v>232</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>307</v>
+      </c>
+      <c r="E29" s="10">
+        <v>69</v>
+      </c>
+      <c r="F29" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>61</v>
+      </c>
+      <c r="I29" s="10">
+        <v>216</v>
+      </c>
+      <c r="J29" s="10">
+        <v>657</v>
+      </c>
+      <c r="K29" s="10">
+        <v>130</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>239</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>57</v>
+      </c>
+      <c r="R29" s="10">
+        <v>0</v>
+      </c>
+      <c r="S29" s="10">
+        <v>0</v>
+      </c>
+      <c r="T29" s="10">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10">
+        <v>0</v>
+      </c>
+      <c r="V29" s="10">
+        <v>12</v>
+      </c>
+      <c r="W29" s="10">
+        <v>18</v>
+      </c>
+      <c r="X29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI29" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ29" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK29" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO29" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>0.72688960000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>42904</v>
+      </c>
+      <c r="B30" s="10">
+        <v>232</v>
+      </c>
+      <c r="C30" s="10">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10">
+        <v>307</v>
+      </c>
+      <c r="E30" s="10">
+        <v>69</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3559</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>61</v>
+      </c>
+      <c r="I30" s="10">
+        <v>216</v>
+      </c>
+      <c r="J30" s="10">
+        <v>657</v>
+      </c>
+      <c r="K30" s="10">
+        <v>130</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <v>239</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>57</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0</v>
+      </c>
+      <c r="V30" s="10">
+        <v>12</v>
+      </c>
+      <c r="W30" s="10">
+        <v>18</v>
+      </c>
+      <c r="X30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ30" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK30" s="6">
+        <v>2587</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>0.72688960000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100507008"/>
-        <c:axId val="100516992"/>
+        <c:axId val="49754112"/>
+        <c:axId val="49755648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100507008"/>
+        <c:axId val="49754112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +947,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100516992"/>
+        <c:crossAx val="49755648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100516992"/>
+        <c:axId val="49755648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100507008"/>
+        <c:crossAx val="49754112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100704256"/>
-        <c:axId val="100705792"/>
+        <c:axId val="43647360"/>
+        <c:axId val="43648896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100704256"/>
+        <c:axId val="43647360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100705792"/>
+        <c:crossAx val="43648896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100705792"/>
+        <c:axId val="43648896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100704256"/>
+        <c:crossAx val="43647360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,13 +1920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1950,13 +1950,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2268,14 +2268,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ30"/>
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="A17" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="1800" topLeftCell="AB5" activePane="bottomRight"/>
       <selection activeCell="AQ8" sqref="AQ8"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:AQ29"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6137,6 +6137,134 @@
         <v>0.72688960000000002</v>
       </c>
     </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>42906</v>
+      </c>
+      <c r="B31" s="10">
+        <v>232</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>307</v>
+      </c>
+      <c r="E31" s="10">
+        <v>69</v>
+      </c>
+      <c r="F31" s="11">
+        <v>3560</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>61</v>
+      </c>
+      <c r="I31" s="10">
+        <v>216</v>
+      </c>
+      <c r="J31" s="10">
+        <v>657</v>
+      </c>
+      <c r="K31" s="10">
+        <v>130</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>239</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>57</v>
+      </c>
+      <c r="R31" s="10">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="10">
+        <v>0</v>
+      </c>
+      <c r="V31" s="10">
+        <v>12</v>
+      </c>
+      <c r="W31" s="10">
+        <v>18</v>
+      </c>
+      <c r="X31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ31" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>2588</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>0.72696629999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49754112"/>
-        <c:axId val="49755648"/>
+        <c:axId val="93849856"/>
+        <c:axId val="93868032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="49754112"/>
+        <c:axId val="93849856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +947,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49755648"/>
+        <c:crossAx val="93868032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="49755648"/>
+        <c:axId val="93868032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49754112"/>
+        <c:crossAx val="93849856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43647360"/>
-        <c:axId val="43648896"/>
+        <c:axId val="93895296"/>
+        <c:axId val="93925760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="43647360"/>
+        <c:axId val="93895296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43648896"/>
+        <c:crossAx val="93925760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43648896"/>
+        <c:axId val="93925760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43647360"/>
+        <c:crossAx val="93895296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2271,10 +2271,10 @@
   <dimension ref="A1:AQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="AB5" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="1800" topLeftCell="A5" activePane="bottomLeft"/>
       <selection activeCell="AQ8" sqref="AQ8"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
       <selection pane="bottomRight" activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93849856"/>
-        <c:axId val="93868032"/>
+        <c:axId val="88927616"/>
+        <c:axId val="89326720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93849856"/>
+        <c:axId val="88927616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +947,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93868032"/>
+        <c:crossAx val="89326720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93868032"/>
+        <c:axId val="89326720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93849856"/>
+        <c:crossAx val="88927616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93895296"/>
-        <c:axId val="93925760"/>
+        <c:axId val="89378816"/>
+        <c:axId val="89380352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93895296"/>
+        <c:axId val="89378816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93925760"/>
+        <c:crossAx val="89380352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93925760"/>
+        <c:axId val="89380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93895296"/>
+        <c:crossAx val="89378816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2268,14 +2268,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="A5" activePane="bottomLeft"/>
+      <pane xSplit="1410" ySplit="1800" topLeftCell="A5" activePane="bottomRight"/>
       <selection activeCell="AQ8" sqref="AQ8"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="AL35" sqref="AL35"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:AQ32"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,6 +6265,134 @@
         <v>0.72696629999999995</v>
       </c>
     </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>42908</v>
+      </c>
+      <c r="B32" s="10">
+        <v>232</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10">
+        <v>307</v>
+      </c>
+      <c r="E32" s="10">
+        <v>69</v>
+      </c>
+      <c r="F32" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>61</v>
+      </c>
+      <c r="I32" s="10">
+        <v>216</v>
+      </c>
+      <c r="J32" s="10">
+        <v>657</v>
+      </c>
+      <c r="K32" s="10">
+        <v>130</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>239</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>57</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="10">
+        <v>12</v>
+      </c>
+      <c r="W32" s="10">
+        <v>18</v>
+      </c>
+      <c r="X32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK32" s="6">
+        <v>2588</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>0.72696629999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88927616"/>
-        <c:axId val="89326720"/>
+        <c:axId val="124980608"/>
+        <c:axId val="124986496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88927616"/>
+        <c:axId val="124980608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +947,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89326720"/>
+        <c:crossAx val="124986496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89326720"/>
+        <c:axId val="124986496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88927616"/>
+        <c:crossAx val="124980608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89378816"/>
-        <c:axId val="89380352"/>
+        <c:axId val="125034496"/>
+        <c:axId val="125036032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89378816"/>
+        <c:axId val="125034496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89380352"/>
+        <c:crossAx val="125036032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89380352"/>
+        <c:axId val="125036032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89378816"/>
+        <c:crossAx val="125034496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2268,13 +2268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="A5" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="1800" topLeftCell="AB5" activePane="bottomLeft"/>
       <selection activeCell="AQ8" sqref="AQ8"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:AQ32"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:AQ34"/>
       <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -6393,6 +6393,262 @@
         <v>0.72696629999999995</v>
       </c>
     </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>42909</v>
+      </c>
+      <c r="B33" s="10">
+        <v>232</v>
+      </c>
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10">
+        <v>307</v>
+      </c>
+      <c r="E33" s="10">
+        <v>69</v>
+      </c>
+      <c r="F33" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>61</v>
+      </c>
+      <c r="I33" s="10">
+        <v>216</v>
+      </c>
+      <c r="J33" s="10">
+        <v>657</v>
+      </c>
+      <c r="K33" s="10">
+        <v>130</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>239</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>57</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10">
+        <v>0</v>
+      </c>
+      <c r="T33" s="10">
+        <v>0</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+      <c r="V33" s="10">
+        <v>12</v>
+      </c>
+      <c r="W33" s="10">
+        <v>18</v>
+      </c>
+      <c r="X33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ33" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK33" s="6">
+        <v>2588</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO33" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>0.72696629999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>42911</v>
+      </c>
+      <c r="B34" s="10">
+        <v>232</v>
+      </c>
+      <c r="C34" s="10">
+        <v>5</v>
+      </c>
+      <c r="D34" s="10">
+        <v>307</v>
+      </c>
+      <c r="E34" s="10">
+        <v>69</v>
+      </c>
+      <c r="F34" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>61</v>
+      </c>
+      <c r="I34" s="10">
+        <v>216</v>
+      </c>
+      <c r="J34" s="10">
+        <v>657</v>
+      </c>
+      <c r="K34" s="10">
+        <v>130</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>239</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>57</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
+        <v>12</v>
+      </c>
+      <c r="W34" s="10">
+        <v>18</v>
+      </c>
+      <c r="X34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH34" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI34" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ34" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK34" s="6">
+        <v>2588</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO34" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP34" s="5">
+        <v>0.72696629999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124980608"/>
-        <c:axId val="124986496"/>
+        <c:axId val="73026944"/>
+        <c:axId val="73032832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124980608"/>
+        <c:axId val="73026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +947,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124986496"/>
+        <c:crossAx val="73032832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124986496"/>
+        <c:axId val="73032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124980608"/>
+        <c:crossAx val="73026944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,7 +1671,7 @@
                   <c:v>0.38511329999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38110749999999999</c:v>
+                  <c:v>0.38511329999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125034496"/>
-        <c:axId val="125036032"/>
+        <c:axId val="72761344"/>
+        <c:axId val="72762880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125034496"/>
+        <c:axId val="72761344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125036032"/>
+        <c:crossAx val="72762880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125036032"/>
+        <c:axId val="72762880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125034496"/>
+        <c:crossAx val="72761344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2268,14 +2268,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="AB5" activePane="bottomLeft"/>
+      <pane xSplit="1410" ySplit="1800" topLeftCell="A5" activePane="bottomRight"/>
       <selection activeCell="AQ8" sqref="AQ8"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:AQ34"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:AQ36"/>
+      <selection pane="bottomRight" activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,7 +5747,7 @@
         <v>0.98550720000000003</v>
       </c>
       <c r="AO27" s="5">
-        <v>0.38110749999999999</v>
+        <v>0.38511329999999999</v>
       </c>
       <c r="AP27" s="5">
         <v>0.72688960000000002</v>
@@ -6647,6 +6647,262 @@
       </c>
       <c r="AP34" s="5">
         <v>0.72696629999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>42915</v>
+      </c>
+      <c r="B35" s="10">
+        <v>232</v>
+      </c>
+      <c r="C35" s="10">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10">
+        <v>307</v>
+      </c>
+      <c r="E35" s="10">
+        <v>69</v>
+      </c>
+      <c r="F35" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>61</v>
+      </c>
+      <c r="I35" s="10">
+        <v>216</v>
+      </c>
+      <c r="J35" s="10">
+        <v>657</v>
+      </c>
+      <c r="K35" s="10">
+        <v>130</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>239</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>57</v>
+      </c>
+      <c r="R35" s="10">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <v>0</v>
+      </c>
+      <c r="T35" s="10">
+        <v>0</v>
+      </c>
+      <c r="U35" s="10">
+        <v>0</v>
+      </c>
+      <c r="V35" s="10">
+        <v>12</v>
+      </c>
+      <c r="W35" s="10">
+        <v>18</v>
+      </c>
+      <c r="X35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH35" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ35" s="6">
+        <v>117</v>
+      </c>
+      <c r="AK35" s="6">
+        <v>2588</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO35" s="5">
+        <v>0.38110749999999999</v>
+      </c>
+      <c r="AP35" s="5">
+        <v>0.72696629999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>42915</v>
+      </c>
+      <c r="B36" s="10">
+        <v>232</v>
+      </c>
+      <c r="C36" s="10">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10">
+        <v>307</v>
+      </c>
+      <c r="E36" s="10">
+        <v>69</v>
+      </c>
+      <c r="F36" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>61</v>
+      </c>
+      <c r="I36" s="10">
+        <v>216</v>
+      </c>
+      <c r="J36" s="10">
+        <v>657</v>
+      </c>
+      <c r="K36" s="10">
+        <v>130</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>239</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>57</v>
+      </c>
+      <c r="R36" s="10">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <v>0</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+      <c r="V36" s="10">
+        <v>12</v>
+      </c>
+      <c r="W36" s="10">
+        <v>18</v>
+      </c>
+      <c r="X36" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>379</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH36" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI36" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>118</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>2599</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO36" s="5">
+        <v>0.38436480000000001</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>0.73005620000000004</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73026944"/>
-        <c:axId val="73032832"/>
+        <c:axId val="121064832"/>
+        <c:axId val="121070720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="73026944"/>
+        <c:axId val="121064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +947,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73032832"/>
+        <c:crossAx val="121070720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="73032832"/>
+        <c:axId val="121070720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73026944"/>
+        <c:crossAx val="121064832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72761344"/>
-        <c:axId val="72762880"/>
+        <c:axId val="124665856"/>
+        <c:axId val="124667392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="72761344"/>
+        <c:axId val="124665856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72762880"/>
+        <c:crossAx val="124667392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="72762880"/>
+        <c:axId val="124667392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72761344"/>
+        <c:crossAx val="124665856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,13 +1920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1950,13 +1950,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2268,14 +2268,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ36"/>
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="A5" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="1800" topLeftCell="Y5" activePane="bottomRight"/>
       <selection activeCell="AQ8" sqref="AQ8"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:AQ36"/>
-      <selection pane="bottomRight" activeCell="AO27" sqref="AO27"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
+      <selection pane="bottomRight" activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6905,6 +6905,134 @@
         <v>0.73005620000000004</v>
       </c>
     </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>42919</v>
+      </c>
+      <c r="B37" s="10">
+        <v>232</v>
+      </c>
+      <c r="C37" s="10">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10">
+        <v>307</v>
+      </c>
+      <c r="E37" s="10">
+        <v>69</v>
+      </c>
+      <c r="F37" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>61</v>
+      </c>
+      <c r="I37" s="10">
+        <v>216</v>
+      </c>
+      <c r="J37" s="10">
+        <v>657</v>
+      </c>
+      <c r="K37" s="10">
+        <v>130</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0</v>
+      </c>
+      <c r="M37" s="10">
+        <v>239</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>57</v>
+      </c>
+      <c r="R37" s="10">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <v>0</v>
+      </c>
+      <c r="T37" s="10">
+        <v>0</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
+      <c r="V37" s="10">
+        <v>12</v>
+      </c>
+      <c r="W37" s="10">
+        <v>18</v>
+      </c>
+      <c r="X37" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>380</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH37" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ37" s="6">
+        <v>118</v>
+      </c>
+      <c r="AK37" s="6">
+        <v>2599</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO37" s="5">
+        <v>0.38436480000000001</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>0.73005620000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -363,10 +363,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -444,16 +444,58 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$27</c:f>
+              <c:f>Sheet1!$G$2:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -530,6 +572,48 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -556,10 +640,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -637,16 +721,58 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$27</c:f>
+              <c:f>Sheet1!$H$2:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -723,6 +849,48 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
@@ -749,10 +917,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -830,16 +998,58 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$27</c:f>
+              <c:f>Sheet1!$I$2:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -916,6 +1126,48 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -933,11 +1185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121064832"/>
-        <c:axId val="121070720"/>
+        <c:axId val="96619904"/>
+        <c:axId val="96625792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121064832"/>
+        <c:axId val="96619904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,14 +1199,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121070720"/>
+        <c:crossAx val="96625792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121070720"/>
+        <c:axId val="96625792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121064832"/>
+        <c:crossAx val="96619904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,10 +1228,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73470636127100164"/>
+          <c:x val="0.63214227531903344"/>
           <c:y val="0.37107094317612815"/>
-          <c:w val="0.21467903279985881"/>
-          <c:h val="0.15163868667359975"/>
+          <c:w val="0.31724318942890761"/>
+          <c:h val="0.24108662517814203"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1045,10 +1297,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$27</c:f>
+              <c:f>Sheet1!$A$7:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1111,16 +1363,58 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$7:$AL$27</c:f>
+              <c:f>Sheet1!$AL$7:$AL$41</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1182,6 +1476,48 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1208,10 +1544,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$27</c:f>
+              <c:f>Sheet1!$A$7:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1274,16 +1610,58 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$27</c:f>
+              <c:f>Sheet1!$AM$7:$AM$41</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1345,6 +1723,48 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1371,10 +1791,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$27</c:f>
+              <c:f>Sheet1!$A$7:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1437,16 +1857,58 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$27</c:f>
+              <c:f>Sheet1!$AN$7:$AN$41</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.59701490000000002</c:v>
                 </c:pt>
@@ -1508,6 +1970,48 @@
                   <c:v>0.98507460000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.98550720000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -1534,10 +2038,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$27</c:f>
+              <c:f>Sheet1!$A$7:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1600,16 +2104,58 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$27</c:f>
+              <c:f>Sheet1!$AO$7:$AO$41</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.33980579999999999</c:v>
                 </c:pt>
@@ -1672,6 +2218,48 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.38511329999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38110749999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38436480000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38436480000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38436480000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.38436480000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38436480000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38436480000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,10 +2285,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$27</c:f>
+              <c:f>Sheet1!$A$7:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1763,16 +2351,58 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$27</c:f>
+              <c:f>Sheet1!$AP$7:$AP$41</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.34430379999999999</c:v>
                 </c:pt>
@@ -1835,6 +2465,48 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.72688960000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72688960000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72688960000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72688960000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72696629999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72696629999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72696629999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72696629999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72696629999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73005620000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73005620000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73005620000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73005620000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73005620000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73005620000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,11 +2523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124665856"/>
-        <c:axId val="124667392"/>
+        <c:axId val="98324480"/>
+        <c:axId val="98326016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124665856"/>
+        <c:axId val="98324480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +2537,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124667392"/>
+        <c:crossAx val="98326016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124667392"/>
+        <c:axId val="98326016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +2555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124665856"/>
+        <c:crossAx val="98324480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,13 +2592,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1950,13 +2622,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2268,14 +2940,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ37"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="Y5" activePane="bottomRight"/>
-      <selection activeCell="AQ8" sqref="AQ8"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
-      <selection pane="bottomRight" activeCell="AC37" sqref="AC37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <pane xSplit="1410" topLeftCell="B1" activePane="topRight"/>
+      <selection activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,6 +7703,518 @@
         <v>0.73005620000000004</v>
       </c>
     </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>42920</v>
+      </c>
+      <c r="B38" s="10">
+        <v>232</v>
+      </c>
+      <c r="C38" s="10">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10">
+        <v>307</v>
+      </c>
+      <c r="E38" s="10">
+        <v>69</v>
+      </c>
+      <c r="F38" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>61</v>
+      </c>
+      <c r="I38" s="10">
+        <v>216</v>
+      </c>
+      <c r="J38" s="10">
+        <v>657</v>
+      </c>
+      <c r="K38" s="10">
+        <v>130</v>
+      </c>
+      <c r="L38" s="10">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <v>239</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>57</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0</v>
+      </c>
+      <c r="V38" s="10">
+        <v>12</v>
+      </c>
+      <c r="W38" s="10">
+        <v>18</v>
+      </c>
+      <c r="X38" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>380</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI38" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ38" s="6">
+        <v>118</v>
+      </c>
+      <c r="AK38" s="6">
+        <v>2599</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO38" s="5">
+        <v>0.38436480000000001</v>
+      </c>
+      <c r="AP38" s="5">
+        <v>0.73005620000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>42921</v>
+      </c>
+      <c r="B39" s="10">
+        <v>232</v>
+      </c>
+      <c r="C39" s="10">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
+        <v>307</v>
+      </c>
+      <c r="E39" s="10">
+        <v>69</v>
+      </c>
+      <c r="F39" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>61</v>
+      </c>
+      <c r="I39" s="10">
+        <v>216</v>
+      </c>
+      <c r="J39" s="10">
+        <v>657</v>
+      </c>
+      <c r="K39" s="10">
+        <v>130</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10">
+        <v>239</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>57</v>
+      </c>
+      <c r="R39" s="10">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <v>0</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0</v>
+      </c>
+      <c r="V39" s="10">
+        <v>12</v>
+      </c>
+      <c r="W39" s="10">
+        <v>18</v>
+      </c>
+      <c r="X39" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>381</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI39" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ39" s="6">
+        <v>118</v>
+      </c>
+      <c r="AK39" s="6">
+        <v>2599</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>0.38436480000000001</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>0.73005620000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>42924</v>
+      </c>
+      <c r="B40" s="10">
+        <v>232</v>
+      </c>
+      <c r="C40" s="10">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
+        <v>307</v>
+      </c>
+      <c r="E40" s="10">
+        <v>69</v>
+      </c>
+      <c r="F40" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>61</v>
+      </c>
+      <c r="I40" s="10">
+        <v>216</v>
+      </c>
+      <c r="J40" s="10">
+        <v>657</v>
+      </c>
+      <c r="K40" s="10">
+        <v>130</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>239</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>57</v>
+      </c>
+      <c r="R40" s="10">
+        <v>0</v>
+      </c>
+      <c r="S40" s="10">
+        <v>0</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <v>12</v>
+      </c>
+      <c r="W40" s="10">
+        <v>18</v>
+      </c>
+      <c r="X40" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>381</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH40" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI40" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ40" s="6">
+        <v>118</v>
+      </c>
+      <c r="AK40" s="6">
+        <v>2599</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO40" s="5">
+        <v>0.38436480000000001</v>
+      </c>
+      <c r="AP40" s="5">
+        <v>0.73005620000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>42925</v>
+      </c>
+      <c r="B41" s="10">
+        <v>232</v>
+      </c>
+      <c r="C41" s="10">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>307</v>
+      </c>
+      <c r="E41" s="10">
+        <v>69</v>
+      </c>
+      <c r="F41" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>61</v>
+      </c>
+      <c r="I41" s="10">
+        <v>216</v>
+      </c>
+      <c r="J41" s="10">
+        <v>657</v>
+      </c>
+      <c r="K41" s="10">
+        <v>130</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>239</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>57</v>
+      </c>
+      <c r="R41" s="10">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10">
+        <v>0</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
+        <v>12</v>
+      </c>
+      <c r="W41" s="10">
+        <v>18</v>
+      </c>
+      <c r="X41" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA41" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>381</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>232</v>
+      </c>
+      <c r="AH41" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI41" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ41" s="6">
+        <v>118</v>
+      </c>
+      <c r="AK41" s="6">
+        <v>2599</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO41" s="5">
+        <v>0.38436480000000001</v>
+      </c>
+      <c r="AP41" s="5">
+        <v>0.73005620000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -363,10 +363,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -486,16 +486,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$41</c:f>
+              <c:f>Sheet1!$G$2:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -614,6 +617,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -640,10 +646,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -763,16 +769,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$41</c:f>
+              <c:f>Sheet1!$H$2:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -891,6 +900,9 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
@@ -917,10 +929,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1040,16 +1052,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$41</c:f>
+              <c:f>Sheet1!$I$2:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -1168,6 +1183,9 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -1185,11 +1203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96619904"/>
-        <c:axId val="96625792"/>
+        <c:axId val="92171648"/>
+        <c:axId val="92173440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="96619904"/>
+        <c:axId val="92171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,14 +1217,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96625792"/>
+        <c:crossAx val="92173440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96625792"/>
+        <c:axId val="92173440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96619904"/>
+        <c:crossAx val="92171648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,10 +1315,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$41</c:f>
+              <c:f>Sheet1!$A$7:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1405,16 +1423,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$7:$AL$41</c:f>
+              <c:f>Sheet1!$AL$7:$AL$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1518,6 +1539,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1544,10 +1568,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$41</c:f>
+              <c:f>Sheet1!$A$7:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1652,16 +1676,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$41</c:f>
+              <c:f>Sheet1!$AM$7:$AM$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1765,6 +1792,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1791,10 +1821,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$41</c:f>
+              <c:f>Sheet1!$A$7:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1899,16 +1929,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$41</c:f>
+              <c:f>Sheet1!$AN$7:$AN$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0.59701490000000002</c:v>
                 </c:pt>
@@ -2012,6 +2045,9 @@
                   <c:v>0.98550720000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.98550720000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -2038,10 +2074,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$41</c:f>
+              <c:f>Sheet1!$A$7:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -2146,16 +2182,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$41</c:f>
+              <c:f>Sheet1!$AO$7:$AO$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0.33980579999999999</c:v>
                 </c:pt>
@@ -2260,6 +2299,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.38436480000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.40065149999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,10 +2327,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$41</c:f>
+              <c:f>Sheet1!$A$7:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -2393,16 +2435,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$41</c:f>
+              <c:f>Sheet1!$AP$7:$AP$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0.34430379999999999</c:v>
                 </c:pt>
@@ -2507,6 +2552,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.73005620000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.74536780000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,11 +2571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98324480"/>
-        <c:axId val="98326016"/>
+        <c:axId val="92610560"/>
+        <c:axId val="92612096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98324480"/>
+        <c:axId val="92610560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,14 +2585,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98326016"/>
+        <c:crossAx val="92612096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98326016"/>
+        <c:axId val="92612096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98324480"/>
+        <c:crossAx val="92610560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2940,12 +2988,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <pane xSplit="1410" topLeftCell="B1" activePane="topRight"/>
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1410" ySplit="1800" topLeftCell="A36" activePane="bottomRight"/>
+      <selection activeCell="A42" sqref="A42:AQ42"/>
       <selection pane="topRight" activeCell="X50" sqref="X50"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AP42" sqref="AP42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8215,6 +8265,134 @@
         <v>0.73005620000000004</v>
       </c>
     </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>42935</v>
+      </c>
+      <c r="B42" s="10">
+        <v>235</v>
+      </c>
+      <c r="C42" s="10">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10">
+        <v>307</v>
+      </c>
+      <c r="E42" s="10">
+        <v>69</v>
+      </c>
+      <c r="F42" s="10">
+        <v>3562</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>61</v>
+      </c>
+      <c r="I42" s="10">
+        <v>216</v>
+      </c>
+      <c r="J42" s="10">
+        <v>657</v>
+      </c>
+      <c r="K42" s="10">
+        <v>130</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0</v>
+      </c>
+      <c r="M42" s="10">
+        <v>239</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>50</v>
+      </c>
+      <c r="R42" s="10">
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <v>0</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12">
+        <v>13</v>
+      </c>
+      <c r="W42" s="10">
+        <v>18</v>
+      </c>
+      <c r="X42" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA42" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>381</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>235</v>
+      </c>
+      <c r="AH42" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI42" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>123</v>
+      </c>
+      <c r="AK42" s="13">
+        <v>2655</v>
+      </c>
+      <c r="AL42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO42" s="15">
+        <v>0.40065149999999999</v>
+      </c>
+      <c r="AP42" s="15">
+        <v>0.74536780000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -335,7 +335,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4879498522554531E-2"/>
+          <c:x val="4.5951948314153036E-2"/>
           <c:y val="3.1034296813527242E-2"/>
           <c:w val="0.93466354666621121"/>
           <c:h val="0.82352630449495701"/>
@@ -1203,11 +1203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92171648"/>
-        <c:axId val="92173440"/>
+        <c:axId val="104626048"/>
+        <c:axId val="104627584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92171648"/>
+        <c:axId val="104626048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,14 +1217,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92173440"/>
+        <c:crossAx val="104627584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92173440"/>
+        <c:axId val="104627584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92171648"/>
+        <c:crossAx val="104626048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,11 +2571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92610560"/>
-        <c:axId val="92612096"/>
+        <c:axId val="104405248"/>
+        <c:axId val="104423424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92610560"/>
+        <c:axId val="104405248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,14 +2585,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92612096"/>
+        <c:crossAx val="104423424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92612096"/>
+        <c:axId val="104423424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92610560"/>
+        <c:crossAx val="104405248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2639,15 +2639,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2669,15 +2669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2988,14 +2988,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ42"/>
+  <dimension ref="A1:AQ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="A36" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="1800" topLeftCell="E36" activePane="bottomRight"/>
       <selection activeCell="A42" sqref="A42:AQ42"/>
       <selection pane="topRight" activeCell="X50" sqref="X50"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AP42" sqref="AP42"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:AQ44"/>
+      <selection pane="bottomRight" activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8393,6 +8393,262 @@
         <v>0.74536780000000002</v>
       </c>
     </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>42936</v>
+      </c>
+      <c r="B43" s="10">
+        <v>235</v>
+      </c>
+      <c r="C43" s="10">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10">
+        <v>307</v>
+      </c>
+      <c r="E43" s="10">
+        <v>69</v>
+      </c>
+      <c r="F43" s="10">
+        <v>3562</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>61</v>
+      </c>
+      <c r="I43" s="10">
+        <v>216</v>
+      </c>
+      <c r="J43" s="10">
+        <v>657</v>
+      </c>
+      <c r="K43" s="10">
+        <v>130</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>239</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>50</v>
+      </c>
+      <c r="R43" s="10">
+        <v>0</v>
+      </c>
+      <c r="S43" s="10">
+        <v>0</v>
+      </c>
+      <c r="T43" s="10">
+        <v>0</v>
+      </c>
+      <c r="U43" s="10">
+        <v>0</v>
+      </c>
+      <c r="V43" s="10">
+        <v>13</v>
+      </c>
+      <c r="W43" s="10">
+        <v>18</v>
+      </c>
+      <c r="X43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA43" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10">
+        <v>381</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>235</v>
+      </c>
+      <c r="AH43" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI43" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ43" s="6">
+        <v>123</v>
+      </c>
+      <c r="AK43" s="6">
+        <v>2655</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO43" s="5">
+        <v>0.40065149999999999</v>
+      </c>
+      <c r="AP43" s="5">
+        <v>0.74536780000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>42937</v>
+      </c>
+      <c r="B44" s="10">
+        <v>235</v>
+      </c>
+      <c r="C44" s="10">
+        <v>5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>307</v>
+      </c>
+      <c r="E44" s="10">
+        <v>69</v>
+      </c>
+      <c r="F44" s="10">
+        <v>3562</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>61</v>
+      </c>
+      <c r="I44" s="10">
+        <v>216</v>
+      </c>
+      <c r="J44" s="10">
+        <v>657</v>
+      </c>
+      <c r="K44" s="10">
+        <v>130</v>
+      </c>
+      <c r="L44" s="10">
+        <v>0</v>
+      </c>
+      <c r="M44" s="10">
+        <v>239</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>50</v>
+      </c>
+      <c r="R44" s="10">
+        <v>0</v>
+      </c>
+      <c r="S44" s="10">
+        <v>0</v>
+      </c>
+      <c r="T44" s="10">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>12</v>
+      </c>
+      <c r="W44" s="10">
+        <v>18</v>
+      </c>
+      <c r="X44" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>45</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>283</v>
+      </c>
+      <c r="AA44" s="10">
+        <v>130</v>
+      </c>
+      <c r="AB44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>381</v>
+      </c>
+      <c r="AD44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>235</v>
+      </c>
+      <c r="AH44" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI44" s="6">
+        <v>68</v>
+      </c>
+      <c r="AJ44" s="6">
+        <v>123</v>
+      </c>
+      <c r="AK44" s="6">
+        <v>2656</v>
+      </c>
+      <c r="AL44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AO44" s="5">
+        <v>0.40065149999999999</v>
+      </c>
+      <c r="AP44" s="5">
+        <v>0.74564850000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,9 @@
   <si>
     <t>OR specified as ', '</t>
   </si>
+  <si>
+    <t>List of</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +248,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +296,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -363,10 +384,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -489,16 +510,49 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$42</c:f>
+              <c:f>Sheet1!$G$2:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -620,6 +674,39 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -646,10 +733,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -772,16 +859,49 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$42</c:f>
+              <c:f>Sheet1!$H$2:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>202</c:v>
                 </c:pt>
@@ -903,6 +1023,39 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
@@ -929,10 +1082,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>42864</c:v>
                 </c:pt>
@@ -1055,16 +1208,49 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$42</c:f>
+              <c:f>Sheet1!$I$2:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>216</c:v>
                 </c:pt>
@@ -1186,6 +1372,39 @@
                   <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
@@ -1203,11 +1422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104626048"/>
-        <c:axId val="104627584"/>
+        <c:axId val="105345792"/>
+        <c:axId val="105347328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104626048"/>
+        <c:axId val="105345792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,14 +1436,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104627584"/>
+        <c:crossAx val="105347328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104627584"/>
+        <c:axId val="105347328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104626048"/>
+        <c:crossAx val="105345792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,7 +1520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$1</c:f>
+              <c:f>Sheet1!$AM$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1315,10 +1534,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$42</c:f>
+              <c:f>Sheet1!$A$7:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1426,16 +1645,49 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$7:$AL$42</c:f>
+              <c:f>Sheet1!$AM$7:$AM$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1542,6 +1794,39 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1554,7 +1839,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$1</c:f>
+              <c:f>Sheet1!$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1568,10 +1853,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$42</c:f>
+              <c:f>Sheet1!$A$7:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1679,16 +1964,49 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$42</c:f>
+              <c:f>Sheet1!$AN$7:$AN$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1795,6 +2113,39 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1807,7 +2158,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$1</c:f>
+              <c:f>Sheet1!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1821,10 +2172,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$42</c:f>
+              <c:f>Sheet1!$A$7:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -1932,16 +2283,49 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$42</c:f>
+              <c:f>Sheet1!$AO$7:$AO$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0.59701490000000002</c:v>
                 </c:pt>
@@ -2049,6 +2433,39 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98550720000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98571430000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,7 +2477,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$1</c:f>
+              <c:f>Sheet1!$AP$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2074,10 +2491,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$42</c:f>
+              <c:f>Sheet1!$A$7:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -2185,16 +2602,49 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$42</c:f>
+              <c:f>Sheet1!$AP$7:$AP$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0.33980579999999999</c:v>
                 </c:pt>
@@ -2302,6 +2752,39 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.40065149999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.40065149999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40065149999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40390880000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97058820000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2313,7 +2796,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$1</c:f>
+              <c:f>Sheet1!$AQ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2327,10 +2810,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$42</c:f>
+              <c:f>Sheet1!$A$7:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -2438,16 +2921,49 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$42</c:f>
+              <c:f>Sheet1!$AQ$7:$AQ$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0.34430379999999999</c:v>
                 </c:pt>
@@ -2555,6 +3071,39 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.74536780000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.74536780000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74564850000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74564850000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.74543919999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74543919999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74543919999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74543919999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.74543919999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.74543919999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.74543919999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92415729999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,11 +3120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104405248"/>
-        <c:axId val="104423424"/>
+        <c:axId val="111879296"/>
+        <c:axId val="111880832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104405248"/>
+        <c:axId val="111879296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,14 +3134,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104423424"/>
+        <c:crossAx val="111880832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104423424"/>
+        <c:axId val="111880832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +3152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104405248"/>
+        <c:crossAx val="111879296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2639,15 +3188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2669,15 +3218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2988,14 +3537,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ44"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="1800" topLeftCell="E36" activePane="bottomRight"/>
-      <selection activeCell="A42" sqref="A42:AQ42"/>
-      <selection pane="topRight" activeCell="X50" sqref="X50"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:AQ44"/>
-      <selection pane="bottomRight" activeCell="AA46" sqref="AA46"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A52" activePane="bottomRight"/>
+      <selection activeCell="R53" sqref="R53"/>
+      <selection pane="topRight" activeCell="AL1" sqref="AL1:AL1048576"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:AR53"/>
+      <selection pane="bottomRight" activeCell="AP59" sqref="AP59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,15 +3575,16 @@
     <col min="34" max="35" width="16.5703125" style="6" customWidth="1"/>
     <col min="36" max="36" width="15.42578125" style="6" customWidth="1"/>
     <col min="37" max="37" width="12.5703125" style="6" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="4" customWidth="1"/>
+    <col min="38" max="38" width="12.85546875" style="19" customWidth="1"/>
     <col min="39" max="39" width="12.7109375" style="5" customWidth="1"/>
     <col min="40" max="40" width="11.85546875" style="5" customWidth="1"/>
     <col min="41" max="41" width="12.140625" style="5" customWidth="1"/>
     <col min="42" max="42" width="11.140625" style="5" customWidth="1"/>
-    <col min="43" max="16384" width="8.7109375" style="2"/>
+    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3084,85 +3634,88 @@
         <v>14</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>42864</v>
       </c>
@@ -3211,77 +3764,78 @@
       <c r="P2" s="10">
         <v>10</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>83</v>
       </c>
-      <c r="R2" s="10">
+      <c r="S2" s="10">
         <v>15</v>
       </c>
-      <c r="S2" s="10">
-        <v>1</v>
-      </c>
       <c r="T2" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U2" s="10">
         <v>7</v>
       </c>
       <c r="V2" s="10">
+        <v>7</v>
+      </c>
+      <c r="W2" s="10">
         <v>88</v>
       </c>
-      <c r="W2" s="10">
+      <c r="X2" s="10">
         <v>19</v>
       </c>
-      <c r="X2" s="10">
+      <c r="Y2" s="10">
         <v>42</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Z2" s="10">
         <v>45</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="AA2" s="10">
         <v>240</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AB2" s="10">
         <v>130</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AC2" s="10">
         <v>0</v>
       </c>
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
-      <c r="AG2" s="10">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10">
         <v>229</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AI2" s="6">
         <v>3</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="6">
         <v>25</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AK2" s="6">
         <v>77</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AL2" s="19">
         <v>353</v>
       </c>
-      <c r="AL2" s="4">
-        <v>1</v>
-      </c>
       <c r="AM2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="4">
         <v>0.6</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AO2" s="4">
         <v>0.37313429999999997</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AP2" s="4">
         <v>0.24919089999999999</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AQ2" s="4">
         <v>9.9296759999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>42865</v>
       </c>
@@ -3330,77 +3884,78 @@
       <c r="P3" s="10">
         <v>10</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>83</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>15</v>
       </c>
-      <c r="S3" s="10">
-        <v>1</v>
-      </c>
       <c r="T3" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U3" s="10">
         <v>7</v>
       </c>
       <c r="V3" s="10">
+        <v>7</v>
+      </c>
+      <c r="W3" s="10">
         <v>83</v>
       </c>
-      <c r="W3" s="10">
+      <c r="X3" s="10">
         <v>19</v>
       </c>
-      <c r="X3" s="10">
+      <c r="Y3" s="10">
         <v>15</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Z3" s="10">
         <v>45</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="AA3" s="10">
         <v>240</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AB3" s="10">
         <v>130</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AC3" s="10">
         <v>0</v>
       </c>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-      <c r="AG3" s="10">
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10">
         <v>229</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AI3" s="6">
         <v>5</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AJ3" s="6">
         <v>30</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AK3" s="6">
         <v>85</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AL3" s="19">
         <v>503</v>
       </c>
-      <c r="AL3" s="4">
-        <v>1</v>
-      </c>
       <c r="AM3" s="4">
         <v>1</v>
       </c>
       <c r="AN3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="4">
         <v>0.44776120000000003</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AP3" s="4">
         <v>0.27508090000000002</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AQ3" s="4">
         <v>0.1414909</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>42867</v>
       </c>
@@ -3449,86 +4004,86 @@
       <c r="P4" s="10">
         <v>10</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>83</v>
       </c>
-      <c r="R4" s="10">
+      <c r="S4" s="10">
         <v>15</v>
       </c>
-      <c r="S4" s="10">
-        <v>1</v>
-      </c>
       <c r="T4" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U4" s="10">
         <v>7</v>
       </c>
       <c r="V4" s="10">
+        <v>7</v>
+      </c>
+      <c r="W4" s="10">
         <v>83</v>
       </c>
-      <c r="W4" s="10">
+      <c r="X4" s="10">
         <v>19</v>
       </c>
-      <c r="X4" s="10">
+      <c r="Y4" s="10">
         <v>15</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Z4" s="10">
         <v>45</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="AA4" s="10">
         <v>240</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AB4" s="10">
         <v>130</v>
       </c>
-      <c r="AB4" s="10">
-        <v>0</v>
-      </c>
       <c r="AC4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="10">
         <v>237</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <v>137</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>3</v>
       </c>
       <c r="AF4" s="6">
         <v>3</v>
       </c>
       <c r="AG4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="6">
         <v>229</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AI4" s="6">
         <v>5</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AJ4" s="6">
         <v>38</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AK4" s="6">
         <v>102</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AL4" s="19">
         <v>1170</v>
       </c>
-      <c r="AL4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="5">
+      <c r="AM4" s="4">
         <v>1</v>
       </c>
       <c r="AN4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="5">
         <v>0.56716420000000001</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AP4" s="5">
         <v>0.33009709999999998</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ4" s="5">
         <v>0.32911390000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>42868</v>
       </c>
@@ -3577,86 +4132,86 @@
       <c r="P5" s="10">
         <v>10</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>83</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>15</v>
       </c>
-      <c r="S5" s="10">
-        <v>1</v>
-      </c>
       <c r="T5" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U5" s="10">
         <v>7</v>
       </c>
       <c r="V5" s="10">
+        <v>7</v>
+      </c>
+      <c r="W5" s="10">
         <v>83</v>
       </c>
-      <c r="W5" s="10">
+      <c r="X5" s="10">
         <v>19</v>
       </c>
-      <c r="X5" s="10">
+      <c r="Y5" s="10">
         <v>15</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Z5" s="10">
         <v>45</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AA5" s="10">
         <v>240</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AB5" s="10">
         <v>130</v>
       </c>
-      <c r="AB5" s="10">
-        <v>0</v>
-      </c>
       <c r="AC5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="10">
         <v>237</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <v>137</v>
-      </c>
-      <c r="AE5" s="6">
-        <v>3</v>
       </c>
       <c r="AF5" s="6">
         <v>3</v>
       </c>
       <c r="AG5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="6">
         <v>229</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AI5" s="6">
         <v>5</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AJ5" s="6">
         <v>39</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AK5" s="6">
         <v>103</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AL5" s="19">
         <v>1178</v>
       </c>
-      <c r="AL5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="5">
+      <c r="AM5" s="4">
         <v>1</v>
       </c>
       <c r="AN5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="5">
         <v>0.58208950000000004</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AP5" s="5">
         <v>0.3333333</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <v>0.3313643</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>42869</v>
       </c>
@@ -3705,86 +4260,86 @@
       <c r="P6" s="10">
         <v>10</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>83</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>15</v>
       </c>
-      <c r="S6" s="10">
-        <v>1</v>
-      </c>
       <c r="T6" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U6" s="10">
         <v>7</v>
       </c>
       <c r="V6" s="10">
+        <v>7</v>
+      </c>
+      <c r="W6" s="10">
         <v>83</v>
       </c>
-      <c r="W6" s="10">
+      <c r="X6" s="10">
         <v>19</v>
       </c>
-      <c r="X6" s="10">
+      <c r="Y6" s="10">
         <v>15</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Z6" s="10">
         <v>45</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="AA6" s="10">
         <v>240</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AB6" s="10">
         <v>130</v>
       </c>
-      <c r="AB6" s="10">
-        <v>0</v>
-      </c>
       <c r="AC6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="10">
         <v>237</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <v>137</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>3</v>
       </c>
       <c r="AF6" s="6">
         <v>3</v>
       </c>
       <c r="AG6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="6">
         <v>229</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AI6" s="6">
         <v>5</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AJ6" s="6">
         <v>39</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AK6" s="6">
         <v>103</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AL6" s="19">
         <v>1178</v>
       </c>
-      <c r="AL6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="5">
+      <c r="AM6" s="4">
         <v>1</v>
       </c>
       <c r="AN6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="5">
         <v>0.58208950000000004</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AP6" s="5">
         <v>0.3333333</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AQ6" s="5">
         <v>0.3313643</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>42870</v>
       </c>
@@ -3833,86 +4388,86 @@
       <c r="P7" s="10">
         <v>10</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>83</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>15</v>
       </c>
-      <c r="S7" s="10">
-        <v>1</v>
-      </c>
       <c r="T7" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U7" s="10">
         <v>7</v>
       </c>
       <c r="V7" s="10">
+        <v>7</v>
+      </c>
+      <c r="W7" s="10">
         <v>83</v>
       </c>
-      <c r="W7" s="10">
+      <c r="X7" s="10">
         <v>19</v>
       </c>
-      <c r="X7" s="10">
+      <c r="Y7" s="10">
         <v>15</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Z7" s="10">
         <v>45</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AA7" s="10">
         <v>240</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AB7" s="10">
         <v>130</v>
       </c>
-      <c r="AB7" s="10">
-        <v>0</v>
-      </c>
       <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
         <v>237</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <v>137</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>3</v>
       </c>
       <c r="AF7" s="6">
         <v>3</v>
       </c>
       <c r="AG7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="6">
         <v>229</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AI7" s="6">
         <v>5</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AJ7" s="6">
         <v>40</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AK7" s="6">
         <v>105</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AL7" s="19">
         <v>1224</v>
       </c>
-      <c r="AL7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="5">
+      <c r="AM7" s="4">
         <v>1</v>
       </c>
       <c r="AN7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="5">
         <v>0.59701490000000002</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AP7" s="5">
         <v>0.33980579999999999</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AQ7" s="5">
         <v>0.34430379999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>42872</v>
       </c>
@@ -3961,86 +4516,86 @@
       <c r="P8" s="10">
         <v>10</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>83</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>15</v>
       </c>
-      <c r="S8" s="10">
-        <v>1</v>
-      </c>
       <c r="T8" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U8" s="10">
         <v>7</v>
       </c>
       <c r="V8" s="10">
+        <v>7</v>
+      </c>
+      <c r="W8" s="10">
         <v>83</v>
       </c>
-      <c r="W8" s="10">
+      <c r="X8" s="10">
         <v>19</v>
       </c>
-      <c r="X8" s="10">
+      <c r="Y8" s="10">
         <v>15</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Z8" s="10">
         <v>45</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="AA8" s="10">
         <v>240</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AB8" s="10">
         <v>130</v>
       </c>
-      <c r="AB8" s="10">
-        <v>0</v>
-      </c>
       <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10">
         <v>237</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <v>137</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>3</v>
       </c>
       <c r="AF8" s="6">
         <v>3</v>
       </c>
       <c r="AG8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="6">
         <v>229</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AI8" s="6">
         <v>5</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AJ8" s="6">
         <v>48</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AK8" s="6">
         <v>108</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AL8" s="19">
         <v>2370</v>
       </c>
-      <c r="AL8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="5">
+      <c r="AM8" s="4">
         <v>1</v>
       </c>
       <c r="AN8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="5">
         <v>0.71641790000000005</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="AP8" s="5">
         <v>0.34951460000000001</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AQ8" s="5">
         <v>0.66666669999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>42873</v>
       </c>
@@ -4089,86 +4644,86 @@
       <c r="P9" s="10">
         <v>10</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>83</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>15</v>
       </c>
-      <c r="S9" s="10">
-        <v>1</v>
-      </c>
       <c r="T9" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U9" s="10">
         <v>7</v>
       </c>
       <c r="V9" s="10">
+        <v>7</v>
+      </c>
+      <c r="W9" s="10">
         <v>83</v>
       </c>
-      <c r="W9" s="10">
+      <c r="X9" s="10">
         <v>19</v>
       </c>
-      <c r="X9" s="10">
+      <c r="Y9" s="10">
         <v>15</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Z9" s="10">
         <v>45</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="AA9" s="10">
         <v>240</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AB9" s="10">
         <v>130</v>
       </c>
-      <c r="AB9" s="10">
-        <v>0</v>
-      </c>
       <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
         <v>237</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="6">
         <v>137</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>3</v>
       </c>
       <c r="AF9" s="6">
         <v>3</v>
       </c>
       <c r="AG9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="6">
         <v>229</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AI9" s="6">
         <v>5</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AJ9" s="6">
         <v>66</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AK9" s="6">
         <v>116</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AL9" s="19">
         <v>2519</v>
       </c>
-      <c r="AL9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="5">
+      <c r="AM9" s="4">
         <v>1</v>
       </c>
       <c r="AN9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO9" s="5">
+      <c r="AP9" s="5">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AQ9" s="5">
         <v>0.70857950000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>42874</v>
       </c>
@@ -4217,86 +4772,86 @@
       <c r="P10" s="10">
         <v>10</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>83</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>15</v>
       </c>
-      <c r="S10" s="10">
-        <v>1</v>
-      </c>
       <c r="T10" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U10" s="10">
         <v>7</v>
       </c>
       <c r="V10" s="10">
+        <v>7</v>
+      </c>
+      <c r="W10" s="10">
         <v>83</v>
       </c>
-      <c r="W10" s="10">
+      <c r="X10" s="10">
         <v>18</v>
       </c>
-      <c r="X10" s="10">
+      <c r="Y10" s="10">
         <v>15</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Z10" s="10">
         <v>45</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AA10" s="10">
         <v>240</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="10">
         <v>130</v>
       </c>
-      <c r="AB10" s="10">
-        <v>0</v>
-      </c>
       <c r="AC10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10">
         <v>237</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <v>137</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>3</v>
       </c>
       <c r="AF10" s="6">
         <v>3</v>
       </c>
       <c r="AG10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="6">
         <v>229</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AI10" s="6">
         <v>5</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AJ10" s="6">
         <v>66</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AK10" s="6">
         <v>116</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AL10" s="19">
         <v>2523</v>
       </c>
-      <c r="AL10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="5">
+      <c r="AM10" s="4">
         <v>1</v>
       </c>
       <c r="AN10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO10" s="5">
+      <c r="AP10" s="5">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AQ10" s="5">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>42875</v>
       </c>
@@ -4345,86 +4900,86 @@
       <c r="P11" s="10">
         <v>10</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <v>83</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>15</v>
       </c>
-      <c r="S11" s="10">
-        <v>1</v>
-      </c>
       <c r="T11" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U11" s="10">
         <v>7</v>
       </c>
       <c r="V11" s="10">
+        <v>7</v>
+      </c>
+      <c r="W11" s="10">
         <v>83</v>
       </c>
-      <c r="W11" s="10">
+      <c r="X11" s="10">
         <v>18</v>
       </c>
-      <c r="X11" s="10">
+      <c r="Y11" s="10">
         <v>15</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Z11" s="10">
         <v>45</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="AA11" s="10">
         <v>240</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AB11" s="10">
         <v>130</v>
       </c>
-      <c r="AB11" s="10">
-        <v>0</v>
-      </c>
       <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10">
         <v>237</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AE11" s="6">
         <v>137</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>3</v>
       </c>
       <c r="AF11" s="6">
         <v>3</v>
       </c>
       <c r="AG11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="6">
         <v>229</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AI11" s="6">
         <v>5</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AJ11" s="6">
         <v>66</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AK11" s="6">
         <v>116</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AL11" s="19">
         <v>2523</v>
       </c>
-      <c r="AL11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="5">
+      <c r="AM11" s="4">
         <v>1</v>
       </c>
       <c r="AN11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="AP11" s="5">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AQ11" s="5">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>42876</v>
       </c>
@@ -4473,86 +5028,86 @@
       <c r="P12" s="10">
         <v>10</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>83</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>15</v>
       </c>
-      <c r="S12" s="10">
-        <v>1</v>
-      </c>
       <c r="T12" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U12" s="10">
         <v>7</v>
       </c>
       <c r="V12" s="10">
+        <v>7</v>
+      </c>
+      <c r="W12" s="10">
         <v>83</v>
       </c>
-      <c r="W12" s="10">
+      <c r="X12" s="10">
         <v>18</v>
       </c>
-      <c r="X12" s="10">
+      <c r="Y12" s="10">
         <v>15</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Z12" s="10">
         <v>45</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AA12" s="10">
         <v>240</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AB12" s="10">
         <v>130</v>
       </c>
-      <c r="AB12" s="10">
-        <v>0</v>
-      </c>
       <c r="AC12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="10">
         <v>237</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AE12" s="6">
         <v>137</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>3</v>
       </c>
       <c r="AF12" s="6">
         <v>3</v>
       </c>
       <c r="AG12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="6">
         <v>229</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AI12" s="6">
         <v>5</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AJ12" s="6">
         <v>66</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AK12" s="6">
         <v>116</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AL12" s="19">
         <v>2523</v>
       </c>
-      <c r="AL12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="5">
+      <c r="AM12" s="4">
         <v>1</v>
       </c>
       <c r="AN12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AP12" s="5">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AQ12" s="5">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>42878</v>
       </c>
@@ -4601,86 +5156,86 @@
       <c r="P13" s="10">
         <v>10</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>83</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>15</v>
       </c>
-      <c r="S13" s="10">
-        <v>1</v>
-      </c>
       <c r="T13" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U13" s="10">
         <v>7</v>
       </c>
       <c r="V13" s="10">
+        <v>7</v>
+      </c>
+      <c r="W13" s="10">
         <v>83</v>
       </c>
-      <c r="W13" s="10">
+      <c r="X13" s="10">
         <v>18</v>
       </c>
-      <c r="X13" s="10">
+      <c r="Y13" s="10">
         <v>15</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Z13" s="10">
         <v>45</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="AA13" s="10">
         <v>240</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AB13" s="10">
         <v>130</v>
       </c>
-      <c r="AB13" s="10">
-        <v>0</v>
-      </c>
       <c r="AC13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="10">
         <v>237</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AE13" s="6">
         <v>137</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>3</v>
       </c>
       <c r="AF13" s="6">
         <v>3</v>
       </c>
       <c r="AG13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="6">
         <v>229</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AI13" s="6">
         <v>5</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AJ13" s="6">
         <v>66</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AK13" s="6">
         <v>116</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AL13" s="19">
         <v>2523</v>
       </c>
-      <c r="AL13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="5">
+      <c r="AM13" s="4">
         <v>1</v>
       </c>
       <c r="AN13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AP13" s="5">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AQ13" s="5">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>42880</v>
       </c>
@@ -4729,86 +5284,86 @@
       <c r="P14" s="10">
         <v>10</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <v>85</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>15</v>
       </c>
-      <c r="S14" s="10">
-        <v>1</v>
-      </c>
       <c r="T14" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U14" s="10">
         <v>7</v>
       </c>
       <c r="V14" s="10">
+        <v>7</v>
+      </c>
+      <c r="W14" s="10">
         <v>83</v>
       </c>
-      <c r="W14" s="10">
+      <c r="X14" s="10">
         <v>18</v>
       </c>
-      <c r="X14" s="10">
+      <c r="Y14" s="10">
         <v>15</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Z14" s="10">
         <v>45</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="AA14" s="10">
         <v>240</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AB14" s="10">
         <v>130</v>
       </c>
-      <c r="AB14" s="10">
-        <v>0</v>
-      </c>
       <c r="AC14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="10">
         <v>237</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AE14" s="6">
         <v>137</v>
-      </c>
-      <c r="AE14" s="6">
-        <v>3</v>
       </c>
       <c r="AF14" s="6">
         <v>3</v>
       </c>
       <c r="AG14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="6">
         <v>229</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AI14" s="6">
         <v>5</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AJ14" s="6">
         <v>66</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AK14" s="6">
         <v>117</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AL14" s="19">
         <v>2519</v>
       </c>
-      <c r="AL14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="5">
+      <c r="AM14" s="4">
         <v>1</v>
       </c>
       <c r="AN14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AP14" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AQ14" s="5">
         <v>0.707982</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>42884</v>
       </c>
@@ -4857,86 +5412,86 @@
       <c r="P15" s="10">
         <v>10</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <v>85</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>15</v>
       </c>
-      <c r="S15" s="10">
-        <v>1</v>
-      </c>
       <c r="T15" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U15" s="10">
         <v>7</v>
       </c>
       <c r="V15" s="10">
+        <v>7</v>
+      </c>
+      <c r="W15" s="10">
         <v>83</v>
       </c>
-      <c r="W15" s="10">
+      <c r="X15" s="10">
         <v>18</v>
       </c>
-      <c r="X15" s="10">
+      <c r="Y15" s="10">
         <v>15</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Z15" s="10">
         <v>45</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AA15" s="10">
         <v>240</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>130</v>
       </c>
-      <c r="AB15" s="10">
-        <v>0</v>
-      </c>
       <c r="AC15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10">
         <v>237</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AE15" s="6">
         <v>137</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>3</v>
       </c>
       <c r="AF15" s="6">
         <v>3</v>
       </c>
       <c r="AG15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="6">
         <v>229</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AI15" s="6">
         <v>5</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AJ15" s="6">
         <v>66</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AK15" s="6">
         <v>117</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AL15" s="19">
         <v>2520</v>
       </c>
-      <c r="AL15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="5">
+      <c r="AM15" s="4">
         <v>1</v>
       </c>
       <c r="AN15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="AP15" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AQ15" s="5">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>42885</v>
       </c>
@@ -4985,86 +5540,86 @@
       <c r="P16" s="10">
         <v>10</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <v>85</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>15</v>
       </c>
-      <c r="S16" s="10">
-        <v>1</v>
-      </c>
       <c r="T16" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U16" s="10">
         <v>7</v>
       </c>
       <c r="V16" s="10">
+        <v>7</v>
+      </c>
+      <c r="W16" s="10">
         <v>83</v>
       </c>
-      <c r="W16" s="10">
+      <c r="X16" s="10">
         <v>18</v>
       </c>
-      <c r="X16" s="10">
+      <c r="Y16" s="10">
         <v>15</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Z16" s="10">
         <v>45</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="AA16" s="10">
         <v>240</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
         <v>130</v>
       </c>
-      <c r="AB16" s="10">
-        <v>0</v>
-      </c>
       <c r="AC16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="10">
         <v>237</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AE16" s="6">
         <v>137</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>3</v>
       </c>
       <c r="AF16" s="6">
         <v>3</v>
       </c>
       <c r="AG16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="6">
         <v>229</v>
       </c>
-      <c r="AH16" s="6">
+      <c r="AI16" s="6">
         <v>5</v>
       </c>
-      <c r="AI16" s="6">
+      <c r="AJ16" s="6">
         <v>66</v>
       </c>
-      <c r="AJ16" s="6">
+      <c r="AK16" s="6">
         <v>117</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AL16" s="19">
         <v>2520</v>
       </c>
-      <c r="AL16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="5">
+      <c r="AM16" s="4">
         <v>1</v>
       </c>
       <c r="AN16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO16" s="5">
+      <c r="AP16" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AQ16" s="5">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>42887</v>
       </c>
@@ -5113,86 +5668,86 @@
       <c r="P17" s="10">
         <v>10</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10">
         <v>85</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <v>15</v>
       </c>
-      <c r="S17" s="10">
-        <v>1</v>
-      </c>
       <c r="T17" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U17" s="10">
         <v>7</v>
       </c>
       <c r="V17" s="10">
+        <v>7</v>
+      </c>
+      <c r="W17" s="10">
         <v>83</v>
       </c>
-      <c r="W17" s="10">
+      <c r="X17" s="10">
         <v>18</v>
       </c>
-      <c r="X17" s="10">
+      <c r="Y17" s="10">
         <v>15</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Z17" s="10">
         <v>45</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="AA17" s="10">
         <v>240</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AB17" s="10">
         <v>130</v>
       </c>
-      <c r="AB17" s="10">
-        <v>0</v>
-      </c>
       <c r="AC17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="10">
         <v>237</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AE17" s="6">
         <v>137</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>3</v>
       </c>
       <c r="AF17" s="6">
         <v>3</v>
       </c>
       <c r="AG17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="6">
         <v>229</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AI17" s="6">
         <v>5</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AJ17" s="6">
         <v>66</v>
       </c>
-      <c r="AJ17" s="6">
+      <c r="AK17" s="6">
         <v>117</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AL17" s="19">
         <v>2520</v>
       </c>
-      <c r="AL17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="5">
+      <c r="AM17" s="4">
         <v>1</v>
       </c>
       <c r="AN17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO17" s="5">
+      <c r="AP17" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AQ17" s="5">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>42888</v>
       </c>
@@ -5241,86 +5796,86 @@
       <c r="P18" s="10">
         <v>10</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="R18" s="10">
         <v>85</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <v>15</v>
       </c>
-      <c r="S18" s="10">
-        <v>1</v>
-      </c>
       <c r="T18" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U18" s="10">
         <v>7</v>
       </c>
       <c r="V18" s="10">
+        <v>7</v>
+      </c>
+      <c r="W18" s="10">
         <v>83</v>
       </c>
-      <c r="W18" s="10">
+      <c r="X18" s="10">
         <v>18</v>
       </c>
-      <c r="X18" s="10">
+      <c r="Y18" s="10">
         <v>15</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Z18" s="10">
         <v>45</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="AA18" s="10">
         <v>240</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AB18" s="10">
         <v>130</v>
       </c>
-      <c r="AB18" s="10">
-        <v>0</v>
-      </c>
       <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
         <v>237</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AE18" s="6">
         <v>137</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>3</v>
       </c>
       <c r="AF18" s="6">
         <v>3</v>
       </c>
       <c r="AG18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="6">
         <v>229</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AI18" s="6">
         <v>5</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AJ18" s="6">
         <v>66</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AK18" s="6">
         <v>117</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AL18" s="19">
         <v>2520</v>
       </c>
-      <c r="AL18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="5">
+      <c r="AM18" s="4">
         <v>1</v>
       </c>
       <c r="AN18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO18" s="5">
+      <c r="AP18" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AQ18" s="5">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>42891</v>
       </c>
@@ -5369,87 +5924,87 @@
       <c r="P19" s="10">
         <v>10</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="R19" s="11">
         <v>82</v>
       </c>
-      <c r="R19" s="11">
-        <v>1</v>
-      </c>
       <c r="S19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="11">
-        <v>0</v>
-      </c>
-      <c r="V19" s="12">
+        <v>1</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
         <v>84</v>
       </c>
-      <c r="W19" s="10">
+      <c r="X19" s="10">
         <v>18</v>
       </c>
-      <c r="X19" s="10">
+      <c r="Y19" s="10">
         <v>15</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Z19" s="10">
         <v>45</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="AA19" s="10">
         <v>240</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AB19" s="10">
         <v>130</v>
       </c>
-      <c r="AB19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="11">
+      <c r="AC19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="11">
         <v>370</v>
       </c>
-      <c r="AD19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="6">
+      <c r="AE19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="6">
         <v>3</v>
       </c>
-      <c r="AG19" s="13">
+      <c r="AH19" s="13">
         <v>231</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AI19" s="6">
         <v>5</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AJ19" s="6">
         <v>66</v>
       </c>
-      <c r="AJ19" s="6">
+      <c r="AK19" s="6">
         <v>117</v>
       </c>
-      <c r="AK19" s="13">
+      <c r="AL19" s="20">
         <v>2525</v>
       </c>
-      <c r="AL19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="5">
+      <c r="AM19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="AP19" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AQ19" s="5">
         <v>0.70946900000000002</v>
       </c>
-      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>42892</v>
       </c>
@@ -5498,86 +6053,86 @@
       <c r="P20" s="10">
         <v>10</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="R20" s="10">
         <v>82</v>
       </c>
-      <c r="R20" s="10">
-        <v>1</v>
-      </c>
       <c r="S20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="10">
+        <v>0</v>
+      </c>
+      <c r="W20" s="10">
         <v>84</v>
       </c>
-      <c r="W20" s="10">
+      <c r="X20" s="10">
         <v>18</v>
       </c>
-      <c r="X20" s="10">
+      <c r="Y20" s="10">
         <v>15</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Z20" s="10">
         <v>45</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="AA20" s="10">
         <v>240</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AB20" s="10">
         <v>130</v>
       </c>
-      <c r="AB20" s="10">
-        <v>0</v>
-      </c>
       <c r="AC20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="10">
         <v>370</v>
       </c>
-      <c r="AD20" s="6">
-        <v>0</v>
-      </c>
       <c r="AE20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="6">
         <v>3</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AH20" s="6">
         <v>231</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AI20" s="6">
         <v>5</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AJ20" s="6">
         <v>66</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AK20" s="6">
         <v>117</v>
       </c>
-      <c r="AK20" s="13">
+      <c r="AL20" s="20">
         <v>2526</v>
       </c>
-      <c r="AL20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="5">
+      <c r="AM20" s="4">
         <v>1</v>
       </c>
       <c r="AN20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="AP20" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AQ20" s="5">
         <v>0.70955060000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>42893</v>
       </c>
@@ -5626,86 +6181,87 @@
       <c r="P21" s="11">
         <v>8</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12">
         <v>83</v>
       </c>
-      <c r="R21" s="10">
-        <v>1</v>
-      </c>
       <c r="S21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="10">
-        <v>0</v>
-      </c>
-      <c r="V21" s="11">
+        <v>1</v>
+      </c>
+      <c r="V21" s="10">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
         <v>12</v>
       </c>
-      <c r="W21" s="10">
+      <c r="X21" s="10">
         <v>18</v>
       </c>
-      <c r="X21" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="10">
         <v>45</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="AA21" s="10">
         <v>240</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AB21" s="10">
         <v>130</v>
       </c>
-      <c r="AB21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="11">
+      <c r="AC21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="11">
         <v>374</v>
       </c>
-      <c r="AD21" s="6">
-        <v>0</v>
-      </c>
       <c r="AE21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="6">
         <v>3</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AH21" s="6">
         <v>231</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AI21" s="6">
         <v>5</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AJ21" s="6">
         <v>66</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AK21" s="6">
         <v>117</v>
       </c>
-      <c r="AK21" s="13">
+      <c r="AL21" s="20">
         <v>2582</v>
       </c>
-      <c r="AL21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="5">
+      <c r="AM21" s="4">
         <v>1</v>
       </c>
       <c r="AN21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO21" s="5">
+      <c r="AP21" s="5">
         <v>0.3786408</v>
       </c>
-      <c r="AP21" s="15">
+      <c r="AQ21" s="15">
         <v>0.72528090000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>42894</v>
       </c>
@@ -5754,86 +6310,86 @@
       <c r="P22" s="10">
         <v>8</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="R22" s="10">
         <v>83</v>
       </c>
-      <c r="R22" s="11">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <v>0</v>
-      </c>
-      <c r="T22" s="11">
-        <v>0</v>
-      </c>
-      <c r="U22" s="10">
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
         <v>0</v>
       </c>
       <c r="V22" s="10">
+        <v>0</v>
+      </c>
+      <c r="W22" s="10">
         <v>12</v>
       </c>
-      <c r="W22" s="10">
+      <c r="X22" s="10">
         <v>18</v>
       </c>
-      <c r="X22" s="10">
-        <v>1</v>
-      </c>
       <c r="Y22" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="10">
         <v>45</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="AA22" s="10">
         <v>240</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AB22" s="10">
         <v>130</v>
       </c>
-      <c r="AB22" s="10">
-        <v>0</v>
-      </c>
       <c r="AC22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="10">
         <v>374</v>
       </c>
-      <c r="AD22" s="6">
-        <v>0</v>
-      </c>
       <c r="AE22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="6">
         <v>3</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AH22" s="6">
         <v>231</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AI22" s="6">
         <v>5</v>
       </c>
-      <c r="AI22" s="6">
+      <c r="AJ22" s="6">
         <v>66</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AK22" s="6">
         <v>119</v>
       </c>
-      <c r="AK22" s="13">
+      <c r="AL22" s="20">
         <v>2587</v>
       </c>
-      <c r="AL22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="5">
+      <c r="AM22" s="4">
         <v>1</v>
       </c>
       <c r="AN22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO22" s="15">
+      <c r="AP22" s="15">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AQ22" s="5">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>42895</v>
       </c>
@@ -5882,12 +6438,9 @@
       <c r="P23" s="10">
         <v>8</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="R23" s="10">
         <v>83</v>
       </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
       <c r="S23" s="10">
         <v>0</v>
       </c>
@@ -5898,70 +6451,73 @@
         <v>0</v>
       </c>
       <c r="V23" s="10">
+        <v>0</v>
+      </c>
+      <c r="W23" s="10">
         <v>12</v>
       </c>
-      <c r="W23" s="10">
+      <c r="X23" s="10">
         <v>18</v>
       </c>
-      <c r="X23" s="10">
-        <v>1</v>
-      </c>
       <c r="Y23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="10">
         <v>45</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="AA23" s="10">
         <v>240</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AB23" s="10">
         <v>130</v>
       </c>
-      <c r="AB23" s="10">
-        <v>0</v>
-      </c>
       <c r="AC23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="10">
         <v>374</v>
       </c>
-      <c r="AD23" s="6">
-        <v>0</v>
-      </c>
       <c r="AE23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="6">
         <v>3</v>
       </c>
-      <c r="AG23" s="6">
+      <c r="AH23" s="6">
         <v>231</v>
       </c>
-      <c r="AH23" s="6">
+      <c r="AI23" s="6">
         <v>5</v>
       </c>
-      <c r="AI23" s="6">
+      <c r="AJ23" s="6">
         <v>66</v>
       </c>
-      <c r="AJ23" s="6">
+      <c r="AK23" s="6">
         <v>119</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AL23" s="19">
         <v>2587</v>
       </c>
-      <c r="AL23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="5">
+      <c r="AM23" s="4">
         <v>1</v>
       </c>
       <c r="AN23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO23" s="5">
+      <c r="AP23" s="5">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AQ23" s="5">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>42896</v>
       </c>
@@ -6010,12 +6566,9 @@
       <c r="P24" s="10">
         <v>8</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="11">
         <v>57</v>
       </c>
-      <c r="R24" s="10">
-        <v>0</v>
-      </c>
       <c r="S24" s="10">
         <v>0</v>
       </c>
@@ -6026,70 +6579,73 @@
         <v>0</v>
       </c>
       <c r="V24" s="10">
+        <v>0</v>
+      </c>
+      <c r="W24" s="10">
         <v>12</v>
       </c>
-      <c r="W24" s="10">
+      <c r="X24" s="10">
         <v>18</v>
       </c>
-      <c r="X24" s="10">
-        <v>1</v>
-      </c>
       <c r="Y24" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="10">
         <v>45</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="AA24" s="10">
         <v>240</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AB24" s="10">
         <v>130</v>
       </c>
-      <c r="AB24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="11">
+      <c r="AC24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="11">
         <v>379</v>
       </c>
-      <c r="AD24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="6">
+      <c r="AE24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="6">
         <v>3</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AH24" s="6">
         <v>231</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AI24" s="6">
         <v>5</v>
       </c>
-      <c r="AI24" s="6">
+      <c r="AJ24" s="6">
         <v>66</v>
       </c>
-      <c r="AJ24" s="6">
+      <c r="AK24" s="6">
         <v>119</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AL24" s="19">
         <v>2587</v>
       </c>
-      <c r="AL24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="5">
+      <c r="AM24" s="4">
         <v>1</v>
       </c>
       <c r="AN24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO24" s="5">
+      <c r="AP24" s="5">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AP24" s="5">
+      <c r="AQ24" s="5">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>42898</v>
       </c>
@@ -6138,12 +6694,9 @@
       <c r="P25" s="10">
         <v>8</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="R25" s="10">
         <v>57</v>
       </c>
-      <c r="R25" s="10">
-        <v>0</v>
-      </c>
       <c r="S25" s="10">
         <v>0</v>
       </c>
@@ -6154,70 +6707,73 @@
         <v>0</v>
       </c>
       <c r="V25" s="10">
+        <v>0</v>
+      </c>
+      <c r="W25" s="10">
         <v>12</v>
       </c>
-      <c r="W25" s="10">
+      <c r="X25" s="10">
         <v>18</v>
       </c>
-      <c r="X25" s="10">
-        <v>1</v>
-      </c>
       <c r="Y25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="10">
         <v>45</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="AA25" s="10">
         <v>240</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AB25" s="10">
         <v>130</v>
       </c>
-      <c r="AB25" s="10">
-        <v>0</v>
-      </c>
       <c r="AC25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="10">
         <v>379</v>
       </c>
-      <c r="AD25" s="6">
-        <v>0</v>
-      </c>
       <c r="AE25" s="6">
         <v>0</v>
       </c>
       <c r="AF25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
         <v>3</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AH25" s="6">
         <v>231</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AI25" s="6">
         <v>5</v>
       </c>
-      <c r="AI25" s="6">
+      <c r="AJ25" s="6">
         <v>66</v>
       </c>
-      <c r="AJ25" s="6">
+      <c r="AK25" s="6">
         <v>119</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AL25" s="19">
         <v>2587</v>
       </c>
-      <c r="AL25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="5">
+      <c r="AM25" s="4">
         <v>1</v>
       </c>
       <c r="AN25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO25" s="5">
+      <c r="AP25" s="5">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AP25" s="5">
+      <c r="AQ25" s="5">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>42900</v>
       </c>
@@ -6266,12 +6822,9 @@
       <c r="P26" s="10">
         <v>8</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="R26" s="10">
         <v>57</v>
       </c>
-      <c r="R26" s="10">
-        <v>0</v>
-      </c>
       <c r="S26" s="10">
         <v>0</v>
       </c>
@@ -6282,70 +6835,73 @@
         <v>0</v>
       </c>
       <c r="V26" s="10">
+        <v>0</v>
+      </c>
+      <c r="W26" s="10">
         <v>12</v>
       </c>
-      <c r="W26" s="10">
+      <c r="X26" s="10">
         <v>18</v>
       </c>
-      <c r="X26" s="10">
-        <v>1</v>
-      </c>
       <c r="Y26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="10">
         <v>45</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="AA26" s="10">
         <v>240</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AB26" s="10">
         <v>130</v>
       </c>
-      <c r="AB26" s="10">
-        <v>0</v>
-      </c>
       <c r="AC26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="10">
         <v>379</v>
       </c>
-      <c r="AD26" s="6">
-        <v>0</v>
-      </c>
       <c r="AE26" s="6">
         <v>0</v>
       </c>
       <c r="AF26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="6">
         <v>3</v>
       </c>
-      <c r="AG26" s="13">
+      <c r="AH26" s="13">
         <v>232</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AI26" s="6">
         <v>5</v>
       </c>
-      <c r="AI26" s="6">
+      <c r="AJ26" s="6">
         <v>66</v>
       </c>
-      <c r="AJ26" s="6">
+      <c r="AK26" s="6">
         <v>119</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AL26" s="19">
         <v>2587</v>
       </c>
-      <c r="AL26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="5">
+      <c r="AM26" s="4">
         <v>1</v>
       </c>
       <c r="AN26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AO26" s="5">
+      <c r="AP26" s="5">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AP26" s="5">
+      <c r="AQ26" s="5">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>42901</v>
       </c>
@@ -6394,12 +6950,9 @@
       <c r="P27" s="10">
         <v>8</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="R27" s="10">
         <v>57</v>
       </c>
-      <c r="R27" s="10">
-        <v>0</v>
-      </c>
       <c r="S27" s="10">
         <v>0</v>
       </c>
@@ -6410,70 +6963,73 @@
         <v>0</v>
       </c>
       <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
         <v>12</v>
       </c>
-      <c r="W27" s="10">
+      <c r="X27" s="10">
         <v>18</v>
       </c>
-      <c r="X27" s="10">
-        <v>1</v>
-      </c>
       <c r="Y27" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="10">
         <v>45</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="AA27" s="12">
         <v>283</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AB27" s="10">
         <v>130</v>
       </c>
-      <c r="AB27" s="10">
-        <v>0</v>
-      </c>
       <c r="AC27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="10">
         <v>379</v>
       </c>
-      <c r="AD27" s="6">
-        <v>0</v>
-      </c>
       <c r="AE27" s="6">
         <v>0</v>
       </c>
       <c r="AF27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="6">
         <v>3</v>
       </c>
-      <c r="AG27" s="6">
+      <c r="AH27" s="6">
         <v>232</v>
       </c>
-      <c r="AH27" s="6">
+      <c r="AI27" s="6">
         <v>5</v>
       </c>
-      <c r="AI27" s="13">
+      <c r="AJ27" s="13">
         <v>68</v>
       </c>
-      <c r="AJ27" s="13">
+      <c r="AK27" s="13">
         <v>117</v>
       </c>
-      <c r="AK27" s="6">
+      <c r="AL27" s="19">
         <v>2587</v>
       </c>
-      <c r="AL27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="5">
+      <c r="AM27" s="4">
         <v>1</v>
       </c>
       <c r="AN27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO27" s="5">
+      <c r="AP27" s="5">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AP27" s="5">
+      <c r="AQ27" s="5">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>42902</v>
       </c>
@@ -6522,12 +7078,9 @@
       <c r="P28" s="10">
         <v>8</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="R28" s="10">
         <v>57</v>
       </c>
-      <c r="R28" s="10">
-        <v>0</v>
-      </c>
       <c r="S28" s="10">
         <v>0</v>
       </c>
@@ -6538,70 +7091,73 @@
         <v>0</v>
       </c>
       <c r="V28" s="10">
+        <v>0</v>
+      </c>
+      <c r="W28" s="10">
         <v>12</v>
       </c>
-      <c r="W28" s="10">
+      <c r="X28" s="10">
         <v>18</v>
       </c>
-      <c r="X28" s="10">
-        <v>1</v>
-      </c>
       <c r="Y28" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="10">
         <v>45</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="AA28" s="10">
         <v>283</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AB28" s="10">
         <v>130</v>
       </c>
-      <c r="AB28" s="10">
-        <v>0</v>
-      </c>
       <c r="AC28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="10">
         <v>379</v>
       </c>
-      <c r="AD28" s="6">
-        <v>0</v>
-      </c>
       <c r="AE28" s="6">
         <v>0</v>
       </c>
       <c r="AF28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="6">
         <v>3</v>
       </c>
-      <c r="AG28" s="6">
+      <c r="AH28" s="6">
         <v>232</v>
       </c>
-      <c r="AH28" s="6">
+      <c r="AI28" s="6">
         <v>5</v>
       </c>
-      <c r="AI28" s="6">
+      <c r="AJ28" s="6">
         <v>68</v>
       </c>
-      <c r="AJ28" s="6">
+      <c r="AK28" s="6">
         <v>117</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AL28" s="19">
         <v>2587</v>
       </c>
-      <c r="AL28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="5">
+      <c r="AM28" s="4">
         <v>1</v>
       </c>
       <c r="AN28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO28" s="5">
+      <c r="AP28" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP28" s="5">
+      <c r="AQ28" s="5">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>42903</v>
       </c>
@@ -6650,12 +7206,9 @@
       <c r="P29" s="10">
         <v>8</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="R29" s="10">
         <v>57</v>
       </c>
-      <c r="R29" s="10">
-        <v>0</v>
-      </c>
       <c r="S29" s="10">
         <v>0</v>
       </c>
@@ -6666,70 +7219,73 @@
         <v>0</v>
       </c>
       <c r="V29" s="10">
+        <v>0</v>
+      </c>
+      <c r="W29" s="10">
         <v>12</v>
       </c>
-      <c r="W29" s="10">
+      <c r="X29" s="10">
         <v>18</v>
       </c>
-      <c r="X29" s="10">
-        <v>1</v>
-      </c>
       <c r="Y29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="10">
         <v>45</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="AA29" s="10">
         <v>283</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AB29" s="10">
         <v>130</v>
       </c>
-      <c r="AB29" s="10">
-        <v>0</v>
-      </c>
       <c r="AC29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="10">
         <v>379</v>
       </c>
-      <c r="AD29" s="6">
-        <v>0</v>
-      </c>
       <c r="AE29" s="6">
         <v>0</v>
       </c>
       <c r="AF29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="6">
         <v>3</v>
       </c>
-      <c r="AG29" s="6">
+      <c r="AH29" s="6">
         <v>232</v>
       </c>
-      <c r="AH29" s="6">
+      <c r="AI29" s="6">
         <v>5</v>
       </c>
-      <c r="AI29" s="6">
+      <c r="AJ29" s="6">
         <v>68</v>
       </c>
-      <c r="AJ29" s="6">
+      <c r="AK29" s="6">
         <v>117</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AL29" s="19">
         <v>2587</v>
       </c>
-      <c r="AL29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="5">
+      <c r="AM29" s="4">
         <v>1</v>
       </c>
       <c r="AN29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO29" s="5">
+      <c r="AP29" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AQ29" s="5">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>42904</v>
       </c>
@@ -6778,12 +7334,9 @@
       <c r="P30" s="10">
         <v>8</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="R30" s="10">
         <v>57</v>
       </c>
-      <c r="R30" s="10">
-        <v>0</v>
-      </c>
       <c r="S30" s="10">
         <v>0</v>
       </c>
@@ -6794,70 +7347,73 @@
         <v>0</v>
       </c>
       <c r="V30" s="10">
+        <v>0</v>
+      </c>
+      <c r="W30" s="10">
         <v>12</v>
       </c>
-      <c r="W30" s="10">
+      <c r="X30" s="10">
         <v>18</v>
       </c>
-      <c r="X30" s="10">
-        <v>1</v>
-      </c>
       <c r="Y30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="10">
         <v>45</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="AA30" s="10">
         <v>283</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AB30" s="10">
         <v>130</v>
       </c>
-      <c r="AB30" s="10">
-        <v>0</v>
-      </c>
       <c r="AC30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="10">
         <v>379</v>
       </c>
-      <c r="AD30" s="6">
-        <v>0</v>
-      </c>
       <c r="AE30" s="6">
         <v>0</v>
       </c>
       <c r="AF30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="6">
         <v>3</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AH30" s="6">
         <v>232</v>
       </c>
-      <c r="AH30" s="6">
+      <c r="AI30" s="6">
         <v>5</v>
       </c>
-      <c r="AI30" s="6">
+      <c r="AJ30" s="6">
         <v>68</v>
       </c>
-      <c r="AJ30" s="6">
+      <c r="AK30" s="6">
         <v>117</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AL30" s="19">
         <v>2587</v>
       </c>
-      <c r="AL30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="5">
+      <c r="AM30" s="4">
         <v>1</v>
       </c>
       <c r="AN30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO30" s="5">
+      <c r="AP30" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP30" s="5">
+      <c r="AQ30" s="5">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>42906</v>
       </c>
@@ -6906,12 +7462,9 @@
       <c r="P31" s="10">
         <v>8</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="R31" s="10">
         <v>57</v>
       </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
       <c r="S31" s="10">
         <v>0</v>
       </c>
@@ -6922,70 +7475,73 @@
         <v>0</v>
       </c>
       <c r="V31" s="10">
+        <v>0</v>
+      </c>
+      <c r="W31" s="10">
         <v>12</v>
       </c>
-      <c r="W31" s="10">
+      <c r="X31" s="10">
         <v>18</v>
       </c>
-      <c r="X31" s="10">
-        <v>1</v>
-      </c>
       <c r="Y31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="10">
         <v>45</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="AA31" s="10">
         <v>283</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AB31" s="10">
         <v>130</v>
       </c>
-      <c r="AB31" s="10">
-        <v>0</v>
-      </c>
       <c r="AC31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="10">
         <v>379</v>
       </c>
-      <c r="AD31" s="6">
-        <v>0</v>
-      </c>
       <c r="AE31" s="6">
         <v>0</v>
       </c>
       <c r="AF31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="6">
         <v>3</v>
       </c>
-      <c r="AG31" s="6">
+      <c r="AH31" s="6">
         <v>232</v>
       </c>
-      <c r="AH31" s="6">
+      <c r="AI31" s="6">
         <v>5</v>
       </c>
-      <c r="AI31" s="6">
+      <c r="AJ31" s="6">
         <v>68</v>
       </c>
-      <c r="AJ31" s="6">
+      <c r="AK31" s="6">
         <v>117</v>
       </c>
-      <c r="AK31" s="13">
+      <c r="AL31" s="20">
         <v>2588</v>
       </c>
-      <c r="AL31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="5">
+      <c r="AM31" s="4">
         <v>1</v>
       </c>
       <c r="AN31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO31" s="5">
+      <c r="AP31" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP31" s="5">
+      <c r="AQ31" s="5">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>42908</v>
       </c>
@@ -7034,12 +7590,9 @@
       <c r="P32" s="10">
         <v>8</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="R32" s="10">
         <v>57</v>
       </c>
-      <c r="R32" s="10">
-        <v>0</v>
-      </c>
       <c r="S32" s="10">
         <v>0</v>
       </c>
@@ -7050,70 +7603,73 @@
         <v>0</v>
       </c>
       <c r="V32" s="10">
+        <v>0</v>
+      </c>
+      <c r="W32" s="10">
         <v>12</v>
       </c>
-      <c r="W32" s="10">
+      <c r="X32" s="10">
         <v>18</v>
       </c>
-      <c r="X32" s="10">
-        <v>1</v>
-      </c>
       <c r="Y32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="10">
         <v>45</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="AA32" s="10">
         <v>283</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AB32" s="10">
         <v>130</v>
       </c>
-      <c r="AB32" s="10">
-        <v>0</v>
-      </c>
       <c r="AC32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="10">
         <v>379</v>
       </c>
-      <c r="AD32" s="6">
-        <v>0</v>
-      </c>
       <c r="AE32" s="6">
         <v>0</v>
       </c>
       <c r="AF32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="6">
         <v>3</v>
       </c>
-      <c r="AG32" s="6">
+      <c r="AH32" s="6">
         <v>232</v>
       </c>
-      <c r="AH32" s="6">
+      <c r="AI32" s="6">
         <v>5</v>
       </c>
-      <c r="AI32" s="6">
+      <c r="AJ32" s="6">
         <v>68</v>
       </c>
-      <c r="AJ32" s="6">
+      <c r="AK32" s="6">
         <v>117</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AL32" s="19">
         <v>2588</v>
       </c>
-      <c r="AL32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="5">
+      <c r="AM32" s="4">
         <v>1</v>
       </c>
       <c r="AN32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO32" s="5">
+      <c r="AP32" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AQ32" s="5">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>42909</v>
       </c>
@@ -7162,12 +7718,9 @@
       <c r="P33" s="10">
         <v>8</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10">
         <v>57</v>
       </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
       <c r="S33" s="10">
         <v>0</v>
       </c>
@@ -7178,70 +7731,73 @@
         <v>0</v>
       </c>
       <c r="V33" s="10">
+        <v>0</v>
+      </c>
+      <c r="W33" s="10">
         <v>12</v>
       </c>
-      <c r="W33" s="10">
+      <c r="X33" s="10">
         <v>18</v>
       </c>
-      <c r="X33" s="10">
-        <v>1</v>
-      </c>
       <c r="Y33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="10">
         <v>45</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="AA33" s="10">
         <v>283</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AB33" s="10">
         <v>130</v>
       </c>
-      <c r="AB33" s="10">
-        <v>0</v>
-      </c>
       <c r="AC33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="10">
         <v>379</v>
       </c>
-      <c r="AD33" s="6">
-        <v>0</v>
-      </c>
       <c r="AE33" s="6">
         <v>0</v>
       </c>
       <c r="AF33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
         <v>3</v>
       </c>
-      <c r="AG33" s="6">
+      <c r="AH33" s="6">
         <v>232</v>
       </c>
-      <c r="AH33" s="6">
+      <c r="AI33" s="6">
         <v>5</v>
       </c>
-      <c r="AI33" s="6">
+      <c r="AJ33" s="6">
         <v>68</v>
       </c>
-      <c r="AJ33" s="6">
+      <c r="AK33" s="6">
         <v>117</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AL33" s="19">
         <v>2588</v>
       </c>
-      <c r="AL33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="5">
+      <c r="AM33" s="4">
         <v>1</v>
       </c>
       <c r="AN33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO33" s="5">
+      <c r="AP33" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP33" s="5">
+      <c r="AQ33" s="5">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>42911</v>
       </c>
@@ -7290,12 +7846,9 @@
       <c r="P34" s="10">
         <v>8</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="R34" s="10">
         <v>57</v>
       </c>
-      <c r="R34" s="10">
-        <v>0</v>
-      </c>
       <c r="S34" s="10">
         <v>0</v>
       </c>
@@ -7306,70 +7859,73 @@
         <v>0</v>
       </c>
       <c r="V34" s="10">
+        <v>0</v>
+      </c>
+      <c r="W34" s="10">
         <v>12</v>
       </c>
-      <c r="W34" s="10">
+      <c r="X34" s="10">
         <v>18</v>
       </c>
-      <c r="X34" s="10">
-        <v>1</v>
-      </c>
       <c r="Y34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="10">
         <v>45</v>
       </c>
-      <c r="Z34" s="10">
+      <c r="AA34" s="10">
         <v>283</v>
       </c>
-      <c r="AA34" s="10">
+      <c r="AB34" s="10">
         <v>130</v>
       </c>
-      <c r="AB34" s="10">
-        <v>0</v>
-      </c>
       <c r="AC34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="10">
         <v>379</v>
       </c>
-      <c r="AD34" s="6">
-        <v>0</v>
-      </c>
       <c r="AE34" s="6">
         <v>0</v>
       </c>
       <c r="AF34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="6">
         <v>3</v>
       </c>
-      <c r="AG34" s="6">
+      <c r="AH34" s="6">
         <v>232</v>
       </c>
-      <c r="AH34" s="6">
+      <c r="AI34" s="6">
         <v>5</v>
       </c>
-      <c r="AI34" s="6">
+      <c r="AJ34" s="6">
         <v>68</v>
       </c>
-      <c r="AJ34" s="6">
+      <c r="AK34" s="6">
         <v>117</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AL34" s="19">
         <v>2588</v>
       </c>
-      <c r="AL34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="5">
+      <c r="AM34" s="4">
         <v>1</v>
       </c>
       <c r="AN34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO34" s="5">
+      <c r="AP34" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP34" s="5">
+      <c r="AQ34" s="5">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>42915</v>
       </c>
@@ -7418,12 +7974,9 @@
       <c r="P35" s="10">
         <v>8</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="10">
         <v>57</v>
       </c>
-      <c r="R35" s="10">
-        <v>0</v>
-      </c>
       <c r="S35" s="10">
         <v>0</v>
       </c>
@@ -7434,70 +7987,73 @@
         <v>0</v>
       </c>
       <c r="V35" s="10">
+        <v>0</v>
+      </c>
+      <c r="W35" s="10">
         <v>12</v>
       </c>
-      <c r="W35" s="10">
+      <c r="X35" s="10">
         <v>18</v>
       </c>
-      <c r="X35" s="10">
-        <v>1</v>
-      </c>
       <c r="Y35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="10">
         <v>45</v>
       </c>
-      <c r="Z35" s="10">
+      <c r="AA35" s="10">
         <v>283</v>
       </c>
-      <c r="AA35" s="10">
+      <c r="AB35" s="10">
         <v>130</v>
       </c>
-      <c r="AB35" s="10">
-        <v>0</v>
-      </c>
       <c r="AC35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="10">
         <v>379</v>
       </c>
-      <c r="AD35" s="6">
-        <v>0</v>
-      </c>
       <c r="AE35" s="6">
         <v>0</v>
       </c>
       <c r="AF35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="6">
         <v>3</v>
       </c>
-      <c r="AG35" s="6">
+      <c r="AH35" s="6">
         <v>232</v>
       </c>
-      <c r="AH35" s="6">
+      <c r="AI35" s="6">
         <v>5</v>
       </c>
-      <c r="AI35" s="6">
+      <c r="AJ35" s="6">
         <v>68</v>
       </c>
-      <c r="AJ35" s="6">
+      <c r="AK35" s="6">
         <v>117</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AL35" s="19">
         <v>2588</v>
       </c>
-      <c r="AL35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM35" s="5">
+      <c r="AM35" s="4">
         <v>1</v>
       </c>
       <c r="AN35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO35" s="5">
+      <c r="AP35" s="5">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AP35" s="5">
+      <c r="AQ35" s="5">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>42915</v>
       </c>
@@ -7546,12 +8102,9 @@
       <c r="P36" s="10">
         <v>8</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="R36" s="10">
         <v>57</v>
       </c>
-      <c r="R36" s="10">
-        <v>0</v>
-      </c>
       <c r="S36" s="10">
         <v>0</v>
       </c>
@@ -7562,70 +8115,73 @@
         <v>0</v>
       </c>
       <c r="V36" s="10">
+        <v>0</v>
+      </c>
+      <c r="W36" s="10">
         <v>12</v>
       </c>
-      <c r="W36" s="10">
+      <c r="X36" s="10">
         <v>18</v>
       </c>
-      <c r="X36" s="10">
-        <v>1</v>
-      </c>
       <c r="Y36" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="10">
         <v>45</v>
       </c>
-      <c r="Z36" s="10">
+      <c r="AA36" s="10">
         <v>283</v>
       </c>
-      <c r="AA36" s="10">
+      <c r="AB36" s="10">
         <v>130</v>
       </c>
-      <c r="AB36" s="10">
-        <v>0</v>
-      </c>
       <c r="AC36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="10">
         <v>379</v>
       </c>
-      <c r="AD36" s="6">
-        <v>0</v>
-      </c>
       <c r="AE36" s="6">
         <v>0</v>
       </c>
       <c r="AF36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="6">
         <v>3</v>
       </c>
-      <c r="AG36" s="6">
+      <c r="AH36" s="6">
         <v>232</v>
       </c>
-      <c r="AH36" s="6">
+      <c r="AI36" s="6">
         <v>5</v>
       </c>
-      <c r="AI36" s="6">
+      <c r="AJ36" s="6">
         <v>68</v>
       </c>
-      <c r="AJ36" s="13">
+      <c r="AK36" s="13">
         <v>118</v>
       </c>
-      <c r="AK36" s="13">
+      <c r="AL36" s="20">
         <v>2599</v>
       </c>
-      <c r="AL36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM36" s="5">
+      <c r="AM36" s="4">
         <v>1</v>
       </c>
       <c r="AN36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO36" s="5">
+      <c r="AP36" s="5">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AP36" s="5">
+      <c r="AQ36" s="5">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>42919</v>
       </c>
@@ -7674,12 +8230,9 @@
       <c r="P37" s="10">
         <v>8</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="R37" s="10">
         <v>57</v>
       </c>
-      <c r="R37" s="10">
-        <v>0</v>
-      </c>
       <c r="S37" s="10">
         <v>0</v>
       </c>
@@ -7690,70 +8243,73 @@
         <v>0</v>
       </c>
       <c r="V37" s="10">
+        <v>0</v>
+      </c>
+      <c r="W37" s="10">
         <v>12</v>
       </c>
-      <c r="W37" s="10">
+      <c r="X37" s="10">
         <v>18</v>
       </c>
-      <c r="X37" s="10">
-        <v>1</v>
-      </c>
       <c r="Y37" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="10">
         <v>45</v>
       </c>
-      <c r="Z37" s="10">
+      <c r="AA37" s="10">
         <v>283</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AB37" s="10">
         <v>130</v>
       </c>
-      <c r="AB37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="11">
+      <c r="AC37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="11">
         <v>380</v>
       </c>
-      <c r="AD37" s="6">
-        <v>0</v>
-      </c>
       <c r="AE37" s="6">
         <v>0</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AF37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="13">
         <v>2</v>
       </c>
-      <c r="AG37" s="6">
+      <c r="AH37" s="6">
         <v>232</v>
       </c>
-      <c r="AH37" s="6">
+      <c r="AI37" s="6">
         <v>5</v>
       </c>
-      <c r="AI37" s="6">
+      <c r="AJ37" s="6">
         <v>68</v>
       </c>
-      <c r="AJ37" s="6">
+      <c r="AK37" s="6">
         <v>118</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AL37" s="19">
         <v>2599</v>
       </c>
-      <c r="AL37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM37" s="5">
+      <c r="AM37" s="4">
         <v>1</v>
       </c>
       <c r="AN37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO37" s="5">
+      <c r="AP37" s="5">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AP37" s="5">
+      <c r="AQ37" s="5">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>42920</v>
       </c>
@@ -7802,12 +8358,9 @@
       <c r="P38" s="10">
         <v>8</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="R38" s="10">
         <v>57</v>
       </c>
-      <c r="R38" s="10">
-        <v>0</v>
-      </c>
       <c r="S38" s="10">
         <v>0</v>
       </c>
@@ -7818,70 +8371,73 @@
         <v>0</v>
       </c>
       <c r="V38" s="10">
+        <v>0</v>
+      </c>
+      <c r="W38" s="10">
         <v>12</v>
       </c>
-      <c r="W38" s="10">
+      <c r="X38" s="10">
         <v>18</v>
       </c>
-      <c r="X38" s="10">
-        <v>1</v>
-      </c>
       <c r="Y38" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="10">
         <v>45</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="AA38" s="10">
         <v>283</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AB38" s="10">
         <v>130</v>
       </c>
-      <c r="AB38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="6">
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="6">
         <v>380</v>
       </c>
-      <c r="AD38" s="6">
-        <v>0</v>
-      </c>
       <c r="AE38" s="6">
         <v>0</v>
       </c>
       <c r="AF38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="6">
         <v>2</v>
       </c>
-      <c r="AG38" s="6">
+      <c r="AH38" s="6">
         <v>232</v>
       </c>
-      <c r="AH38" s="6">
+      <c r="AI38" s="6">
         <v>5</v>
       </c>
-      <c r="AI38" s="6">
+      <c r="AJ38" s="6">
         <v>68</v>
       </c>
-      <c r="AJ38" s="6">
+      <c r="AK38" s="6">
         <v>118</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AL38" s="19">
         <v>2599</v>
       </c>
-      <c r="AL38" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM38" s="5">
+      <c r="AM38" s="4">
         <v>1</v>
       </c>
       <c r="AN38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO38" s="5">
+      <c r="AP38" s="5">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AP38" s="5">
+      <c r="AQ38" s="5">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>42921</v>
       </c>
@@ -7930,12 +8486,9 @@
       <c r="P39" s="10">
         <v>8</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="R39" s="10">
         <v>57</v>
       </c>
-      <c r="R39" s="10">
-        <v>0</v>
-      </c>
       <c r="S39" s="10">
         <v>0</v>
       </c>
@@ -7946,70 +8499,73 @@
         <v>0</v>
       </c>
       <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="W39" s="10">
         <v>12</v>
       </c>
-      <c r="W39" s="10">
+      <c r="X39" s="10">
         <v>18</v>
       </c>
-      <c r="X39" s="10">
-        <v>1</v>
-      </c>
       <c r="Y39" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="10">
         <v>45</v>
       </c>
-      <c r="Z39" s="10">
+      <c r="AA39" s="10">
         <v>283</v>
       </c>
-      <c r="AA39" s="10">
+      <c r="AB39" s="10">
         <v>130</v>
       </c>
-      <c r="AB39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13">
+      <c r="AC39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="13">
         <v>381</v>
       </c>
-      <c r="AD39" s="6">
-        <v>0</v>
-      </c>
       <c r="AE39" s="6">
         <v>0</v>
       </c>
-      <c r="AF39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="6">
+      <c r="AF39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="6">
         <v>232</v>
       </c>
-      <c r="AH39" s="6">
+      <c r="AI39" s="6">
         <v>5</v>
       </c>
-      <c r="AI39" s="6">
+      <c r="AJ39" s="6">
         <v>68</v>
       </c>
-      <c r="AJ39" s="6">
+      <c r="AK39" s="6">
         <v>118</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AL39" s="19">
         <v>2599</v>
       </c>
-      <c r="AL39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM39" s="5">
+      <c r="AM39" s="4">
         <v>1</v>
       </c>
       <c r="AN39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO39" s="5">
+      <c r="AP39" s="5">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AP39" s="5">
+      <c r="AQ39" s="5">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>42924</v>
       </c>
@@ -8058,12 +8614,9 @@
       <c r="P40" s="10">
         <v>8</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="R40" s="10">
         <v>57</v>
       </c>
-      <c r="R40" s="10">
-        <v>0</v>
-      </c>
       <c r="S40" s="10">
         <v>0</v>
       </c>
@@ -8074,32 +8627,32 @@
         <v>0</v>
       </c>
       <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="W40" s="10">
         <v>12</v>
       </c>
-      <c r="W40" s="10">
+      <c r="X40" s="10">
         <v>18</v>
       </c>
-      <c r="X40" s="10">
-        <v>1</v>
-      </c>
       <c r="Y40" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="10">
         <v>45</v>
       </c>
-      <c r="Z40" s="10">
+      <c r="AA40" s="10">
         <v>283</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AB40" s="10">
         <v>130</v>
       </c>
-      <c r="AB40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="6">
+      <c r="AC40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="6">
         <v>381</v>
       </c>
-      <c r="AD40" s="6">
-        <v>0</v>
-      </c>
       <c r="AE40" s="6">
         <v>0</v>
       </c>
@@ -8107,37 +8660,40 @@
         <v>0</v>
       </c>
       <c r="AG40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="6">
         <v>232</v>
       </c>
-      <c r="AH40" s="6">
+      <c r="AI40" s="6">
         <v>5</v>
       </c>
-      <c r="AI40" s="6">
+      <c r="AJ40" s="6">
         <v>68</v>
       </c>
-      <c r="AJ40" s="6">
+      <c r="AK40" s="6">
         <v>118</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AL40" s="19">
         <v>2599</v>
       </c>
-      <c r="AL40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM40" s="5">
+      <c r="AM40" s="4">
         <v>1</v>
       </c>
       <c r="AN40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO40" s="5">
+      <c r="AP40" s="5">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AP40" s="5">
+      <c r="AQ40" s="5">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>42925</v>
       </c>
@@ -8186,12 +8742,9 @@
       <c r="P41" s="10">
         <v>8</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="R41" s="10">
         <v>57</v>
       </c>
-      <c r="R41" s="10">
-        <v>0</v>
-      </c>
       <c r="S41" s="10">
         <v>0</v>
       </c>
@@ -8202,32 +8755,32 @@
         <v>0</v>
       </c>
       <c r="V41" s="10">
+        <v>0</v>
+      </c>
+      <c r="W41" s="10">
         <v>12</v>
       </c>
-      <c r="W41" s="10">
+      <c r="X41" s="10">
         <v>18</v>
       </c>
-      <c r="X41" s="10">
-        <v>1</v>
-      </c>
       <c r="Y41" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="10">
         <v>45</v>
       </c>
-      <c r="Z41" s="10">
+      <c r="AA41" s="10">
         <v>283</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AB41" s="10">
         <v>130</v>
       </c>
-      <c r="AB41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="6">
+      <c r="AC41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="6">
         <v>381</v>
       </c>
-      <c r="AD41" s="6">
-        <v>0</v>
-      </c>
       <c r="AE41" s="6">
         <v>0</v>
       </c>
@@ -8235,37 +8788,40 @@
         <v>0</v>
       </c>
       <c r="AG41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="6">
         <v>232</v>
       </c>
-      <c r="AH41" s="6">
+      <c r="AI41" s="6">
         <v>5</v>
       </c>
-      <c r="AI41" s="6">
+      <c r="AJ41" s="6">
         <v>68</v>
       </c>
-      <c r="AJ41" s="6">
+      <c r="AK41" s="6">
         <v>118</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AL41" s="19">
         <v>2599</v>
       </c>
-      <c r="AL41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM41" s="5">
+      <c r="AM41" s="4">
         <v>1</v>
       </c>
       <c r="AN41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO41" s="5">
+      <c r="AP41" s="5">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AP41" s="5">
+      <c r="AQ41" s="5">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>42935</v>
       </c>
@@ -8314,12 +8870,9 @@
       <c r="P42" s="10">
         <v>8</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="R42" s="11">
         <v>50</v>
       </c>
-      <c r="R42" s="10">
-        <v>0</v>
-      </c>
       <c r="S42" s="10">
         <v>0</v>
       </c>
@@ -8329,71 +8882,74 @@
       <c r="U42" s="10">
         <v>0</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="W42" s="12">
         <v>13</v>
       </c>
-      <c r="W42" s="10">
+      <c r="X42" s="10">
         <v>18</v>
       </c>
-      <c r="X42" s="10">
-        <v>1</v>
-      </c>
       <c r="Y42" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="10">
         <v>45</v>
       </c>
-      <c r="Z42" s="10">
+      <c r="AA42" s="10">
         <v>283</v>
       </c>
-      <c r="AA42" s="10">
+      <c r="AB42" s="10">
         <v>130</v>
       </c>
-      <c r="AB42" s="10">
-        <v>0</v>
-      </c>
       <c r="AC42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="10">
         <v>381</v>
       </c>
-      <c r="AD42" s="6">
-        <v>0</v>
-      </c>
       <c r="AE42" s="6">
         <v>0</v>
       </c>
       <c r="AF42" s="6">
         <v>0</v>
       </c>
-      <c r="AG42" s="13">
+      <c r="AG42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="13">
         <v>235</v>
       </c>
-      <c r="AH42" s="6">
+      <c r="AI42" s="6">
         <v>5</v>
       </c>
-      <c r="AI42" s="6">
+      <c r="AJ42" s="6">
         <v>68</v>
       </c>
-      <c r="AJ42" s="13">
+      <c r="AK42" s="13">
         <v>123</v>
       </c>
-      <c r="AK42" s="13">
+      <c r="AL42" s="20">
         <v>2655</v>
       </c>
-      <c r="AL42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM42" s="5">
+      <c r="AM42" s="4">
         <v>1</v>
       </c>
       <c r="AN42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO42" s="15">
+      <c r="AP42" s="15">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AP42" s="15">
+      <c r="AQ42" s="15">
         <v>0.74536780000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42936</v>
       </c>
@@ -8442,12 +8998,9 @@
       <c r="P43" s="10">
         <v>8</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="R43" s="10">
         <v>50</v>
       </c>
-      <c r="R43" s="10">
-        <v>0</v>
-      </c>
       <c r="S43" s="10">
         <v>0</v>
       </c>
@@ -8458,32 +9011,32 @@
         <v>0</v>
       </c>
       <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="W43" s="10">
         <v>13</v>
       </c>
-      <c r="W43" s="10">
+      <c r="X43" s="10">
         <v>18</v>
       </c>
-      <c r="X43" s="10">
-        <v>1</v>
-      </c>
       <c r="Y43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="10">
         <v>45</v>
       </c>
-      <c r="Z43" s="10">
+      <c r="AA43" s="10">
         <v>283</v>
       </c>
-      <c r="AA43" s="10">
+      <c r="AB43" s="10">
         <v>130</v>
       </c>
-      <c r="AB43" s="10">
-        <v>0</v>
-      </c>
       <c r="AC43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="10">
         <v>381</v>
       </c>
-      <c r="AD43" s="6">
-        <v>0</v>
-      </c>
       <c r="AE43" s="6">
         <v>0</v>
       </c>
@@ -8491,37 +9044,40 @@
         <v>0</v>
       </c>
       <c r="AG43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="6">
         <v>235</v>
       </c>
-      <c r="AH43" s="6">
+      <c r="AI43" s="6">
         <v>5</v>
       </c>
-      <c r="AI43" s="6">
+      <c r="AJ43" s="6">
         <v>68</v>
       </c>
-      <c r="AJ43" s="6">
+      <c r="AK43" s="6">
         <v>123</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AL43" s="19">
         <v>2655</v>
       </c>
-      <c r="AL43" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM43" s="5">
+      <c r="AM43" s="4">
         <v>1</v>
       </c>
       <c r="AN43" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO43" s="5">
+      <c r="AP43" s="5">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AP43" s="5">
+      <c r="AQ43" s="5">
         <v>0.74536780000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>42937</v>
       </c>
@@ -8570,12 +9126,9 @@
       <c r="P44" s="10">
         <v>8</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="R44" s="10">
         <v>50</v>
       </c>
-      <c r="R44" s="10">
-        <v>0</v>
-      </c>
       <c r="S44" s="10">
         <v>0</v>
       </c>
@@ -8585,33 +9138,33 @@
       <c r="U44" s="10">
         <v>0</v>
       </c>
-      <c r="V44" s="11">
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
         <v>12</v>
       </c>
-      <c r="W44" s="10">
+      <c r="X44" s="10">
         <v>18</v>
       </c>
-      <c r="X44" s="10">
-        <v>1</v>
-      </c>
       <c r="Y44" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="10">
         <v>45</v>
       </c>
-      <c r="Z44" s="10">
+      <c r="AA44" s="10">
         <v>283</v>
       </c>
-      <c r="AA44" s="10">
+      <c r="AB44" s="10">
         <v>130</v>
       </c>
-      <c r="AB44" s="10">
-        <v>0</v>
-      </c>
       <c r="AC44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="10">
         <v>381</v>
       </c>
-      <c r="AD44" s="6">
-        <v>0</v>
-      </c>
       <c r="AE44" s="6">
         <v>0</v>
       </c>
@@ -8619,34 +9172,1192 @@
         <v>0</v>
       </c>
       <c r="AG44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="6">
         <v>235</v>
       </c>
-      <c r="AH44" s="6">
+      <c r="AI44" s="6">
         <v>5</v>
       </c>
-      <c r="AI44" s="6">
+      <c r="AJ44" s="6">
         <v>68</v>
       </c>
-      <c r="AJ44" s="6">
+      <c r="AK44" s="6">
         <v>123</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AL44" s="19">
         <v>2656</v>
       </c>
-      <c r="AL44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM44" s="5">
+      <c r="AM44" s="4">
         <v>1</v>
       </c>
       <c r="AN44" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AO44" s="5">
+      <c r="AP44" s="5">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AP44" s="5">
+      <c r="AQ44" s="5">
         <v>0.74564850000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>42938</v>
+      </c>
+      <c r="B45" s="10">
+        <v>235</v>
+      </c>
+      <c r="C45" s="10">
+        <v>5</v>
+      </c>
+      <c r="D45" s="10">
+        <v>307</v>
+      </c>
+      <c r="E45" s="10">
+        <v>69</v>
+      </c>
+      <c r="F45" s="10">
+        <v>3562</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>61</v>
+      </c>
+      <c r="I45" s="10">
+        <v>216</v>
+      </c>
+      <c r="J45" s="10">
+        <v>657</v>
+      </c>
+      <c r="K45" s="10">
+        <v>130</v>
+      </c>
+      <c r="L45" s="10">
+        <v>0</v>
+      </c>
+      <c r="M45" s="10">
+        <v>239</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <v>8</v>
+      </c>
+      <c r="R45" s="10">
+        <v>50</v>
+      </c>
+      <c r="S45" s="10">
+        <v>0</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
+        <v>0</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <v>12</v>
+      </c>
+      <c r="X45" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA45" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB45" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="10">
+        <v>381</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI45" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ45" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK45" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL45" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP45" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ45" s="5">
+        <v>0.74564850000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>42939</v>
+      </c>
+      <c r="B46" s="10">
+        <v>235</v>
+      </c>
+      <c r="C46" s="10">
+        <v>5</v>
+      </c>
+      <c r="D46" s="10">
+        <v>307</v>
+      </c>
+      <c r="E46" s="10">
+        <v>69</v>
+      </c>
+      <c r="F46" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>61</v>
+      </c>
+      <c r="I46" s="10">
+        <v>216</v>
+      </c>
+      <c r="J46" s="10">
+        <v>657</v>
+      </c>
+      <c r="K46" s="10">
+        <v>130</v>
+      </c>
+      <c r="L46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="10">
+        <v>239</v>
+      </c>
+      <c r="N46" s="10">
+        <v>0</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <v>8</v>
+      </c>
+      <c r="R46" s="10">
+        <v>50</v>
+      </c>
+      <c r="S46" s="10">
+        <v>0</v>
+      </c>
+      <c r="T46" s="10">
+        <v>0</v>
+      </c>
+      <c r="U46" s="10">
+        <v>0</v>
+      </c>
+      <c r="V46" s="10">
+        <v>0</v>
+      </c>
+      <c r="W46" s="12">
+        <v>13</v>
+      </c>
+      <c r="X46" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB46" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>382</v>
+      </c>
+      <c r="AE46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI46" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ46" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK46" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL46" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP46" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ46" s="5">
+        <v>0.74543919999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>42940</v>
+      </c>
+      <c r="B47" s="10">
+        <v>235</v>
+      </c>
+      <c r="C47" s="10">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10">
+        <v>307</v>
+      </c>
+      <c r="E47" s="10">
+        <v>69</v>
+      </c>
+      <c r="F47" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>61</v>
+      </c>
+      <c r="I47" s="10">
+        <v>216</v>
+      </c>
+      <c r="J47" s="10">
+        <v>657</v>
+      </c>
+      <c r="K47" s="10">
+        <v>130</v>
+      </c>
+      <c r="L47" s="10">
+        <v>0</v>
+      </c>
+      <c r="M47" s="10">
+        <v>239</v>
+      </c>
+      <c r="N47" s="10">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <v>8</v>
+      </c>
+      <c r="R47" s="10">
+        <v>50</v>
+      </c>
+      <c r="S47" s="10">
+        <v>0</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <v>13</v>
+      </c>
+      <c r="X47" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA47" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB47" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="10">
+        <v>382</v>
+      </c>
+      <c r="AE47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI47" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ47" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK47" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL47" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP47" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ47" s="5">
+        <v>0.74543919999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>42941</v>
+      </c>
+      <c r="B48" s="10">
+        <v>235</v>
+      </c>
+      <c r="C48" s="10">
+        <v>5</v>
+      </c>
+      <c r="D48" s="10">
+        <v>307</v>
+      </c>
+      <c r="E48" s="10">
+        <v>69</v>
+      </c>
+      <c r="F48" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>61</v>
+      </c>
+      <c r="I48" s="10">
+        <v>216</v>
+      </c>
+      <c r="J48" s="10">
+        <v>657</v>
+      </c>
+      <c r="K48" s="10">
+        <v>130</v>
+      </c>
+      <c r="L48" s="10">
+        <v>0</v>
+      </c>
+      <c r="M48" s="10">
+        <v>239</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <v>8</v>
+      </c>
+      <c r="R48" s="10">
+        <v>50</v>
+      </c>
+      <c r="S48" s="10">
+        <v>0</v>
+      </c>
+      <c r="T48" s="10">
+        <v>0</v>
+      </c>
+      <c r="U48" s="10">
+        <v>0</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <v>13</v>
+      </c>
+      <c r="X48" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB48" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>382</v>
+      </c>
+      <c r="AE48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI48" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ48" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK48" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL48" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP48" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ48" s="5">
+        <v>0.74543919999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>42943</v>
+      </c>
+      <c r="B49" s="10">
+        <v>235</v>
+      </c>
+      <c r="C49" s="10">
+        <v>5</v>
+      </c>
+      <c r="D49" s="10">
+        <v>307</v>
+      </c>
+      <c r="E49" s="10">
+        <v>69</v>
+      </c>
+      <c r="F49" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>61</v>
+      </c>
+      <c r="I49" s="10">
+        <v>216</v>
+      </c>
+      <c r="J49" s="10">
+        <v>657</v>
+      </c>
+      <c r="K49" s="10">
+        <v>130</v>
+      </c>
+      <c r="L49" s="10">
+        <v>0</v>
+      </c>
+      <c r="M49" s="10">
+        <v>239</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <v>8</v>
+      </c>
+      <c r="R49" s="10">
+        <v>50</v>
+      </c>
+      <c r="S49" s="10">
+        <v>0</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0</v>
+      </c>
+      <c r="W49" s="10">
+        <v>13</v>
+      </c>
+      <c r="X49" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB49" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="10">
+        <v>382</v>
+      </c>
+      <c r="AE49" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI49" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ49" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK49" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL49" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP49" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ49" s="5">
+        <v>0.74543919999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>42945</v>
+      </c>
+      <c r="B50" s="10">
+        <v>235</v>
+      </c>
+      <c r="C50" s="10">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10">
+        <v>307</v>
+      </c>
+      <c r="E50" s="10">
+        <v>69</v>
+      </c>
+      <c r="F50" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>61</v>
+      </c>
+      <c r="I50" s="10">
+        <v>216</v>
+      </c>
+      <c r="J50" s="11">
+        <v>658</v>
+      </c>
+      <c r="K50" s="10">
+        <v>130</v>
+      </c>
+      <c r="L50" s="10">
+        <v>0</v>
+      </c>
+      <c r="M50" s="10">
+        <v>239</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>8</v>
+      </c>
+      <c r="R50" s="10">
+        <v>50</v>
+      </c>
+      <c r="S50" s="10">
+        <v>0</v>
+      </c>
+      <c r="T50" s="10">
+        <v>0</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0</v>
+      </c>
+      <c r="V50" s="10">
+        <v>0</v>
+      </c>
+      <c r="W50" s="10">
+        <v>13</v>
+      </c>
+      <c r="X50" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB50" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="10">
+        <v>382</v>
+      </c>
+      <c r="AE50" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI50" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ50" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK50" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL50" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP50" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ50" s="5">
+        <v>0.74543919999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>42946</v>
+      </c>
+      <c r="B51" s="10">
+        <v>235</v>
+      </c>
+      <c r="C51" s="10">
+        <v>5</v>
+      </c>
+      <c r="D51" s="10">
+        <v>307</v>
+      </c>
+      <c r="E51" s="10">
+        <v>69</v>
+      </c>
+      <c r="F51" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>61</v>
+      </c>
+      <c r="I51" s="10">
+        <v>216</v>
+      </c>
+      <c r="J51" s="10">
+        <v>658</v>
+      </c>
+      <c r="K51" s="10">
+        <v>130</v>
+      </c>
+      <c r="L51" s="10">
+        <v>0</v>
+      </c>
+      <c r="M51" s="10">
+        <v>239</v>
+      </c>
+      <c r="N51" s="10">
+        <v>0</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <v>8</v>
+      </c>
+      <c r="R51" s="10">
+        <v>50</v>
+      </c>
+      <c r="S51" s="10">
+        <v>0</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
+      <c r="W51" s="10">
+        <v>13</v>
+      </c>
+      <c r="X51" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB51" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>382</v>
+      </c>
+      <c r="AE51" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI51" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ51" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK51" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL51" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP51" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ51" s="5">
+        <v>0.74543919999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>42948</v>
+      </c>
+      <c r="B52" s="10">
+        <v>235</v>
+      </c>
+      <c r="C52" s="10">
+        <v>5</v>
+      </c>
+      <c r="D52" s="10">
+        <v>307</v>
+      </c>
+      <c r="E52" s="10">
+        <v>69</v>
+      </c>
+      <c r="F52" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>61</v>
+      </c>
+      <c r="I52" s="10">
+        <v>216</v>
+      </c>
+      <c r="J52" s="10">
+        <v>658</v>
+      </c>
+      <c r="K52" s="10">
+        <v>130</v>
+      </c>
+      <c r="L52" s="10">
+        <v>0</v>
+      </c>
+      <c r="M52" s="10">
+        <v>239</v>
+      </c>
+      <c r="N52" s="10">
+        <v>0</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <v>8</v>
+      </c>
+      <c r="R52" s="10">
+        <v>50</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>0</v>
+      </c>
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
+      <c r="W52" s="10">
+        <v>13</v>
+      </c>
+      <c r="X52" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>45</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>283</v>
+      </c>
+      <c r="AB52" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <v>382</v>
+      </c>
+      <c r="AE52" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI52" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ52" s="6">
+        <v>68</v>
+      </c>
+      <c r="AK52" s="6">
+        <v>124</v>
+      </c>
+      <c r="AL52" s="19">
+        <v>2656</v>
+      </c>
+      <c r="AM52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN52" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="5">
+        <v>0.98550720000000003</v>
+      </c>
+      <c r="AP52" s="5">
+        <v>0.40390880000000001</v>
+      </c>
+      <c r="AQ52" s="5">
+        <v>0.74543919999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>42949</v>
+      </c>
+      <c r="B53" s="10">
+        <v>235</v>
+      </c>
+      <c r="C53" s="10">
+        <v>5</v>
+      </c>
+      <c r="D53" s="10">
+        <v>306</v>
+      </c>
+      <c r="E53" s="16">
+        <v>70</v>
+      </c>
+      <c r="F53" s="16">
+        <v>3560</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>61</v>
+      </c>
+      <c r="I53" s="10">
+        <v>216</v>
+      </c>
+      <c r="J53" s="10">
+        <v>658</v>
+      </c>
+      <c r="K53" s="10">
+        <v>130</v>
+      </c>
+      <c r="L53" s="10">
+        <v>0</v>
+      </c>
+      <c r="M53" s="10">
+        <v>239</v>
+      </c>
+      <c r="N53" s="10">
+        <v>0</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>10</v>
+      </c>
+      <c r="R53" s="11">
+        <v>47</v>
+      </c>
+      <c r="S53" s="10">
+        <v>0</v>
+      </c>
+      <c r="T53" s="10">
+        <v>0</v>
+      </c>
+      <c r="U53" s="10">
+        <v>0</v>
+      </c>
+      <c r="V53" s="10">
+        <v>0</v>
+      </c>
+      <c r="W53" s="10">
+        <v>13</v>
+      </c>
+      <c r="X53" s="10">
+        <v>18</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="17">
+        <v>45</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>288</v>
+      </c>
+      <c r="AB53" s="10">
+        <v>130</v>
+      </c>
+      <c r="AC53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="13">
+        <v>384</v>
+      </c>
+      <c r="AE53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="6">
+        <v>235</v>
+      </c>
+      <c r="AI53" s="17">
+        <v>5</v>
+      </c>
+      <c r="AJ53" s="13">
+        <v>69</v>
+      </c>
+      <c r="AK53" s="13">
+        <v>297</v>
+      </c>
+      <c r="AL53" s="20">
+        <v>3290</v>
+      </c>
+      <c r="AM53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="21">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AP53" s="15">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="AQ53" s="22">
+        <v>0.92415729999999996</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>List of</t>
+  </si>
+  <si>
+    <t>Excluded Classes</t>
   </si>
 </sst>
 </file>
@@ -301,19 +304,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -370,7 +373,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -549,7 +552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$53</c:f>
+              <c:f>Sheet1!$H$2:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -719,7 +722,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -898,7 +901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$53</c:f>
+              <c:f>Sheet1!$I$2:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1068,7 +1071,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1247,7 +1250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$53</c:f>
+              <c:f>Sheet1!$J$2:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1422,11 +1425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105345792"/>
-        <c:axId val="105347328"/>
+        <c:axId val="92163456"/>
+        <c:axId val="92169344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105345792"/>
+        <c:axId val="92163456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,14 +1439,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105347328"/>
+        <c:crossAx val="92169344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105347328"/>
+        <c:axId val="92169344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105345792"/>
+        <c:crossAx val="92163456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$1</c:f>
+              <c:f>Sheet1!$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1684,7 +1687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$7:$AM$53</c:f>
+              <c:f>Sheet1!$AN$7:$AN$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="47"/>
@@ -1839,7 +1842,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$1</c:f>
+              <c:f>Sheet1!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2003,7 +2006,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$53</c:f>
+              <c:f>Sheet1!$AO$7:$AO$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="47"/>
@@ -2158,7 +2161,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$1</c:f>
+              <c:f>Sheet1!$AP$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2322,7 +2325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$7:$AO$53</c:f>
+              <c:f>Sheet1!$AP$7:$AP$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="47"/>
@@ -2477,7 +2480,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$1</c:f>
+              <c:f>Sheet1!$AQ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2641,7 +2644,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$7:$AP$53</c:f>
+              <c:f>Sheet1!$AQ$7:$AQ$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="47"/>
@@ -2796,7 +2799,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AQ$1</c:f>
+              <c:f>Sheet1!$AR$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2960,7 +2963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$7:$AQ$53</c:f>
+              <c:f>Sheet1!$AR$7:$AR$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="47"/>
@@ -3120,11 +3123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111879296"/>
-        <c:axId val="111880832"/>
+        <c:axId val="91713536"/>
+        <c:axId val="91715072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111879296"/>
+        <c:axId val="91713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,14 +3137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111880832"/>
+        <c:crossAx val="91715072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111880832"/>
+        <c:axId val="91715072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111879296"/>
+        <c:crossAx val="91713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3187,16 +3190,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3218,15 +3221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3537,14 +3540,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR53"/>
+  <dimension ref="A1:AS59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A52" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A47" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
-      <selection pane="topRight" activeCell="AL1" sqref="AL1:AL1048576"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:AR53"/>
-      <selection pane="bottomRight" activeCell="AP59" sqref="AP59"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,16 +3578,17 @@
     <col min="34" max="35" width="16.5703125" style="6" customWidth="1"/>
     <col min="36" max="36" width="15.42578125" style="6" customWidth="1"/>
     <col min="37" max="37" width="12.5703125" style="6" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="19" customWidth="1"/>
-    <col min="39" max="39" width="12.7109375" style="5" customWidth="1"/>
+    <col min="38" max="38" width="12.85546875" style="18" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="21" customWidth="1"/>
     <col min="40" max="40" width="11.85546875" style="5" customWidth="1"/>
     <col min="41" max="41" width="12.140625" style="5" customWidth="1"/>
     <col min="42" max="42" width="11.140625" style="5" customWidth="1"/>
-    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.7109375" style="2"/>
+    <col min="43" max="43" width="11" style="14" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" style="14" customWidth="1"/>
+    <col min="45" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3604,118 +3608,121 @@
         <v>4</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>42864</v>
       </c>
@@ -3734,108 +3741,108 @@
       <c r="F2" s="10">
         <v>3555</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>3</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>202</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <v>657</v>
       </c>
-      <c r="K2" s="10">
-        <v>130</v>
-      </c>
       <c r="L2" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M2" s="10">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10">
         <v>225</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>10</v>
       </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
       <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
         <v>10</v>
       </c>
-      <c r="R2" s="10">
+      <c r="S2" s="10">
         <v>83</v>
       </c>
-      <c r="S2" s="10">
+      <c r="T2" s="10">
         <v>15</v>
       </c>
-      <c r="T2" s="10">
-        <v>1</v>
-      </c>
       <c r="U2" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V2" s="10">
         <v>7</v>
       </c>
       <c r="W2" s="10">
+        <v>7</v>
+      </c>
+      <c r="X2" s="10">
         <v>88</v>
       </c>
-      <c r="X2" s="10">
+      <c r="Y2" s="10">
         <v>19</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Z2" s="10">
         <v>42</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="AA2" s="10">
         <v>45</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AB2" s="10">
         <v>240</v>
       </c>
-      <c r="AB2" s="10">
-        <v>130</v>
-      </c>
       <c r="AC2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>0</v>
+      </c>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
-      <c r="AH2" s="10">
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10">
         <v>229</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="6">
         <v>3</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AK2" s="6">
         <v>25</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AL2" s="6">
         <v>77</v>
       </c>
-      <c r="AL2" s="19">
+      <c r="AM2" s="6">
         <v>353</v>
       </c>
-      <c r="AM2" s="4">
-        <v>1</v>
-      </c>
       <c r="AN2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
         <v>0.6</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AP2" s="4">
         <v>0.37313429999999997</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AQ2" s="14">
         <v>0.24919089999999999</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AR2" s="14">
         <v>9.9296759999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>42865</v>
       </c>
@@ -3854,108 +3861,108 @@
       <c r="F3" s="10">
         <v>3555</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>202</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>216</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>657</v>
       </c>
-      <c r="K3" s="10">
-        <v>130</v>
-      </c>
       <c r="L3" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
         <v>225</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>10</v>
       </c>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
       <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
         <v>10</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>83</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10">
         <v>15</v>
       </c>
-      <c r="T3" s="10">
-        <v>1</v>
-      </c>
       <c r="U3" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V3" s="10">
         <v>7</v>
       </c>
       <c r="W3" s="10">
+        <v>7</v>
+      </c>
+      <c r="X3" s="10">
         <v>83</v>
       </c>
-      <c r="X3" s="10">
+      <c r="Y3" s="10">
         <v>19</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Z3" s="10">
         <v>15</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="AA3" s="10">
         <v>45</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AB3" s="10">
         <v>240</v>
       </c>
-      <c r="AB3" s="10">
-        <v>130</v>
-      </c>
       <c r="AC3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>0</v>
+      </c>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
-      <c r="AH3" s="10">
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10">
         <v>229</v>
       </c>
-      <c r="AI3" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="6">
         <v>30</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AL3" s="6">
         <v>85</v>
       </c>
-      <c r="AL3" s="19">
+      <c r="AM3" s="6">
         <v>503</v>
       </c>
-      <c r="AM3" s="4">
-        <v>1</v>
-      </c>
       <c r="AN3" s="4">
         <v>1</v>
       </c>
       <c r="AO3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="4">
         <v>0.44776120000000003</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AQ3" s="14">
         <v>0.27508090000000002</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AR3" s="14">
         <v>0.1414909</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>42867</v>
       </c>
@@ -3974,116 +3981,116 @@
       <c r="F4" s="10">
         <v>3555</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <v>202</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>216</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>657</v>
       </c>
-      <c r="K4" s="10">
-        <v>130</v>
-      </c>
       <c r="L4" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
         <v>225</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>10</v>
       </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
       <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
         <v>10</v>
       </c>
-      <c r="R4" s="10">
+      <c r="S4" s="10">
         <v>83</v>
       </c>
-      <c r="S4" s="10">
+      <c r="T4" s="10">
         <v>15</v>
       </c>
-      <c r="T4" s="10">
-        <v>1</v>
-      </c>
       <c r="U4" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V4" s="10">
         <v>7</v>
       </c>
       <c r="W4" s="10">
+        <v>7</v>
+      </c>
+      <c r="X4" s="10">
         <v>83</v>
       </c>
-      <c r="X4" s="10">
+      <c r="Y4" s="10">
         <v>19</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Z4" s="10">
         <v>15</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="AA4" s="10">
         <v>45</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AB4" s="10">
         <v>240</v>
       </c>
-      <c r="AB4" s="10">
-        <v>130</v>
-      </c>
       <c r="AC4" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="10">
         <v>237</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AF4" s="6">
         <v>137</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>3</v>
       </c>
       <c r="AG4" s="6">
         <v>3</v>
       </c>
       <c r="AH4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="6">
         <v>229</v>
       </c>
-      <c r="AI4" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ4" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="6">
         <v>38</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AL4" s="6">
         <v>102</v>
       </c>
-      <c r="AL4" s="19">
+      <c r="AM4" s="6">
         <v>1170</v>
       </c>
-      <c r="AM4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="5">
+      <c r="AN4" s="4">
         <v>1</v>
       </c>
       <c r="AO4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="5">
         <v>0.56716420000000001</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ4" s="14">
         <v>0.33009709999999998</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AR4" s="14">
         <v>0.32911390000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>42868</v>
       </c>
@@ -4102,116 +4109,116 @@
       <c r="F5" s="10">
         <v>3555</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>158</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>216</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>657</v>
       </c>
-      <c r="K5" s="10">
-        <v>130</v>
-      </c>
       <c r="L5" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10">
         <v>225</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>10</v>
       </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
       <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
         <v>10</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>83</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>15</v>
       </c>
-      <c r="T5" s="10">
-        <v>1</v>
-      </c>
       <c r="U5" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V5" s="10">
         <v>7</v>
       </c>
       <c r="W5" s="10">
+        <v>7</v>
+      </c>
+      <c r="X5" s="10">
         <v>83</v>
       </c>
-      <c r="X5" s="10">
+      <c r="Y5" s="10">
         <v>19</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Z5" s="10">
         <v>15</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AA5" s="10">
         <v>45</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AB5" s="10">
         <v>240</v>
       </c>
-      <c r="AB5" s="10">
-        <v>130</v>
-      </c>
       <c r="AC5" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="10">
         <v>237</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AF5" s="6">
         <v>137</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>3</v>
       </c>
       <c r="AG5" s="6">
         <v>3</v>
       </c>
       <c r="AH5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="6">
         <v>229</v>
       </c>
-      <c r="AI5" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="6">
         <v>39</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AL5" s="6">
         <v>103</v>
       </c>
-      <c r="AL5" s="19">
+      <c r="AM5" s="6">
         <v>1178</v>
       </c>
-      <c r="AM5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="5">
+      <c r="AN5" s="4">
         <v>1</v>
       </c>
       <c r="AO5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="5">
         <v>0.58208950000000004</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="14">
         <v>0.3333333</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AR5" s="14">
         <v>0.3313643</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>42869</v>
       </c>
@@ -4230,116 +4237,116 @@
       <c r="F6" s="10">
         <v>3555</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>158</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>216</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>657</v>
       </c>
-      <c r="K6" s="10">
-        <v>130</v>
-      </c>
       <c r="L6" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
         <v>225</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>10</v>
       </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
       <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
         <v>10</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>83</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>15</v>
       </c>
-      <c r="T6" s="10">
-        <v>1</v>
-      </c>
       <c r="U6" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V6" s="10">
         <v>7</v>
       </c>
       <c r="W6" s="10">
+        <v>7</v>
+      </c>
+      <c r="X6" s="10">
         <v>83</v>
       </c>
-      <c r="X6" s="10">
+      <c r="Y6" s="10">
         <v>19</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Z6" s="10">
         <v>15</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="AA6" s="10">
         <v>45</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AB6" s="10">
         <v>240</v>
       </c>
-      <c r="AB6" s="10">
-        <v>130</v>
-      </c>
       <c r="AC6" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="10">
         <v>237</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AF6" s="6">
         <v>137</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>3</v>
       </c>
       <c r="AG6" s="6">
         <v>3</v>
       </c>
       <c r="AH6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="6">
         <v>229</v>
       </c>
-      <c r="AI6" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="6">
         <v>39</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AL6" s="6">
         <v>103</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AM6" s="6">
         <v>1178</v>
       </c>
-      <c r="AM6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="5">
+      <c r="AN6" s="4">
         <v>1</v>
       </c>
       <c r="AO6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="5">
         <v>0.58208950000000004</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AQ6" s="14">
         <v>0.3333333</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AR6" s="14">
         <v>0.3313643</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>42870</v>
       </c>
@@ -4358,116 +4365,116 @@
       <c r="F7" s="10">
         <v>3555</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>3</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>158</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>216</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>657</v>
       </c>
-      <c r="K7" s="10">
-        <v>130</v>
-      </c>
       <c r="L7" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10">
         <v>225</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>10</v>
       </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
       <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
         <v>10</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>83</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>15</v>
       </c>
-      <c r="T7" s="10">
-        <v>1</v>
-      </c>
       <c r="U7" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V7" s="10">
         <v>7</v>
       </c>
       <c r="W7" s="10">
+        <v>7</v>
+      </c>
+      <c r="X7" s="10">
         <v>83</v>
       </c>
-      <c r="X7" s="10">
+      <c r="Y7" s="10">
         <v>19</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Z7" s="10">
         <v>15</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AA7" s="10">
         <v>45</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AB7" s="10">
         <v>240</v>
       </c>
-      <c r="AB7" s="10">
-        <v>130</v>
-      </c>
       <c r="AC7" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10">
         <v>237</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AF7" s="6">
         <v>137</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>3</v>
       </c>
       <c r="AG7" s="6">
         <v>3</v>
       </c>
       <c r="AH7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="6">
         <v>229</v>
       </c>
-      <c r="AI7" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="6">
         <v>40</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AL7" s="6">
         <v>105</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="AM7" s="6">
         <v>1224</v>
       </c>
-      <c r="AM7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="5">
+      <c r="AN7" s="4">
         <v>1</v>
       </c>
       <c r="AO7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="5">
         <v>0.59701490000000002</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AQ7" s="14">
         <v>0.33980579999999999</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AR7" s="14">
         <v>0.34430379999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>42872</v>
       </c>
@@ -4486,116 +4493,116 @@
       <c r="F8" s="10">
         <v>3555</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>3</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>67</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <v>216</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <v>657</v>
       </c>
-      <c r="K8" s="10">
-        <v>130</v>
-      </c>
       <c r="L8" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M8" s="10">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10">
         <v>225</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>10</v>
       </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
       <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
         <v>10</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>83</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>15</v>
       </c>
-      <c r="T8" s="10">
-        <v>1</v>
-      </c>
       <c r="U8" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V8" s="10">
         <v>7</v>
       </c>
       <c r="W8" s="10">
+        <v>7</v>
+      </c>
+      <c r="X8" s="10">
         <v>83</v>
       </c>
-      <c r="X8" s="10">
+      <c r="Y8" s="10">
         <v>19</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Z8" s="10">
         <v>15</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="AA8" s="10">
         <v>45</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AB8" s="10">
         <v>240</v>
       </c>
-      <c r="AB8" s="10">
-        <v>130</v>
-      </c>
       <c r="AC8" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="10">
         <v>237</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AF8" s="6">
         <v>137</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>3</v>
       </c>
       <c r="AG8" s="6">
         <v>3</v>
       </c>
       <c r="AH8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="6">
         <v>229</v>
       </c>
-      <c r="AI8" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ8" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="6">
         <v>48</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AL8" s="6">
         <v>108</v>
       </c>
-      <c r="AL8" s="19">
+      <c r="AM8" s="6">
         <v>2370</v>
       </c>
-      <c r="AM8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="5">
+      <c r="AN8" s="4">
         <v>1</v>
       </c>
       <c r="AO8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="5">
         <v>0.71641790000000005</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AQ8" s="14">
         <v>0.34951460000000001</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AR8" s="14">
         <v>0.66666669999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>42873</v>
       </c>
@@ -4614,116 +4621,116 @@
       <c r="F9" s="10">
         <v>3555</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>3</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>67</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <v>216</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <v>657</v>
       </c>
-      <c r="K9" s="10">
-        <v>130</v>
-      </c>
       <c r="L9" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10">
         <v>225</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>10</v>
       </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
       <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
         <v>10</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>83</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>15</v>
       </c>
-      <c r="T9" s="10">
-        <v>1</v>
-      </c>
       <c r="U9" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V9" s="10">
         <v>7</v>
       </c>
       <c r="W9" s="10">
+        <v>7</v>
+      </c>
+      <c r="X9" s="10">
         <v>83</v>
       </c>
-      <c r="X9" s="10">
+      <c r="Y9" s="10">
         <v>19</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Z9" s="10">
         <v>15</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="AA9" s="10">
         <v>45</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AB9" s="10">
         <v>240</v>
       </c>
-      <c r="AB9" s="10">
-        <v>130</v>
-      </c>
       <c r="AC9" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10">
         <v>237</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AF9" s="6">
         <v>137</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>3</v>
       </c>
       <c r="AG9" s="6">
         <v>3</v>
       </c>
       <c r="AH9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="6">
         <v>229</v>
       </c>
-      <c r="AI9" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ9" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="6">
         <v>66</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AL9" s="6">
         <v>116</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AM9" s="6">
         <v>2519</v>
       </c>
-      <c r="AM9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="5">
+      <c r="AN9" s="4">
         <v>1</v>
       </c>
       <c r="AO9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AQ9" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AR9" s="14">
         <v>0.70857950000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>42874</v>
       </c>
@@ -4742,116 +4749,116 @@
       <c r="F10" s="10">
         <v>3559</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>67</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <v>216</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>657</v>
       </c>
-      <c r="K10" s="10">
-        <v>130</v>
-      </c>
       <c r="L10" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10">
         <v>225</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>10</v>
       </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
       <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
         <v>10</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>83</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>15</v>
       </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
       <c r="U10" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V10" s="10">
         <v>7</v>
       </c>
       <c r="W10" s="10">
+        <v>7</v>
+      </c>
+      <c r="X10" s="10">
         <v>83</v>
       </c>
-      <c r="X10" s="10">
+      <c r="Y10" s="10">
         <v>18</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Z10" s="10">
         <v>15</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AA10" s="10">
         <v>45</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="10">
         <v>240</v>
       </c>
-      <c r="AB10" s="10">
-        <v>130</v>
-      </c>
       <c r="AC10" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="10">
         <v>237</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AF10" s="6">
         <v>137</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>3</v>
       </c>
       <c r="AG10" s="6">
         <v>3</v>
       </c>
       <c r="AH10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="6">
         <v>229</v>
       </c>
-      <c r="AI10" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ10" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="6">
         <v>66</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AL10" s="6">
         <v>116</v>
       </c>
-      <c r="AL10" s="19">
+      <c r="AM10" s="6">
         <v>2523</v>
       </c>
-      <c r="AM10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="5">
+      <c r="AN10" s="4">
         <v>1</v>
       </c>
       <c r="AO10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AQ10" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="AR10" s="14">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>42875</v>
       </c>
@@ -4870,116 +4877,116 @@
       <c r="F11" s="10">
         <v>3559</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>3</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>67</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <v>216</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <v>657</v>
       </c>
-      <c r="K11" s="10">
-        <v>130</v>
-      </c>
       <c r="L11" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
         <v>225</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>10</v>
       </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
       <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
         <v>10</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>83</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>15</v>
       </c>
-      <c r="T11" s="10">
-        <v>1</v>
-      </c>
       <c r="U11" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V11" s="10">
         <v>7</v>
       </c>
       <c r="W11" s="10">
+        <v>7</v>
+      </c>
+      <c r="X11" s="10">
         <v>83</v>
       </c>
-      <c r="X11" s="10">
+      <c r="Y11" s="10">
         <v>18</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Z11" s="10">
         <v>15</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="AA11" s="10">
         <v>45</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AB11" s="10">
         <v>240</v>
       </c>
-      <c r="AB11" s="10">
-        <v>130</v>
-      </c>
       <c r="AC11" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="10">
         <v>237</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AF11" s="6">
         <v>137</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>3</v>
       </c>
       <c r="AG11" s="6">
         <v>3</v>
       </c>
       <c r="AH11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="6">
         <v>229</v>
       </c>
-      <c r="AI11" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ11" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="6">
         <v>66</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AL11" s="6">
         <v>116</v>
       </c>
-      <c r="AL11" s="19">
+      <c r="AM11" s="6">
         <v>2523</v>
       </c>
-      <c r="AM11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="5">
+      <c r="AN11" s="4">
         <v>1</v>
       </c>
       <c r="AO11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AQ11" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AR11" s="14">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>42876</v>
       </c>
@@ -4998,116 +5005,116 @@
       <c r="F12" s="10">
         <v>3559</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>3</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>66</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <v>216</v>
       </c>
-      <c r="J12" s="10">
+      <c r="K12" s="10">
         <v>657</v>
       </c>
-      <c r="K12" s="10">
-        <v>130</v>
-      </c>
       <c r="L12" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <v>225</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>10</v>
       </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
       <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
         <v>10</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>83</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>15</v>
       </c>
-      <c r="T12" s="10">
-        <v>1</v>
-      </c>
       <c r="U12" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V12" s="10">
         <v>7</v>
       </c>
       <c r="W12" s="10">
+        <v>7</v>
+      </c>
+      <c r="X12" s="10">
         <v>83</v>
       </c>
-      <c r="X12" s="10">
+      <c r="Y12" s="10">
         <v>18</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Z12" s="10">
         <v>15</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AA12" s="10">
         <v>45</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AB12" s="10">
         <v>240</v>
       </c>
-      <c r="AB12" s="10">
-        <v>130</v>
-      </c>
       <c r="AC12" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="10">
         <v>237</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AF12" s="6">
         <v>137</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>3</v>
       </c>
       <c r="AG12" s="6">
         <v>3</v>
       </c>
       <c r="AH12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="6">
         <v>229</v>
       </c>
-      <c r="AI12" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ12" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="6">
         <v>66</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AL12" s="6">
         <v>116</v>
       </c>
-      <c r="AL12" s="19">
+      <c r="AM12" s="6">
         <v>2523</v>
       </c>
-      <c r="AM12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="5">
+      <c r="AN12" s="4">
         <v>1</v>
       </c>
       <c r="AO12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AQ12" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AR12" s="14">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>42878</v>
       </c>
@@ -5126,116 +5133,116 @@
       <c r="F13" s="10">
         <v>3559</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>3</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>62</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <v>216</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>657</v>
       </c>
-      <c r="K13" s="10">
-        <v>130</v>
-      </c>
       <c r="L13" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M13" s="10">
+        <v>1</v>
+      </c>
+      <c r="N13" s="10">
         <v>225</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>10</v>
       </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
       <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
         <v>10</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>83</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>15</v>
       </c>
-      <c r="T13" s="10">
-        <v>1</v>
-      </c>
       <c r="U13" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V13" s="10">
         <v>7</v>
       </c>
       <c r="W13" s="10">
+        <v>7</v>
+      </c>
+      <c r="X13" s="10">
         <v>83</v>
       </c>
-      <c r="X13" s="10">
+      <c r="Y13" s="10">
         <v>18</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Z13" s="10">
         <v>15</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="AA13" s="10">
         <v>45</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AB13" s="10">
         <v>240</v>
       </c>
-      <c r="AB13" s="10">
-        <v>130</v>
-      </c>
       <c r="AC13" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="10">
         <v>237</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AF13" s="6">
         <v>137</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>3</v>
       </c>
       <c r="AG13" s="6">
         <v>3</v>
       </c>
       <c r="AH13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="6">
         <v>229</v>
       </c>
-      <c r="AI13" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ13" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="6">
         <v>66</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AL13" s="6">
         <v>116</v>
       </c>
-      <c r="AL13" s="19">
+      <c r="AM13" s="6">
         <v>2523</v>
       </c>
-      <c r="AM13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="5">
+      <c r="AN13" s="4">
         <v>1</v>
       </c>
       <c r="AO13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AQ13" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AR13" s="14">
         <v>0.70890699999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>42880</v>
       </c>
@@ -5254,116 +5261,116 @@
       <c r="F14" s="10">
         <v>3558</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>62</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="10">
         <v>216</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>657</v>
       </c>
-      <c r="K14" s="10">
-        <v>130</v>
-      </c>
       <c r="L14" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <v>225</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <v>10</v>
       </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
       <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
         <v>10</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>85</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>15</v>
       </c>
-      <c r="T14" s="10">
-        <v>1</v>
-      </c>
       <c r="U14" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V14" s="10">
         <v>7</v>
       </c>
       <c r="W14" s="10">
+        <v>7</v>
+      </c>
+      <c r="X14" s="10">
         <v>83</v>
       </c>
-      <c r="X14" s="10">
+      <c r="Y14" s="10">
         <v>18</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Z14" s="10">
         <v>15</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="AA14" s="10">
         <v>45</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AB14" s="10">
         <v>240</v>
       </c>
-      <c r="AB14" s="10">
-        <v>130</v>
-      </c>
       <c r="AC14" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="10">
         <v>237</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AF14" s="6">
         <v>137</v>
-      </c>
-      <c r="AF14" s="6">
-        <v>3</v>
       </c>
       <c r="AG14" s="6">
         <v>3</v>
       </c>
       <c r="AH14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="6">
         <v>229</v>
       </c>
-      <c r="AI14" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ14" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="6">
         <v>66</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AL14" s="6">
         <v>117</v>
       </c>
-      <c r="AL14" s="19">
+      <c r="AM14" s="6">
         <v>2519</v>
       </c>
-      <c r="AM14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="5">
+      <c r="AN14" s="4">
         <v>1</v>
       </c>
       <c r="AO14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AQ14" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AR14" s="14">
         <v>0.707982</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>42884</v>
       </c>
@@ -5382,116 +5389,116 @@
       <c r="F15" s="10">
         <v>3559</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>62</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>216</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K15" s="10">
         <v>657</v>
       </c>
-      <c r="K15" s="10">
-        <v>130</v>
-      </c>
       <c r="L15" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <v>226</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <v>10</v>
       </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
       <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
         <v>10</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>85</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>15</v>
       </c>
-      <c r="T15" s="10">
-        <v>1</v>
-      </c>
       <c r="U15" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V15" s="10">
         <v>7</v>
       </c>
       <c r="W15" s="10">
+        <v>7</v>
+      </c>
+      <c r="X15" s="10">
         <v>83</v>
       </c>
-      <c r="X15" s="10">
+      <c r="Y15" s="10">
         <v>18</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Z15" s="10">
         <v>15</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AA15" s="10">
         <v>45</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>240</v>
       </c>
-      <c r="AB15" s="10">
-        <v>130</v>
-      </c>
       <c r="AC15" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="10">
         <v>237</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AF15" s="6">
         <v>137</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>3</v>
       </c>
       <c r="AG15" s="6">
         <v>3</v>
       </c>
       <c r="AH15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="6">
         <v>229</v>
       </c>
-      <c r="AI15" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ15" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="6">
         <v>66</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AL15" s="6">
         <v>117</v>
       </c>
-      <c r="AL15" s="19">
+      <c r="AM15" s="6">
         <v>2520</v>
       </c>
-      <c r="AM15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="5">
+      <c r="AN15" s="4">
         <v>1</v>
       </c>
       <c r="AO15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AQ15" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AR15" s="14">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>42885</v>
       </c>
@@ -5510,116 +5517,116 @@
       <c r="F16" s="10">
         <v>3559</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>3</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
         <v>62</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="10">
         <v>216</v>
       </c>
-      <c r="J16" s="10">
+      <c r="K16" s="10">
         <v>657</v>
       </c>
-      <c r="K16" s="10">
-        <v>130</v>
-      </c>
       <c r="L16" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M16" s="10">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <v>226</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <v>10</v>
       </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
       <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
         <v>10</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>85</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>15</v>
       </c>
-      <c r="T16" s="10">
-        <v>1</v>
-      </c>
       <c r="U16" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V16" s="10">
         <v>7</v>
       </c>
       <c r="W16" s="10">
+        <v>7</v>
+      </c>
+      <c r="X16" s="10">
         <v>83</v>
       </c>
-      <c r="X16" s="10">
+      <c r="Y16" s="10">
         <v>18</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Z16" s="10">
         <v>15</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="AA16" s="10">
         <v>45</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
         <v>240</v>
       </c>
-      <c r="AB16" s="10">
-        <v>130</v>
-      </c>
       <c r="AC16" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="10">
         <v>237</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AF16" s="6">
         <v>137</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>3</v>
       </c>
       <c r="AG16" s="6">
         <v>3</v>
       </c>
       <c r="AH16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="6">
         <v>229</v>
       </c>
-      <c r="AI16" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ16" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="6">
         <v>66</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AL16" s="6">
         <v>117</v>
       </c>
-      <c r="AL16" s="19">
+      <c r="AM16" s="6">
         <v>2520</v>
       </c>
-      <c r="AM16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="5">
+      <c r="AN16" s="4">
         <v>1</v>
       </c>
       <c r="AO16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AQ16" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ16" s="5">
+      <c r="AR16" s="14">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>42887</v>
       </c>
@@ -5638,116 +5645,116 @@
       <c r="F17" s="10">
         <v>3559</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
         <v>62</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="10">
         <v>216</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K17" s="10">
         <v>657</v>
       </c>
-      <c r="K17" s="10">
-        <v>130</v>
-      </c>
       <c r="L17" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M17" s="10">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <v>226</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <v>10</v>
       </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
       <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
         <v>10</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <v>85</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>15</v>
       </c>
-      <c r="T17" s="10">
-        <v>1</v>
-      </c>
       <c r="U17" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V17" s="10">
         <v>7</v>
       </c>
       <c r="W17" s="10">
+        <v>7</v>
+      </c>
+      <c r="X17" s="10">
         <v>83</v>
       </c>
-      <c r="X17" s="10">
+      <c r="Y17" s="10">
         <v>18</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Z17" s="10">
         <v>15</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="AA17" s="10">
         <v>45</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AB17" s="10">
         <v>240</v>
       </c>
-      <c r="AB17" s="10">
-        <v>130</v>
-      </c>
       <c r="AC17" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="10">
         <v>237</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AF17" s="6">
         <v>137</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>3</v>
       </c>
       <c r="AG17" s="6">
         <v>3</v>
       </c>
       <c r="AH17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="6">
         <v>229</v>
       </c>
-      <c r="AI17" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ17" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="6">
         <v>66</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AL17" s="6">
         <v>117</v>
       </c>
-      <c r="AL17" s="19">
+      <c r="AM17" s="6">
         <v>2520</v>
       </c>
-      <c r="AM17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="5">
+      <c r="AN17" s="4">
         <v>1</v>
       </c>
       <c r="AO17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AQ17" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ17" s="5">
+      <c r="AR17" s="14">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>42888</v>
       </c>
@@ -5766,116 +5773,116 @@
       <c r="F18" s="10">
         <v>3559</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>3</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
         <v>62</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="10">
         <v>216</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K18" s="10">
         <v>657</v>
       </c>
-      <c r="K18" s="10">
-        <v>130</v>
-      </c>
       <c r="L18" s="10">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <v>226</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <v>10</v>
       </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
       <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
         <v>10</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <v>85</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>15</v>
       </c>
-      <c r="T18" s="10">
-        <v>1</v>
-      </c>
       <c r="U18" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V18" s="10">
         <v>7</v>
       </c>
       <c r="W18" s="10">
+        <v>7</v>
+      </c>
+      <c r="X18" s="10">
         <v>83</v>
       </c>
-      <c r="X18" s="10">
+      <c r="Y18" s="10">
         <v>18</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Z18" s="10">
         <v>15</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="AA18" s="10">
         <v>45</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AB18" s="10">
         <v>240</v>
       </c>
-      <c r="AB18" s="10">
-        <v>130</v>
-      </c>
       <c r="AC18" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="10">
         <v>237</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AF18" s="6">
         <v>137</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>3</v>
       </c>
       <c r="AG18" s="6">
         <v>3</v>
       </c>
       <c r="AH18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="6">
         <v>229</v>
       </c>
-      <c r="AI18" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ18" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="6">
         <v>66</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AL18" s="6">
         <v>117</v>
       </c>
-      <c r="AL18" s="19">
+      <c r="AM18" s="6">
         <v>2520</v>
       </c>
-      <c r="AM18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="5">
+      <c r="AN18" s="4">
         <v>1</v>
       </c>
       <c r="AO18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AQ18" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ18" s="5">
+      <c r="AR18" s="14">
         <v>0.70806409999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>42891</v>
       </c>
@@ -5894,117 +5901,117 @@
       <c r="F19" s="10">
         <v>3559</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
         <v>62</v>
       </c>
-      <c r="I19" s="10">
+      <c r="J19" s="10">
         <v>216</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K19" s="10">
         <v>657</v>
       </c>
-      <c r="K19" s="10">
-        <v>130</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
+      <c r="L19" s="10">
+        <v>130</v>
       </c>
       <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>228</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <v>10</v>
       </c>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
       <c r="P19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
         <v>10</v>
       </c>
-      <c r="R19" s="11">
+      <c r="S19" s="11">
         <v>82</v>
       </c>
-      <c r="S19" s="11">
-        <v>1</v>
-      </c>
       <c r="T19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="11">
-        <v>0</v>
-      </c>
-      <c r="W19" s="12">
+        <v>1</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
         <v>84</v>
       </c>
-      <c r="X19" s="10">
+      <c r="Y19" s="10">
         <v>18</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Z19" s="10">
         <v>15</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="AA19" s="10">
         <v>45</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AB19" s="10">
         <v>240</v>
       </c>
-      <c r="AB19" s="10">
-        <v>130</v>
-      </c>
       <c r="AC19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="11">
+        <v>130</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="11">
         <v>370</v>
       </c>
-      <c r="AE19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="6">
+      <c r="AF19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="6">
         <v>3</v>
       </c>
-      <c r="AH19" s="13">
+      <c r="AI19" s="13">
         <v>231</v>
       </c>
-      <c r="AI19" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ19" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="6">
         <v>66</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AL19" s="6">
         <v>117</v>
       </c>
-      <c r="AL19" s="20">
+      <c r="AM19" s="13">
         <v>2525</v>
       </c>
-      <c r="AM19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="5">
+      <c r="AN19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AQ19" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="AR19" s="14">
         <v>0.70946900000000002</v>
       </c>
-      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>42892</v>
       </c>
@@ -6023,116 +6030,116 @@
       <c r="F20" s="10">
         <v>3560</v>
       </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
       <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
         <v>62</v>
       </c>
-      <c r="I20" s="10">
+      <c r="J20" s="10">
         <v>216</v>
       </c>
-      <c r="J20" s="10">
+      <c r="K20" s="10">
         <v>657</v>
       </c>
-      <c r="K20" s="10">
-        <v>130</v>
-      </c>
       <c r="L20" s="10">
-        <v>0</v>
-      </c>
-      <c r="M20" s="11">
+        <v>130</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
         <v>238</v>
       </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
+      <c r="O20" s="11">
         <v>0</v>
       </c>
       <c r="P20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10">
         <v>10</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <v>82</v>
       </c>
-      <c r="S20" s="10">
-        <v>1</v>
-      </c>
       <c r="T20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10">
         <v>84</v>
       </c>
-      <c r="X20" s="10">
+      <c r="Y20" s="10">
         <v>18</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Z20" s="10">
         <v>15</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="AA20" s="10">
         <v>45</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AB20" s="10">
         <v>240</v>
       </c>
-      <c r="AB20" s="10">
-        <v>130</v>
-      </c>
       <c r="AC20" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="10">
         <v>370</v>
       </c>
-      <c r="AE20" s="6">
-        <v>0</v>
-      </c>
       <c r="AF20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="6">
         <v>3</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AI20" s="6">
         <v>231</v>
       </c>
-      <c r="AI20" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ20" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="6">
         <v>66</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AL20" s="6">
         <v>117</v>
       </c>
-      <c r="AL20" s="20">
+      <c r="AM20" s="13">
         <v>2526</v>
       </c>
-      <c r="AM20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="5">
+      <c r="AN20" s="4">
         <v>1</v>
       </c>
       <c r="AO20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AQ20" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AR20" s="14">
         <v>0.70955060000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>42893</v>
       </c>
@@ -6151,117 +6158,117 @@
       <c r="F21" s="10">
         <v>3560</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
       <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
         <v>62</v>
       </c>
-      <c r="I21" s="10">
+      <c r="J21" s="10">
         <v>216</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K21" s="10">
         <v>657</v>
       </c>
-      <c r="K21" s="10">
-        <v>130</v>
-      </c>
       <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
+        <v>130</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
         <v>239</v>
       </c>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
       <c r="O21" s="10">
         <v>0</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
         <v>8</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12">
+      <c r="R21" s="11"/>
+      <c r="S21" s="12">
         <v>83</v>
       </c>
-      <c r="S21" s="10">
-        <v>1</v>
-      </c>
       <c r="T21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="10">
-        <v>0</v>
-      </c>
-      <c r="W21" s="11">
+        <v>1</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
         <v>12</v>
       </c>
-      <c r="X21" s="10">
+      <c r="Y21" s="10">
         <v>18</v>
       </c>
-      <c r="Y21" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="10">
         <v>45</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AB21" s="10">
         <v>240</v>
       </c>
-      <c r="AB21" s="10">
-        <v>130</v>
-      </c>
       <c r="AC21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="11">
+        <v>130</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
         <v>374</v>
       </c>
-      <c r="AE21" s="6">
-        <v>0</v>
-      </c>
       <c r="AF21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="6">
         <v>3</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AI21" s="6">
         <v>231</v>
       </c>
-      <c r="AI21" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ21" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="6">
         <v>66</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AL21" s="6">
         <v>117</v>
       </c>
-      <c r="AL21" s="20">
+      <c r="AM21" s="13">
         <v>2582</v>
       </c>
-      <c r="AM21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="5">
+      <c r="AN21" s="4">
         <v>1</v>
       </c>
       <c r="AO21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AQ21" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AQ21" s="15">
+      <c r="AR21" s="20">
         <v>0.72528090000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>42894</v>
       </c>
@@ -6280,116 +6287,116 @@
       <c r="F22" s="10">
         <v>3560</v>
       </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
       <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
         <v>62</v>
       </c>
-      <c r="I22" s="10">
+      <c r="J22" s="10">
         <v>216</v>
       </c>
-      <c r="J22" s="10">
+      <c r="K22" s="10">
         <v>657</v>
       </c>
-      <c r="K22" s="10">
-        <v>130</v>
-      </c>
       <c r="L22" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
         <v>239</v>
       </c>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
       <c r="O22" s="10">
         <v>0</v>
       </c>
       <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
         <v>8</v>
       </c>
-      <c r="R22" s="10">
+      <c r="S22" s="10">
         <v>83</v>
       </c>
-      <c r="S22" s="11">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0</v>
-      </c>
-      <c r="U22" s="11">
-        <v>0</v>
-      </c>
-      <c r="V22" s="10">
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="11">
         <v>0</v>
       </c>
       <c r="W22" s="10">
+        <v>0</v>
+      </c>
+      <c r="X22" s="10">
         <v>12</v>
       </c>
-      <c r="X22" s="10">
+      <c r="Y22" s="10">
         <v>18</v>
       </c>
-      <c r="Y22" s="10">
-        <v>1</v>
-      </c>
       <c r="Z22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="10">
         <v>45</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AB22" s="10">
         <v>240</v>
       </c>
-      <c r="AB22" s="10">
-        <v>130</v>
-      </c>
       <c r="AC22" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="10">
         <v>374</v>
       </c>
-      <c r="AE22" s="6">
-        <v>0</v>
-      </c>
       <c r="AF22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="6">
         <v>3</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AI22" s="6">
         <v>231</v>
       </c>
-      <c r="AI22" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ22" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="6">
         <v>66</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AL22" s="6">
         <v>119</v>
       </c>
-      <c r="AL22" s="20">
+      <c r="AM22" s="13">
         <v>2587</v>
       </c>
-      <c r="AM22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="5">
+      <c r="AN22" s="4">
         <v>1</v>
       </c>
       <c r="AO22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP22" s="15">
+      <c r="AQ22" s="20">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AR22" s="14">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>42895</v>
       </c>
@@ -6408,42 +6415,39 @@
       <c r="F23" s="10">
         <v>3560</v>
       </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
       <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
         <v>62</v>
       </c>
-      <c r="I23" s="10">
+      <c r="J23" s="10">
         <v>216</v>
       </c>
-      <c r="J23" s="10">
+      <c r="K23" s="10">
         <v>657</v>
       </c>
-      <c r="K23" s="10">
-        <v>130</v>
-      </c>
       <c r="L23" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
         <v>239</v>
       </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
       <c r="O23" s="10">
         <v>0</v>
       </c>
       <c r="P23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
         <v>8</v>
       </c>
-      <c r="R23" s="10">
+      <c r="S23" s="10">
         <v>83</v>
       </c>
-      <c r="S23" s="10">
-        <v>0</v>
-      </c>
       <c r="T23" s="10">
         <v>0</v>
       </c>
@@ -6454,70 +6458,73 @@
         <v>0</v>
       </c>
       <c r="W23" s="10">
+        <v>0</v>
+      </c>
+      <c r="X23" s="10">
         <v>12</v>
       </c>
-      <c r="X23" s="10">
+      <c r="Y23" s="10">
         <v>18</v>
       </c>
-      <c r="Y23" s="10">
-        <v>1</v>
-      </c>
       <c r="Z23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="10">
         <v>45</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AB23" s="10">
         <v>240</v>
       </c>
-      <c r="AB23" s="10">
-        <v>130</v>
-      </c>
       <c r="AC23" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="10">
         <v>374</v>
       </c>
-      <c r="AE23" s="6">
-        <v>0</v>
-      </c>
       <c r="AF23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="6">
         <v>3</v>
       </c>
-      <c r="AH23" s="6">
+      <c r="AI23" s="6">
         <v>231</v>
       </c>
-      <c r="AI23" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ23" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="6">
         <v>66</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AL23" s="6">
         <v>119</v>
       </c>
-      <c r="AL23" s="19">
+      <c r="AM23" s="6">
         <v>2587</v>
       </c>
-      <c r="AM23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="5">
+      <c r="AN23" s="4">
         <v>1</v>
       </c>
       <c r="AO23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AQ23" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AQ23" s="5">
+      <c r="AR23" s="14">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>42896</v>
       </c>
@@ -6536,42 +6543,39 @@
       <c r="F24" s="10">
         <v>3560</v>
       </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
       <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
         <v>62</v>
       </c>
-      <c r="I24" s="10">
+      <c r="J24" s="10">
         <v>216</v>
       </c>
-      <c r="J24" s="10">
+      <c r="K24" s="10">
         <v>657</v>
       </c>
-      <c r="K24" s="10">
-        <v>130</v>
-      </c>
       <c r="L24" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
         <v>239</v>
       </c>
-      <c r="N24" s="10">
-        <v>0</v>
-      </c>
       <c r="O24" s="10">
         <v>0</v>
       </c>
       <c r="P24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
         <v>8</v>
       </c>
-      <c r="R24" s="11">
+      <c r="S24" s="11">
         <v>57</v>
       </c>
-      <c r="S24" s="10">
-        <v>0</v>
-      </c>
       <c r="T24" s="10">
         <v>0</v>
       </c>
@@ -6582,70 +6586,73 @@
         <v>0</v>
       </c>
       <c r="W24" s="10">
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
         <v>12</v>
       </c>
-      <c r="X24" s="10">
+      <c r="Y24" s="10">
         <v>18</v>
       </c>
-      <c r="Y24" s="10">
-        <v>1</v>
-      </c>
       <c r="Z24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="10">
         <v>45</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AB24" s="10">
         <v>240</v>
       </c>
-      <c r="AB24" s="10">
-        <v>130</v>
-      </c>
       <c r="AC24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="11">
+        <v>130</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="11">
         <v>379</v>
       </c>
-      <c r="AE24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="6">
+      <c r="AF24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="6">
         <v>3</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AI24" s="6">
         <v>231</v>
       </c>
-      <c r="AI24" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ24" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="6">
         <v>66</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AL24" s="6">
         <v>119</v>
       </c>
-      <c r="AL24" s="19">
+      <c r="AM24" s="6">
         <v>2587</v>
       </c>
-      <c r="AM24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="5">
+      <c r="AN24" s="4">
         <v>1</v>
       </c>
       <c r="AO24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP24" s="5">
+      <c r="AQ24" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AQ24" s="5">
+      <c r="AR24" s="14">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>42898</v>
       </c>
@@ -6664,42 +6671,39 @@
       <c r="F25" s="10">
         <v>3560</v>
       </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
       <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
         <v>62</v>
       </c>
-      <c r="I25" s="10">
+      <c r="J25" s="10">
         <v>216</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K25" s="10">
         <v>657</v>
       </c>
-      <c r="K25" s="10">
-        <v>130</v>
-      </c>
       <c r="L25" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
         <v>239</v>
       </c>
-      <c r="N25" s="10">
-        <v>0</v>
-      </c>
       <c r="O25" s="10">
         <v>0</v>
       </c>
       <c r="P25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10">
         <v>8</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <v>57</v>
       </c>
-      <c r="S25" s="10">
-        <v>0</v>
-      </c>
       <c r="T25" s="10">
         <v>0</v>
       </c>
@@ -6710,70 +6714,73 @@
         <v>0</v>
       </c>
       <c r="W25" s="10">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10">
         <v>12</v>
       </c>
-      <c r="X25" s="10">
+      <c r="Y25" s="10">
         <v>18</v>
       </c>
-      <c r="Y25" s="10">
-        <v>1</v>
-      </c>
       <c r="Z25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="10">
         <v>45</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AB25" s="10">
         <v>240</v>
       </c>
-      <c r="AB25" s="10">
-        <v>130</v>
-      </c>
       <c r="AC25" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="10">
         <v>379</v>
       </c>
-      <c r="AE25" s="6">
-        <v>0</v>
-      </c>
       <c r="AF25" s="6">
         <v>0</v>
       </c>
       <c r="AG25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="6">
         <v>3</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AI25" s="6">
         <v>231</v>
       </c>
-      <c r="AI25" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ25" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="6">
         <v>66</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AL25" s="6">
         <v>119</v>
       </c>
-      <c r="AL25" s="19">
+      <c r="AM25" s="6">
         <v>2587</v>
       </c>
-      <c r="AM25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="5">
+      <c r="AN25" s="4">
         <v>1</v>
       </c>
       <c r="AO25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP25" s="5">
+      <c r="AQ25" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AQ25" s="5">
+      <c r="AR25" s="14">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>42900</v>
       </c>
@@ -6792,42 +6799,39 @@
       <c r="F26" s="10">
         <v>3560</v>
       </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
       <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
         <v>62</v>
       </c>
-      <c r="I26" s="10">
+      <c r="J26" s="10">
         <v>216</v>
       </c>
-      <c r="J26" s="10">
+      <c r="K26" s="10">
         <v>657</v>
       </c>
-      <c r="K26" s="10">
-        <v>130</v>
-      </c>
       <c r="L26" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
         <v>239</v>
       </c>
-      <c r="N26" s="10">
-        <v>0</v>
-      </c>
       <c r="O26" s="10">
         <v>0</v>
       </c>
       <c r="P26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
         <v>8</v>
       </c>
-      <c r="R26" s="10">
+      <c r="S26" s="10">
         <v>57</v>
       </c>
-      <c r="S26" s="10">
-        <v>0</v>
-      </c>
       <c r="T26" s="10">
         <v>0</v>
       </c>
@@ -6838,70 +6842,73 @@
         <v>0</v>
       </c>
       <c r="W26" s="10">
+        <v>0</v>
+      </c>
+      <c r="X26" s="10">
         <v>12</v>
       </c>
-      <c r="X26" s="10">
+      <c r="Y26" s="10">
         <v>18</v>
       </c>
-      <c r="Y26" s="10">
-        <v>1</v>
-      </c>
       <c r="Z26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="10">
         <v>45</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AB26" s="10">
         <v>240</v>
       </c>
-      <c r="AB26" s="10">
-        <v>130</v>
-      </c>
       <c r="AC26" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="10">
         <v>379</v>
       </c>
-      <c r="AE26" s="6">
-        <v>0</v>
-      </c>
       <c r="AF26" s="6">
         <v>0</v>
       </c>
       <c r="AG26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="6">
         <v>3</v>
       </c>
-      <c r="AH26" s="13">
+      <c r="AI26" s="13">
         <v>232</v>
       </c>
-      <c r="AI26" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ26" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="6">
         <v>66</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AL26" s="6">
         <v>119</v>
       </c>
-      <c r="AL26" s="19">
+      <c r="AM26" s="6">
         <v>2587</v>
       </c>
-      <c r="AM26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="5">
+      <c r="AN26" s="4">
         <v>1</v>
       </c>
       <c r="AO26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="5">
         <v>0.98507460000000002</v>
       </c>
-      <c r="AP26" s="5">
+      <c r="AQ26" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AR26" s="14">
         <v>0.72668540000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>42901</v>
       </c>
@@ -6920,42 +6927,40 @@
       <c r="F27" s="16">
         <v>3559</v>
       </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="G27" s="16"/>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
         <v>61</v>
       </c>
-      <c r="I27" s="10">
+      <c r="J27" s="10">
         <v>216</v>
       </c>
-      <c r="J27" s="10">
+      <c r="K27" s="10">
         <v>657</v>
       </c>
-      <c r="K27" s="10">
-        <v>130</v>
-      </c>
       <c r="L27" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
         <v>239</v>
       </c>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
       <c r="O27" s="10">
         <v>0</v>
       </c>
       <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10">
         <v>8</v>
       </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10">
         <v>57</v>
       </c>
-      <c r="S27" s="10">
-        <v>0</v>
-      </c>
       <c r="T27" s="10">
         <v>0</v>
       </c>
@@ -6966,70 +6971,73 @@
         <v>0</v>
       </c>
       <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
         <v>12</v>
       </c>
-      <c r="X27" s="10">
+      <c r="Y27" s="10">
         <v>18</v>
       </c>
-      <c r="Y27" s="10">
-        <v>1</v>
-      </c>
       <c r="Z27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="10">
         <v>45</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AB27" s="12">
         <v>283</v>
       </c>
-      <c r="AB27" s="10">
-        <v>130</v>
-      </c>
       <c r="AC27" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="10">
         <v>379</v>
       </c>
-      <c r="AE27" s="6">
-        <v>0</v>
-      </c>
       <c r="AF27" s="6">
         <v>0</v>
       </c>
       <c r="AG27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="6">
         <v>3</v>
       </c>
-      <c r="AH27" s="6">
+      <c r="AI27" s="6">
         <v>232</v>
       </c>
-      <c r="AI27" s="6">
-        <v>5</v>
-      </c>
-      <c r="AJ27" s="13">
+      <c r="AJ27" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="13">
         <v>68</v>
       </c>
-      <c r="AK27" s="13">
+      <c r="AL27" s="13">
         <v>117</v>
       </c>
-      <c r="AL27" s="19">
+      <c r="AM27" s="6">
         <v>2587</v>
       </c>
-      <c r="AM27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="5">
+      <c r="AN27" s="4">
         <v>1</v>
       </c>
       <c r="AO27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP27" s="5">
+      <c r="AQ27" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AQ27" s="5">
+      <c r="AR27" s="14">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>42902</v>
       </c>
@@ -7048,42 +7056,39 @@
       <c r="F28" s="10">
         <v>3559</v>
       </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
       <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
         <v>61</v>
       </c>
-      <c r="I28" s="10">
+      <c r="J28" s="10">
         <v>216</v>
       </c>
-      <c r="J28" s="10">
+      <c r="K28" s="10">
         <v>657</v>
       </c>
-      <c r="K28" s="10">
-        <v>130</v>
-      </c>
       <c r="L28" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
         <v>239</v>
       </c>
-      <c r="N28" s="10">
-        <v>0</v>
-      </c>
       <c r="O28" s="10">
         <v>0</v>
       </c>
       <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="10">
         <v>8</v>
       </c>
-      <c r="R28" s="10">
+      <c r="S28" s="10">
         <v>57</v>
       </c>
-      <c r="S28" s="10">
-        <v>0</v>
-      </c>
       <c r="T28" s="10">
         <v>0</v>
       </c>
@@ -7094,70 +7099,73 @@
         <v>0</v>
       </c>
       <c r="W28" s="10">
+        <v>0</v>
+      </c>
+      <c r="X28" s="10">
         <v>12</v>
       </c>
-      <c r="X28" s="10">
+      <c r="Y28" s="10">
         <v>18</v>
       </c>
-      <c r="Y28" s="10">
-        <v>1</v>
-      </c>
       <c r="Z28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="10">
         <v>45</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AB28" s="10">
         <v>283</v>
       </c>
-      <c r="AB28" s="10">
-        <v>130</v>
-      </c>
       <c r="AC28" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="10">
         <v>379</v>
       </c>
-      <c r="AE28" s="6">
-        <v>0</v>
-      </c>
       <c r="AF28" s="6">
         <v>0</v>
       </c>
       <c r="AG28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="6">
         <v>3</v>
       </c>
-      <c r="AH28" s="6">
+      <c r="AI28" s="6">
         <v>232</v>
       </c>
-      <c r="AI28" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ28" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="6">
         <v>68</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AL28" s="6">
         <v>117</v>
       </c>
-      <c r="AL28" s="19">
+      <c r="AM28" s="6">
         <v>2587</v>
       </c>
-      <c r="AM28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="5">
+      <c r="AN28" s="4">
         <v>1</v>
       </c>
       <c r="AO28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP28" s="5">
+      <c r="AQ28" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ28" s="5">
+      <c r="AR28" s="14">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>42903</v>
       </c>
@@ -7176,42 +7184,39 @@
       <c r="F29" s="10">
         <v>3559</v>
       </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
       <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
         <v>61</v>
       </c>
-      <c r="I29" s="10">
+      <c r="J29" s="10">
         <v>216</v>
       </c>
-      <c r="J29" s="10">
+      <c r="K29" s="10">
         <v>657</v>
       </c>
-      <c r="K29" s="10">
-        <v>130</v>
-      </c>
       <c r="L29" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
         <v>239</v>
       </c>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
       <c r="O29" s="10">
         <v>0</v>
       </c>
       <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="10">
         <v>8</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <v>57</v>
       </c>
-      <c r="S29" s="10">
-        <v>0</v>
-      </c>
       <c r="T29" s="10">
         <v>0</v>
       </c>
@@ -7222,70 +7227,73 @@
         <v>0</v>
       </c>
       <c r="W29" s="10">
+        <v>0</v>
+      </c>
+      <c r="X29" s="10">
         <v>12</v>
       </c>
-      <c r="X29" s="10">
+      <c r="Y29" s="10">
         <v>18</v>
       </c>
-      <c r="Y29" s="10">
-        <v>1</v>
-      </c>
       <c r="Z29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="10">
         <v>45</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AB29" s="10">
         <v>283</v>
       </c>
-      <c r="AB29" s="10">
-        <v>130</v>
-      </c>
       <c r="AC29" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="10">
         <v>379</v>
       </c>
-      <c r="AE29" s="6">
-        <v>0</v>
-      </c>
       <c r="AF29" s="6">
         <v>0</v>
       </c>
       <c r="AG29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="6">
         <v>3</v>
       </c>
-      <c r="AH29" s="6">
+      <c r="AI29" s="6">
         <v>232</v>
       </c>
-      <c r="AI29" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ29" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK29" s="6">
         <v>68</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AL29" s="6">
         <v>117</v>
       </c>
-      <c r="AL29" s="19">
+      <c r="AM29" s="6">
         <v>2587</v>
       </c>
-      <c r="AM29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="5">
+      <c r="AN29" s="4">
         <v>1</v>
       </c>
       <c r="AO29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AQ29" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ29" s="5">
+      <c r="AR29" s="14">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>42904</v>
       </c>
@@ -7304,42 +7312,39 @@
       <c r="F30" s="10">
         <v>3559</v>
       </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
       <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
         <v>61</v>
       </c>
-      <c r="I30" s="10">
+      <c r="J30" s="10">
         <v>216</v>
       </c>
-      <c r="J30" s="10">
+      <c r="K30" s="10">
         <v>657</v>
       </c>
-      <c r="K30" s="10">
-        <v>130</v>
-      </c>
       <c r="L30" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
         <v>239</v>
       </c>
-      <c r="N30" s="10">
-        <v>0</v>
-      </c>
       <c r="O30" s="10">
         <v>0</v>
       </c>
       <c r="P30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="10">
         <v>8</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <v>57</v>
       </c>
-      <c r="S30" s="10">
-        <v>0</v>
-      </c>
       <c r="T30" s="10">
         <v>0</v>
       </c>
@@ -7350,70 +7355,73 @@
         <v>0</v>
       </c>
       <c r="W30" s="10">
+        <v>0</v>
+      </c>
+      <c r="X30" s="10">
         <v>12</v>
       </c>
-      <c r="X30" s="10">
+      <c r="Y30" s="10">
         <v>18</v>
       </c>
-      <c r="Y30" s="10">
-        <v>1</v>
-      </c>
       <c r="Z30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="10">
         <v>45</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AB30" s="10">
         <v>283</v>
       </c>
-      <c r="AB30" s="10">
-        <v>130</v>
-      </c>
       <c r="AC30" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="10">
         <v>379</v>
       </c>
-      <c r="AE30" s="6">
-        <v>0</v>
-      </c>
       <c r="AF30" s="6">
         <v>0</v>
       </c>
       <c r="AG30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="6">
         <v>3</v>
       </c>
-      <c r="AH30" s="6">
+      <c r="AI30" s="6">
         <v>232</v>
       </c>
-      <c r="AI30" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ30" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="6">
         <v>68</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AL30" s="6">
         <v>117</v>
       </c>
-      <c r="AL30" s="19">
+      <c r="AM30" s="6">
         <v>2587</v>
       </c>
-      <c r="AM30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="5">
+      <c r="AN30" s="4">
         <v>1</v>
       </c>
       <c r="AO30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP30" s="5">
+      <c r="AQ30" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ30" s="5">
+      <c r="AR30" s="14">
         <v>0.72688960000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>42906</v>
       </c>
@@ -7432,42 +7440,40 @@
       <c r="F31" s="11">
         <v>3560</v>
       </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
         <v>61</v>
       </c>
-      <c r="I31" s="10">
+      <c r="J31" s="10">
         <v>216</v>
       </c>
-      <c r="J31" s="10">
+      <c r="K31" s="10">
         <v>657</v>
       </c>
-      <c r="K31" s="10">
-        <v>130</v>
-      </c>
       <c r="L31" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
         <v>239</v>
       </c>
-      <c r="N31" s="10">
-        <v>0</v>
-      </c>
       <c r="O31" s="10">
         <v>0</v>
       </c>
       <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="10">
         <v>8</v>
       </c>
-      <c r="R31" s="10">
+      <c r="S31" s="10">
         <v>57</v>
       </c>
-      <c r="S31" s="10">
-        <v>0</v>
-      </c>
       <c r="T31" s="10">
         <v>0</v>
       </c>
@@ -7478,70 +7484,73 @@
         <v>0</v>
       </c>
       <c r="W31" s="10">
+        <v>0</v>
+      </c>
+      <c r="X31" s="10">
         <v>12</v>
       </c>
-      <c r="X31" s="10">
+      <c r="Y31" s="10">
         <v>18</v>
       </c>
-      <c r="Y31" s="10">
-        <v>1</v>
-      </c>
       <c r="Z31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="10">
         <v>45</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AB31" s="10">
         <v>283</v>
       </c>
-      <c r="AB31" s="10">
-        <v>130</v>
-      </c>
       <c r="AC31" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="10">
         <v>379</v>
       </c>
-      <c r="AE31" s="6">
-        <v>0</v>
-      </c>
       <c r="AF31" s="6">
         <v>0</v>
       </c>
       <c r="AG31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="6">
         <v>3</v>
       </c>
-      <c r="AH31" s="6">
+      <c r="AI31" s="6">
         <v>232</v>
       </c>
-      <c r="AI31" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ31" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="6">
         <v>68</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AL31" s="6">
         <v>117</v>
       </c>
-      <c r="AL31" s="20">
+      <c r="AM31" s="13">
         <v>2588</v>
       </c>
-      <c r="AM31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="5">
+      <c r="AN31" s="4">
         <v>1</v>
       </c>
       <c r="AO31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP31" s="5">
+      <c r="AQ31" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ31" s="5">
+      <c r="AR31" s="14">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>42908</v>
       </c>
@@ -7560,42 +7569,39 @@
       <c r="F32" s="10">
         <v>3560</v>
       </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
       <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
         <v>61</v>
       </c>
-      <c r="I32" s="10">
+      <c r="J32" s="10">
         <v>216</v>
       </c>
-      <c r="J32" s="10">
+      <c r="K32" s="10">
         <v>657</v>
       </c>
-      <c r="K32" s="10">
-        <v>130</v>
-      </c>
       <c r="L32" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
         <v>239</v>
       </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
       <c r="O32" s="10">
         <v>0</v>
       </c>
       <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="10">
         <v>8</v>
       </c>
-      <c r="R32" s="10">
+      <c r="S32" s="10">
         <v>57</v>
       </c>
-      <c r="S32" s="10">
-        <v>0</v>
-      </c>
       <c r="T32" s="10">
         <v>0</v>
       </c>
@@ -7606,70 +7612,73 @@
         <v>0</v>
       </c>
       <c r="W32" s="10">
+        <v>0</v>
+      </c>
+      <c r="X32" s="10">
         <v>12</v>
       </c>
-      <c r="X32" s="10">
+      <c r="Y32" s="10">
         <v>18</v>
       </c>
-      <c r="Y32" s="10">
-        <v>1</v>
-      </c>
       <c r="Z32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="10">
         <v>45</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AB32" s="10">
         <v>283</v>
       </c>
-      <c r="AB32" s="10">
-        <v>130</v>
-      </c>
       <c r="AC32" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="10">
         <v>379</v>
       </c>
-      <c r="AE32" s="6">
-        <v>0</v>
-      </c>
       <c r="AF32" s="6">
         <v>0</v>
       </c>
       <c r="AG32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="6">
         <v>3</v>
       </c>
-      <c r="AH32" s="6">
+      <c r="AI32" s="6">
         <v>232</v>
       </c>
-      <c r="AI32" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ32" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="6">
         <v>68</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AL32" s="6">
         <v>117</v>
       </c>
-      <c r="AL32" s="19">
+      <c r="AM32" s="6">
         <v>2588</v>
       </c>
-      <c r="AM32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="5">
+      <c r="AN32" s="4">
         <v>1</v>
       </c>
       <c r="AO32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AQ32" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="AR32" s="14">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>42909</v>
       </c>
@@ -7688,42 +7697,39 @@
       <c r="F33" s="10">
         <v>3560</v>
       </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
       <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
         <v>61</v>
       </c>
-      <c r="I33" s="10">
+      <c r="J33" s="10">
         <v>216</v>
       </c>
-      <c r="J33" s="10">
+      <c r="K33" s="10">
         <v>657</v>
       </c>
-      <c r="K33" s="10">
-        <v>130</v>
-      </c>
       <c r="L33" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
         <v>239</v>
       </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
       <c r="O33" s="10">
         <v>0</v>
       </c>
       <c r="P33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="10">
         <v>8</v>
       </c>
-      <c r="R33" s="10">
+      <c r="S33" s="10">
         <v>57</v>
       </c>
-      <c r="S33" s="10">
-        <v>0</v>
-      </c>
       <c r="T33" s="10">
         <v>0</v>
       </c>
@@ -7734,70 +7740,73 @@
         <v>0</v>
       </c>
       <c r="W33" s="10">
+        <v>0</v>
+      </c>
+      <c r="X33" s="10">
         <v>12</v>
       </c>
-      <c r="X33" s="10">
+      <c r="Y33" s="10">
         <v>18</v>
       </c>
-      <c r="Y33" s="10">
-        <v>1</v>
-      </c>
       <c r="Z33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="10">
         <v>45</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AB33" s="10">
         <v>283</v>
       </c>
-      <c r="AB33" s="10">
-        <v>130</v>
-      </c>
       <c r="AC33" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="10">
         <v>379</v>
       </c>
-      <c r="AE33" s="6">
-        <v>0</v>
-      </c>
       <c r="AF33" s="6">
         <v>0</v>
       </c>
       <c r="AG33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
         <v>3</v>
       </c>
-      <c r="AH33" s="6">
+      <c r="AI33" s="6">
         <v>232</v>
       </c>
-      <c r="AI33" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ33" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="6">
         <v>68</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AL33" s="6">
         <v>117</v>
       </c>
-      <c r="AL33" s="19">
+      <c r="AM33" s="6">
         <v>2588</v>
       </c>
-      <c r="AM33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN33" s="5">
+      <c r="AN33" s="4">
         <v>1</v>
       </c>
       <c r="AO33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP33" s="5">
+      <c r="AQ33" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ33" s="5">
+      <c r="AR33" s="14">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>42911</v>
       </c>
@@ -7816,42 +7825,39 @@
       <c r="F34" s="10">
         <v>3560</v>
       </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
       <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
         <v>61</v>
       </c>
-      <c r="I34" s="10">
+      <c r="J34" s="10">
         <v>216</v>
       </c>
-      <c r="J34" s="10">
+      <c r="K34" s="10">
         <v>657</v>
       </c>
-      <c r="K34" s="10">
-        <v>130</v>
-      </c>
       <c r="L34" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
         <v>239</v>
       </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
       <c r="O34" s="10">
         <v>0</v>
       </c>
       <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10">
         <v>8</v>
       </c>
-      <c r="R34" s="10">
+      <c r="S34" s="10">
         <v>57</v>
       </c>
-      <c r="S34" s="10">
-        <v>0</v>
-      </c>
       <c r="T34" s="10">
         <v>0</v>
       </c>
@@ -7862,70 +7868,73 @@
         <v>0</v>
       </c>
       <c r="W34" s="10">
+        <v>0</v>
+      </c>
+      <c r="X34" s="10">
         <v>12</v>
       </c>
-      <c r="X34" s="10">
+      <c r="Y34" s="10">
         <v>18</v>
       </c>
-      <c r="Y34" s="10">
-        <v>1</v>
-      </c>
       <c r="Z34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="10">
         <v>45</v>
       </c>
-      <c r="AA34" s="10">
+      <c r="AB34" s="10">
         <v>283</v>
       </c>
-      <c r="AB34" s="10">
-        <v>130</v>
-      </c>
       <c r="AC34" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="10">
         <v>379</v>
       </c>
-      <c r="AE34" s="6">
-        <v>0</v>
-      </c>
       <c r="AF34" s="6">
         <v>0</v>
       </c>
       <c r="AG34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="6">
         <v>3</v>
       </c>
-      <c r="AH34" s="6">
+      <c r="AI34" s="6">
         <v>232</v>
       </c>
-      <c r="AI34" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ34" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="6">
         <v>68</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AL34" s="6">
         <v>117</v>
       </c>
-      <c r="AL34" s="19">
+      <c r="AM34" s="6">
         <v>2588</v>
       </c>
-      <c r="AM34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN34" s="5">
+      <c r="AN34" s="4">
         <v>1</v>
       </c>
       <c r="AO34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP34" s="5">
+      <c r="AQ34" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ34" s="5">
+      <c r="AR34" s="14">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>42915</v>
       </c>
@@ -7944,42 +7953,39 @@
       <c r="F35" s="10">
         <v>3560</v>
       </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
       <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
         <v>61</v>
       </c>
-      <c r="I35" s="10">
+      <c r="J35" s="10">
         <v>216</v>
       </c>
-      <c r="J35" s="10">
+      <c r="K35" s="10">
         <v>657</v>
       </c>
-      <c r="K35" s="10">
-        <v>130</v>
-      </c>
       <c r="L35" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
         <v>239</v>
       </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
       <c r="O35" s="10">
         <v>0</v>
       </c>
       <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10">
         <v>8</v>
       </c>
-      <c r="R35" s="10">
+      <c r="S35" s="10">
         <v>57</v>
       </c>
-      <c r="S35" s="10">
-        <v>0</v>
-      </c>
       <c r="T35" s="10">
         <v>0</v>
       </c>
@@ -7990,70 +7996,73 @@
         <v>0</v>
       </c>
       <c r="W35" s="10">
+        <v>0</v>
+      </c>
+      <c r="X35" s="10">
         <v>12</v>
       </c>
-      <c r="X35" s="10">
+      <c r="Y35" s="10">
         <v>18</v>
       </c>
-      <c r="Y35" s="10">
-        <v>1</v>
-      </c>
       <c r="Z35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="10">
         <v>45</v>
       </c>
-      <c r="AA35" s="10">
+      <c r="AB35" s="10">
         <v>283</v>
       </c>
-      <c r="AB35" s="10">
-        <v>130</v>
-      </c>
       <c r="AC35" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="10">
         <v>379</v>
       </c>
-      <c r="AE35" s="6">
-        <v>0</v>
-      </c>
       <c r="AF35" s="6">
         <v>0</v>
       </c>
       <c r="AG35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="6">
         <v>3</v>
       </c>
-      <c r="AH35" s="6">
+      <c r="AI35" s="6">
         <v>232</v>
       </c>
-      <c r="AI35" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ35" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="6">
         <v>68</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AL35" s="6">
         <v>117</v>
       </c>
-      <c r="AL35" s="19">
+      <c r="AM35" s="6">
         <v>2588</v>
       </c>
-      <c r="AM35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN35" s="5">
+      <c r="AN35" s="4">
         <v>1</v>
       </c>
       <c r="AO35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP35" s="5">
+      <c r="AQ35" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AQ35" s="5">
+      <c r="AR35" s="14">
         <v>0.72696629999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>42915</v>
       </c>
@@ -8072,42 +8081,39 @@
       <c r="F36" s="10">
         <v>3560</v>
       </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
       <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
         <v>61</v>
       </c>
-      <c r="I36" s="10">
+      <c r="J36" s="10">
         <v>216</v>
       </c>
-      <c r="J36" s="10">
+      <c r="K36" s="10">
         <v>657</v>
       </c>
-      <c r="K36" s="10">
-        <v>130</v>
-      </c>
       <c r="L36" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
         <v>239</v>
       </c>
-      <c r="N36" s="10">
-        <v>0</v>
-      </c>
       <c r="O36" s="10">
         <v>0</v>
       </c>
       <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
         <v>8</v>
       </c>
-      <c r="R36" s="10">
+      <c r="S36" s="10">
         <v>57</v>
       </c>
-      <c r="S36" s="10">
-        <v>0</v>
-      </c>
       <c r="T36" s="10">
         <v>0</v>
       </c>
@@ -8118,70 +8124,73 @@
         <v>0</v>
       </c>
       <c r="W36" s="10">
+        <v>0</v>
+      </c>
+      <c r="X36" s="10">
         <v>12</v>
       </c>
-      <c r="X36" s="10">
+      <c r="Y36" s="10">
         <v>18</v>
       </c>
-      <c r="Y36" s="10">
-        <v>1</v>
-      </c>
       <c r="Z36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="10">
         <v>45</v>
       </c>
-      <c r="AA36" s="10">
+      <c r="AB36" s="10">
         <v>283</v>
       </c>
-      <c r="AB36" s="10">
-        <v>130</v>
-      </c>
       <c r="AC36" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="10">
         <v>379</v>
       </c>
-      <c r="AE36" s="6">
-        <v>0</v>
-      </c>
       <c r="AF36" s="6">
         <v>0</v>
       </c>
       <c r="AG36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="6">
         <v>3</v>
       </c>
-      <c r="AH36" s="6">
+      <c r="AI36" s="6">
         <v>232</v>
       </c>
-      <c r="AI36" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ36" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="6">
         <v>68</v>
       </c>
-      <c r="AK36" s="13">
+      <c r="AL36" s="13">
         <v>118</v>
       </c>
-      <c r="AL36" s="20">
+      <c r="AM36" s="13">
         <v>2599</v>
       </c>
-      <c r="AM36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="5">
+      <c r="AN36" s="4">
         <v>1</v>
       </c>
       <c r="AO36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP36" s="5">
+      <c r="AQ36" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AQ36" s="5">
+      <c r="AR36" s="14">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>42919</v>
       </c>
@@ -8200,42 +8209,39 @@
       <c r="F37" s="10">
         <v>3560</v>
       </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
       <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
         <v>61</v>
       </c>
-      <c r="I37" s="10">
+      <c r="J37" s="10">
         <v>216</v>
       </c>
-      <c r="J37" s="10">
+      <c r="K37" s="10">
         <v>657</v>
       </c>
-      <c r="K37" s="10">
-        <v>130</v>
-      </c>
       <c r="L37" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
         <v>239</v>
       </c>
-      <c r="N37" s="10">
-        <v>0</v>
-      </c>
       <c r="O37" s="10">
         <v>0</v>
       </c>
       <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
         <v>8</v>
       </c>
-      <c r="R37" s="10">
+      <c r="S37" s="10">
         <v>57</v>
       </c>
-      <c r="S37" s="10">
-        <v>0</v>
-      </c>
       <c r="T37" s="10">
         <v>0</v>
       </c>
@@ -8246,70 +8252,73 @@
         <v>0</v>
       </c>
       <c r="W37" s="10">
+        <v>0</v>
+      </c>
+      <c r="X37" s="10">
         <v>12</v>
       </c>
-      <c r="X37" s="10">
+      <c r="Y37" s="10">
         <v>18</v>
       </c>
-      <c r="Y37" s="10">
-        <v>1</v>
-      </c>
       <c r="Z37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="10">
         <v>45</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AB37" s="10">
         <v>283</v>
       </c>
-      <c r="AB37" s="10">
-        <v>130</v>
-      </c>
       <c r="AC37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="11">
+        <v>130</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="11">
         <v>380</v>
       </c>
-      <c r="AE37" s="6">
-        <v>0</v>
-      </c>
       <c r="AF37" s="6">
         <v>0</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AG37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="13">
         <v>2</v>
       </c>
-      <c r="AH37" s="6">
+      <c r="AI37" s="6">
         <v>232</v>
       </c>
-      <c r="AI37" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ37" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="6">
         <v>68</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AL37" s="6">
         <v>118</v>
       </c>
-      <c r="AL37" s="19">
+      <c r="AM37" s="6">
         <v>2599</v>
       </c>
-      <c r="AM37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN37" s="5">
+      <c r="AN37" s="4">
         <v>1</v>
       </c>
       <c r="AO37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP37" s="5">
+      <c r="AQ37" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AQ37" s="5">
+      <c r="AR37" s="14">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>42920</v>
       </c>
@@ -8328,42 +8337,39 @@
       <c r="F38" s="10">
         <v>3560</v>
       </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
       <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
         <v>61</v>
       </c>
-      <c r="I38" s="10">
+      <c r="J38" s="10">
         <v>216</v>
       </c>
-      <c r="J38" s="10">
+      <c r="K38" s="10">
         <v>657</v>
       </c>
-      <c r="K38" s="10">
-        <v>130</v>
-      </c>
       <c r="L38" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
         <v>239</v>
       </c>
-      <c r="N38" s="10">
-        <v>0</v>
-      </c>
       <c r="O38" s="10">
         <v>0</v>
       </c>
       <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="10">
         <v>8</v>
       </c>
-      <c r="R38" s="10">
+      <c r="S38" s="10">
         <v>57</v>
       </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
       <c r="T38" s="10">
         <v>0</v>
       </c>
@@ -8374,70 +8380,73 @@
         <v>0</v>
       </c>
       <c r="W38" s="10">
+        <v>0</v>
+      </c>
+      <c r="X38" s="10">
         <v>12</v>
       </c>
-      <c r="X38" s="10">
+      <c r="Y38" s="10">
         <v>18</v>
       </c>
-      <c r="Y38" s="10">
-        <v>1</v>
-      </c>
       <c r="Z38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="10">
         <v>45</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AB38" s="10">
         <v>283</v>
       </c>
-      <c r="AB38" s="10">
-        <v>130</v>
-      </c>
       <c r="AC38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="6">
+        <v>130</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="6">
         <v>380</v>
       </c>
-      <c r="AE38" s="6">
-        <v>0</v>
-      </c>
       <c r="AF38" s="6">
         <v>0</v>
       </c>
       <c r="AG38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="6">
         <v>2</v>
       </c>
-      <c r="AH38" s="6">
+      <c r="AI38" s="6">
         <v>232</v>
       </c>
-      <c r="AI38" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ38" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK38" s="6">
         <v>68</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AL38" s="6">
         <v>118</v>
       </c>
-      <c r="AL38" s="19">
+      <c r="AM38" s="6">
         <v>2599</v>
       </c>
-      <c r="AM38" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN38" s="5">
+      <c r="AN38" s="4">
         <v>1</v>
       </c>
       <c r="AO38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP38" s="5">
+      <c r="AQ38" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AQ38" s="5">
+      <c r="AR38" s="14">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>42921</v>
       </c>
@@ -8456,42 +8465,39 @@
       <c r="F39" s="10">
         <v>3560</v>
       </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
       <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
         <v>61</v>
       </c>
-      <c r="I39" s="10">
+      <c r="J39" s="10">
         <v>216</v>
       </c>
-      <c r="J39" s="10">
+      <c r="K39" s="10">
         <v>657</v>
       </c>
-      <c r="K39" s="10">
-        <v>130</v>
-      </c>
       <c r="L39" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
         <v>239</v>
       </c>
-      <c r="N39" s="10">
-        <v>0</v>
-      </c>
       <c r="O39" s="10">
         <v>0</v>
       </c>
       <c r="P39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10">
         <v>8</v>
       </c>
-      <c r="R39" s="10">
+      <c r="S39" s="10">
         <v>57</v>
       </c>
-      <c r="S39" s="10">
-        <v>0</v>
-      </c>
       <c r="T39" s="10">
         <v>0</v>
       </c>
@@ -8502,70 +8508,73 @@
         <v>0</v>
       </c>
       <c r="W39" s="10">
+        <v>0</v>
+      </c>
+      <c r="X39" s="10">
         <v>12</v>
       </c>
-      <c r="X39" s="10">
+      <c r="Y39" s="10">
         <v>18</v>
       </c>
-      <c r="Y39" s="10">
-        <v>1</v>
-      </c>
       <c r="Z39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="10">
         <v>45</v>
       </c>
-      <c r="AA39" s="10">
+      <c r="AB39" s="10">
         <v>283</v>
       </c>
-      <c r="AB39" s="10">
-        <v>130</v>
-      </c>
       <c r="AC39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="13">
+        <v>130</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13">
         <v>381</v>
       </c>
-      <c r="AE39" s="6">
-        <v>0</v>
-      </c>
       <c r="AF39" s="6">
         <v>0</v>
       </c>
-      <c r="AG39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="6">
+      <c r="AG39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="6">
         <v>232</v>
       </c>
-      <c r="AI39" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ39" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK39" s="6">
         <v>68</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AL39" s="6">
         <v>118</v>
       </c>
-      <c r="AL39" s="19">
+      <c r="AM39" s="6">
         <v>2599</v>
       </c>
-      <c r="AM39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN39" s="5">
+      <c r="AN39" s="4">
         <v>1</v>
       </c>
       <c r="AO39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP39" s="5">
+      <c r="AQ39" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AQ39" s="5">
+      <c r="AR39" s="14">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>42924</v>
       </c>
@@ -8584,42 +8593,39 @@
       <c r="F40" s="10">
         <v>3560</v>
       </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
       <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
         <v>61</v>
       </c>
-      <c r="I40" s="10">
+      <c r="J40" s="10">
         <v>216</v>
       </c>
-      <c r="J40" s="10">
+      <c r="K40" s="10">
         <v>657</v>
       </c>
-      <c r="K40" s="10">
-        <v>130</v>
-      </c>
       <c r="L40" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
         <v>239</v>
       </c>
-      <c r="N40" s="10">
-        <v>0</v>
-      </c>
       <c r="O40" s="10">
         <v>0</v>
       </c>
       <c r="P40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="10">
         <v>8</v>
       </c>
-      <c r="R40" s="10">
+      <c r="S40" s="10">
         <v>57</v>
       </c>
-      <c r="S40" s="10">
-        <v>0</v>
-      </c>
       <c r="T40" s="10">
         <v>0</v>
       </c>
@@ -8630,32 +8636,32 @@
         <v>0</v>
       </c>
       <c r="W40" s="10">
+        <v>0</v>
+      </c>
+      <c r="X40" s="10">
         <v>12</v>
       </c>
-      <c r="X40" s="10">
+      <c r="Y40" s="10">
         <v>18</v>
       </c>
-      <c r="Y40" s="10">
-        <v>1</v>
-      </c>
       <c r="Z40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="10">
         <v>45</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AB40" s="10">
         <v>283</v>
       </c>
-      <c r="AB40" s="10">
-        <v>130</v>
-      </c>
       <c r="AC40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="6">
+        <v>130</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="6">
         <v>381</v>
       </c>
-      <c r="AE40" s="6">
-        <v>0</v>
-      </c>
       <c r="AF40" s="6">
         <v>0</v>
       </c>
@@ -8663,37 +8669,40 @@
         <v>0</v>
       </c>
       <c r="AH40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="6">
         <v>232</v>
       </c>
-      <c r="AI40" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ40" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK40" s="6">
         <v>68</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AL40" s="6">
         <v>118</v>
       </c>
-      <c r="AL40" s="19">
+      <c r="AM40" s="6">
         <v>2599</v>
       </c>
-      <c r="AM40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="5">
+      <c r="AN40" s="4">
         <v>1</v>
       </c>
       <c r="AO40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP40" s="5">
+      <c r="AQ40" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AQ40" s="5">
+      <c r="AR40" s="14">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>42925</v>
       </c>
@@ -8712,42 +8721,39 @@
       <c r="F41" s="10">
         <v>3560</v>
       </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
       <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
         <v>61</v>
       </c>
-      <c r="I41" s="10">
+      <c r="J41" s="10">
         <v>216</v>
       </c>
-      <c r="J41" s="10">
+      <c r="K41" s="10">
         <v>657</v>
       </c>
-      <c r="K41" s="10">
-        <v>130</v>
-      </c>
       <c r="L41" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
         <v>239</v>
       </c>
-      <c r="N41" s="10">
-        <v>0</v>
-      </c>
       <c r="O41" s="10">
         <v>0</v>
       </c>
       <c r="P41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10">
         <v>8</v>
       </c>
-      <c r="R41" s="10">
+      <c r="S41" s="10">
         <v>57</v>
       </c>
-      <c r="S41" s="10">
-        <v>0</v>
-      </c>
       <c r="T41" s="10">
         <v>0</v>
       </c>
@@ -8758,32 +8764,32 @@
         <v>0</v>
       </c>
       <c r="W41" s="10">
+        <v>0</v>
+      </c>
+      <c r="X41" s="10">
         <v>12</v>
       </c>
-      <c r="X41" s="10">
+      <c r="Y41" s="10">
         <v>18</v>
       </c>
-      <c r="Y41" s="10">
-        <v>1</v>
-      </c>
       <c r="Z41" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="10">
         <v>45</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AB41" s="10">
         <v>283</v>
       </c>
-      <c r="AB41" s="10">
-        <v>130</v>
-      </c>
       <c r="AC41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="6">
+        <v>130</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="6">
         <v>381</v>
       </c>
-      <c r="AE41" s="6">
-        <v>0</v>
-      </c>
       <c r="AF41" s="6">
         <v>0</v>
       </c>
@@ -8791,37 +8797,40 @@
         <v>0</v>
       </c>
       <c r="AH41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="6">
         <v>232</v>
       </c>
-      <c r="AI41" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ41" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK41" s="6">
         <v>68</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AL41" s="6">
         <v>118</v>
       </c>
-      <c r="AL41" s="19">
+      <c r="AM41" s="6">
         <v>2599</v>
       </c>
-      <c r="AM41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN41" s="5">
+      <c r="AN41" s="4">
         <v>1</v>
       </c>
       <c r="AO41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP41" s="5">
+      <c r="AQ41" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AQ41" s="5">
+      <c r="AR41" s="14">
         <v>0.73005620000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>42935</v>
       </c>
@@ -8840,42 +8849,39 @@
       <c r="F42" s="10">
         <v>3562</v>
       </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
       <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <v>61</v>
       </c>
-      <c r="I42" s="10">
+      <c r="J42" s="10">
         <v>216</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K42" s="10">
         <v>657</v>
       </c>
-      <c r="K42" s="10">
-        <v>130</v>
-      </c>
       <c r="L42" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
         <v>239</v>
       </c>
-      <c r="N42" s="10">
-        <v>0</v>
-      </c>
       <c r="O42" s="10">
         <v>0</v>
       </c>
       <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10">
         <v>8</v>
       </c>
-      <c r="R42" s="11">
+      <c r="S42" s="11">
         <v>50</v>
       </c>
-      <c r="S42" s="10">
-        <v>0</v>
-      </c>
       <c r="T42" s="10">
         <v>0</v>
       </c>
@@ -8885,71 +8891,74 @@
       <c r="V42" s="10">
         <v>0</v>
       </c>
-      <c r="W42" s="12">
+      <c r="W42" s="10">
+        <v>0</v>
+      </c>
+      <c r="X42" s="12">
         <v>13</v>
       </c>
-      <c r="X42" s="10">
+      <c r="Y42" s="10">
         <v>18</v>
       </c>
-      <c r="Y42" s="10">
-        <v>1</v>
-      </c>
       <c r="Z42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="10">
         <v>45</v>
       </c>
-      <c r="AA42" s="10">
+      <c r="AB42" s="10">
         <v>283</v>
       </c>
-      <c r="AB42" s="10">
-        <v>130</v>
-      </c>
       <c r="AC42" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="10">
         <v>381</v>
       </c>
-      <c r="AE42" s="6">
-        <v>0</v>
-      </c>
       <c r="AF42" s="6">
         <v>0</v>
       </c>
       <c r="AG42" s="6">
         <v>0</v>
       </c>
-      <c r="AH42" s="13">
+      <c r="AH42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="13">
         <v>235</v>
       </c>
-      <c r="AI42" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ42" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK42" s="6">
         <v>68</v>
       </c>
-      <c r="AK42" s="13">
+      <c r="AL42" s="13">
         <v>123</v>
       </c>
-      <c r="AL42" s="20">
+      <c r="AM42" s="13">
         <v>2655</v>
       </c>
-      <c r="AM42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="5">
+      <c r="AN42" s="4">
         <v>1</v>
       </c>
       <c r="AO42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP42" s="15">
+      <c r="AQ42" s="20">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AQ42" s="15">
+      <c r="AR42" s="20">
         <v>0.74536780000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42936</v>
       </c>
@@ -8968,42 +8977,39 @@
       <c r="F43" s="10">
         <v>3562</v>
       </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
       <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
         <v>61</v>
       </c>
-      <c r="I43" s="10">
+      <c r="J43" s="10">
         <v>216</v>
       </c>
-      <c r="J43" s="10">
+      <c r="K43" s="10">
         <v>657</v>
       </c>
-      <c r="K43" s="10">
-        <v>130</v>
-      </c>
       <c r="L43" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
         <v>239</v>
       </c>
-      <c r="N43" s="10">
-        <v>0</v>
-      </c>
       <c r="O43" s="10">
         <v>0</v>
       </c>
       <c r="P43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="10">
         <v>8</v>
       </c>
-      <c r="R43" s="10">
+      <c r="S43" s="10">
         <v>50</v>
       </c>
-      <c r="S43" s="10">
-        <v>0</v>
-      </c>
       <c r="T43" s="10">
         <v>0</v>
       </c>
@@ -9014,32 +9020,32 @@
         <v>0</v>
       </c>
       <c r="W43" s="10">
+        <v>0</v>
+      </c>
+      <c r="X43" s="10">
         <v>13</v>
       </c>
-      <c r="X43" s="10">
+      <c r="Y43" s="10">
         <v>18</v>
       </c>
-      <c r="Y43" s="10">
-        <v>1</v>
-      </c>
       <c r="Z43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="10">
         <v>45</v>
       </c>
-      <c r="AA43" s="10">
+      <c r="AB43" s="10">
         <v>283</v>
       </c>
-      <c r="AB43" s="10">
-        <v>130</v>
-      </c>
       <c r="AC43" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="10">
         <v>381</v>
       </c>
-      <c r="AE43" s="6">
-        <v>0</v>
-      </c>
       <c r="AF43" s="6">
         <v>0</v>
       </c>
@@ -9047,37 +9053,40 @@
         <v>0</v>
       </c>
       <c r="AH43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="6">
         <v>235</v>
       </c>
-      <c r="AI43" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ43" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="6">
         <v>68</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AL43" s="6">
         <v>123</v>
       </c>
-      <c r="AL43" s="19">
+      <c r="AM43" s="6">
         <v>2655</v>
       </c>
-      <c r="AM43" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN43" s="5">
+      <c r="AN43" s="4">
         <v>1</v>
       </c>
       <c r="AO43" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP43" s="5">
+      <c r="AQ43" s="14">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AQ43" s="5">
+      <c r="AR43" s="14">
         <v>0.74536780000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>42937</v>
       </c>
@@ -9096,42 +9105,39 @@
       <c r="F44" s="10">
         <v>3562</v>
       </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
       <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
         <v>61</v>
       </c>
-      <c r="I44" s="10">
+      <c r="J44" s="10">
         <v>216</v>
       </c>
-      <c r="J44" s="10">
+      <c r="K44" s="10">
         <v>657</v>
       </c>
-      <c r="K44" s="10">
-        <v>130</v>
-      </c>
       <c r="L44" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M44" s="10">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
         <v>239</v>
       </c>
-      <c r="N44" s="10">
-        <v>0</v>
-      </c>
       <c r="O44" s="10">
         <v>0</v>
       </c>
       <c r="P44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10">
         <v>8</v>
       </c>
-      <c r="R44" s="10">
+      <c r="S44" s="10">
         <v>50</v>
       </c>
-      <c r="S44" s="10">
-        <v>0</v>
-      </c>
       <c r="T44" s="10">
         <v>0</v>
       </c>
@@ -9141,33 +9147,33 @@
       <c r="V44" s="10">
         <v>0</v>
       </c>
-      <c r="W44" s="11">
+      <c r="W44" s="10">
+        <v>0</v>
+      </c>
+      <c r="X44" s="11">
         <v>12</v>
       </c>
-      <c r="X44" s="10">
+      <c r="Y44" s="10">
         <v>18</v>
       </c>
-      <c r="Y44" s="10">
-        <v>1</v>
-      </c>
       <c r="Z44" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="10">
         <v>45</v>
       </c>
-      <c r="AA44" s="10">
+      <c r="AB44" s="10">
         <v>283</v>
       </c>
-      <c r="AB44" s="10">
-        <v>130</v>
-      </c>
       <c r="AC44" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="10">
         <v>381</v>
       </c>
-      <c r="AE44" s="6">
-        <v>0</v>
-      </c>
       <c r="AF44" s="6">
         <v>0</v>
       </c>
@@ -9175,37 +9181,40 @@
         <v>0</v>
       </c>
       <c r="AH44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="6">
         <v>235</v>
       </c>
-      <c r="AI44" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ44" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK44" s="6">
         <v>68</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AL44" s="6">
         <v>123</v>
       </c>
-      <c r="AL44" s="19">
+      <c r="AM44" s="6">
         <v>2656</v>
       </c>
-      <c r="AM44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN44" s="5">
+      <c r="AN44" s="4">
         <v>1</v>
       </c>
       <c r="AO44" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP44" s="5">
+      <c r="AQ44" s="14">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AQ44" s="5">
+      <c r="AR44" s="14">
         <v>0.74564850000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>42938</v>
       </c>
@@ -9224,42 +9233,39 @@
       <c r="F45" s="10">
         <v>3562</v>
       </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
       <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
         <v>61</v>
       </c>
-      <c r="I45" s="10">
+      <c r="J45" s="10">
         <v>216</v>
       </c>
-      <c r="J45" s="10">
+      <c r="K45" s="10">
         <v>657</v>
       </c>
-      <c r="K45" s="10">
-        <v>130</v>
-      </c>
       <c r="L45" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M45" s="10">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
         <v>239</v>
       </c>
-      <c r="N45" s="10">
-        <v>0</v>
-      </c>
       <c r="O45" s="10">
         <v>0</v>
       </c>
       <c r="P45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10">
         <v>8</v>
       </c>
-      <c r="R45" s="10">
+      <c r="S45" s="10">
         <v>50</v>
       </c>
-      <c r="S45" s="10">
-        <v>0</v>
-      </c>
       <c r="T45" s="10">
         <v>0</v>
       </c>
@@ -9270,32 +9276,32 @@
         <v>0</v>
       </c>
       <c r="W45" s="10">
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
         <v>12</v>
       </c>
-      <c r="X45" s="10">
+      <c r="Y45" s="10">
         <v>18</v>
       </c>
-      <c r="Y45" s="10">
-        <v>1</v>
-      </c>
       <c r="Z45" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="10">
         <v>45</v>
       </c>
-      <c r="AA45" s="10">
+      <c r="AB45" s="10">
         <v>283</v>
       </c>
-      <c r="AB45" s="10">
-        <v>130</v>
-      </c>
       <c r="AC45" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="10">
         <v>381</v>
       </c>
-      <c r="AE45" s="6">
-        <v>0</v>
-      </c>
       <c r="AF45" s="6">
         <v>0</v>
       </c>
@@ -9303,37 +9309,40 @@
         <v>0</v>
       </c>
       <c r="AH45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="6">
         <v>235</v>
       </c>
-      <c r="AI45" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ45" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="6">
         <v>68</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AL45" s="6">
         <v>124</v>
       </c>
-      <c r="AL45" s="19">
+      <c r="AM45" s="6">
         <v>2656</v>
       </c>
-      <c r="AM45" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN45" s="5">
+      <c r="AN45" s="4">
         <v>1</v>
       </c>
       <c r="AO45" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP45" s="5">
+      <c r="AQ45" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ45" s="5">
+      <c r="AR45" s="14">
         <v>0.74564850000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>42939</v>
       </c>
@@ -9352,42 +9361,39 @@
       <c r="F46" s="10">
         <v>3563</v>
       </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
       <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
         <v>61</v>
       </c>
-      <c r="I46" s="10">
+      <c r="J46" s="10">
         <v>216</v>
       </c>
-      <c r="J46" s="10">
+      <c r="K46" s="10">
         <v>657</v>
       </c>
-      <c r="K46" s="10">
-        <v>130</v>
-      </c>
       <c r="L46" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10">
         <v>239</v>
       </c>
-      <c r="N46" s="10">
-        <v>0</v>
-      </c>
       <c r="O46" s="10">
         <v>0</v>
       </c>
       <c r="P46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="10">
         <v>8</v>
       </c>
-      <c r="R46" s="10">
+      <c r="S46" s="10">
         <v>50</v>
       </c>
-      <c r="S46" s="10">
-        <v>0</v>
-      </c>
       <c r="T46" s="10">
         <v>0</v>
       </c>
@@ -9397,33 +9403,33 @@
       <c r="V46" s="10">
         <v>0</v>
       </c>
-      <c r="W46" s="12">
+      <c r="W46" s="10">
+        <v>0</v>
+      </c>
+      <c r="X46" s="12">
         <v>13</v>
       </c>
-      <c r="X46" s="10">
+      <c r="Y46" s="10">
         <v>18</v>
       </c>
-      <c r="Y46" s="10">
-        <v>1</v>
-      </c>
       <c r="Z46" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="10">
         <v>45</v>
       </c>
-      <c r="AA46" s="10">
+      <c r="AB46" s="10">
         <v>283</v>
       </c>
-      <c r="AB46" s="10">
-        <v>130</v>
-      </c>
       <c r="AC46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="11">
+        <v>130</v>
+      </c>
+      <c r="AD46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="11">
         <v>382</v>
       </c>
-      <c r="AE46" s="6">
-        <v>0</v>
-      </c>
       <c r="AF46" s="6">
         <v>0</v>
       </c>
@@ -9431,37 +9437,40 @@
         <v>0</v>
       </c>
       <c r="AH46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="6">
         <v>235</v>
       </c>
-      <c r="AI46" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ46" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="6">
         <v>68</v>
       </c>
-      <c r="AK46" s="6">
+      <c r="AL46" s="6">
         <v>124</v>
       </c>
-      <c r="AL46" s="19">
+      <c r="AM46" s="6">
         <v>2656</v>
       </c>
-      <c r="AM46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN46" s="5">
+      <c r="AN46" s="4">
         <v>1</v>
       </c>
       <c r="AO46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP46" s="5">
+      <c r="AQ46" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ46" s="5">
+      <c r="AR46" s="14">
         <v>0.74543919999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>42940</v>
       </c>
@@ -9480,42 +9489,39 @@
       <c r="F47" s="10">
         <v>3563</v>
       </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
       <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
         <v>61</v>
       </c>
-      <c r="I47" s="10">
+      <c r="J47" s="10">
         <v>216</v>
       </c>
-      <c r="J47" s="10">
+      <c r="K47" s="10">
         <v>657</v>
       </c>
-      <c r="K47" s="10">
-        <v>130</v>
-      </c>
       <c r="L47" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M47" s="10">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10">
         <v>239</v>
       </c>
-      <c r="N47" s="10">
-        <v>0</v>
-      </c>
       <c r="O47" s="10">
         <v>0</v>
       </c>
       <c r="P47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="10">
         <v>8</v>
       </c>
-      <c r="R47" s="10">
+      <c r="S47" s="10">
         <v>50</v>
       </c>
-      <c r="S47" s="10">
-        <v>0</v>
-      </c>
       <c r="T47" s="10">
         <v>0</v>
       </c>
@@ -9526,32 +9532,32 @@
         <v>0</v>
       </c>
       <c r="W47" s="10">
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
         <v>13</v>
       </c>
-      <c r="X47" s="10">
+      <c r="Y47" s="10">
         <v>18</v>
       </c>
-      <c r="Y47" s="10">
-        <v>1</v>
-      </c>
       <c r="Z47" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="10">
         <v>45</v>
       </c>
-      <c r="AA47" s="10">
+      <c r="AB47" s="10">
         <v>283</v>
       </c>
-      <c r="AB47" s="10">
-        <v>130</v>
-      </c>
       <c r="AC47" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="10">
         <v>382</v>
       </c>
-      <c r="AE47" s="6">
-        <v>0</v>
-      </c>
       <c r="AF47" s="6">
         <v>0</v>
       </c>
@@ -9559,37 +9565,40 @@
         <v>0</v>
       </c>
       <c r="AH47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="6">
         <v>235</v>
       </c>
-      <c r="AI47" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ47" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="6">
         <v>68</v>
       </c>
-      <c r="AK47" s="6">
+      <c r="AL47" s="6">
         <v>124</v>
       </c>
-      <c r="AL47" s="19">
+      <c r="AM47" s="6">
         <v>2656</v>
       </c>
-      <c r="AM47" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN47" s="5">
+      <c r="AN47" s="4">
         <v>1</v>
       </c>
       <c r="AO47" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP47" s="5">
+      <c r="AQ47" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ47" s="5">
+      <c r="AR47" s="14">
         <v>0.74543919999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>42941</v>
       </c>
@@ -9608,42 +9617,39 @@
       <c r="F48" s="10">
         <v>3563</v>
       </c>
-      <c r="G48" s="10">
-        <v>0</v>
-      </c>
       <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
         <v>61</v>
       </c>
-      <c r="I48" s="10">
+      <c r="J48" s="10">
         <v>216</v>
       </c>
-      <c r="J48" s="10">
+      <c r="K48" s="10">
         <v>657</v>
       </c>
-      <c r="K48" s="10">
-        <v>130</v>
-      </c>
       <c r="L48" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10">
         <v>239</v>
       </c>
-      <c r="N48" s="10">
-        <v>0</v>
-      </c>
       <c r="O48" s="10">
         <v>0</v>
       </c>
       <c r="P48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="10">
         <v>8</v>
       </c>
-      <c r="R48" s="10">
+      <c r="S48" s="10">
         <v>50</v>
       </c>
-      <c r="S48" s="10">
-        <v>0</v>
-      </c>
       <c r="T48" s="10">
         <v>0</v>
       </c>
@@ -9654,32 +9660,32 @@
         <v>0</v>
       </c>
       <c r="W48" s="10">
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
         <v>13</v>
       </c>
-      <c r="X48" s="10">
+      <c r="Y48" s="10">
         <v>18</v>
       </c>
-      <c r="Y48" s="10">
-        <v>1</v>
-      </c>
       <c r="Z48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="10">
         <v>45</v>
       </c>
-      <c r="AA48" s="10">
+      <c r="AB48" s="10">
         <v>283</v>
       </c>
-      <c r="AB48" s="10">
-        <v>130</v>
-      </c>
       <c r="AC48" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="10">
         <v>382</v>
       </c>
-      <c r="AE48" s="6">
-        <v>0</v>
-      </c>
       <c r="AF48" s="6">
         <v>0</v>
       </c>
@@ -9687,37 +9693,40 @@
         <v>0</v>
       </c>
       <c r="AH48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="6">
         <v>235</v>
       </c>
-      <c r="AI48" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ48" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK48" s="6">
         <v>68</v>
       </c>
-      <c r="AK48" s="6">
+      <c r="AL48" s="6">
         <v>124</v>
       </c>
-      <c r="AL48" s="19">
+      <c r="AM48" s="6">
         <v>2656</v>
       </c>
-      <c r="AM48" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN48" s="5">
+      <c r="AN48" s="4">
         <v>1</v>
       </c>
       <c r="AO48" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP48" s="5">
+      <c r="AQ48" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ48" s="5">
+      <c r="AR48" s="14">
         <v>0.74543919999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>42943</v>
       </c>
@@ -9736,42 +9745,39 @@
       <c r="F49" s="10">
         <v>3563</v>
       </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
       <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
         <v>61</v>
       </c>
-      <c r="I49" s="10">
+      <c r="J49" s="10">
         <v>216</v>
       </c>
-      <c r="J49" s="10">
+      <c r="K49" s="10">
         <v>657</v>
       </c>
-      <c r="K49" s="10">
-        <v>130</v>
-      </c>
       <c r="L49" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M49" s="10">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10">
         <v>239</v>
       </c>
-      <c r="N49" s="10">
-        <v>0</v>
-      </c>
       <c r="O49" s="10">
         <v>0</v>
       </c>
       <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10">
         <v>8</v>
       </c>
-      <c r="R49" s="10">
+      <c r="S49" s="10">
         <v>50</v>
       </c>
-      <c r="S49" s="10">
-        <v>0</v>
-      </c>
       <c r="T49" s="10">
         <v>0</v>
       </c>
@@ -9782,32 +9788,32 @@
         <v>0</v>
       </c>
       <c r="W49" s="10">
+        <v>0</v>
+      </c>
+      <c r="X49" s="10">
         <v>13</v>
       </c>
-      <c r="X49" s="10">
+      <c r="Y49" s="10">
         <v>18</v>
       </c>
-      <c r="Y49" s="10">
-        <v>1</v>
-      </c>
       <c r="Z49" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="10">
         <v>45</v>
       </c>
-      <c r="AA49" s="10">
+      <c r="AB49" s="10">
         <v>283</v>
       </c>
-      <c r="AB49" s="10">
-        <v>130</v>
-      </c>
       <c r="AC49" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="10">
         <v>382</v>
       </c>
-      <c r="AE49" s="6">
-        <v>0</v>
-      </c>
       <c r="AF49" s="6">
         <v>0</v>
       </c>
@@ -9815,37 +9821,40 @@
         <v>0</v>
       </c>
       <c r="AH49" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="6">
         <v>235</v>
       </c>
-      <c r="AI49" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ49" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="6">
         <v>68</v>
       </c>
-      <c r="AK49" s="6">
+      <c r="AL49" s="6">
         <v>124</v>
       </c>
-      <c r="AL49" s="19">
+      <c r="AM49" s="6">
         <v>2656</v>
       </c>
-      <c r="AM49" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN49" s="5">
+      <c r="AN49" s="4">
         <v>1</v>
       </c>
       <c r="AO49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP49" s="5">
+      <c r="AQ49" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ49" s="5">
+      <c r="AR49" s="14">
         <v>0.74543919999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>42945</v>
       </c>
@@ -9864,42 +9873,39 @@
       <c r="F50" s="10">
         <v>3563</v>
       </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
       <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
         <v>61</v>
       </c>
-      <c r="I50" s="10">
+      <c r="J50" s="10">
         <v>216</v>
       </c>
-      <c r="J50" s="11">
+      <c r="K50" s="11">
         <v>658</v>
       </c>
-      <c r="K50" s="10">
-        <v>130</v>
-      </c>
       <c r="L50" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M50" s="10">
+        <v>0</v>
+      </c>
+      <c r="N50" s="10">
         <v>239</v>
       </c>
-      <c r="N50" s="10">
-        <v>0</v>
-      </c>
       <c r="O50" s="10">
         <v>0</v>
       </c>
       <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="10">
         <v>8</v>
       </c>
-      <c r="R50" s="10">
+      <c r="S50" s="10">
         <v>50</v>
       </c>
-      <c r="S50" s="10">
-        <v>0</v>
-      </c>
       <c r="T50" s="10">
         <v>0</v>
       </c>
@@ -9910,32 +9916,32 @@
         <v>0</v>
       </c>
       <c r="W50" s="10">
+        <v>0</v>
+      </c>
+      <c r="X50" s="10">
         <v>13</v>
       </c>
-      <c r="X50" s="10">
+      <c r="Y50" s="10">
         <v>18</v>
       </c>
-      <c r="Y50" s="10">
-        <v>1</v>
-      </c>
       <c r="Z50" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="10">
         <v>45</v>
       </c>
-      <c r="AA50" s="10">
+      <c r="AB50" s="10">
         <v>283</v>
       </c>
-      <c r="AB50" s="10">
-        <v>130</v>
-      </c>
       <c r="AC50" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="10">
         <v>382</v>
       </c>
-      <c r="AE50" s="6">
-        <v>0</v>
-      </c>
       <c r="AF50" s="6">
         <v>0</v>
       </c>
@@ -9943,37 +9949,40 @@
         <v>0</v>
       </c>
       <c r="AH50" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="6">
         <v>235</v>
       </c>
-      <c r="AI50" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ50" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK50" s="6">
         <v>68</v>
       </c>
-      <c r="AK50" s="6">
+      <c r="AL50" s="6">
         <v>124</v>
       </c>
-      <c r="AL50" s="19">
+      <c r="AM50" s="6">
         <v>2656</v>
       </c>
-      <c r="AM50" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN50" s="5">
+      <c r="AN50" s="4">
         <v>1</v>
       </c>
       <c r="AO50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP50" s="5">
+      <c r="AQ50" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ50" s="5">
+      <c r="AR50" s="14">
         <v>0.74543919999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>42946</v>
       </c>
@@ -9992,42 +10001,39 @@
       <c r="F51" s="10">
         <v>3563</v>
       </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
       <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
         <v>61</v>
       </c>
-      <c r="I51" s="10">
+      <c r="J51" s="10">
         <v>216</v>
       </c>
-      <c r="J51" s="10">
+      <c r="K51" s="10">
         <v>658</v>
       </c>
-      <c r="K51" s="10">
-        <v>130</v>
-      </c>
       <c r="L51" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M51" s="10">
+        <v>0</v>
+      </c>
+      <c r="N51" s="10">
         <v>239</v>
       </c>
-      <c r="N51" s="10">
-        <v>0</v>
-      </c>
       <c r="O51" s="10">
         <v>0</v>
       </c>
       <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
         <v>8</v>
       </c>
-      <c r="R51" s="10">
+      <c r="S51" s="10">
         <v>50</v>
       </c>
-      <c r="S51" s="10">
-        <v>0</v>
-      </c>
       <c r="T51" s="10">
         <v>0</v>
       </c>
@@ -10038,32 +10044,32 @@
         <v>0</v>
       </c>
       <c r="W51" s="10">
+        <v>0</v>
+      </c>
+      <c r="X51" s="10">
         <v>13</v>
       </c>
-      <c r="X51" s="10">
+      <c r="Y51" s="10">
         <v>18</v>
       </c>
-      <c r="Y51" s="10">
-        <v>1</v>
-      </c>
       <c r="Z51" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="10">
         <v>45</v>
       </c>
-      <c r="AA51" s="10">
+      <c r="AB51" s="10">
         <v>283</v>
       </c>
-      <c r="AB51" s="10">
-        <v>130</v>
-      </c>
       <c r="AC51" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="10">
         <v>382</v>
       </c>
-      <c r="AE51" s="6">
-        <v>0</v>
-      </c>
       <c r="AF51" s="6">
         <v>0</v>
       </c>
@@ -10071,37 +10077,40 @@
         <v>0</v>
       </c>
       <c r="AH51" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="6">
         <v>235</v>
       </c>
-      <c r="AI51" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ51" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="6">
         <v>68</v>
       </c>
-      <c r="AK51" s="6">
+      <c r="AL51" s="6">
         <v>124</v>
       </c>
-      <c r="AL51" s="19">
+      <c r="AM51" s="6">
         <v>2656</v>
       </c>
-      <c r="AM51" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN51" s="5">
+      <c r="AN51" s="4">
         <v>1</v>
       </c>
       <c r="AO51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP51" s="5">
+      <c r="AQ51" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ51" s="5">
+      <c r="AR51" s="14">
         <v>0.74543919999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>42948</v>
       </c>
@@ -10120,42 +10129,39 @@
       <c r="F52" s="10">
         <v>3563</v>
       </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
       <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
         <v>61</v>
       </c>
-      <c r="I52" s="10">
+      <c r="J52" s="10">
         <v>216</v>
       </c>
-      <c r="J52" s="10">
+      <c r="K52" s="10">
         <v>658</v>
       </c>
-      <c r="K52" s="10">
-        <v>130</v>
-      </c>
       <c r="L52" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M52" s="10">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10">
         <v>239</v>
       </c>
-      <c r="N52" s="10">
-        <v>0</v>
-      </c>
       <c r="O52" s="10">
         <v>0</v>
       </c>
       <c r="P52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="10">
         <v>8</v>
       </c>
-      <c r="R52" s="10">
+      <c r="S52" s="10">
         <v>50</v>
       </c>
-      <c r="S52" s="10">
-        <v>0</v>
-      </c>
       <c r="T52" s="10">
         <v>0</v>
       </c>
@@ -10166,32 +10172,32 @@
         <v>0</v>
       </c>
       <c r="W52" s="10">
+        <v>0</v>
+      </c>
+      <c r="X52" s="10">
         <v>13</v>
       </c>
-      <c r="X52" s="10">
+      <c r="Y52" s="10">
         <v>18</v>
       </c>
-      <c r="Y52" s="10">
-        <v>1</v>
-      </c>
       <c r="Z52" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="10">
         <v>45</v>
       </c>
-      <c r="AA52" s="10">
+      <c r="AB52" s="10">
         <v>283</v>
       </c>
-      <c r="AB52" s="10">
-        <v>130</v>
-      </c>
       <c r="AC52" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="10">
         <v>382</v>
       </c>
-      <c r="AE52" s="6">
-        <v>0</v>
-      </c>
       <c r="AF52" s="6">
         <v>0</v>
       </c>
@@ -10199,37 +10205,40 @@
         <v>0</v>
       </c>
       <c r="AH52" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="6">
         <v>235</v>
       </c>
-      <c r="AI52" s="6">
-        <v>5</v>
-      </c>
       <c r="AJ52" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK52" s="6">
         <v>68</v>
       </c>
-      <c r="AK52" s="6">
+      <c r="AL52" s="6">
         <v>124</v>
       </c>
-      <c r="AL52" s="19">
+      <c r="AM52" s="6">
         <v>2656</v>
       </c>
-      <c r="AM52" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN52" s="5">
+      <c r="AN52" s="4">
         <v>1</v>
       </c>
       <c r="AO52" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="5">
         <v>0.98550720000000003</v>
       </c>
-      <c r="AP52" s="5">
+      <c r="AQ52" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AQ52" s="5">
+      <c r="AR52" s="14">
         <v>0.74543919999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>42949</v>
       </c>
@@ -10248,45 +10257,43 @@
       <c r="F53" s="16">
         <v>3560</v>
       </c>
-      <c r="G53" s="10">
-        <v>0</v>
-      </c>
+      <c r="G53" s="16"/>
       <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
         <v>61</v>
       </c>
-      <c r="I53" s="10">
+      <c r="J53" s="10">
         <v>216</v>
       </c>
-      <c r="J53" s="10">
+      <c r="K53" s="10">
         <v>658</v>
       </c>
-      <c r="K53" s="10">
-        <v>130</v>
-      </c>
       <c r="L53" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M53" s="10">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10">
         <v>239</v>
       </c>
-      <c r="N53" s="10">
-        <v>0</v>
-      </c>
       <c r="O53" s="10">
         <v>0</v>
       </c>
       <c r="P53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="10">
         <v>8</v>
       </c>
-      <c r="Q53" s="12">
+      <c r="R53" s="12">
         <v>10</v>
       </c>
-      <c r="R53" s="11">
+      <c r="S53" s="11">
         <v>47</v>
       </c>
-      <c r="S53" s="10">
-        <v>0</v>
-      </c>
       <c r="T53" s="10">
         <v>0</v>
       </c>
@@ -10297,32 +10304,32 @@
         <v>0</v>
       </c>
       <c r="W53" s="10">
+        <v>0</v>
+      </c>
+      <c r="X53" s="10">
         <v>13</v>
       </c>
-      <c r="X53" s="10">
+      <c r="Y53" s="10">
         <v>18</v>
       </c>
-      <c r="Y53" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="17">
+      <c r="Z53" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="17">
         <v>45</v>
       </c>
-      <c r="AA53" s="10">
+      <c r="AB53" s="10">
         <v>288</v>
       </c>
-      <c r="AB53" s="10">
-        <v>130</v>
-      </c>
-      <c r="AC53" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="13">
+      <c r="AC53" s="10">
+        <v>130</v>
+      </c>
+      <c r="AD53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="13">
         <v>384</v>
       </c>
-      <c r="AE53" s="6">
-        <v>0</v>
-      </c>
       <c r="AF53" s="6">
         <v>0</v>
       </c>
@@ -10330,34 +10337,841 @@
         <v>0</v>
       </c>
       <c r="AH53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="6">
         <v>235</v>
       </c>
-      <c r="AI53" s="17">
-        <v>5</v>
-      </c>
-      <c r="AJ53" s="13">
+      <c r="AJ53" s="17">
+        <v>5</v>
+      </c>
+      <c r="AK53" s="13">
         <v>69</v>
       </c>
-      <c r="AK53" s="13">
+      <c r="AL53" s="13">
         <v>297</v>
       </c>
-      <c r="AL53" s="20">
+      <c r="AM53" s="13">
         <v>3290</v>
       </c>
-      <c r="AM53" s="5">
-        <v>1</v>
-      </c>
       <c r="AN53" s="5">
         <v>1</v>
       </c>
-      <c r="AO53" s="21">
+      <c r="AO53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP53" s="19">
         <v>0.98571430000000004</v>
       </c>
-      <c r="AP53" s="15">
+      <c r="AQ53" s="20">
         <v>0.97058820000000001</v>
       </c>
-      <c r="AQ53" s="22">
+      <c r="AR53" s="20">
         <v>0.92415729999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>42950</v>
+      </c>
+      <c r="B54" s="10">
+        <v>235</v>
+      </c>
+      <c r="C54" s="10">
+        <v>5</v>
+      </c>
+      <c r="D54" s="10">
+        <v>306</v>
+      </c>
+      <c r="E54" s="10">
+        <v>70</v>
+      </c>
+      <c r="F54" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G54" s="10">
+        <v>9</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <v>61</v>
+      </c>
+      <c r="J54" s="10">
+        <v>216</v>
+      </c>
+      <c r="K54" s="10">
+        <v>658</v>
+      </c>
+      <c r="L54" s="10">
+        <v>130</v>
+      </c>
+      <c r="M54" s="10">
+        <v>0</v>
+      </c>
+      <c r="N54" s="10">
+        <v>239</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>8</v>
+      </c>
+      <c r="R54" s="10">
+        <v>10</v>
+      </c>
+      <c r="S54" s="10">
+        <v>47</v>
+      </c>
+      <c r="T54" s="10">
+        <v>0</v>
+      </c>
+      <c r="U54" s="10">
+        <v>0</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0</v>
+      </c>
+      <c r="W54" s="10">
+        <v>0</v>
+      </c>
+      <c r="X54" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB54" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>130</v>
+      </c>
+      <c r="AD54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="6">
+        <v>235</v>
+      </c>
+      <c r="AJ54" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK54" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL54" s="18">
+        <v>297</v>
+      </c>
+      <c r="AM54" s="21">
+        <v>3290</v>
+      </c>
+      <c r="AN54" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO54" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ54" s="14">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="AR54" s="14">
+        <v>0.92415729999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>42951</v>
+      </c>
+      <c r="B55" s="10">
+        <v>235</v>
+      </c>
+      <c r="C55" s="10">
+        <v>5</v>
+      </c>
+      <c r="D55" s="10">
+        <v>306</v>
+      </c>
+      <c r="E55" s="10">
+        <v>70</v>
+      </c>
+      <c r="F55" s="11">
+        <v>3561</v>
+      </c>
+      <c r="G55" s="10">
+        <v>9</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <v>61</v>
+      </c>
+      <c r="J55" s="10">
+        <v>216</v>
+      </c>
+      <c r="K55" s="10">
+        <v>658</v>
+      </c>
+      <c r="L55" s="10">
+        <v>130</v>
+      </c>
+      <c r="M55" s="10">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10">
+        <v>239</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>8</v>
+      </c>
+      <c r="R55" s="10">
+        <v>10</v>
+      </c>
+      <c r="S55" s="10">
+        <v>47</v>
+      </c>
+      <c r="T55" s="10">
+        <v>0</v>
+      </c>
+      <c r="U55" s="10">
+        <v>0</v>
+      </c>
+      <c r="V55" s="10">
+        <v>0</v>
+      </c>
+      <c r="W55" s="10">
+        <v>0</v>
+      </c>
+      <c r="X55" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>130</v>
+      </c>
+      <c r="AD55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="6">
+        <v>235</v>
+      </c>
+      <c r="AJ55" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK55" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL55" s="18">
+        <v>297</v>
+      </c>
+      <c r="AM55" s="21">
+        <v>3291</v>
+      </c>
+      <c r="AN55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ55" s="14">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="AR55" s="14">
+        <v>0.92417859999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>42952</v>
+      </c>
+      <c r="B56" s="10">
+        <v>235</v>
+      </c>
+      <c r="C56" s="10">
+        <v>5</v>
+      </c>
+      <c r="D56" s="10">
+        <v>306</v>
+      </c>
+      <c r="E56" s="10">
+        <v>70</v>
+      </c>
+      <c r="F56" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G56" s="10">
+        <v>9</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>61</v>
+      </c>
+      <c r="J56" s="10">
+        <v>216</v>
+      </c>
+      <c r="K56" s="10">
+        <v>658</v>
+      </c>
+      <c r="L56" s="10">
+        <v>130</v>
+      </c>
+      <c r="M56" s="10">
+        <v>0</v>
+      </c>
+      <c r="N56" s="10">
+        <v>239</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>8</v>
+      </c>
+      <c r="R56" s="10">
+        <v>10</v>
+      </c>
+      <c r="S56" s="10">
+        <v>47</v>
+      </c>
+      <c r="T56" s="10">
+        <v>0</v>
+      </c>
+      <c r="U56" s="10">
+        <v>0</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
+      <c r="W56" s="10">
+        <v>0</v>
+      </c>
+      <c r="X56" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>130</v>
+      </c>
+      <c r="AD56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="6">
+        <v>235</v>
+      </c>
+      <c r="AJ56" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK56" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL56" s="18">
+        <v>297</v>
+      </c>
+      <c r="AM56" s="21">
+        <v>3291</v>
+      </c>
+      <c r="AN56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ56" s="14">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="AR56" s="14">
+        <v>0.92417859999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>42953</v>
+      </c>
+      <c r="B57" s="10">
+        <v>235</v>
+      </c>
+      <c r="C57" s="10">
+        <v>5</v>
+      </c>
+      <c r="D57" s="10">
+        <v>306</v>
+      </c>
+      <c r="E57" s="10">
+        <v>70</v>
+      </c>
+      <c r="F57" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G57" s="10">
+        <v>9</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>61</v>
+      </c>
+      <c r="J57" s="10">
+        <v>216</v>
+      </c>
+      <c r="K57" s="10">
+        <v>658</v>
+      </c>
+      <c r="L57" s="10">
+        <v>130</v>
+      </c>
+      <c r="M57" s="10">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10">
+        <v>239</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>8</v>
+      </c>
+      <c r="R57" s="10">
+        <v>10</v>
+      </c>
+      <c r="S57" s="10">
+        <v>47</v>
+      </c>
+      <c r="T57" s="10">
+        <v>0</v>
+      </c>
+      <c r="U57" s="10">
+        <v>0</v>
+      </c>
+      <c r="V57" s="10">
+        <v>0</v>
+      </c>
+      <c r="W57" s="10">
+        <v>0</v>
+      </c>
+      <c r="X57" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>130</v>
+      </c>
+      <c r="AD57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="6">
+        <v>235</v>
+      </c>
+      <c r="AJ57" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK57" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL57" s="18">
+        <v>297</v>
+      </c>
+      <c r="AM57" s="21">
+        <v>3291</v>
+      </c>
+      <c r="AN57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ57" s="14">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="AR57" s="14">
+        <v>0.92417859999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>42954</v>
+      </c>
+      <c r="B58" s="10">
+        <v>235</v>
+      </c>
+      <c r="C58" s="10">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10">
+        <v>306</v>
+      </c>
+      <c r="E58" s="10">
+        <v>70</v>
+      </c>
+      <c r="F58" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G58" s="10">
+        <v>9</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+      <c r="I58" s="10">
+        <v>61</v>
+      </c>
+      <c r="J58" s="10">
+        <v>216</v>
+      </c>
+      <c r="K58" s="10">
+        <v>658</v>
+      </c>
+      <c r="L58" s="10">
+        <v>130</v>
+      </c>
+      <c r="M58" s="10">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10">
+        <v>239</v>
+      </c>
+      <c r="O58" s="10">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>8</v>
+      </c>
+      <c r="R58" s="10">
+        <v>10</v>
+      </c>
+      <c r="S58" s="10">
+        <v>47</v>
+      </c>
+      <c r="T58" s="10">
+        <v>0</v>
+      </c>
+      <c r="U58" s="10">
+        <v>0</v>
+      </c>
+      <c r="V58" s="10">
+        <v>0</v>
+      </c>
+      <c r="W58" s="10">
+        <v>0</v>
+      </c>
+      <c r="X58" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB58" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC58" s="10">
+        <v>130</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="6">
+        <v>235</v>
+      </c>
+      <c r="AJ58" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK58" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL58" s="18">
+        <v>297</v>
+      </c>
+      <c r="AM58" s="21">
+        <v>3291</v>
+      </c>
+      <c r="AN58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ58" s="14">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="AR58" s="14">
+        <v>0.92417859999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>42955</v>
+      </c>
+      <c r="B59" s="10">
+        <v>235</v>
+      </c>
+      <c r="C59" s="10">
+        <v>5</v>
+      </c>
+      <c r="D59" s="10">
+        <v>306</v>
+      </c>
+      <c r="E59" s="10">
+        <v>70</v>
+      </c>
+      <c r="F59" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G59" s="11">
+        <v>8</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>61</v>
+      </c>
+      <c r="J59" s="10">
+        <v>216</v>
+      </c>
+      <c r="K59" s="10">
+        <v>658</v>
+      </c>
+      <c r="L59" s="10">
+        <v>130</v>
+      </c>
+      <c r="M59" s="10">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10">
+        <v>239</v>
+      </c>
+      <c r="O59" s="10">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>8</v>
+      </c>
+      <c r="R59" s="10">
+        <v>10</v>
+      </c>
+      <c r="S59" s="10">
+        <v>47</v>
+      </c>
+      <c r="T59" s="10">
+        <v>0</v>
+      </c>
+      <c r="U59" s="10">
+        <v>0</v>
+      </c>
+      <c r="V59" s="10">
+        <v>0</v>
+      </c>
+      <c r="W59" s="10">
+        <v>0</v>
+      </c>
+      <c r="X59" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB59" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC59" s="10">
+        <v>130</v>
+      </c>
+      <c r="AD59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="6">
+        <v>235</v>
+      </c>
+      <c r="AJ59" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK59" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL59" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM59" s="21">
+        <v>3294</v>
+      </c>
+      <c r="AN59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ59" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR59" s="15">
+        <v>0.92502110000000004</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1425,11 +1426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92163456"/>
-        <c:axId val="92169344"/>
+        <c:axId val="58554240"/>
+        <c:axId val="58555776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92163456"/>
+        <c:axId val="58554240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,14 +1440,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92169344"/>
+        <c:crossAx val="58555776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92169344"/>
+        <c:axId val="58555776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92163456"/>
+        <c:crossAx val="58554240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91713536"/>
-        <c:axId val="91715072"/>
+        <c:axId val="58800384"/>
+        <c:axId val="58802176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91713536"/>
+        <c:axId val="58800384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,14 +3138,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91715072"/>
+        <c:crossAx val="58802176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91715072"/>
+        <c:axId val="58802176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91713536"/>
+        <c:crossAx val="58800384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3540,14 +3541,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS59"/>
+  <dimension ref="A1:AS60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A47" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="AA47" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
-      <selection pane="bottomRight" activeCell="W68" sqref="W68"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:AS60"/>
+      <selection pane="bottomRight" activeCell="N63" sqref="N62:N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11174,6 +11175,140 @@
         <v>0.92502110000000004</v>
       </c>
     </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>42956</v>
+      </c>
+      <c r="B60" s="10">
+        <v>236</v>
+      </c>
+      <c r="C60" s="10">
+        <v>5</v>
+      </c>
+      <c r="D60" s="10">
+        <v>306</v>
+      </c>
+      <c r="E60" s="10">
+        <v>70</v>
+      </c>
+      <c r="F60" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G60" s="10">
+        <v>8</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>61</v>
+      </c>
+      <c r="J60" s="10">
+        <v>216</v>
+      </c>
+      <c r="K60" s="10">
+        <v>658</v>
+      </c>
+      <c r="L60" s="16">
+        <v>131</v>
+      </c>
+      <c r="M60" s="10">
+        <v>0</v>
+      </c>
+      <c r="N60" s="10">
+        <v>239</v>
+      </c>
+      <c r="O60" s="10">
+        <v>0</v>
+      </c>
+      <c r="P60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>8</v>
+      </c>
+      <c r="R60" s="10">
+        <v>10</v>
+      </c>
+      <c r="S60" s="10">
+        <v>47</v>
+      </c>
+      <c r="T60" s="10">
+        <v>0</v>
+      </c>
+      <c r="U60" s="10">
+        <v>0</v>
+      </c>
+      <c r="V60" s="10">
+        <v>0</v>
+      </c>
+      <c r="W60" s="10">
+        <v>0</v>
+      </c>
+      <c r="X60" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB60" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="13">
+        <v>131</v>
+      </c>
+      <c r="AE60" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="6">
+        <v>236</v>
+      </c>
+      <c r="AJ60" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK60" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL60" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM60" s="21">
+        <v>3294</v>
+      </c>
+      <c r="AN60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ60" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR60" s="14">
+        <v>0.92502110000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="22995" windowHeight="8280" tabRatio="230"/>
+    <workbookView xWindow="2640" yWindow="375" windowWidth="22995" windowHeight="8280" tabRatio="230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1426,11 +1425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58554240"/>
-        <c:axId val="58555776"/>
+        <c:axId val="89677184"/>
+        <c:axId val="89683072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58554240"/>
+        <c:axId val="89677184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,14 +1439,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58555776"/>
+        <c:crossAx val="89683072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58555776"/>
+        <c:axId val="89683072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58554240"/>
+        <c:crossAx val="89677184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3124,11 +3123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58800384"/>
-        <c:axId val="58802176"/>
+        <c:axId val="91779072"/>
+        <c:axId val="91780608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58800384"/>
+        <c:axId val="91779072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,14 +3137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58802176"/>
+        <c:crossAx val="91780608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58802176"/>
+        <c:axId val="91780608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58800384"/>
+        <c:crossAx val="91779072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3541,14 +3540,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS60"/>
+  <dimension ref="A1:AS61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="AA47" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A50" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60:AS60"/>
-      <selection pane="bottomRight" activeCell="N63" sqref="N62:N63"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:AS61"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11309,6 +11308,140 @@
         <v>0.92502110000000004</v>
       </c>
     </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>42956</v>
+      </c>
+      <c r="B61" s="10">
+        <v>236</v>
+      </c>
+      <c r="C61" s="10">
+        <v>5</v>
+      </c>
+      <c r="D61" s="10">
+        <v>306</v>
+      </c>
+      <c r="E61" s="10">
+        <v>70</v>
+      </c>
+      <c r="F61" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G61" s="10">
+        <v>8</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>61</v>
+      </c>
+      <c r="J61" s="10">
+        <v>216</v>
+      </c>
+      <c r="K61" s="10">
+        <v>658</v>
+      </c>
+      <c r="L61" s="10">
+        <v>131</v>
+      </c>
+      <c r="M61" s="10">
+        <v>0</v>
+      </c>
+      <c r="N61" s="10">
+        <v>239</v>
+      </c>
+      <c r="O61" s="10">
+        <v>0</v>
+      </c>
+      <c r="P61" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>8</v>
+      </c>
+      <c r="R61" s="10">
+        <v>10</v>
+      </c>
+      <c r="S61" s="10">
+        <v>45</v>
+      </c>
+      <c r="T61" s="10">
+        <v>0</v>
+      </c>
+      <c r="U61" s="10">
+        <v>0</v>
+      </c>
+      <c r="V61" s="10">
+        <v>0</v>
+      </c>
+      <c r="W61" s="10">
+        <v>0</v>
+      </c>
+      <c r="X61" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB61" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE61" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="6">
+        <v>236</v>
+      </c>
+      <c r="AJ61" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK61" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL61" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM61" s="21">
+        <v>3294</v>
+      </c>
+      <c r="AN61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ61" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR61" s="14">
+        <v>0.92502110000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -1425,11 +1425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89677184"/>
-        <c:axId val="89683072"/>
+        <c:axId val="92499328"/>
+        <c:axId val="92501120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89677184"/>
+        <c:axId val="92499328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,14 +1439,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89683072"/>
+        <c:crossAx val="92501120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89683072"/>
+        <c:axId val="92501120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89677184"/>
+        <c:crossAx val="92499328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91779072"/>
-        <c:axId val="91780608"/>
+        <c:axId val="92643328"/>
+        <c:axId val="92644864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91779072"/>
+        <c:axId val="92643328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,14 +3137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91780608"/>
+        <c:crossAx val="92644864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91780608"/>
+        <c:axId val="92644864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91779072"/>
+        <c:crossAx val="92643328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3540,14 +3540,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS61"/>
+  <dimension ref="A1:AS63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A50" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="N50" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:AS61"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:AS63"/>
+      <selection pane="bottomRight" activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11310,10 +11310,10 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
-        <v>42956</v>
+        <v>42959</v>
       </c>
       <c r="B61" s="10">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C61" s="10">
         <v>5</v>
@@ -11324,8 +11324,8 @@
       <c r="E61" s="10">
         <v>70</v>
       </c>
-      <c r="F61" s="10">
-        <v>3561</v>
+      <c r="F61" s="11">
+        <v>3562</v>
       </c>
       <c r="G61" s="10">
         <v>8</v>
@@ -11340,7 +11340,7 @@
         <v>216</v>
       </c>
       <c r="K61" s="10">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="L61" s="10">
         <v>131</v>
@@ -11363,8 +11363,8 @@
       <c r="R61" s="10">
         <v>10</v>
       </c>
-      <c r="S61" s="10">
-        <v>45</v>
+      <c r="S61" s="11">
+        <v>2</v>
       </c>
       <c r="T61" s="10">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="6">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AJ61" s="6">
         <v>5</v>
@@ -11424,7 +11424,7 @@
         <v>298</v>
       </c>
       <c r="AM61" s="21">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="AN61" s="5">
         <v>1</v>
@@ -11439,7 +11439,275 @@
         <v>0.97385619999999995</v>
       </c>
       <c r="AR61" s="14">
-        <v>0.92502110000000004</v>
+        <v>0.92504209999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>42960</v>
+      </c>
+      <c r="B62" s="10">
+        <v>240</v>
+      </c>
+      <c r="C62" s="10">
+        <v>5</v>
+      </c>
+      <c r="D62" s="10">
+        <v>306</v>
+      </c>
+      <c r="E62" s="10">
+        <v>70</v>
+      </c>
+      <c r="F62" s="10">
+        <v>3562</v>
+      </c>
+      <c r="G62" s="10">
+        <v>8</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+      <c r="I62" s="10">
+        <v>61</v>
+      </c>
+      <c r="J62" s="10">
+        <v>216</v>
+      </c>
+      <c r="K62" s="10">
+        <v>663</v>
+      </c>
+      <c r="L62" s="10">
+        <v>131</v>
+      </c>
+      <c r="M62" s="10">
+        <v>0</v>
+      </c>
+      <c r="N62" s="10">
+        <v>239</v>
+      </c>
+      <c r="O62" s="10">
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>8</v>
+      </c>
+      <c r="R62" s="10">
+        <v>10</v>
+      </c>
+      <c r="S62" s="10">
+        <v>2</v>
+      </c>
+      <c r="T62" s="10">
+        <v>0</v>
+      </c>
+      <c r="U62" s="10">
+        <v>0</v>
+      </c>
+      <c r="V62" s="10">
+        <v>0</v>
+      </c>
+      <c r="W62" s="10">
+        <v>0</v>
+      </c>
+      <c r="X62" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB62" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE62" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ62" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK62" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL62" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM62" s="21">
+        <v>3295</v>
+      </c>
+      <c r="AN62" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO62" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ62" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR62" s="14">
+        <v>0.92504209999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>42961</v>
+      </c>
+      <c r="B63" s="10">
+        <v>240</v>
+      </c>
+      <c r="C63" s="10">
+        <v>5</v>
+      </c>
+      <c r="D63" s="10">
+        <v>306</v>
+      </c>
+      <c r="E63" s="10">
+        <v>70</v>
+      </c>
+      <c r="F63" s="10">
+        <v>3562</v>
+      </c>
+      <c r="G63" s="10">
+        <v>8</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
+        <v>61</v>
+      </c>
+      <c r="J63" s="10">
+        <v>216</v>
+      </c>
+      <c r="K63" s="10">
+        <v>663</v>
+      </c>
+      <c r="L63" s="10">
+        <v>131</v>
+      </c>
+      <c r="M63" s="10">
+        <v>0</v>
+      </c>
+      <c r="N63" s="10">
+        <v>239</v>
+      </c>
+      <c r="O63" s="10">
+        <v>0</v>
+      </c>
+      <c r="P63" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>8</v>
+      </c>
+      <c r="R63" s="10">
+        <v>10</v>
+      </c>
+      <c r="S63" s="10">
+        <v>2</v>
+      </c>
+      <c r="T63" s="10">
+        <v>0</v>
+      </c>
+      <c r="U63" s="10">
+        <v>0</v>
+      </c>
+      <c r="V63" s="10">
+        <v>0</v>
+      </c>
+      <c r="W63" s="10">
+        <v>0</v>
+      </c>
+      <c r="X63" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z63" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB63" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE63" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF63" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ63" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK63" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL63" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM63" s="21">
+        <v>3295</v>
+      </c>
+      <c r="AN63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ63" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR63" s="14">
+        <v>0.92504209999999998</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -1425,11 +1425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92499328"/>
-        <c:axId val="92501120"/>
+        <c:axId val="92564864"/>
+        <c:axId val="92566656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92499328"/>
+        <c:axId val="92564864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,14 +1439,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92501120"/>
+        <c:crossAx val="92566656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92501120"/>
+        <c:axId val="92566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92499328"/>
+        <c:crossAx val="92564864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92643328"/>
-        <c:axId val="92644864"/>
+        <c:axId val="94085120"/>
+        <c:axId val="94086656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92643328"/>
+        <c:axId val="94085120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,14 +3137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92644864"/>
+        <c:crossAx val="94086656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92644864"/>
+        <c:axId val="94086656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92643328"/>
+        <c:crossAx val="94085120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3540,14 +3540,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS63"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="N50" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A50" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:AS63"/>
-      <selection pane="bottomRight" activeCell="S61" sqref="S61"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:AS64"/>
+      <selection pane="bottomRight" activeCell="AB64" sqref="AB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11710,6 +11710,140 @@
         <v>0.92504209999999998</v>
       </c>
     </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>42963</v>
+      </c>
+      <c r="B64" s="10">
+        <v>240</v>
+      </c>
+      <c r="C64" s="10">
+        <v>5</v>
+      </c>
+      <c r="D64" s="10">
+        <v>306</v>
+      </c>
+      <c r="E64" s="10">
+        <v>70</v>
+      </c>
+      <c r="F64" s="10">
+        <v>3562</v>
+      </c>
+      <c r="G64" s="10">
+        <v>8</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="I64" s="10">
+        <v>61</v>
+      </c>
+      <c r="J64" s="10">
+        <v>216</v>
+      </c>
+      <c r="K64" s="10">
+        <v>663</v>
+      </c>
+      <c r="L64" s="10">
+        <v>131</v>
+      </c>
+      <c r="M64" s="10">
+        <v>0</v>
+      </c>
+      <c r="N64" s="10">
+        <v>239</v>
+      </c>
+      <c r="O64" s="10">
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>8</v>
+      </c>
+      <c r="R64" s="10">
+        <v>10</v>
+      </c>
+      <c r="S64" s="10">
+        <v>2</v>
+      </c>
+      <c r="T64" s="10">
+        <v>0</v>
+      </c>
+      <c r="U64" s="10">
+        <v>0</v>
+      </c>
+      <c r="V64" s="10">
+        <v>0</v>
+      </c>
+      <c r="W64" s="10">
+        <v>0</v>
+      </c>
+      <c r="X64" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y64" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z64" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>46</v>
+      </c>
+      <c r="AB64" s="12">
+        <v>289</v>
+      </c>
+      <c r="AC64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE64" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ64" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK64" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL64" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM64" s="21">
+        <v>3295</v>
+      </c>
+      <c r="AN64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ64" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR64" s="14">
+        <v>0.92504209999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -1425,11 +1425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92564864"/>
-        <c:axId val="92566656"/>
+        <c:axId val="87911808"/>
+        <c:axId val="87917696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92564864"/>
+        <c:axId val="87911808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,14 +1439,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92566656"/>
+        <c:crossAx val="87917696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92566656"/>
+        <c:axId val="87917696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92564864"/>
+        <c:crossAx val="87911808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94085120"/>
-        <c:axId val="94086656"/>
+        <c:axId val="94138368"/>
+        <c:axId val="94139904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94085120"/>
+        <c:axId val="94138368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,14 +3137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94086656"/>
+        <c:crossAx val="94139904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94086656"/>
+        <c:axId val="94139904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94085120"/>
+        <c:crossAx val="94138368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3540,14 +3540,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS64"/>
+  <dimension ref="A1:AS65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A50" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A55" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:AS64"/>
-      <selection pane="bottomRight" activeCell="AB64" sqref="AB64"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:AS65"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10520,7 +10520,7 @@
       <c r="E55" s="10">
         <v>70</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="16">
         <v>3561</v>
       </c>
       <c r="G55" s="10">
@@ -10619,7 +10619,7 @@
       <c r="AL55" s="18">
         <v>297</v>
       </c>
-      <c r="AM55" s="21">
+      <c r="AM55" s="13">
         <v>3291</v>
       </c>
       <c r="AN55" s="5">
@@ -11155,7 +11155,7 @@
       <c r="AL59" s="18">
         <v>298</v>
       </c>
-      <c r="AM59" s="21">
+      <c r="AM59" s="13">
         <v>3294</v>
       </c>
       <c r="AN59" s="5">
@@ -11324,7 +11324,7 @@
       <c r="E61" s="10">
         <v>70</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="16">
         <v>3562</v>
       </c>
       <c r="G61" s="10">
@@ -11423,7 +11423,7 @@
       <c r="AL61" s="18">
         <v>298</v>
       </c>
-      <c r="AM61" s="21">
+      <c r="AM61" s="13">
         <v>3295</v>
       </c>
       <c r="AN61" s="5">
@@ -11842,6 +11842,140 @@
       </c>
       <c r="AR64" s="14">
         <v>0.92504209999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>42964</v>
+      </c>
+      <c r="B65" s="10">
+        <v>240</v>
+      </c>
+      <c r="C65" s="10">
+        <v>5</v>
+      </c>
+      <c r="D65" s="10">
+        <v>306</v>
+      </c>
+      <c r="E65" s="10">
+        <v>70</v>
+      </c>
+      <c r="F65" s="16">
+        <v>3563</v>
+      </c>
+      <c r="G65" s="10">
+        <v>8</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
+        <v>61</v>
+      </c>
+      <c r="J65" s="10">
+        <v>216</v>
+      </c>
+      <c r="K65" s="10">
+        <v>663</v>
+      </c>
+      <c r="L65" s="10">
+        <v>131</v>
+      </c>
+      <c r="M65" s="10">
+        <v>0</v>
+      </c>
+      <c r="N65" s="10">
+        <v>239</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>8</v>
+      </c>
+      <c r="R65" s="10">
+        <v>10</v>
+      </c>
+      <c r="S65" s="10">
+        <v>2</v>
+      </c>
+      <c r="T65" s="10">
+        <v>0</v>
+      </c>
+      <c r="U65" s="10">
+        <v>0</v>
+      </c>
+      <c r="V65" s="10">
+        <v>0</v>
+      </c>
+      <c r="W65" s="10">
+        <v>0</v>
+      </c>
+      <c r="X65" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB65" s="11">
+        <v>275</v>
+      </c>
+      <c r="AC65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE65" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ65" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK65" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL65" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM65" s="13">
+        <v>3296</v>
+      </c>
+      <c r="AN65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ65" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR65" s="14">
+        <v>0.92506310000000003</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -1425,11 +1425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87911808"/>
-        <c:axId val="87917696"/>
+        <c:axId val="88173952"/>
+        <c:axId val="88179840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87911808"/>
+        <c:axId val="88173952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,14 +1439,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87917696"/>
+        <c:crossAx val="88179840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87917696"/>
+        <c:axId val="88179840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87911808"/>
+        <c:crossAx val="88173952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94138368"/>
-        <c:axId val="94139904"/>
+        <c:axId val="88961024"/>
+        <c:axId val="88962560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94138368"/>
+        <c:axId val="88961024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,14 +3137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94139904"/>
+        <c:crossAx val="88962560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94139904"/>
+        <c:axId val="88962560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94138368"/>
+        <c:crossAx val="88961024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3191,15 +3191,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3220,16 +3220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3540,14 +3540,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS65"/>
+  <dimension ref="A1:AS72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A55" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A58" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:AS65"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
+      <selection pane="bottomRight" activeCell="AM67" sqref="AM67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11978,6 +11978,944 @@
         <v>0.92506310000000003</v>
       </c>
     </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>42965</v>
+      </c>
+      <c r="B66" s="10">
+        <v>240</v>
+      </c>
+      <c r="C66" s="10">
+        <v>5</v>
+      </c>
+      <c r="D66" s="10">
+        <v>306</v>
+      </c>
+      <c r="E66" s="10">
+        <v>70</v>
+      </c>
+      <c r="F66" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G66" s="10">
+        <v>8</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+      <c r="I66" s="10">
+        <v>61</v>
+      </c>
+      <c r="J66" s="10">
+        <v>216</v>
+      </c>
+      <c r="K66" s="10">
+        <v>663</v>
+      </c>
+      <c r="L66" s="10">
+        <v>131</v>
+      </c>
+      <c r="M66" s="10">
+        <v>0</v>
+      </c>
+      <c r="N66" s="10">
+        <v>239</v>
+      </c>
+      <c r="O66" s="10">
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="10">
+        <v>8</v>
+      </c>
+      <c r="R66" s="10">
+        <v>10</v>
+      </c>
+      <c r="S66" s="10">
+        <v>2</v>
+      </c>
+      <c r="T66" s="10">
+        <v>0</v>
+      </c>
+      <c r="U66" s="10">
+        <v>0</v>
+      </c>
+      <c r="V66" s="10">
+        <v>0</v>
+      </c>
+      <c r="W66" s="10">
+        <v>0</v>
+      </c>
+      <c r="X66" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y66" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z66" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB66" s="10">
+        <v>275</v>
+      </c>
+      <c r="AC66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE66" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ66" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK66" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL66" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM66" s="13">
+        <v>3297</v>
+      </c>
+      <c r="AN66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ66" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR66" s="14">
+        <v>0.92534380000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>42966</v>
+      </c>
+      <c r="B67" s="10">
+        <v>240</v>
+      </c>
+      <c r="C67" s="10">
+        <v>5</v>
+      </c>
+      <c r="D67" s="10">
+        <v>306</v>
+      </c>
+      <c r="E67" s="10">
+        <v>70</v>
+      </c>
+      <c r="F67" s="16">
+        <v>3564</v>
+      </c>
+      <c r="G67" s="10">
+        <v>8</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+      <c r="I67" s="10">
+        <v>61</v>
+      </c>
+      <c r="J67" s="10">
+        <v>216</v>
+      </c>
+      <c r="K67" s="10">
+        <v>663</v>
+      </c>
+      <c r="L67" s="10">
+        <v>131</v>
+      </c>
+      <c r="M67" s="10">
+        <v>0</v>
+      </c>
+      <c r="N67" s="10">
+        <v>239</v>
+      </c>
+      <c r="O67" s="10">
+        <v>0</v>
+      </c>
+      <c r="P67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>8</v>
+      </c>
+      <c r="R67" s="10">
+        <v>10</v>
+      </c>
+      <c r="S67" s="10">
+        <v>2</v>
+      </c>
+      <c r="T67" s="10">
+        <v>0</v>
+      </c>
+      <c r="U67" s="10">
+        <v>0</v>
+      </c>
+      <c r="V67" s="10">
+        <v>0</v>
+      </c>
+      <c r="W67" s="10">
+        <v>0</v>
+      </c>
+      <c r="X67" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y67" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB67" s="10">
+        <v>275</v>
+      </c>
+      <c r="AC67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE67" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF67" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ67" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK67" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL67" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM67" s="13">
+        <v>3298</v>
+      </c>
+      <c r="AN67" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO67" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP67" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ67" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR67" s="14">
+        <v>0.92536470000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>42967</v>
+      </c>
+      <c r="B68" s="10">
+        <v>240</v>
+      </c>
+      <c r="C68" s="10">
+        <v>5</v>
+      </c>
+      <c r="D68" s="10">
+        <v>306</v>
+      </c>
+      <c r="E68" s="10">
+        <v>70</v>
+      </c>
+      <c r="F68" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G68" s="10">
+        <v>8</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+      <c r="I68" s="10">
+        <v>61</v>
+      </c>
+      <c r="J68" s="10">
+        <v>216</v>
+      </c>
+      <c r="K68" s="10">
+        <v>663</v>
+      </c>
+      <c r="L68" s="10">
+        <v>131</v>
+      </c>
+      <c r="M68" s="10">
+        <v>0</v>
+      </c>
+      <c r="N68" s="10">
+        <v>239</v>
+      </c>
+      <c r="O68" s="10">
+        <v>0</v>
+      </c>
+      <c r="P68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>8</v>
+      </c>
+      <c r="R68" s="10">
+        <v>10</v>
+      </c>
+      <c r="S68" s="10">
+        <v>2</v>
+      </c>
+      <c r="T68" s="10">
+        <v>0</v>
+      </c>
+      <c r="U68" s="10">
+        <v>0</v>
+      </c>
+      <c r="V68" s="10">
+        <v>0</v>
+      </c>
+      <c r="W68" s="10">
+        <v>0</v>
+      </c>
+      <c r="X68" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB68" s="10">
+        <v>275</v>
+      </c>
+      <c r="AC68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE68" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ68" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK68" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL68" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM68" s="21">
+        <v>3298</v>
+      </c>
+      <c r="AN68" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO68" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP68" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ68" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR68" s="14">
+        <v>0.92536470000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>42967</v>
+      </c>
+      <c r="B69" s="10">
+        <v>240</v>
+      </c>
+      <c r="C69" s="10">
+        <v>5</v>
+      </c>
+      <c r="D69" s="10">
+        <v>306</v>
+      </c>
+      <c r="E69" s="10">
+        <v>70</v>
+      </c>
+      <c r="F69" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G69" s="10">
+        <v>8</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10">
+        <v>61</v>
+      </c>
+      <c r="J69" s="10">
+        <v>216</v>
+      </c>
+      <c r="K69" s="10">
+        <v>663</v>
+      </c>
+      <c r="L69" s="10">
+        <v>131</v>
+      </c>
+      <c r="M69" s="10">
+        <v>0</v>
+      </c>
+      <c r="N69" s="10">
+        <v>239</v>
+      </c>
+      <c r="O69" s="10">
+        <v>0</v>
+      </c>
+      <c r="P69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>8</v>
+      </c>
+      <c r="R69" s="10">
+        <v>10</v>
+      </c>
+      <c r="S69" s="10">
+        <v>2</v>
+      </c>
+      <c r="T69" s="10">
+        <v>0</v>
+      </c>
+      <c r="U69" s="10">
+        <v>0</v>
+      </c>
+      <c r="V69" s="10">
+        <v>0</v>
+      </c>
+      <c r="W69" s="10">
+        <v>0</v>
+      </c>
+      <c r="X69" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB69" s="10">
+        <v>275</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE69" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF69" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ69" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK69" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL69" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM69" s="21">
+        <v>3298</v>
+      </c>
+      <c r="AN69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP69" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ69" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR69" s="14">
+        <v>0.92536470000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>42969</v>
+      </c>
+      <c r="B70" s="10">
+        <v>240</v>
+      </c>
+      <c r="C70" s="10">
+        <v>5</v>
+      </c>
+      <c r="D70" s="10">
+        <v>306</v>
+      </c>
+      <c r="E70" s="10">
+        <v>70</v>
+      </c>
+      <c r="F70" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G70" s="10">
+        <v>8</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
+        <v>61</v>
+      </c>
+      <c r="J70" s="10">
+        <v>216</v>
+      </c>
+      <c r="K70" s="10">
+        <v>663</v>
+      </c>
+      <c r="L70" s="10">
+        <v>131</v>
+      </c>
+      <c r="M70" s="10">
+        <v>0</v>
+      </c>
+      <c r="N70" s="10">
+        <v>239</v>
+      </c>
+      <c r="O70" s="10">
+        <v>0</v>
+      </c>
+      <c r="P70" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>8</v>
+      </c>
+      <c r="R70" s="10">
+        <v>10</v>
+      </c>
+      <c r="S70" s="10">
+        <v>2</v>
+      </c>
+      <c r="T70" s="10">
+        <v>0</v>
+      </c>
+      <c r="U70" s="10">
+        <v>0</v>
+      </c>
+      <c r="V70" s="10">
+        <v>0</v>
+      </c>
+      <c r="W70" s="10">
+        <v>0</v>
+      </c>
+      <c r="X70" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y70" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB70" s="10">
+        <v>275</v>
+      </c>
+      <c r="AC70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE70" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF70" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ70" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK70" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL70" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM70" s="21">
+        <v>3298</v>
+      </c>
+      <c r="AN70" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO70" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP70" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ70" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR70" s="14">
+        <v>0.92536470000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>42970</v>
+      </c>
+      <c r="B71" s="10">
+        <v>240</v>
+      </c>
+      <c r="C71" s="10">
+        <v>5</v>
+      </c>
+      <c r="D71" s="10">
+        <v>306</v>
+      </c>
+      <c r="E71" s="10">
+        <v>70</v>
+      </c>
+      <c r="F71" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G71" s="10">
+        <v>8</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="10">
+        <v>61</v>
+      </c>
+      <c r="J71" s="10">
+        <v>216</v>
+      </c>
+      <c r="K71" s="10">
+        <v>663</v>
+      </c>
+      <c r="L71" s="10">
+        <v>131</v>
+      </c>
+      <c r="M71" s="10">
+        <v>0</v>
+      </c>
+      <c r="N71" s="10">
+        <v>239</v>
+      </c>
+      <c r="O71" s="10">
+        <v>0</v>
+      </c>
+      <c r="P71" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>8</v>
+      </c>
+      <c r="R71" s="10">
+        <v>10</v>
+      </c>
+      <c r="S71" s="10">
+        <v>2</v>
+      </c>
+      <c r="T71" s="10">
+        <v>0</v>
+      </c>
+      <c r="U71" s="10">
+        <v>0</v>
+      </c>
+      <c r="V71" s="10">
+        <v>0</v>
+      </c>
+      <c r="W71" s="10">
+        <v>0</v>
+      </c>
+      <c r="X71" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y71" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z71" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB71" s="11">
+        <v>274</v>
+      </c>
+      <c r="AC71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE71" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ71" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK71" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL71" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM71" s="21">
+        <v>3298</v>
+      </c>
+      <c r="AN71" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO71" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ71" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR71" s="14">
+        <v>0.92536470000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>42971</v>
+      </c>
+      <c r="B72" s="10">
+        <v>240</v>
+      </c>
+      <c r="C72" s="10">
+        <v>5</v>
+      </c>
+      <c r="D72" s="10">
+        <v>306</v>
+      </c>
+      <c r="E72" s="10">
+        <v>70</v>
+      </c>
+      <c r="F72" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G72" s="10">
+        <v>8</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="10">
+        <v>61</v>
+      </c>
+      <c r="J72" s="10">
+        <v>216</v>
+      </c>
+      <c r="K72" s="10">
+        <v>663</v>
+      </c>
+      <c r="L72" s="10">
+        <v>131</v>
+      </c>
+      <c r="M72" s="10">
+        <v>0</v>
+      </c>
+      <c r="N72" s="10">
+        <v>239</v>
+      </c>
+      <c r="O72" s="10">
+        <v>0</v>
+      </c>
+      <c r="P72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>8</v>
+      </c>
+      <c r="R72" s="10">
+        <v>10</v>
+      </c>
+      <c r="S72" s="10">
+        <v>2</v>
+      </c>
+      <c r="T72" s="10">
+        <v>0</v>
+      </c>
+      <c r="U72" s="10">
+        <v>0</v>
+      </c>
+      <c r="V72" s="10">
+        <v>0</v>
+      </c>
+      <c r="W72" s="10">
+        <v>0</v>
+      </c>
+      <c r="X72" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB72" s="10">
+        <v>274</v>
+      </c>
+      <c r="AC72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE72" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ72" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK72" s="6">
+        <v>69</v>
+      </c>
+      <c r="AL72" s="18">
+        <v>298</v>
+      </c>
+      <c r="AM72" s="21">
+        <v>3298</v>
+      </c>
+      <c r="AN72" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO72" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="5">
+        <v>0.98571430000000004</v>
+      </c>
+      <c r="AQ72" s="14">
+        <v>0.97385619999999995</v>
+      </c>
+      <c r="AR72" s="14">
+        <v>0.92536470000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,6 +319,15 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1425,11 +1434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88173952"/>
-        <c:axId val="88179840"/>
+        <c:axId val="88829312"/>
+        <c:axId val="88835200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88173952"/>
+        <c:axId val="88829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,14 +1448,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88179840"/>
+        <c:crossAx val="88835200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88179840"/>
+        <c:axId val="88835200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88173952"/>
+        <c:crossAx val="88829312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88961024"/>
-        <c:axId val="88962560"/>
+        <c:axId val="90861568"/>
+        <c:axId val="90863104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88961024"/>
+        <c:axId val="90861568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,14 +3146,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88962560"/>
+        <c:crossAx val="90863104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88962560"/>
+        <c:axId val="90863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88961024"/>
+        <c:crossAx val="90861568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3540,14 +3549,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS72"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A58" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="Z58" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
-      <selection pane="bottomRight" activeCell="AM67" sqref="AM67"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:AS74"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12916,6 +12925,274 @@
         <v>0.92536470000000004</v>
       </c>
     </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>42973</v>
+      </c>
+      <c r="B73" s="10">
+        <v>240</v>
+      </c>
+      <c r="C73" s="10">
+        <v>5</v>
+      </c>
+      <c r="D73" s="16">
+        <v>298</v>
+      </c>
+      <c r="E73" s="16">
+        <v>78</v>
+      </c>
+      <c r="F73" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G73" s="10">
+        <v>8</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>53</v>
+      </c>
+      <c r="J73" s="10">
+        <v>216</v>
+      </c>
+      <c r="K73" s="10">
+        <v>663</v>
+      </c>
+      <c r="L73" s="10">
+        <v>131</v>
+      </c>
+      <c r="M73" s="10">
+        <v>0</v>
+      </c>
+      <c r="N73" s="10">
+        <v>239</v>
+      </c>
+      <c r="O73" s="10">
+        <v>0</v>
+      </c>
+      <c r="P73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="10">
+        <v>8</v>
+      </c>
+      <c r="R73" s="10">
+        <v>10</v>
+      </c>
+      <c r="S73" s="10">
+        <v>2</v>
+      </c>
+      <c r="T73" s="10">
+        <v>0</v>
+      </c>
+      <c r="U73" s="10">
+        <v>0</v>
+      </c>
+      <c r="V73" s="10">
+        <v>0</v>
+      </c>
+      <c r="W73" s="10">
+        <v>0</v>
+      </c>
+      <c r="X73" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y73" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB73" s="12">
+        <v>277</v>
+      </c>
+      <c r="AC73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE73" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ73" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK73" s="23">
+        <v>77</v>
+      </c>
+      <c r="AL73" s="24">
+        <v>290</v>
+      </c>
+      <c r="AM73" s="23">
+        <v>3278</v>
+      </c>
+      <c r="AN73" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO73" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP73" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ73" s="14">
+        <v>0.97315439999999998</v>
+      </c>
+      <c r="AR73" s="25">
+        <v>0.91975309999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>42975</v>
+      </c>
+      <c r="B74" s="10">
+        <v>240</v>
+      </c>
+      <c r="C74" s="10">
+        <v>5</v>
+      </c>
+      <c r="D74" s="10">
+        <v>298</v>
+      </c>
+      <c r="E74" s="10">
+        <v>78</v>
+      </c>
+      <c r="F74" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G74" s="10">
+        <v>8</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
+        <v>53</v>
+      </c>
+      <c r="J74" s="10">
+        <v>216</v>
+      </c>
+      <c r="K74" s="10">
+        <v>663</v>
+      </c>
+      <c r="L74" s="10">
+        <v>131</v>
+      </c>
+      <c r="M74" s="10">
+        <v>0</v>
+      </c>
+      <c r="N74" s="10">
+        <v>239</v>
+      </c>
+      <c r="O74" s="10">
+        <v>0</v>
+      </c>
+      <c r="P74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="10">
+        <v>8</v>
+      </c>
+      <c r="R74" s="10">
+        <v>10</v>
+      </c>
+      <c r="S74" s="10">
+        <v>2</v>
+      </c>
+      <c r="T74" s="10">
+        <v>0</v>
+      </c>
+      <c r="U74" s="10">
+        <v>0</v>
+      </c>
+      <c r="V74" s="10">
+        <v>0</v>
+      </c>
+      <c r="W74" s="10">
+        <v>0</v>
+      </c>
+      <c r="X74" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y74" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB74" s="10">
+        <v>277</v>
+      </c>
+      <c r="AC74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE74" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ74" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK74" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL74" s="18">
+        <v>290</v>
+      </c>
+      <c r="AM74" s="21">
+        <v>3278</v>
+      </c>
+      <c r="AN74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP74" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ74" s="14">
+        <v>0.97315439999999998</v>
+      </c>
+      <c r="AR74" s="14">
+        <v>0.91975309999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,6 +328,9 @@
     <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1434,11 +1437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88829312"/>
-        <c:axId val="88835200"/>
+        <c:axId val="84443520"/>
+        <c:axId val="84445056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88829312"/>
+        <c:axId val="84443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,14 +1451,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88835200"/>
+        <c:crossAx val="84445056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88835200"/>
+        <c:axId val="84445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88829312"/>
+        <c:crossAx val="84443520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3132,11 +3135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90861568"/>
-        <c:axId val="90863104"/>
+        <c:axId val="87323392"/>
+        <c:axId val="87324928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90861568"/>
+        <c:axId val="87323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3146,14 +3149,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90863104"/>
+        <c:crossAx val="87324928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90863104"/>
+        <c:axId val="87324928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90861568"/>
+        <c:crossAx val="87323392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3549,14 +3552,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS74"/>
+  <dimension ref="A1:AS75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="Z58" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A58" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:AS74"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:AS75"/>
+      <selection pane="bottomRight" activeCell="AM75" sqref="AM75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13193,6 +13196,140 @@
         <v>0.91975309999999999</v>
       </c>
     </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>42976</v>
+      </c>
+      <c r="B75" s="10">
+        <v>240</v>
+      </c>
+      <c r="C75" s="10">
+        <v>5</v>
+      </c>
+      <c r="D75" s="10">
+        <v>298</v>
+      </c>
+      <c r="E75" s="10">
+        <v>78</v>
+      </c>
+      <c r="F75" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G75" s="16">
+        <v>10</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
+        <v>53</v>
+      </c>
+      <c r="J75" s="10">
+        <v>216</v>
+      </c>
+      <c r="K75" s="10">
+        <v>663</v>
+      </c>
+      <c r="L75" s="10">
+        <v>131</v>
+      </c>
+      <c r="M75" s="10">
+        <v>0</v>
+      </c>
+      <c r="N75" s="10">
+        <v>239</v>
+      </c>
+      <c r="O75" s="10">
+        <v>0</v>
+      </c>
+      <c r="P75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="10">
+        <v>8</v>
+      </c>
+      <c r="R75" s="10">
+        <v>10</v>
+      </c>
+      <c r="S75" s="10">
+        <v>2</v>
+      </c>
+      <c r="T75" s="10">
+        <v>0</v>
+      </c>
+      <c r="U75" s="10">
+        <v>0</v>
+      </c>
+      <c r="V75" s="10">
+        <v>0</v>
+      </c>
+      <c r="W75" s="10">
+        <v>0</v>
+      </c>
+      <c r="X75" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y75" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB75" s="10">
+        <v>277</v>
+      </c>
+      <c r="AC75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE75" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ75" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK75" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL75" s="24">
+        <v>288</v>
+      </c>
+      <c r="AM75" s="23">
+        <v>3252</v>
+      </c>
+      <c r="AN75" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO75" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP75" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ75" s="14">
+        <v>0.96644289999999999</v>
+      </c>
+      <c r="AR75" s="26">
+        <v>0.91245790000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -1437,11 +1437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84443520"/>
-        <c:axId val="84445056"/>
+        <c:axId val="88904064"/>
+        <c:axId val="88905600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84443520"/>
+        <c:axId val="88904064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,14 +1451,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84445056"/>
+        <c:crossAx val="88905600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84445056"/>
+        <c:axId val="88905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84443520"/>
+        <c:crossAx val="88904064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3135,11 +3135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87323392"/>
-        <c:axId val="87324928"/>
+        <c:axId val="91259648"/>
+        <c:axId val="91261184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87323392"/>
+        <c:axId val="91259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,14 +3149,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87324928"/>
+        <c:crossAx val="91261184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87324928"/>
+        <c:axId val="91261184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87323392"/>
+        <c:crossAx val="91259648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3552,14 +3552,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS75"/>
+  <dimension ref="A1:AS78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1410" ySplit="2700" topLeftCell="A58" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75:AS75"/>
-      <selection pane="bottomRight" activeCell="AM75" sqref="AM75"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:AS78"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13330,6 +13330,408 @@
         <v>0.91245790000000004</v>
       </c>
     </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>42977</v>
+      </c>
+      <c r="B76" s="10">
+        <v>240</v>
+      </c>
+      <c r="C76" s="10">
+        <v>5</v>
+      </c>
+      <c r="D76" s="10">
+        <v>298</v>
+      </c>
+      <c r="E76" s="10">
+        <v>78</v>
+      </c>
+      <c r="F76" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G76" s="10">
+        <v>10</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
+        <v>53</v>
+      </c>
+      <c r="J76" s="10">
+        <v>216</v>
+      </c>
+      <c r="K76" s="10">
+        <v>663</v>
+      </c>
+      <c r="L76" s="10">
+        <v>131</v>
+      </c>
+      <c r="M76" s="10">
+        <v>0</v>
+      </c>
+      <c r="N76" s="10">
+        <v>239</v>
+      </c>
+      <c r="O76" s="10">
+        <v>0</v>
+      </c>
+      <c r="P76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>8</v>
+      </c>
+      <c r="R76" s="10">
+        <v>10</v>
+      </c>
+      <c r="S76" s="10">
+        <v>2</v>
+      </c>
+      <c r="T76" s="10">
+        <v>0</v>
+      </c>
+      <c r="U76" s="10">
+        <v>0</v>
+      </c>
+      <c r="V76" s="10">
+        <v>0</v>
+      </c>
+      <c r="W76" s="10">
+        <v>0</v>
+      </c>
+      <c r="X76" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y76" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB76" s="10">
+        <v>276</v>
+      </c>
+      <c r="AC76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE76" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ76" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK76" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL76" s="18">
+        <v>288</v>
+      </c>
+      <c r="AM76" s="21">
+        <v>3252</v>
+      </c>
+      <c r="AN76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP76" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ76" s="14">
+        <v>0.96644289999999999</v>
+      </c>
+      <c r="AR76" s="14">
+        <v>0.91245790000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B77" s="10">
+        <v>240</v>
+      </c>
+      <c r="C77" s="10">
+        <v>5</v>
+      </c>
+      <c r="D77" s="10">
+        <v>298</v>
+      </c>
+      <c r="E77" s="10">
+        <v>78</v>
+      </c>
+      <c r="F77" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G77" s="10">
+        <v>10</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="I77" s="10">
+        <v>53</v>
+      </c>
+      <c r="J77" s="10">
+        <v>216</v>
+      </c>
+      <c r="K77" s="10">
+        <v>663</v>
+      </c>
+      <c r="L77" s="10">
+        <v>131</v>
+      </c>
+      <c r="M77" s="10">
+        <v>0</v>
+      </c>
+      <c r="N77" s="10">
+        <v>239</v>
+      </c>
+      <c r="O77" s="10">
+        <v>0</v>
+      </c>
+      <c r="P77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>8</v>
+      </c>
+      <c r="R77" s="10">
+        <v>10</v>
+      </c>
+      <c r="S77" s="10">
+        <v>2</v>
+      </c>
+      <c r="T77" s="10">
+        <v>0</v>
+      </c>
+      <c r="U77" s="10">
+        <v>0</v>
+      </c>
+      <c r="V77" s="10">
+        <v>0</v>
+      </c>
+      <c r="W77" s="10">
+        <v>0</v>
+      </c>
+      <c r="X77" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y77" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB77" s="10">
+        <v>276</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE77" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ77" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK77" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL77" s="18">
+        <v>288</v>
+      </c>
+      <c r="AM77" s="21">
+        <v>3252</v>
+      </c>
+      <c r="AN77" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO77" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP77" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ77" s="14">
+        <v>0.96644289999999999</v>
+      </c>
+      <c r="AR77" s="14">
+        <v>0.91245790000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>42979</v>
+      </c>
+      <c r="B78" s="10">
+        <v>240</v>
+      </c>
+      <c r="C78" s="10">
+        <v>5</v>
+      </c>
+      <c r="D78" s="10">
+        <v>298</v>
+      </c>
+      <c r="E78" s="10">
+        <v>78</v>
+      </c>
+      <c r="F78" s="10">
+        <v>3564</v>
+      </c>
+      <c r="G78" s="10">
+        <v>10</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <v>53</v>
+      </c>
+      <c r="J78" s="10">
+        <v>216</v>
+      </c>
+      <c r="K78" s="10">
+        <v>663</v>
+      </c>
+      <c r="L78" s="10">
+        <v>131</v>
+      </c>
+      <c r="M78" s="10">
+        <v>0</v>
+      </c>
+      <c r="N78" s="10">
+        <v>239</v>
+      </c>
+      <c r="O78" s="10">
+        <v>0</v>
+      </c>
+      <c r="P78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="10">
+        <v>8</v>
+      </c>
+      <c r="R78" s="10">
+        <v>10</v>
+      </c>
+      <c r="S78" s="10">
+        <v>2</v>
+      </c>
+      <c r="T78" s="10">
+        <v>0</v>
+      </c>
+      <c r="U78" s="10">
+        <v>0</v>
+      </c>
+      <c r="V78" s="10">
+        <v>0</v>
+      </c>
+      <c r="W78" s="10">
+        <v>0</v>
+      </c>
+      <c r="X78" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y78" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB78" s="10">
+        <v>276</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE78" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ78" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK78" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL78" s="18">
+        <v>288</v>
+      </c>
+      <c r="AM78" s="21">
+        <v>3252</v>
+      </c>
+      <c r="AN78" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO78" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP78" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ78" s="14">
+        <v>0.96644289999999999</v>
+      </c>
+      <c r="AR78" s="14">
+        <v>0.91245790000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +331,12 @@
     <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1437,11 +1443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88904064"/>
-        <c:axId val="88905600"/>
+        <c:axId val="90800128"/>
+        <c:axId val="90801664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88904064"/>
+        <c:axId val="90800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,14 +1457,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88905600"/>
+        <c:crossAx val="90801664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88905600"/>
+        <c:axId val="90801664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88904064"/>
+        <c:crossAx val="90800128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3135,11 +3141,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91259648"/>
-        <c:axId val="91261184"/>
+        <c:axId val="90943872"/>
+        <c:axId val="90945408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91259648"/>
+        <c:axId val="90943872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,14 +3155,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91261184"/>
+        <c:crossAx val="90945408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91261184"/>
+        <c:axId val="90945408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91259648"/>
+        <c:crossAx val="90943872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3552,14 +3558,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS78"/>
+  <dimension ref="A1:AS82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A58" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A61" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:AS78"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="topRight" activeCell="AR1" sqref="AR1:AR1048576"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:AS82"/>
+      <selection pane="bottomRight" activeCell="AM88" sqref="AM88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3602,7 @@
     <col min="41" max="41" width="12.140625" style="5" customWidth="1"/>
     <col min="42" max="42" width="11.140625" style="5" customWidth="1"/>
     <col min="43" max="43" width="11" style="14" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" style="14" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" style="4" customWidth="1"/>
     <col min="45" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -3730,7 +3736,7 @@
       <c r="AQ1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3850,7 +3856,7 @@
       <c r="AQ2" s="14">
         <v>0.24919089999999999</v>
       </c>
-      <c r="AR2" s="14">
+      <c r="AR2" s="4">
         <v>9.9296759999999998E-2</v>
       </c>
     </row>
@@ -3970,7 +3976,7 @@
       <c r="AQ3" s="14">
         <v>0.27508090000000002</v>
       </c>
-      <c r="AR3" s="14">
+      <c r="AR3" s="4">
         <v>0.1414909</v>
       </c>
     </row>
@@ -4098,7 +4104,7 @@
       <c r="AQ4" s="14">
         <v>0.33009709999999998</v>
       </c>
-      <c r="AR4" s="14">
+      <c r="AR4" s="4">
         <v>0.32911390000000001</v>
       </c>
     </row>
@@ -4226,7 +4232,7 @@
       <c r="AQ5" s="14">
         <v>0.3333333</v>
       </c>
-      <c r="AR5" s="14">
+      <c r="AR5" s="4">
         <v>0.3313643</v>
       </c>
     </row>
@@ -4354,7 +4360,7 @@
       <c r="AQ6" s="14">
         <v>0.3333333</v>
       </c>
-      <c r="AR6" s="14">
+      <c r="AR6" s="4">
         <v>0.3313643</v>
       </c>
     </row>
@@ -4482,7 +4488,7 @@
       <c r="AQ7" s="14">
         <v>0.33980579999999999</v>
       </c>
-      <c r="AR7" s="14">
+      <c r="AR7" s="4">
         <v>0.34430379999999999</v>
       </c>
     </row>
@@ -4610,7 +4616,7 @@
       <c r="AQ8" s="14">
         <v>0.34951460000000001</v>
       </c>
-      <c r="AR8" s="14">
+      <c r="AR8" s="4">
         <v>0.66666669999999995</v>
       </c>
     </row>
@@ -4738,7 +4744,7 @@
       <c r="AQ9" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AR9" s="14">
+      <c r="AR9" s="4">
         <v>0.70857950000000003</v>
       </c>
     </row>
@@ -4866,7 +4872,7 @@
       <c r="AQ10" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AR10" s="14">
+      <c r="AR10" s="4">
         <v>0.70890699999999995</v>
       </c>
     </row>
@@ -4994,7 +5000,7 @@
       <c r="AQ11" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AR11" s="14">
+      <c r="AR11" s="4">
         <v>0.70890699999999995</v>
       </c>
     </row>
@@ -5122,7 +5128,7 @@
       <c r="AQ12" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AR12" s="14">
+      <c r="AR12" s="4">
         <v>0.70890699999999995</v>
       </c>
     </row>
@@ -5250,7 +5256,7 @@
       <c r="AQ13" s="14">
         <v>0.37540449999999997</v>
       </c>
-      <c r="AR13" s="14">
+      <c r="AR13" s="4">
         <v>0.70890699999999995</v>
       </c>
     </row>
@@ -5378,7 +5384,7 @@
       <c r="AQ14" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR14" s="14">
+      <c r="AR14" s="4">
         <v>0.707982</v>
       </c>
     </row>
@@ -5506,7 +5512,7 @@
       <c r="AQ15" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR15" s="14">
+      <c r="AR15" s="4">
         <v>0.70806409999999997</v>
       </c>
     </row>
@@ -5634,7 +5640,7 @@
       <c r="AQ16" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR16" s="14">
+      <c r="AR16" s="4">
         <v>0.70806409999999997</v>
       </c>
     </row>
@@ -5762,7 +5768,7 @@
       <c r="AQ17" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR17" s="14">
+      <c r="AR17" s="4">
         <v>0.70806409999999997</v>
       </c>
     </row>
@@ -5890,7 +5896,7 @@
       <c r="AQ18" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR18" s="14">
+      <c r="AR18" s="4">
         <v>0.70806409999999997</v>
       </c>
     </row>
@@ -6018,7 +6024,7 @@
       <c r="AQ19" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR19" s="14">
+      <c r="AR19" s="4">
         <v>0.70946900000000002</v>
       </c>
       <c r="AS19" s="5"/>
@@ -6147,7 +6153,7 @@
       <c r="AQ20" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR20" s="14">
+      <c r="AR20" s="4">
         <v>0.70955060000000003</v>
       </c>
     </row>
@@ -6276,7 +6282,7 @@
       <c r="AQ21" s="14">
         <v>0.3786408</v>
       </c>
-      <c r="AR21" s="20">
+      <c r="AR21" s="28">
         <v>0.72528090000000001</v>
       </c>
     </row>
@@ -6404,7 +6410,7 @@
       <c r="AQ22" s="20">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AR22" s="14">
+      <c r="AR22" s="4">
         <v>0.72668540000000004</v>
       </c>
     </row>
@@ -6532,7 +6538,7 @@
       <c r="AQ23" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AR23" s="14">
+      <c r="AR23" s="4">
         <v>0.72668540000000004</v>
       </c>
     </row>
@@ -6660,7 +6666,7 @@
       <c r="AQ24" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AR24" s="14">
+      <c r="AR24" s="4">
         <v>0.72668540000000004</v>
       </c>
     </row>
@@ -6788,7 +6794,7 @@
       <c r="AQ25" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AR25" s="14">
+      <c r="AR25" s="4">
         <v>0.72668540000000004</v>
       </c>
     </row>
@@ -6916,7 +6922,7 @@
       <c r="AQ26" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AR26" s="14">
+      <c r="AR26" s="4">
         <v>0.72668540000000004</v>
       </c>
     </row>
@@ -7045,7 +7051,7 @@
       <c r="AQ27" s="14">
         <v>0.38511329999999999</v>
       </c>
-      <c r="AR27" s="14">
+      <c r="AR27" s="4">
         <v>0.72688960000000002</v>
       </c>
     </row>
@@ -7173,7 +7179,7 @@
       <c r="AQ28" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR28" s="14">
+      <c r="AR28" s="4">
         <v>0.72688960000000002</v>
       </c>
     </row>
@@ -7301,7 +7307,7 @@
       <c r="AQ29" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR29" s="14">
+      <c r="AR29" s="4">
         <v>0.72688960000000002</v>
       </c>
     </row>
@@ -7429,7 +7435,7 @@
       <c r="AQ30" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR30" s="14">
+      <c r="AR30" s="4">
         <v>0.72688960000000002</v>
       </c>
     </row>
@@ -7558,7 +7564,7 @@
       <c r="AQ31" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR31" s="14">
+      <c r="AR31" s="4">
         <v>0.72696629999999995</v>
       </c>
     </row>
@@ -7686,7 +7692,7 @@
       <c r="AQ32" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR32" s="14">
+      <c r="AR32" s="4">
         <v>0.72696629999999995</v>
       </c>
     </row>
@@ -7814,7 +7820,7 @@
       <c r="AQ33" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR33" s="14">
+      <c r="AR33" s="4">
         <v>0.72696629999999995</v>
       </c>
     </row>
@@ -7942,7 +7948,7 @@
       <c r="AQ34" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR34" s="14">
+      <c r="AR34" s="4">
         <v>0.72696629999999995</v>
       </c>
     </row>
@@ -8070,7 +8076,7 @@
       <c r="AQ35" s="14">
         <v>0.38110749999999999</v>
       </c>
-      <c r="AR35" s="14">
+      <c r="AR35" s="4">
         <v>0.72696629999999995</v>
       </c>
     </row>
@@ -8198,7 +8204,7 @@
       <c r="AQ36" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AR36" s="14">
+      <c r="AR36" s="4">
         <v>0.73005620000000004</v>
       </c>
     </row>
@@ -8326,7 +8332,7 @@
       <c r="AQ37" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AR37" s="14">
+      <c r="AR37" s="4">
         <v>0.73005620000000004</v>
       </c>
     </row>
@@ -8454,7 +8460,7 @@
       <c r="AQ38" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AR38" s="14">
+      <c r="AR38" s="4">
         <v>0.73005620000000004</v>
       </c>
     </row>
@@ -8582,7 +8588,7 @@
       <c r="AQ39" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AR39" s="14">
+      <c r="AR39" s="4">
         <v>0.73005620000000004</v>
       </c>
     </row>
@@ -8710,7 +8716,7 @@
       <c r="AQ40" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AR40" s="14">
+      <c r="AR40" s="4">
         <v>0.73005620000000004</v>
       </c>
     </row>
@@ -8838,7 +8844,7 @@
       <c r="AQ41" s="14">
         <v>0.38436480000000001</v>
       </c>
-      <c r="AR41" s="14">
+      <c r="AR41" s="4">
         <v>0.73005620000000004</v>
       </c>
     </row>
@@ -8966,7 +8972,7 @@
       <c r="AQ42" s="20">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AR42" s="20">
+      <c r="AR42" s="28">
         <v>0.74536780000000002</v>
       </c>
     </row>
@@ -9094,7 +9100,7 @@
       <c r="AQ43" s="14">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AR43" s="14">
+      <c r="AR43" s="4">
         <v>0.74536780000000002</v>
       </c>
     </row>
@@ -9222,7 +9228,7 @@
       <c r="AQ44" s="14">
         <v>0.40065149999999999</v>
       </c>
-      <c r="AR44" s="14">
+      <c r="AR44" s="4">
         <v>0.74564850000000005</v>
       </c>
     </row>
@@ -9350,7 +9356,7 @@
       <c r="AQ45" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR45" s="14">
+      <c r="AR45" s="4">
         <v>0.74564850000000005</v>
       </c>
     </row>
@@ -9478,7 +9484,7 @@
       <c r="AQ46" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR46" s="14">
+      <c r="AR46" s="4">
         <v>0.74543919999999997</v>
       </c>
     </row>
@@ -9606,7 +9612,7 @@
       <c r="AQ47" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR47" s="14">
+      <c r="AR47" s="4">
         <v>0.74543919999999997</v>
       </c>
     </row>
@@ -9734,7 +9740,7 @@
       <c r="AQ48" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR48" s="14">
+      <c r="AR48" s="4">
         <v>0.74543919999999997</v>
       </c>
     </row>
@@ -9862,7 +9868,7 @@
       <c r="AQ49" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR49" s="14">
+      <c r="AR49" s="4">
         <v>0.74543919999999997</v>
       </c>
     </row>
@@ -9990,7 +9996,7 @@
       <c r="AQ50" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR50" s="14">
+      <c r="AR50" s="4">
         <v>0.74543919999999997</v>
       </c>
     </row>
@@ -10118,7 +10124,7 @@
       <c r="AQ51" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR51" s="14">
+      <c r="AR51" s="4">
         <v>0.74543919999999997</v>
       </c>
     </row>
@@ -10246,7 +10252,7 @@
       <c r="AQ52" s="14">
         <v>0.40390880000000001</v>
       </c>
-      <c r="AR52" s="14">
+      <c r="AR52" s="4">
         <v>0.74543919999999997</v>
       </c>
     </row>
@@ -10378,7 +10384,7 @@
       <c r="AQ53" s="20">
         <v>0.97058820000000001</v>
       </c>
-      <c r="AR53" s="20">
+      <c r="AR53" s="28">
         <v>0.92415729999999996</v>
       </c>
     </row>
@@ -10512,7 +10518,7 @@
       <c r="AQ54" s="14">
         <v>0.97058820000000001</v>
       </c>
-      <c r="AR54" s="14">
+      <c r="AR54" s="4">
         <v>0.92415729999999996</v>
       </c>
     </row>
@@ -10646,7 +10652,7 @@
       <c r="AQ55" s="14">
         <v>0.97058820000000001</v>
       </c>
-      <c r="AR55" s="14">
+      <c r="AR55" s="4">
         <v>0.92417859999999996</v>
       </c>
     </row>
@@ -10780,7 +10786,7 @@
       <c r="AQ56" s="14">
         <v>0.97058820000000001</v>
       </c>
-      <c r="AR56" s="14">
+      <c r="AR56" s="4">
         <v>0.92417859999999996</v>
       </c>
     </row>
@@ -10914,7 +10920,7 @@
       <c r="AQ57" s="14">
         <v>0.97058820000000001</v>
       </c>
-      <c r="AR57" s="14">
+      <c r="AR57" s="4">
         <v>0.92417859999999996</v>
       </c>
     </row>
@@ -11048,7 +11054,7 @@
       <c r="AQ58" s="14">
         <v>0.97058820000000001</v>
       </c>
-      <c r="AR58" s="14">
+      <c r="AR58" s="4">
         <v>0.92417859999999996</v>
       </c>
     </row>
@@ -11316,7 +11322,7 @@
       <c r="AQ60" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR60" s="14">
+      <c r="AR60" s="4">
         <v>0.92502110000000004</v>
       </c>
     </row>
@@ -11450,7 +11456,7 @@
       <c r="AQ61" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR61" s="14">
+      <c r="AR61" s="4">
         <v>0.92504209999999998</v>
       </c>
     </row>
@@ -11584,7 +11590,7 @@
       <c r="AQ62" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR62" s="14">
+      <c r="AR62" s="4">
         <v>0.92504209999999998</v>
       </c>
     </row>
@@ -11718,7 +11724,7 @@
       <c r="AQ63" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR63" s="14">
+      <c r="AR63" s="4">
         <v>0.92504209999999998</v>
       </c>
     </row>
@@ -11852,7 +11858,7 @@
       <c r="AQ64" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR64" s="14">
+      <c r="AR64" s="4">
         <v>0.92504209999999998</v>
       </c>
     </row>
@@ -11986,7 +11992,7 @@
       <c r="AQ65" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR65" s="14">
+      <c r="AR65" s="4">
         <v>0.92506310000000003</v>
       </c>
     </row>
@@ -12120,7 +12126,7 @@
       <c r="AQ66" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR66" s="14">
+      <c r="AR66" s="4">
         <v>0.92534380000000005</v>
       </c>
     </row>
@@ -12254,7 +12260,7 @@
       <c r="AQ67" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR67" s="14">
+      <c r="AR67" s="4">
         <v>0.92536470000000004</v>
       </c>
     </row>
@@ -12388,7 +12394,7 @@
       <c r="AQ68" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR68" s="14">
+      <c r="AR68" s="4">
         <v>0.92536470000000004</v>
       </c>
     </row>
@@ -12522,7 +12528,7 @@
       <c r="AQ69" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR69" s="14">
+      <c r="AR69" s="4">
         <v>0.92536470000000004</v>
       </c>
     </row>
@@ -12656,7 +12662,7 @@
       <c r="AQ70" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR70" s="14">
+      <c r="AR70" s="4">
         <v>0.92536470000000004</v>
       </c>
     </row>
@@ -12790,7 +12796,7 @@
       <c r="AQ71" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR71" s="14">
+      <c r="AR71" s="4">
         <v>0.92536470000000004</v>
       </c>
     </row>
@@ -12924,7 +12930,7 @@
       <c r="AQ72" s="14">
         <v>0.97385619999999995</v>
       </c>
-      <c r="AR72" s="14">
+      <c r="AR72" s="4">
         <v>0.92536470000000004</v>
       </c>
     </row>
@@ -13192,7 +13198,7 @@
       <c r="AQ74" s="14">
         <v>0.97315439999999998</v>
       </c>
-      <c r="AR74" s="14">
+      <c r="AR74" s="4">
         <v>0.91975309999999999</v>
       </c>
     </row>
@@ -13460,7 +13466,7 @@
       <c r="AQ76" s="14">
         <v>0.96644289999999999</v>
       </c>
-      <c r="AR76" s="14">
+      <c r="AR76" s="4">
         <v>0.91245790000000004</v>
       </c>
     </row>
@@ -13594,7 +13600,7 @@
       <c r="AQ77" s="14">
         <v>0.96644289999999999</v>
       </c>
-      <c r="AR77" s="14">
+      <c r="AR77" s="4">
         <v>0.91245790000000004</v>
       </c>
     </row>
@@ -13728,8 +13734,544 @@
       <c r="AQ78" s="14">
         <v>0.96644289999999999</v>
       </c>
-      <c r="AR78" s="14">
+      <c r="AR78" s="4">
         <v>0.91245790000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>42980</v>
+      </c>
+      <c r="B79" s="10">
+        <v>240</v>
+      </c>
+      <c r="C79" s="10">
+        <v>5</v>
+      </c>
+      <c r="D79" s="10">
+        <v>298</v>
+      </c>
+      <c r="E79" s="10">
+        <v>78</v>
+      </c>
+      <c r="F79" s="16">
+        <v>3563</v>
+      </c>
+      <c r="G79" s="10">
+        <v>10</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
+        <v>53</v>
+      </c>
+      <c r="J79" s="10">
+        <v>216</v>
+      </c>
+      <c r="K79" s="10">
+        <v>663</v>
+      </c>
+      <c r="L79" s="10">
+        <v>131</v>
+      </c>
+      <c r="M79" s="10">
+        <v>0</v>
+      </c>
+      <c r="N79" s="10">
+        <v>239</v>
+      </c>
+      <c r="O79" s="10">
+        <v>0</v>
+      </c>
+      <c r="P79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="10">
+        <v>8</v>
+      </c>
+      <c r="R79" s="10">
+        <v>10</v>
+      </c>
+      <c r="S79" s="10">
+        <v>2</v>
+      </c>
+      <c r="T79" s="10">
+        <v>0</v>
+      </c>
+      <c r="U79" s="10">
+        <v>0</v>
+      </c>
+      <c r="V79" s="10">
+        <v>0</v>
+      </c>
+      <c r="W79" s="10">
+        <v>0</v>
+      </c>
+      <c r="X79" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y79" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB79" s="10">
+        <v>276</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE79" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ79" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK79" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL79" s="18">
+        <v>288</v>
+      </c>
+      <c r="AM79" s="13">
+        <v>3267</v>
+      </c>
+      <c r="AN79" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO79" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP79" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ79" s="14">
+        <v>0.96644289999999999</v>
+      </c>
+      <c r="AR79" s="15">
+        <v>0.91692390000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>42981</v>
+      </c>
+      <c r="B80" s="10">
+        <v>240</v>
+      </c>
+      <c r="C80" s="10">
+        <v>5</v>
+      </c>
+      <c r="D80" s="10">
+        <v>298</v>
+      </c>
+      <c r="E80" s="10">
+        <v>78</v>
+      </c>
+      <c r="F80" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G80" s="10">
+        <v>10</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="I80" s="10">
+        <v>53</v>
+      </c>
+      <c r="J80" s="10">
+        <v>216</v>
+      </c>
+      <c r="K80" s="10">
+        <v>663</v>
+      </c>
+      <c r="L80" s="10">
+        <v>131</v>
+      </c>
+      <c r="M80" s="10">
+        <v>0</v>
+      </c>
+      <c r="N80" s="10">
+        <v>239</v>
+      </c>
+      <c r="O80" s="10">
+        <v>0</v>
+      </c>
+      <c r="P80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="10">
+        <v>8</v>
+      </c>
+      <c r="R80" s="10">
+        <v>10</v>
+      </c>
+      <c r="S80" s="10">
+        <v>2</v>
+      </c>
+      <c r="T80" s="10">
+        <v>0</v>
+      </c>
+      <c r="U80" s="10">
+        <v>0</v>
+      </c>
+      <c r="V80" s="10">
+        <v>0</v>
+      </c>
+      <c r="W80" s="10">
+        <v>0</v>
+      </c>
+      <c r="X80" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y80" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB80" s="10">
+        <v>276</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE80" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ80" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK80" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL80" s="18">
+        <v>288</v>
+      </c>
+      <c r="AM80" s="21">
+        <v>3267</v>
+      </c>
+      <c r="AN80" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO80" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP80" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ80" s="14">
+        <v>0.96644289999999999</v>
+      </c>
+      <c r="AR80" s="4">
+        <v>0.91692390000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>42982</v>
+      </c>
+      <c r="B81" s="10">
+        <v>240</v>
+      </c>
+      <c r="C81" s="10">
+        <v>5</v>
+      </c>
+      <c r="D81" s="10">
+        <v>298</v>
+      </c>
+      <c r="E81" s="10">
+        <v>78</v>
+      </c>
+      <c r="F81" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G81" s="10">
+        <v>10</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10">
+        <v>53</v>
+      </c>
+      <c r="J81" s="10">
+        <v>216</v>
+      </c>
+      <c r="K81" s="10">
+        <v>663</v>
+      </c>
+      <c r="L81" s="10">
+        <v>131</v>
+      </c>
+      <c r="M81" s="10">
+        <v>0</v>
+      </c>
+      <c r="N81" s="10">
+        <v>239</v>
+      </c>
+      <c r="O81" s="10">
+        <v>0</v>
+      </c>
+      <c r="P81" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="10">
+        <v>8</v>
+      </c>
+      <c r="R81" s="10">
+        <v>10</v>
+      </c>
+      <c r="S81" s="10">
+        <v>2</v>
+      </c>
+      <c r="T81" s="10">
+        <v>0</v>
+      </c>
+      <c r="U81" s="10">
+        <v>0</v>
+      </c>
+      <c r="V81" s="10">
+        <v>0</v>
+      </c>
+      <c r="W81" s="10">
+        <v>0</v>
+      </c>
+      <c r="X81" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB81" s="10">
+        <v>276</v>
+      </c>
+      <c r="AC81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE81" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ81" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK81" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL81" s="18">
+        <v>288</v>
+      </c>
+      <c r="AM81" s="21">
+        <v>3267</v>
+      </c>
+      <c r="AN81" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO81" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP81" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ81" s="14">
+        <v>0.96644289999999999</v>
+      </c>
+      <c r="AR81" s="4">
+        <v>0.91692390000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>42983</v>
+      </c>
+      <c r="B82" s="10">
+        <v>240</v>
+      </c>
+      <c r="C82" s="10">
+        <v>5</v>
+      </c>
+      <c r="D82" s="10">
+        <v>298</v>
+      </c>
+      <c r="E82" s="10">
+        <v>78</v>
+      </c>
+      <c r="F82" s="10">
+        <v>3563</v>
+      </c>
+      <c r="G82" s="11">
+        <v>6</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+      <c r="I82" s="10">
+        <v>53</v>
+      </c>
+      <c r="J82" s="10">
+        <v>216</v>
+      </c>
+      <c r="K82" s="10">
+        <v>663</v>
+      </c>
+      <c r="L82" s="10">
+        <v>131</v>
+      </c>
+      <c r="M82" s="10">
+        <v>0</v>
+      </c>
+      <c r="N82" s="10">
+        <v>239</v>
+      </c>
+      <c r="O82" s="10">
+        <v>0</v>
+      </c>
+      <c r="P82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="10">
+        <v>8</v>
+      </c>
+      <c r="R82" s="10">
+        <v>10</v>
+      </c>
+      <c r="S82" s="10">
+        <v>2</v>
+      </c>
+      <c r="T82" s="10">
+        <v>0</v>
+      </c>
+      <c r="U82" s="10">
+        <v>0</v>
+      </c>
+      <c r="V82" s="10">
+        <v>0</v>
+      </c>
+      <c r="W82" s="10">
+        <v>0</v>
+      </c>
+      <c r="X82" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB82" s="10">
+        <v>276</v>
+      </c>
+      <c r="AC82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE82" s="6">
+        <v>385</v>
+      </c>
+      <c r="AF82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="6">
+        <v>240</v>
+      </c>
+      <c r="AJ82" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK82" s="6">
+        <v>77</v>
+      </c>
+      <c r="AL82" s="27">
+        <v>292</v>
+      </c>
+      <c r="AM82" s="23">
+        <v>3264</v>
+      </c>
+      <c r="AN82" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO82" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP82" s="5">
+        <v>0.98717949999999999</v>
+      </c>
+      <c r="AQ82" s="15">
+        <v>0.97986580000000001</v>
+      </c>
+      <c r="AR82" s="4">
+        <v>0.91608199999999995</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,6 +337,9 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1443,11 +1446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90800128"/>
-        <c:axId val="90801664"/>
+        <c:axId val="40081664"/>
+        <c:axId val="40091648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90800128"/>
+        <c:axId val="40081664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,14 +1460,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90801664"/>
+        <c:crossAx val="40091648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90801664"/>
+        <c:axId val="40091648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90800128"/>
+        <c:crossAx val="40081664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3141,11 +3144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90943872"/>
-        <c:axId val="90945408"/>
+        <c:axId val="40471168"/>
+        <c:axId val="40472960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90943872"/>
+        <c:axId val="40471168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,14 +3158,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90945408"/>
+        <c:crossAx val="40472960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90945408"/>
+        <c:axId val="40472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3173,7 +3176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90943872"/>
+        <c:crossAx val="40471168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3209,15 +3212,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3238,16 +3241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3558,14 +3561,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS82"/>
+  <dimension ref="A1:AS87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2700" topLeftCell="A61" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2700" topLeftCell="A71" activePane="bottomRight"/>
       <selection activeCell="R53" sqref="R53"/>
-      <selection pane="topRight" activeCell="AR1" sqref="AR1:AR1048576"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82:AS82"/>
-      <selection pane="bottomRight" activeCell="AM88" sqref="AM88"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:XFD88"/>
+      <selection pane="bottomRight" activeCell="AQ83" sqref="AQ83:AQ86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14274,6 +14277,676 @@
         <v>0.91608199999999995</v>
       </c>
     </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>42986</v>
+      </c>
+      <c r="B83" s="10">
+        <v>249</v>
+      </c>
+      <c r="C83" s="10">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16">
+        <v>297</v>
+      </c>
+      <c r="E83" s="16">
+        <v>82</v>
+      </c>
+      <c r="F83" s="16">
+        <v>3561</v>
+      </c>
+      <c r="G83" s="17">
+        <v>6</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>1</v>
+      </c>
+      <c r="J83" s="10">
+        <v>216</v>
+      </c>
+      <c r="K83" s="10">
+        <v>663</v>
+      </c>
+      <c r="L83" s="10">
+        <v>131</v>
+      </c>
+      <c r="M83" s="10">
+        <v>0</v>
+      </c>
+      <c r="N83" s="10">
+        <v>239</v>
+      </c>
+      <c r="O83" s="10">
+        <v>0</v>
+      </c>
+      <c r="P83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="10">
+        <v>8</v>
+      </c>
+      <c r="R83" s="10">
+        <v>10</v>
+      </c>
+      <c r="S83" s="10">
+        <v>2</v>
+      </c>
+      <c r="T83" s="10">
+        <v>0</v>
+      </c>
+      <c r="U83" s="10">
+        <v>0</v>
+      </c>
+      <c r="V83" s="10">
+        <v>0</v>
+      </c>
+      <c r="W83" s="10">
+        <v>0</v>
+      </c>
+      <c r="X83" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y83" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z83" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB83" s="12">
+        <v>288</v>
+      </c>
+      <c r="AC83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE83" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="6">
+        <v>249</v>
+      </c>
+      <c r="AJ83" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK83" s="6">
+        <v>81</v>
+      </c>
+      <c r="AL83" s="29">
+        <v>291</v>
+      </c>
+      <c r="AM83" s="23">
+        <v>3259</v>
+      </c>
+      <c r="AN83" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO83" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP83" s="5">
+        <v>0.98780489999999999</v>
+      </c>
+      <c r="AQ83" s="19">
+        <v>0.97979799999999995</v>
+      </c>
+      <c r="AR83" s="4">
+        <v>0.91519240000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>42987</v>
+      </c>
+      <c r="B84" s="10">
+        <v>249</v>
+      </c>
+      <c r="C84" s="10">
+        <v>5</v>
+      </c>
+      <c r="D84" s="10">
+        <v>297</v>
+      </c>
+      <c r="E84" s="10">
+        <v>82</v>
+      </c>
+      <c r="F84" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G84" s="17">
+        <v>6</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+      <c r="I84" s="10">
+        <v>1</v>
+      </c>
+      <c r="J84" s="10">
+        <v>216</v>
+      </c>
+      <c r="K84" s="10">
+        <v>663</v>
+      </c>
+      <c r="L84" s="10">
+        <v>131</v>
+      </c>
+      <c r="M84" s="10">
+        <v>0</v>
+      </c>
+      <c r="N84" s="10">
+        <v>239</v>
+      </c>
+      <c r="O84" s="10">
+        <v>0</v>
+      </c>
+      <c r="P84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>8</v>
+      </c>
+      <c r="R84" s="10">
+        <v>10</v>
+      </c>
+      <c r="S84" s="10">
+        <v>2</v>
+      </c>
+      <c r="T84" s="10">
+        <v>0</v>
+      </c>
+      <c r="U84" s="10">
+        <v>0</v>
+      </c>
+      <c r="V84" s="10">
+        <v>0</v>
+      </c>
+      <c r="W84" s="10">
+        <v>0</v>
+      </c>
+      <c r="X84" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y84" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB84" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE84" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="6">
+        <v>249</v>
+      </c>
+      <c r="AJ84" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK84" s="6">
+        <v>81</v>
+      </c>
+      <c r="AL84" s="17">
+        <v>291</v>
+      </c>
+      <c r="AM84" s="17">
+        <v>3259</v>
+      </c>
+      <c r="AN84" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO84" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP84" s="5">
+        <v>0.98780489999999999</v>
+      </c>
+      <c r="AQ84" s="19">
+        <v>0.97979799999999995</v>
+      </c>
+      <c r="AR84" s="4">
+        <v>0.91519240000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>42988</v>
+      </c>
+      <c r="B85" s="10">
+        <v>249</v>
+      </c>
+      <c r="C85" s="10">
+        <v>5</v>
+      </c>
+      <c r="D85" s="10">
+        <v>297</v>
+      </c>
+      <c r="E85" s="10">
+        <v>82</v>
+      </c>
+      <c r="F85" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G85" s="17">
+        <v>6</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0</v>
+      </c>
+      <c r="I85" s="10">
+        <v>1</v>
+      </c>
+      <c r="J85" s="10">
+        <v>216</v>
+      </c>
+      <c r="K85" s="10">
+        <v>663</v>
+      </c>
+      <c r="L85" s="10">
+        <v>131</v>
+      </c>
+      <c r="M85" s="10">
+        <v>0</v>
+      </c>
+      <c r="N85" s="10">
+        <v>239</v>
+      </c>
+      <c r="O85" s="10">
+        <v>0</v>
+      </c>
+      <c r="P85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="10">
+        <v>8</v>
+      </c>
+      <c r="R85" s="10">
+        <v>10</v>
+      </c>
+      <c r="S85" s="10">
+        <v>2</v>
+      </c>
+      <c r="T85" s="10">
+        <v>0</v>
+      </c>
+      <c r="U85" s="10">
+        <v>0</v>
+      </c>
+      <c r="V85" s="10">
+        <v>0</v>
+      </c>
+      <c r="W85" s="10">
+        <v>0</v>
+      </c>
+      <c r="X85" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y85" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z85" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB85" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE85" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="6">
+        <v>249</v>
+      </c>
+      <c r="AJ85" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK85" s="6">
+        <v>81</v>
+      </c>
+      <c r="AL85" s="17">
+        <v>291</v>
+      </c>
+      <c r="AM85" s="17">
+        <v>3259</v>
+      </c>
+      <c r="AN85" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO85" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP85" s="5">
+        <v>0.98780489999999999</v>
+      </c>
+      <c r="AQ85" s="19">
+        <v>0.97979799999999995</v>
+      </c>
+      <c r="AR85" s="4">
+        <v>0.91519240000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>42989</v>
+      </c>
+      <c r="B86" s="10">
+        <v>249</v>
+      </c>
+      <c r="C86" s="10">
+        <v>5</v>
+      </c>
+      <c r="D86" s="10">
+        <v>297</v>
+      </c>
+      <c r="E86" s="10">
+        <v>82</v>
+      </c>
+      <c r="F86" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G86" s="17">
+        <v>6</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="10">
+        <v>1</v>
+      </c>
+      <c r="J86" s="10">
+        <v>216</v>
+      </c>
+      <c r="K86" s="10">
+        <v>663</v>
+      </c>
+      <c r="L86" s="10">
+        <v>131</v>
+      </c>
+      <c r="M86" s="10">
+        <v>0</v>
+      </c>
+      <c r="N86" s="10">
+        <v>239</v>
+      </c>
+      <c r="O86" s="10">
+        <v>0</v>
+      </c>
+      <c r="P86" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>8</v>
+      </c>
+      <c r="R86" s="10">
+        <v>10</v>
+      </c>
+      <c r="S86" s="10">
+        <v>2</v>
+      </c>
+      <c r="T86" s="10">
+        <v>0</v>
+      </c>
+      <c r="U86" s="10">
+        <v>0</v>
+      </c>
+      <c r="V86" s="10">
+        <v>0</v>
+      </c>
+      <c r="W86" s="10">
+        <v>0</v>
+      </c>
+      <c r="X86" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y86" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB86" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE86" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="6">
+        <v>249</v>
+      </c>
+      <c r="AJ86" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK86" s="6">
+        <v>81</v>
+      </c>
+      <c r="AL86" s="17">
+        <v>291</v>
+      </c>
+      <c r="AM86" s="17">
+        <v>3259</v>
+      </c>
+      <c r="AN86" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO86" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP86" s="5">
+        <v>0.98780489999999999</v>
+      </c>
+      <c r="AQ86" s="19">
+        <v>0.97979799999999995</v>
+      </c>
+      <c r="AR86" s="4">
+        <v>0.91519240000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>42990</v>
+      </c>
+      <c r="B87" s="10">
+        <v>249</v>
+      </c>
+      <c r="C87" s="10">
+        <v>5</v>
+      </c>
+      <c r="D87" s="10">
+        <v>297</v>
+      </c>
+      <c r="E87" s="10">
+        <v>82</v>
+      </c>
+      <c r="F87" s="10">
+        <v>3561</v>
+      </c>
+      <c r="G87" s="11">
+        <v>5</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+      <c r="I87" s="10">
+        <v>1</v>
+      </c>
+      <c r="J87" s="10">
+        <v>216</v>
+      </c>
+      <c r="K87" s="10">
+        <v>663</v>
+      </c>
+      <c r="L87" s="10">
+        <v>131</v>
+      </c>
+      <c r="M87" s="10">
+        <v>0</v>
+      </c>
+      <c r="N87" s="10">
+        <v>239</v>
+      </c>
+      <c r="O87" s="10">
+        <v>0</v>
+      </c>
+      <c r="P87" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="10">
+        <v>8</v>
+      </c>
+      <c r="R87" s="10">
+        <v>10</v>
+      </c>
+      <c r="S87" s="10">
+        <v>2</v>
+      </c>
+      <c r="T87" s="10">
+        <v>0</v>
+      </c>
+      <c r="U87" s="10">
+        <v>0</v>
+      </c>
+      <c r="V87" s="10">
+        <v>0</v>
+      </c>
+      <c r="W87" s="10">
+        <v>0</v>
+      </c>
+      <c r="X87" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y87" s="10">
+        <v>18</v>
+      </c>
+      <c r="Z87" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB87" s="10">
+        <v>288</v>
+      </c>
+      <c r="AC87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="6">
+        <v>131</v>
+      </c>
+      <c r="AE87" s="6">
+        <v>384</v>
+      </c>
+      <c r="AF87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="6">
+        <v>248</v>
+      </c>
+      <c r="AJ87" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK87" s="6">
+        <v>81</v>
+      </c>
+      <c r="AL87" s="27">
+        <v>292</v>
+      </c>
+      <c r="AM87" s="13">
+        <v>3288</v>
+      </c>
+      <c r="AN87" s="5">
+        <v>0.99598399999999998</v>
+      </c>
+      <c r="AO87" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP87" s="5">
+        <v>0.98780489999999999</v>
+      </c>
+      <c r="AQ87" s="14">
+        <v>0.98316499999999996</v>
+      </c>
+      <c r="AR87" s="4">
+        <v>0.92333609999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -275,7 +275,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -359,6 +359,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,14 +670,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA95"/>
+  <dimension ref="A1:BA96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2895" topLeftCell="AF76" activePane="bottomLeft"/>
+      <pane xSplit="1410" ySplit="2895" topLeftCell="AC76" activePane="bottomRight"/>
       <selection activeCell="A83" sqref="A83"/>
       <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:BA95"/>
-      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:BA96"/>
+      <selection pane="bottomRight" activeCell="AN96" sqref="AN96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13310,7 +13313,7 @@
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>42999</v>
+        <v>43001</v>
       </c>
       <c r="B95" s="5">
         <v>249</v>
@@ -13426,8 +13429,8 @@
       <c r="AM95" s="20">
         <v>5</v>
       </c>
-      <c r="AN95" s="20">
-        <v>81</v>
+      <c r="AN95" s="18">
+        <v>80</v>
       </c>
       <c r="AO95" s="20">
         <v>295</v>
@@ -13441,13 +13444,13 @@
       <c r="AR95" s="12">
         <v>5</v>
       </c>
-      <c r="AS95" s="12">
-        <v>93</v>
-      </c>
-      <c r="AT95" s="12">
+      <c r="AS95" s="18">
+        <v>101</v>
+      </c>
+      <c r="AT95" s="17">
         <v>67</v>
       </c>
-      <c r="AU95" s="12">
+      <c r="AU95" s="18">
         <v>3351</v>
       </c>
       <c r="AV95" s="9">
@@ -13457,13 +13460,171 @@
         <v>1</v>
       </c>
       <c r="AX95" s="9">
-        <v>0.98780489999999999</v>
+        <v>0.97560979999999997</v>
       </c>
       <c r="AY95" s="9">
         <v>0.99326599999999998</v>
       </c>
-      <c r="AZ95" s="9">
+      <c r="AZ95" s="29">
         <v>0.94155659999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43004</v>
+      </c>
+      <c r="B96" s="5">
+        <v>249</v>
+      </c>
+      <c r="C96" s="5">
+        <v>5</v>
+      </c>
+      <c r="D96" s="5">
+        <v>297</v>
+      </c>
+      <c r="E96" s="5">
+        <v>82</v>
+      </c>
+      <c r="F96" s="5">
+        <v>3559</v>
+      </c>
+      <c r="G96" s="5">
+        <v>2</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5">
+        <v>14</v>
+      </c>
+      <c r="J96" s="5">
+        <v>2</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <v>1</v>
+      </c>
+      <c r="M96" s="5">
+        <v>216</v>
+      </c>
+      <c r="N96" s="5">
+        <v>665</v>
+      </c>
+      <c r="O96" s="5">
+        <v>131</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>239</v>
+      </c>
+      <c r="R96" s="5">
+        <v>0</v>
+      </c>
+      <c r="S96" s="5">
+        <v>0</v>
+      </c>
+      <c r="T96" s="5">
+        <v>8</v>
+      </c>
+      <c r="U96" s="5">
+        <v>10</v>
+      </c>
+      <c r="V96" s="5">
+        <v>18</v>
+      </c>
+      <c r="W96" s="5">
+        <v>0</v>
+      </c>
+      <c r="X96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>12</v>
+      </c>
+      <c r="AB96" s="5">
+        <v>18</v>
+      </c>
+      <c r="AC96" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>46</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>288</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>131</v>
+      </c>
+      <c r="AH96" s="3">
+        <v>384</v>
+      </c>
+      <c r="AI96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="12">
+        <v>247</v>
+      </c>
+      <c r="AM96" s="20">
+        <v>5</v>
+      </c>
+      <c r="AN96" s="20">
+        <v>77</v>
+      </c>
+      <c r="AO96" s="20">
+        <v>295</v>
+      </c>
+      <c r="AP96" s="20">
+        <v>23</v>
+      </c>
+      <c r="AQ96" s="12">
+        <v>14</v>
+      </c>
+      <c r="AR96" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS96" s="12">
+        <v>106</v>
+      </c>
+      <c r="AT96" s="12">
+        <v>67</v>
+      </c>
+      <c r="AU96" s="12">
+        <v>3346</v>
+      </c>
+      <c r="AV96" s="9">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AW96" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX96" s="9">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AY96" s="9">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="AZ96" s="9">
+        <v>0.94015179999999998</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -670,14 +670,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA96"/>
+  <dimension ref="A1:BA97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2895" topLeftCell="AC76" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2895" topLeftCell="AG85" activePane="bottomRight"/>
       <selection activeCell="A83" sqref="A83"/>
       <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:BA96"/>
-      <selection pane="bottomRight" activeCell="AN96" sqref="AN96"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
+      <selection pane="bottomRight" activeCell="AT99" sqref="AT99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13587,7 +13587,7 @@
       <c r="AM96" s="20">
         <v>5</v>
       </c>
-      <c r="AN96" s="20">
+      <c r="AN96" s="18">
         <v>77</v>
       </c>
       <c r="AO96" s="20">
@@ -13602,13 +13602,13 @@
       <c r="AR96" s="12">
         <v>5</v>
       </c>
-      <c r="AS96" s="12">
-        <v>106</v>
+      <c r="AS96" s="18">
+        <v>116</v>
       </c>
       <c r="AT96" s="12">
         <v>67</v>
       </c>
-      <c r="AU96" s="12">
+      <c r="AU96" s="18">
         <v>3346</v>
       </c>
       <c r="AV96" s="9">
@@ -13617,7 +13617,7 @@
       <c r="AW96" s="9">
         <v>1</v>
       </c>
-      <c r="AX96" s="9">
+      <c r="AX96" s="29">
         <v>0.93902439999999998</v>
       </c>
       <c r="AY96" s="9">
@@ -13625,6 +13625,164 @@
       </c>
       <c r="AZ96" s="9">
         <v>0.94015179999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43005</v>
+      </c>
+      <c r="B97" s="5">
+        <v>249</v>
+      </c>
+      <c r="C97" s="5">
+        <v>5</v>
+      </c>
+      <c r="D97" s="5">
+        <v>297</v>
+      </c>
+      <c r="E97" s="5">
+        <v>82</v>
+      </c>
+      <c r="F97" s="10">
+        <v>3560</v>
+      </c>
+      <c r="G97" s="5">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2</v>
+      </c>
+      <c r="I97" s="5">
+        <v>14</v>
+      </c>
+      <c r="J97" s="5">
+        <v>2</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <v>1</v>
+      </c>
+      <c r="M97" s="5">
+        <v>216</v>
+      </c>
+      <c r="N97" s="5">
+        <v>665</v>
+      </c>
+      <c r="O97" s="5">
+        <v>131</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>239</v>
+      </c>
+      <c r="R97" s="5">
+        <v>0</v>
+      </c>
+      <c r="S97" s="5">
+        <v>0</v>
+      </c>
+      <c r="T97" s="5">
+        <v>8</v>
+      </c>
+      <c r="U97" s="5">
+        <v>10</v>
+      </c>
+      <c r="V97" s="5">
+        <v>18</v>
+      </c>
+      <c r="W97" s="5">
+        <v>0</v>
+      </c>
+      <c r="X97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="5">
+        <v>12</v>
+      </c>
+      <c r="AB97" s="5">
+        <v>18</v>
+      </c>
+      <c r="AC97" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>46</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>288</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>131</v>
+      </c>
+      <c r="AH97" s="8">
+        <v>385</v>
+      </c>
+      <c r="AI97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="12">
+        <v>247</v>
+      </c>
+      <c r="AM97" s="20">
+        <v>5</v>
+      </c>
+      <c r="AN97" s="20">
+        <v>77</v>
+      </c>
+      <c r="AO97" s="20">
+        <v>295</v>
+      </c>
+      <c r="AP97" s="20">
+        <v>23</v>
+      </c>
+      <c r="AQ97" s="12">
+        <v>14</v>
+      </c>
+      <c r="AR97" s="12">
+        <v>5</v>
+      </c>
+      <c r="AS97" s="17">
+        <v>106</v>
+      </c>
+      <c r="AT97" s="12">
+        <v>67</v>
+      </c>
+      <c r="AU97" s="17">
+        <v>3347</v>
+      </c>
+      <c r="AV97" s="9">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AW97" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX97" s="9">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AY97" s="9">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="AZ97" s="9">
+        <v>0.94016860000000002</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -360,9 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -673,13 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB99"/>
+  <dimension ref="A1:BB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2895" topLeftCell="AG85" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2895" topLeftCell="AH85" activePane="bottomLeft"/>
       <selection activeCell="A83" sqref="A83"/>
-      <selection pane="topRight" activeCell="BB1" sqref="BB1:BB1048576"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD100"/>
+      <selection pane="topRight" activeCell="BA1" sqref="BA1:BA1048576"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101:BC101"/>
       <selection pane="bottomRight" activeCell="AT102" sqref="AT102"/>
     </sheetView>
   </sheetViews>
@@ -727,8 +724,7 @@
     <col min="50" max="50" width="10" style="8" customWidth="1"/>
     <col min="51" max="51" width="9.5703125" style="8" customWidth="1"/>
     <col min="52" max="52" width="10.140625" style="8" customWidth="1"/>
-    <col min="53" max="53" width="9.85546875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="9.85546875" style="8" customWidth="1"/>
+    <col min="53" max="54" width="9.85546875" style="8" customWidth="1"/>
     <col min="55" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -13159,7 +13155,7 @@
       <c r="AZ93" s="8">
         <v>0.99326599999999998</v>
       </c>
-      <c r="BA93" s="27">
+      <c r="BA93" s="13">
         <v>0.96768750000000003</v>
       </c>
     </row>
@@ -13475,7 +13471,7 @@
       <c r="AZ95" s="8">
         <v>0.99326599999999998</v>
       </c>
-      <c r="BA95" s="28">
+      <c r="BA95" s="20">
         <v>0.94155659999999997</v>
       </c>
     </row>
@@ -13627,7 +13623,7 @@
       <c r="AX96" s="8">
         <v>1</v>
       </c>
-      <c r="AY96" s="28">
+      <c r="AY96" s="27">
         <v>0.93902439999999998</v>
       </c>
       <c r="AZ96" s="8">
@@ -13791,7 +13787,7 @@
       <c r="AZ97" s="8">
         <v>0.99326599999999998</v>
       </c>
-      <c r="BA97" s="27">
+      <c r="BA97" s="13">
         <v>0.96601119999999996</v>
       </c>
     </row>
@@ -14114,6 +14110,334 @@
         <v>0.92331459999999999</v>
       </c>
       <c r="BB99" s="8">
+        <v>5.1404489999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>43007</v>
+      </c>
+      <c r="B100" s="4">
+        <v>249</v>
+      </c>
+      <c r="C100" s="4">
+        <v>5</v>
+      </c>
+      <c r="D100" s="4">
+        <v>297</v>
+      </c>
+      <c r="E100" s="4">
+        <v>82</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3560</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4">
+        <v>2</v>
+      </c>
+      <c r="I100" s="4">
+        <v>11</v>
+      </c>
+      <c r="J100" s="4">
+        <v>2</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0</v>
+      </c>
+      <c r="L100" s="4">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4">
+        <v>216</v>
+      </c>
+      <c r="N100" s="4">
+        <v>665</v>
+      </c>
+      <c r="O100" s="4">
+        <v>131</v>
+      </c>
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>239</v>
+      </c>
+      <c r="R100" s="4">
+        <v>0</v>
+      </c>
+      <c r="S100" s="4">
+        <v>0</v>
+      </c>
+      <c r="T100" s="4">
+        <v>8</v>
+      </c>
+      <c r="U100" s="4">
+        <v>10</v>
+      </c>
+      <c r="V100" s="4">
+        <v>18</v>
+      </c>
+      <c r="W100" s="4">
+        <v>0</v>
+      </c>
+      <c r="X100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB100" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC100" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE100" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH100" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM100" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN100" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO100" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP100" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ100" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR100" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS100" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT100" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU100" s="11">
+        <v>3287</v>
+      </c>
+      <c r="AV100" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW100" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX100" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY100" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ100" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA100" s="8">
+        <v>0.92331459999999999</v>
+      </c>
+      <c r="BB100" s="8">
+        <v>5.1404489999999997E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B101" s="4">
+        <v>249</v>
+      </c>
+      <c r="C101" s="4">
+        <v>5</v>
+      </c>
+      <c r="D101" s="4">
+        <v>297</v>
+      </c>
+      <c r="E101" s="4">
+        <v>82</v>
+      </c>
+      <c r="F101" s="4">
+        <v>3560</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2</v>
+      </c>
+      <c r="I101" s="4">
+        <v>11</v>
+      </c>
+      <c r="J101" s="4">
+        <v>2</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
+      </c>
+      <c r="L101" s="4">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4">
+        <v>216</v>
+      </c>
+      <c r="N101" s="4">
+        <v>665</v>
+      </c>
+      <c r="O101" s="4">
+        <v>131</v>
+      </c>
+      <c r="P101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>239</v>
+      </c>
+      <c r="R101" s="4">
+        <v>0</v>
+      </c>
+      <c r="S101" s="4">
+        <v>0</v>
+      </c>
+      <c r="T101" s="4">
+        <v>8</v>
+      </c>
+      <c r="U101" s="4">
+        <v>10</v>
+      </c>
+      <c r="V101" s="4">
+        <v>18</v>
+      </c>
+      <c r="W101" s="4">
+        <v>0</v>
+      </c>
+      <c r="X101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB101" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC101" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE101" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH101" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM101" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN101" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO101" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP101" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ101" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR101" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS101" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT101" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU101" s="11">
+        <v>3287</v>
+      </c>
+      <c r="AV101" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW101" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX101" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY101" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ101" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA101" s="8">
+        <v>0.92331459999999999</v>
+      </c>
+      <c r="BB101" s="8">
         <v>5.1404489999999997E-2</v>
       </c>
     </row>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -670,14 +670,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB101"/>
+  <dimension ref="A1:BB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2895" topLeftCell="AH85" activePane="bottomLeft"/>
+      <pane xSplit="1410" ySplit="2895" topLeftCell="AG85" activePane="bottomRight"/>
       <selection activeCell="A83" sqref="A83"/>
       <selection pane="topRight" activeCell="BA1" sqref="BA1:BA1048576"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101:BC101"/>
-      <selection pane="bottomRight" activeCell="AT102" sqref="AT102"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:BC102"/>
+      <selection pane="bottomRight" activeCell="AU102" sqref="AU102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,22 +689,24 @@
     <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" style="4"/>
     <col min="10" max="10" width="9.5703125" style="4" customWidth="1"/>
-    <col min="11" max="16" width="8.7109375" style="4" customWidth="1"/>
+    <col min="11" max="15" width="8.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" style="4" customWidth="1"/>
-    <col min="18" max="19" width="8.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="5" style="4" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="5" style="4" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="4" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6" style="4" customWidth="1"/>
+    <col min="25" max="25" width="3.5703125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="4" customWidth="1"/>
     <col min="27" max="27" width="12.140625" style="4" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="4.140625" style="4" customWidth="1"/>
     <col min="30" max="30" width="15.85546875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="15" style="2" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="6.140625" style="2" customWidth="1"/>
     <col min="33" max="33" width="13.85546875" style="2" customWidth="1"/>
     <col min="34" max="35" width="16.5703125" style="2" customWidth="1"/>
     <col min="36" max="36" width="15.42578125" style="2" customWidth="1"/>
@@ -14439,6 +14441,170 @@
       </c>
       <c r="BB101" s="8">
         <v>5.1404489999999997E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B102" s="4">
+        <v>249</v>
+      </c>
+      <c r="C102" s="4">
+        <v>5</v>
+      </c>
+      <c r="D102" s="4">
+        <v>297</v>
+      </c>
+      <c r="E102" s="4">
+        <v>82</v>
+      </c>
+      <c r="F102" s="9">
+        <v>3559</v>
+      </c>
+      <c r="G102" s="4">
+        <v>2</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2</v>
+      </c>
+      <c r="I102" s="4">
+        <v>11</v>
+      </c>
+      <c r="J102" s="4">
+        <v>2</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4">
+        <v>216</v>
+      </c>
+      <c r="N102" s="4">
+        <v>665</v>
+      </c>
+      <c r="O102" s="4">
+        <v>131</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="9">
+        <v>240</v>
+      </c>
+      <c r="R102" s="4">
+        <v>0</v>
+      </c>
+      <c r="S102" s="4">
+        <v>0</v>
+      </c>
+      <c r="T102" s="4">
+        <v>8</v>
+      </c>
+      <c r="U102" s="4">
+        <v>10</v>
+      </c>
+      <c r="V102" s="4">
+        <v>18</v>
+      </c>
+      <c r="W102" s="4">
+        <v>0</v>
+      </c>
+      <c r="X102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB102" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC102" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE102" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH102" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM102" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN102" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO102" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP102" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ102" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR102" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS102" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT102" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU102" s="15">
+        <v>3286</v>
+      </c>
+      <c r="AV102" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW102" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX102" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY102" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ102" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA102" s="8">
+        <v>0.92329309999999998</v>
+      </c>
+      <c r="BB102" s="8">
+        <v>5.1418940000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -670,14 +670,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB102"/>
+  <dimension ref="A1:BB103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2895" topLeftCell="AG85" activePane="bottomRight"/>
+      <pane xSplit="1410" ySplit="2895" topLeftCell="A85" activePane="bottomRight"/>
       <selection activeCell="A83" sqref="A83"/>
       <selection pane="topRight" activeCell="BA1" sqref="BA1:BA1048576"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:BC102"/>
-      <selection pane="bottomRight" activeCell="AU102" sqref="AU102"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:BC103"/>
+      <selection pane="bottomRight" activeCell="AA107" sqref="AA107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14607,6 +14607,170 @@
         <v>5.1418940000000003E-2</v>
       </c>
     </row>
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>43013</v>
+      </c>
+      <c r="B103" s="4">
+        <v>249</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5</v>
+      </c>
+      <c r="D103" s="4">
+        <v>297</v>
+      </c>
+      <c r="E103" s="4">
+        <v>82</v>
+      </c>
+      <c r="F103" s="4">
+        <v>3559</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2</v>
+      </c>
+      <c r="I103" s="4">
+        <v>11</v>
+      </c>
+      <c r="J103" s="4">
+        <v>2</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0</v>
+      </c>
+      <c r="L103" s="4">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4">
+        <v>216</v>
+      </c>
+      <c r="N103" s="4">
+        <v>665</v>
+      </c>
+      <c r="O103" s="4">
+        <v>131</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>240</v>
+      </c>
+      <c r="R103" s="4">
+        <v>0</v>
+      </c>
+      <c r="S103" s="4">
+        <v>0</v>
+      </c>
+      <c r="T103" s="4">
+        <v>8</v>
+      </c>
+      <c r="U103" s="4">
+        <v>10</v>
+      </c>
+      <c r="V103" s="4">
+        <v>18</v>
+      </c>
+      <c r="W103" s="4">
+        <v>0</v>
+      </c>
+      <c r="X103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB103" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC103" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE103" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH103" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM103" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN103" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO103" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP103" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ103" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR103" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS103" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT103" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU103" s="11">
+        <v>3286</v>
+      </c>
+      <c r="AV103" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW103" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX103" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY103" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ103" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA103" s="8">
+        <v>0.92329309999999998</v>
+      </c>
+      <c r="BB103" s="8">
+        <v>5.1418940000000003E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -670,14 +670,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB103"/>
+  <dimension ref="A1:BB105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1410" ySplit="2895" topLeftCell="A85" activePane="bottomRight"/>
       <selection activeCell="A83" sqref="A83"/>
       <selection pane="topRight" activeCell="BA1" sqref="BA1:BA1048576"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:BC103"/>
-      <selection pane="bottomRight" activeCell="AA107" sqref="AA107"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105:BC105"/>
+      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,17 +686,17 @@
     <col min="2" max="2" width="8.7109375" style="4"/>
     <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
     <col min="4" max="6" width="8.7109375" style="4"/>
-    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="4" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" style="4"/>
-    <col min="10" max="10" width="9.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4" customWidth="1"/>
     <col min="11" max="15" width="8.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="5" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="4" customWidth="1"/>
     <col min="18" max="18" width="5" style="4" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="4" customWidth="1"/>
     <col min="20" max="20" width="5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11" style="4" customWidth="1"/>
     <col min="23" max="23" width="5" style="4" customWidth="1"/>
     <col min="24" max="24" width="6" style="4" customWidth="1"/>
     <col min="25" max="25" width="3.5703125" style="4" customWidth="1"/>
@@ -704,20 +704,21 @@
     <col min="27" max="27" width="12.140625" style="4" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="4" customWidth="1"/>
     <col min="29" max="29" width="4.140625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" style="2" customWidth="1"/>
     <col min="31" max="31" width="8.42578125" style="2" customWidth="1"/>
     <col min="32" max="32" width="6.140625" style="2" customWidth="1"/>
     <col min="33" max="33" width="13.85546875" style="2" customWidth="1"/>
-    <col min="34" max="35" width="16.5703125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="11" customWidth="1"/>
-    <col min="39" max="39" width="12.7109375" style="19" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" style="19" customWidth="1"/>
-    <col min="41" max="41" width="12.140625" style="19" customWidth="1"/>
-    <col min="42" max="42" width="11.140625" style="19" customWidth="1"/>
-    <col min="43" max="43" width="11" style="11" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" style="11" customWidth="1"/>
+    <col min="34" max="34" width="7.28515625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="6.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="5.140625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="11" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="19" customWidth="1"/>
+    <col min="40" max="40" width="9.28515625" style="19" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" style="19" customWidth="1"/>
+    <col min="42" max="42" width="8.42578125" style="19" customWidth="1"/>
+    <col min="43" max="43" width="8.7109375" style="11" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" style="11" customWidth="1"/>
     <col min="45" max="45" width="9.5703125" style="11" customWidth="1"/>
     <col min="46" max="46" width="9.42578125" style="11" customWidth="1"/>
     <col min="47" max="47" width="9.5703125" style="11" customWidth="1"/>
@@ -14769,6 +14770,334 @@
       </c>
       <c r="BB103" s="8">
         <v>5.1418940000000003E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>43014</v>
+      </c>
+      <c r="B104" s="4">
+        <v>249</v>
+      </c>
+      <c r="C104" s="4">
+        <v>5</v>
+      </c>
+      <c r="D104" s="4">
+        <v>297</v>
+      </c>
+      <c r="E104" s="4">
+        <v>82</v>
+      </c>
+      <c r="F104" s="9">
+        <v>3561</v>
+      </c>
+      <c r="G104" s="4">
+        <v>2</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2</v>
+      </c>
+      <c r="I104" s="4">
+        <v>11</v>
+      </c>
+      <c r="J104" s="4">
+        <v>2</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0</v>
+      </c>
+      <c r="L104" s="4">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4">
+        <v>216</v>
+      </c>
+      <c r="N104" s="4">
+        <v>665</v>
+      </c>
+      <c r="O104" s="4">
+        <v>131</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>240</v>
+      </c>
+      <c r="R104" s="4">
+        <v>0</v>
+      </c>
+      <c r="S104" s="4">
+        <v>0</v>
+      </c>
+      <c r="T104" s="4">
+        <v>8</v>
+      </c>
+      <c r="U104" s="4">
+        <v>10</v>
+      </c>
+      <c r="V104" s="4">
+        <v>18</v>
+      </c>
+      <c r="W104" s="4">
+        <v>0</v>
+      </c>
+      <c r="X104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB104" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC104" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE104" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH104" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM104" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN104" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO104" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP104" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ104" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR104" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS104" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT104" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU104" s="15">
+        <v>3288</v>
+      </c>
+      <c r="AV104" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW104" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX104" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY104" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ104" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA104" s="8">
+        <v>0.92333609999999999</v>
+      </c>
+      <c r="BB104" s="8">
+        <v>5.1390060000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B105" s="4">
+        <v>249</v>
+      </c>
+      <c r="C105" s="4">
+        <v>5</v>
+      </c>
+      <c r="D105" s="4">
+        <v>297</v>
+      </c>
+      <c r="E105" s="4">
+        <v>82</v>
+      </c>
+      <c r="F105" s="4">
+        <v>3561</v>
+      </c>
+      <c r="G105" s="4">
+        <v>2</v>
+      </c>
+      <c r="H105" s="4">
+        <v>2</v>
+      </c>
+      <c r="I105" s="4">
+        <v>11</v>
+      </c>
+      <c r="J105" s="4">
+        <v>2</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0</v>
+      </c>
+      <c r="L105" s="4">
+        <v>1</v>
+      </c>
+      <c r="M105" s="4">
+        <v>216</v>
+      </c>
+      <c r="N105" s="4">
+        <v>665</v>
+      </c>
+      <c r="O105" s="4">
+        <v>131</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>240</v>
+      </c>
+      <c r="R105" s="4">
+        <v>0</v>
+      </c>
+      <c r="S105" s="4">
+        <v>0</v>
+      </c>
+      <c r="T105" s="4">
+        <v>8</v>
+      </c>
+      <c r="U105" s="4">
+        <v>10</v>
+      </c>
+      <c r="V105" s="4">
+        <v>18</v>
+      </c>
+      <c r="W105" s="4">
+        <v>0</v>
+      </c>
+      <c r="X105" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB105" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE105" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH105" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM105" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN105" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO105" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP105" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ105" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR105" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS105" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT105" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU105" s="11">
+        <v>3288</v>
+      </c>
+      <c r="AV105" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW105" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX105" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY105" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ105" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA105" s="8">
+        <v>0.92333609999999999</v>
+      </c>
+      <c r="BB105" s="8">
+        <v>5.1390060000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -670,19 +671,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB105"/>
+  <dimension ref="A1:BB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1410" ySplit="2895" topLeftCell="A85" activePane="bottomRight"/>
+      <pane xSplit="1515" ySplit="2895" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="A83" sqref="A83"/>
       <selection pane="topRight" activeCell="BA1" sqref="BA1:BA1048576"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105:BC105"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:BC106"/>
       <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="4"/>
     <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
     <col min="4" max="6" width="8.7109375" style="4"/>
@@ -731,7 +732,7 @@
     <col min="55" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" s="26" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -15097,6 +15098,170 @@
         <v>0.92333609999999999</v>
       </c>
       <c r="BB105" s="8">
+        <v>5.1390060000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>43021</v>
+      </c>
+      <c r="B106" s="4">
+        <v>249</v>
+      </c>
+      <c r="C106" s="4">
+        <v>5</v>
+      </c>
+      <c r="D106" s="4">
+        <v>297</v>
+      </c>
+      <c r="E106" s="4">
+        <v>82</v>
+      </c>
+      <c r="F106" s="4">
+        <v>3561</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
+      <c r="H106" s="4">
+        <v>2</v>
+      </c>
+      <c r="I106" s="4">
+        <v>11</v>
+      </c>
+      <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4">
+        <v>216</v>
+      </c>
+      <c r="N106" s="4">
+        <v>665</v>
+      </c>
+      <c r="O106" s="4">
+        <v>131</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>240</v>
+      </c>
+      <c r="R106" s="4">
+        <v>0</v>
+      </c>
+      <c r="S106" s="4">
+        <v>0</v>
+      </c>
+      <c r="T106" s="4">
+        <v>8</v>
+      </c>
+      <c r="U106" s="4">
+        <v>10</v>
+      </c>
+      <c r="V106" s="4">
+        <v>18</v>
+      </c>
+      <c r="W106" s="4">
+        <v>0</v>
+      </c>
+      <c r="X106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB106" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC106" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD106" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE106" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH106" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM106" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN106" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO106" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP106" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ106" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR106" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS106" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT106" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU106" s="11">
+        <v>3288</v>
+      </c>
+      <c r="AV106" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW106" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX106" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY106" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ106" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA106" s="8">
+        <v>0.92333609999999999</v>
+      </c>
+      <c r="BB106" s="8">
         <v>5.1390060000000001E-2</v>
       </c>
     </row>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -671,14 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB106"/>
+  <dimension ref="A1:BB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1515" ySplit="2895" topLeftCell="A85" activePane="bottomLeft"/>
-      <selection activeCell="A83" sqref="A83"/>
-      <selection pane="topRight" activeCell="BA1" sqref="BA1:BA1048576"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:BC106"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <pane xSplit="1515" ySplit="2895" topLeftCell="Z78" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108:BC108"/>
+      <selection pane="bottomRight" activeCell="AU108" sqref="AU108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,13 +696,13 @@
     <col min="20" max="20" width="5" style="4" customWidth="1"/>
     <col min="21" max="21" width="4.85546875" style="4" customWidth="1"/>
     <col min="22" max="22" width="11" style="4" customWidth="1"/>
-    <col min="23" max="23" width="5" style="4" customWidth="1"/>
-    <col min="24" max="24" width="6" style="4" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" style="4" customWidth="1"/>
     <col min="27" max="27" width="12.140625" style="4" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" style="4" customWidth="1"/>
     <col min="30" max="30" width="9.28515625" style="2" customWidth="1"/>
     <col min="31" max="31" width="8.42578125" style="2" customWidth="1"/>
     <col min="32" max="32" width="6.140625" style="2" customWidth="1"/>
@@ -732,7 +730,7 @@
     <col min="55" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="26" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -15263,6 +15261,334 @@
       </c>
       <c r="BB106" s="8">
         <v>5.1390060000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>43034</v>
+      </c>
+      <c r="B107" s="4">
+        <v>249</v>
+      </c>
+      <c r="C107" s="4">
+        <v>5</v>
+      </c>
+      <c r="D107" s="4">
+        <v>297</v>
+      </c>
+      <c r="E107" s="4">
+        <v>82</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3561</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2</v>
+      </c>
+      <c r="I107" s="4">
+        <v>11</v>
+      </c>
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+      <c r="M107" s="4">
+        <v>216</v>
+      </c>
+      <c r="N107" s="4">
+        <v>665</v>
+      </c>
+      <c r="O107" s="4">
+        <v>131</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>240</v>
+      </c>
+      <c r="R107" s="4">
+        <v>0</v>
+      </c>
+      <c r="S107" s="4">
+        <v>0</v>
+      </c>
+      <c r="T107" s="4">
+        <v>8</v>
+      </c>
+      <c r="U107" s="4">
+        <v>10</v>
+      </c>
+      <c r="V107" s="4">
+        <v>18</v>
+      </c>
+      <c r="W107" s="4">
+        <v>0</v>
+      </c>
+      <c r="X107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB107" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD107" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE107" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH107" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM107" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN107" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO107" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP107" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ107" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR107" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS107" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT107" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU107" s="11">
+        <v>3288</v>
+      </c>
+      <c r="AV107" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW107" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX107" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY107" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ107" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA107" s="8">
+        <v>0.92333609999999999</v>
+      </c>
+      <c r="BB107" s="8">
+        <v>5.1390060000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>43035</v>
+      </c>
+      <c r="B108" s="4">
+        <v>249</v>
+      </c>
+      <c r="C108" s="4">
+        <v>5</v>
+      </c>
+      <c r="D108" s="4">
+        <v>297</v>
+      </c>
+      <c r="E108" s="4">
+        <v>82</v>
+      </c>
+      <c r="F108" s="9">
+        <v>3564</v>
+      </c>
+      <c r="G108" s="4">
+        <v>2</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2</v>
+      </c>
+      <c r="I108" s="4">
+        <v>11</v>
+      </c>
+      <c r="J108" s="4">
+        <v>2</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="4">
+        <v>216</v>
+      </c>
+      <c r="N108" s="4">
+        <v>665</v>
+      </c>
+      <c r="O108" s="4">
+        <v>131</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>240</v>
+      </c>
+      <c r="R108" s="4">
+        <v>0</v>
+      </c>
+      <c r="S108" s="4">
+        <v>0</v>
+      </c>
+      <c r="T108" s="4">
+        <v>8</v>
+      </c>
+      <c r="U108" s="4">
+        <v>10</v>
+      </c>
+      <c r="V108" s="4">
+        <v>18</v>
+      </c>
+      <c r="W108" s="4">
+        <v>0</v>
+      </c>
+      <c r="X108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB108" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC108" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE108" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH108" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM108" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN108" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO108" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP108" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ108" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR108" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS108" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT108" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU108" s="16">
+        <v>3291</v>
+      </c>
+      <c r="AV108" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW108" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX108" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY108" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ108" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA108" s="8">
+        <v>0.92340069999999996</v>
+      </c>
+      <c r="BB108" s="8">
+        <v>5.1346799999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -670,13 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB108"/>
+  <dimension ref="A1:BB109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1515" ySplit="2895" topLeftCell="Z78" activePane="bottomRight"/>
+      <pane xSplit="1515" ySplit="2895" topLeftCell="A78" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108:BC108"/>
-      <selection pane="bottomRight" activeCell="AU108" sqref="AU108"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109:BC109"/>
+      <selection pane="bottomRight" activeCell="AU109" sqref="AU109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15591,6 +15591,170 @@
         <v>5.1346799999999998E-2</v>
       </c>
     </row>
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>43052</v>
+      </c>
+      <c r="B109" s="4">
+        <v>249</v>
+      </c>
+      <c r="C109" s="4">
+        <v>5</v>
+      </c>
+      <c r="D109" s="4">
+        <v>297</v>
+      </c>
+      <c r="E109" s="4">
+        <v>82</v>
+      </c>
+      <c r="F109" s="9">
+        <v>3565</v>
+      </c>
+      <c r="G109" s="4">
+        <v>2</v>
+      </c>
+      <c r="H109" s="4">
+        <v>2</v>
+      </c>
+      <c r="I109" s="4">
+        <v>11</v>
+      </c>
+      <c r="J109" s="4">
+        <v>2</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="L109" s="4">
+        <v>1</v>
+      </c>
+      <c r="M109" s="4">
+        <v>216</v>
+      </c>
+      <c r="N109" s="4">
+        <v>665</v>
+      </c>
+      <c r="O109" s="4">
+        <v>131</v>
+      </c>
+      <c r="P109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>240</v>
+      </c>
+      <c r="R109" s="4">
+        <v>0</v>
+      </c>
+      <c r="S109" s="4">
+        <v>0</v>
+      </c>
+      <c r="T109" s="4">
+        <v>8</v>
+      </c>
+      <c r="U109" s="4">
+        <v>10</v>
+      </c>
+      <c r="V109" s="4">
+        <v>18</v>
+      </c>
+      <c r="W109" s="4">
+        <v>0</v>
+      </c>
+      <c r="X109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB109" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC109" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD109" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE109" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH109" s="7">
+        <v>386</v>
+      </c>
+      <c r="AI109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM109" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN109" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO109" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP109" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ109" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR109" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS109" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT109" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU109" s="16">
+        <v>3292</v>
+      </c>
+      <c r="AV109" s="11">
+        <v>183</v>
+      </c>
+      <c r="AW109" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX109" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY109" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ109" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA109" s="8">
+        <v>0.92342219999999997</v>
+      </c>
+      <c r="BB109" s="8">
+        <v>5.13324E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/referenceDocsMetrics.xlsx
+++ b/referenceDocsMetrics.xlsx
@@ -670,13 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB109"/>
+  <dimension ref="A1:BB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1515" ySplit="2895" topLeftCell="A78" activePane="bottomRight"/>
+      <pane xSplit="1515" ySplit="2895" topLeftCell="A91" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109:BC109"/>
-      <selection pane="bottomRight" activeCell="AU109" sqref="AU109"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110:BC110"/>
+      <selection pane="bottomRight" activeCell="AU110" sqref="AU110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
     <col min="36" max="36" width="6.7109375" style="2" customWidth="1"/>
     <col min="37" max="37" width="5.140625" style="2" customWidth="1"/>
     <col min="38" max="38" width="9.140625" style="11" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" style="19" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="19" customWidth="1"/>
     <col min="40" max="40" width="9.28515625" style="19" customWidth="1"/>
     <col min="41" max="41" width="9.42578125" style="19" customWidth="1"/>
     <col min="42" max="42" width="8.42578125" style="19" customWidth="1"/>
@@ -15753,6 +15753,170 @@
       </c>
       <c r="BB109" s="8">
         <v>5.13324E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>43054</v>
+      </c>
+      <c r="B110" s="4">
+        <v>249</v>
+      </c>
+      <c r="C110" s="4">
+        <v>5</v>
+      </c>
+      <c r="D110" s="4">
+        <v>297</v>
+      </c>
+      <c r="E110" s="4">
+        <v>82</v>
+      </c>
+      <c r="F110" s="4">
+        <v>3565</v>
+      </c>
+      <c r="G110" s="4">
+        <v>2</v>
+      </c>
+      <c r="H110" s="4">
+        <v>2</v>
+      </c>
+      <c r="I110" s="4">
+        <v>11</v>
+      </c>
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+      <c r="L110" s="4">
+        <v>1</v>
+      </c>
+      <c r="M110" s="4">
+        <v>216</v>
+      </c>
+      <c r="N110" s="4">
+        <v>665</v>
+      </c>
+      <c r="O110" s="4">
+        <v>131</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>240</v>
+      </c>
+      <c r="R110" s="4">
+        <v>0</v>
+      </c>
+      <c r="S110" s="4">
+        <v>0</v>
+      </c>
+      <c r="T110" s="4">
+        <v>8</v>
+      </c>
+      <c r="U110" s="4">
+        <v>10</v>
+      </c>
+      <c r="V110" s="4">
+        <v>18</v>
+      </c>
+      <c r="W110" s="4">
+        <v>0</v>
+      </c>
+      <c r="X110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB110" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC110" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE110" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH110" s="2">
+        <v>386</v>
+      </c>
+      <c r="AI110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="11">
+        <v>247</v>
+      </c>
+      <c r="AM110" s="19">
+        <v>5</v>
+      </c>
+      <c r="AN110" s="19">
+        <v>77</v>
+      </c>
+      <c r="AO110" s="19">
+        <v>295</v>
+      </c>
+      <c r="AP110" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ110" s="11">
+        <v>14</v>
+      </c>
+      <c r="AR110" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS110" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT110" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU110" s="17">
+        <v>3291</v>
+      </c>
+      <c r="AV110" s="11">
+        <v>184</v>
+      </c>
+      <c r="AW110" s="8">
+        <v>1.1084339999999999</v>
+      </c>
+      <c r="AX110" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY110" s="8">
+        <v>0.93902439999999998</v>
+      </c>
+      <c r="AZ110" s="8">
+        <v>0.99326599999999998</v>
+      </c>
+      <c r="BA110" s="8">
+        <v>0.92314169999999995</v>
+      </c>
+      <c r="BB110" s="8">
+        <v>5.1612900000000003E-2</v>
       </c>
     </row>
   </sheetData>
